--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SAVR- Daftar Aset" sheetId="1" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -175,76 +175,31 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>Yvonne Sweet</t>
-  </si>
-  <si>
-    <t>Pamela Richard</t>
-  </si>
-  <si>
-    <t>Aspernatur non ad ve</t>
-  </si>
-  <si>
-    <t>1992-03-25</t>
+    <t>Henry Melendez</t>
+  </si>
+  <si>
+    <t>Micah Gallagher</t>
+  </si>
+  <si>
+    <t>Voluptatem quae dolo</t>
+  </si>
+  <si>
+    <t>Consequatur occaecat</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>Rylee Hines</t>
-  </si>
-  <si>
-    <t>Winifred Long</t>
-  </si>
-  <si>
-    <t>Reprehenderit quisqu</t>
-  </si>
-  <si>
-    <t>2018-02-11</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>Hilda Vang</t>
-  </si>
-  <si>
-    <t>Olympia Mcpherson</t>
-  </si>
-  <si>
-    <t>Sequi sed quo volupt</t>
-  </si>
-  <si>
-    <t>2020-06-11</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>Pandora Reed</t>
-  </si>
-  <si>
-    <t>Jerome Solomon</t>
-  </si>
-  <si>
-    <t>Ut molestiae rerum u</t>
-  </si>
-  <si>
-    <t>1990-07-16</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
-    <t>Ainsley Blackburn</t>
-  </si>
-  <si>
-    <t>Axel Benson</t>
-  </si>
-  <si>
-    <t>Tempore fugiat dolo</t>
-  </si>
-  <si>
-    <t>Voluptatem nisi dolo</t>
+    <t>jalan test</t>
   </si>
   <si>
     <t>7.0m</t>
@@ -253,22 +208,13 @@
     <t>Pembahagian</t>
   </si>
   <si>
-    <t>Reprehenderit sed r</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
-    <t>Shad Fields</t>
-  </si>
-  <si>
-    <t>Brooke Porter</t>
-  </si>
-  <si>
-    <t>Qui tenetur quia seq</t>
-  </si>
-  <si>
-    <t>Non et laudantium a</t>
+    <t>sample pe</t>
+  </si>
+  <si>
+    <t>jalan abc</t>
   </si>
   <si>
     <t>Terus</t>
@@ -277,97 +223,43 @@
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
-    <t>Wynne Waller</t>
-  </si>
-  <si>
-    <t>Samuel Day</t>
-  </si>
-  <si>
-    <t>Reprehenderit simili</t>
-  </si>
-  <si>
-    <t>Facilis totam magnam</t>
-  </si>
-  <si>
-    <t>Est consequuntur com</t>
+    <t>sample fp</t>
+  </si>
+  <si>
+    <t>sh link road</t>
   </si>
   <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
-    <t>Qw</t>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>jalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>BKLG/PCE/J00160</t>
   </si>
   <si>
-    <t>Venus Mejia</t>
-  </si>
-  <si>
-    <t>Blaze Harmon</t>
-  </si>
-  <si>
-    <t>Excepturi eum est c</t>
-  </si>
-  <si>
-    <t>Ex consectetur saep</t>
-  </si>
-  <si>
-    <t>Eaque est quia nostr</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
-    <t>Ray Padilla</t>
-  </si>
-  <si>
-    <t>Gary Fernandez</t>
-  </si>
-  <si>
-    <t>Minima nihil distinc</t>
-  </si>
-  <si>
-    <t>Cumque nisi nostrud</t>
-  </si>
-  <si>
-    <t>Quam numquam omnis a</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00162</t>
   </si>
   <si>
-    <t>Zane Maddox</t>
-  </si>
-  <si>
-    <t>Ezra Kirkland</t>
-  </si>
-  <si>
-    <t>Adipisci id quos ad</t>
-  </si>
-  <si>
-    <t>Quaerat doloremque f</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00163</t>
   </si>
   <si>
     <t>BKLG/PCE/J00164</t>
-  </si>
-  <si>
-    <t>fp1</t>
-  </si>
-  <si>
-    <t>fp2</t>
-  </si>
-  <si>
-    <t>pole1</t>
-  </si>
-  <si>
-    <t>pole2</t>
-  </si>
-  <si>
-    <t>Est praesentium veli</t>
   </si>
   <si>
     <t>BKLG/PCE/J00165</t>
@@ -558,6 +450,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
       <t xml:space="preserve">No. Tiang Pudar / </t>
     </r>
     <r>
@@ -691,10 +592,7 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>1985-02-05</t>
-  </si>
-  <si>
-    <t>1999-10-19</t>
+    <t>2023-10-18</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -2481,7 +2379,7 @@
   </sheetPr>
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
@@ -2489,10 +2387,13 @@
   <cols>
     <col min="2" max="2" width="4.2857142857143" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.1428571428571" hidden="true" style="0"/>
-    <col min="4" max="4" width="7.5714285714286" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.571428571429" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.1428571428571" hidden="true" style="0"/>
+    <col min="6" max="6" width="15.857142857143" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.1428571428571" hidden="true" style="0"/>
     <col min="8" max="8" width="9.1428571428571" hidden="true" style="0"/>
+    <col min="9" max="9" width="12.571428571429" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.571428571429" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.1428571428571" hidden="true" style="0"/>
     <col min="12" max="12" width="5.4285714285714" customWidth="true" style="0"/>
     <col min="13" max="13" width="4.1428571428571" customWidth="true" style="0"/>
@@ -2717,58 +2618,24 @@
         <v>46</v>
       </c>
       <c r="K8" s="152"/>
-      <c r="L8" s="68">
-        <v>28</v>
-      </c>
-      <c r="M8" s="68">
-        <v>7</v>
-      </c>
-      <c r="N8" s="68">
-        <v>62</v>
-      </c>
-      <c r="O8" s="68">
-        <v>77</v>
-      </c>
-      <c r="P8" s="68">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="68">
-        <v>99</v>
-      </c>
-      <c r="R8" s="68">
-        <v>99</v>
-      </c>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
       <c r="S8" s="96"/>
-      <c r="T8" s="68">
-        <v>66</v>
-      </c>
-      <c r="U8" s="68">
-        <v>67</v>
-      </c>
-      <c r="V8" s="68">
-        <v>82</v>
-      </c>
-      <c r="W8" s="68">
-        <v>78</v>
-      </c>
-      <c r="X8" s="68">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="68">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="68">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="68">
-        <v>90</v>
-      </c>
-      <c r="AB8" s="68">
-        <v>92</v>
-      </c>
-      <c r="AC8" s="68">
-        <v>47</v>
-      </c>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
       <c r="AD8" s="68"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="161"/>
@@ -2776,9 +2643,7 @@
       <c r="AH8" s="161"/>
       <c r="AI8" s="164"/>
       <c r="AJ8" s="165"/>
-      <c r="AK8" s="74">
-        <v>212</v>
-      </c>
+      <c r="AK8" s="74"/>
     </row>
     <row r="9" spans="1:37" customHeight="1" ht="21">
       <c r="A9" s="132"/>
@@ -2788,21 +2653,13 @@
       <c r="C9" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>48</v>
-      </c>
+      <c r="D9" s="67"/>
       <c r="E9" s="96"/>
-      <c r="F9" s="63" t="s">
-        <v>49</v>
-      </c>
+      <c r="F9" s="63"/>
       <c r="G9" s="96"/>
       <c r="H9" s="74"/>
-      <c r="I9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>51</v>
-      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="152"/>
       <c r="L9" s="68"/>
       <c r="M9" s="68"/>
@@ -2837,23 +2694,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D10" s="67"/>
       <c r="E10" s="96"/>
-      <c r="F10" s="63" t="s">
-        <v>54</v>
-      </c>
+      <c r="F10" s="63"/>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="152"/>
       <c r="L10" s="68"/>
       <c r="M10" s="68"/>
@@ -2888,23 +2737,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D11" s="67"/>
       <c r="E11" s="96"/>
-      <c r="F11" s="63" t="s">
-        <v>59</v>
-      </c>
+      <c r="F11" s="63"/>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
-      <c r="I11" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>61</v>
-      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="152"/>
       <c r="L11" s="68"/>
       <c r="M11" s="68"/>
@@ -2939,80 +2780,46 @@
         <v>5</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D12" s="67"/>
       <c r="E12" s="96"/>
       <c r="F12" s="63" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
-      <c r="I12" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>66</v>
-      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L12" s="68">
-        <v>72</v>
-      </c>
-      <c r="M12" s="68">
-        <v>62</v>
-      </c>
-      <c r="N12" s="68">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="68">
-        <v>50</v>
-      </c>
-      <c r="P12" s="68">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="68">
-        <v>39</v>
-      </c>
-      <c r="R12" s="68">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
       <c r="S12" s="96" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T12" s="68">
-        <v>73</v>
-      </c>
-      <c r="U12" s="68">
-        <v>69</v>
-      </c>
-      <c r="V12" s="68">
-        <v>22</v>
-      </c>
-      <c r="W12" s="68">
-        <v>29</v>
-      </c>
-      <c r="X12" s="68">
-        <v>31</v>
-      </c>
-      <c r="Y12" s="68">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="68">
-        <v>26</v>
-      </c>
-      <c r="AA12" s="68">
-        <v>77</v>
-      </c>
-      <c r="AB12" s="68">
-        <v>67</v>
-      </c>
-      <c r="AC12" s="68">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
       <c r="AD12" s="68"/>
       <c r="AE12" s="68"/>
       <c r="AF12" s="161"/>
@@ -3020,9 +2827,7 @@
       <c r="AH12" s="161"/>
       <c r="AI12" s="164"/>
       <c r="AJ12" s="165"/>
-      <c r="AK12" s="74" t="s">
-        <v>69</v>
-      </c>
+      <c r="AK12" s="74"/>
     </row>
     <row r="13" spans="1:37" customHeight="1" ht="21">
       <c r="A13" s="132"/>
@@ -3030,25 +2835,21 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="63" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
-      <c r="I13" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>74</v>
-      </c>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L13" s="68"/>
       <c r="M13" s="68"/>
@@ -3058,7 +2859,7 @@
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
       <c r="S13" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
@@ -3085,80 +2886,42 @@
         <v>7</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="63" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="74"/>
-      <c r="I14" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>80</v>
-      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="68">
-        <v>93</v>
-      </c>
-      <c r="M14" s="68">
-        <v>68</v>
-      </c>
-      <c r="N14" s="68">
-        <v>6</v>
-      </c>
-      <c r="O14" s="68">
-        <v>39</v>
-      </c>
-      <c r="P14" s="68">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="68">
-        <v>58</v>
-      </c>
-      <c r="R14" s="68">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" s="68">
-        <v>75</v>
-      </c>
-      <c r="U14" s="68">
-        <v>3</v>
-      </c>
-      <c r="V14" s="68">
-        <v>41</v>
-      </c>
-      <c r="W14" s="68">
-        <v>71</v>
-      </c>
-      <c r="X14" s="68">
-        <v>42</v>
-      </c>
-      <c r="Y14" s="68">
-        <v>60</v>
-      </c>
-      <c r="Z14" s="68">
-        <v>93</v>
-      </c>
-      <c r="AA14" s="68">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="68">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="68">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
       <c r="AD14" s="68"/>
       <c r="AE14" s="68"/>
       <c r="AF14" s="161"/>
@@ -3166,9 +2929,7 @@
       <c r="AH14" s="161"/>
       <c r="AI14" s="164"/>
       <c r="AJ14" s="165"/>
-      <c r="AK14" s="74" t="s">
-        <v>81</v>
-      </c>
+      <c r="AK14" s="74"/>
     </row>
     <row r="15" spans="1:37" customHeight="1" ht="24">
       <c r="A15" s="132"/>
@@ -3176,46 +2937,80 @@
         <v>8</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="63" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K15" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
+        <v>52</v>
+      </c>
+      <c r="L15" s="68">
+        <v>1</v>
+      </c>
+      <c r="M15" s="68">
+        <v>2</v>
+      </c>
+      <c r="N15" s="68">
+        <v>3</v>
+      </c>
+      <c r="O15" s="68">
+        <v>4</v>
+      </c>
+      <c r="P15" s="68">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>6</v>
+      </c>
+      <c r="R15" s="68">
+        <v>7</v>
+      </c>
       <c r="S15" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
+        <v>57</v>
+      </c>
+      <c r="T15" s="68">
+        <v>8</v>
+      </c>
+      <c r="U15" s="68">
+        <v>9</v>
+      </c>
+      <c r="V15" s="68">
+        <v>10</v>
+      </c>
+      <c r="W15" s="68">
+        <v>11</v>
+      </c>
+      <c r="X15" s="68">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="68">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="68">
+        <v>14</v>
+      </c>
+      <c r="AA15" s="68">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="68">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="68">
+        <v>17</v>
+      </c>
       <c r="AD15" s="68"/>
       <c r="AE15" s="68"/>
       <c r="AF15" s="161"/>
@@ -3223,7 +3018,9 @@
       <c r="AH15" s="161"/>
       <c r="AI15" s="164"/>
       <c r="AJ15" s="165"/>
-      <c r="AK15" s="74"/>
+      <c r="AK15" s="74" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:37" customHeight="1" ht="24">
       <c r="A16" s="132"/>
@@ -3231,80 +3028,38 @@
         <v>9</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>85</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D16" s="67"/>
       <c r="E16" s="96"/>
-      <c r="F16" s="63" t="s">
-        <v>86</v>
-      </c>
+      <c r="F16" s="63"/>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
-      <c r="I16" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="68" t="s">
-        <v>88</v>
-      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="68">
-        <v>37</v>
-      </c>
-      <c r="M16" s="68">
-        <v>28</v>
-      </c>
-      <c r="N16" s="68">
-        <v>79</v>
-      </c>
-      <c r="O16" s="68">
-        <v>42</v>
-      </c>
-      <c r="P16" s="68">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="68">
-        <v>89</v>
-      </c>
-      <c r="R16" s="68">
-        <v>20</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="68">
-        <v>66</v>
-      </c>
-      <c r="U16" s="68">
-        <v>7</v>
-      </c>
-      <c r="V16" s="68">
-        <v>11</v>
-      </c>
-      <c r="W16" s="68">
-        <v>96</v>
-      </c>
-      <c r="X16" s="68">
-        <v>56</v>
-      </c>
-      <c r="Y16" s="68">
-        <v>56</v>
-      </c>
-      <c r="Z16" s="68">
-        <v>81</v>
-      </c>
-      <c r="AA16" s="68">
-        <v>24</v>
-      </c>
-      <c r="AB16" s="68">
-        <v>15</v>
-      </c>
-      <c r="AC16" s="68">
-        <v>48</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
       <c r="AD16" s="68"/>
       <c r="AE16" s="68"/>
       <c r="AF16" s="161"/>
@@ -3312,9 +3067,7 @@
       <c r="AH16" s="161"/>
       <c r="AI16" s="164"/>
       <c r="AJ16" s="165"/>
-      <c r="AK16" s="74" t="s">
-        <v>89</v>
-      </c>
+      <c r="AK16" s="74"/>
     </row>
     <row r="17" spans="1:37" customHeight="1" ht="24">
       <c r="A17" s="132"/>
@@ -3322,80 +3075,38 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>91</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D17" s="67"/>
       <c r="E17" s="96"/>
-      <c r="F17" s="63" t="s">
-        <v>92</v>
-      </c>
+      <c r="F17" s="63"/>
       <c r="G17" s="96"/>
       <c r="H17" s="74"/>
-      <c r="I17" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>94</v>
-      </c>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="68">
-        <v>1</v>
-      </c>
-      <c r="M17" s="68">
-        <v>65</v>
-      </c>
-      <c r="N17" s="68">
-        <v>37</v>
-      </c>
-      <c r="O17" s="68">
-        <v>100</v>
-      </c>
-      <c r="P17" s="68">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="68">
-        <v>6</v>
-      </c>
-      <c r="R17" s="68">
-        <v>70</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="68">
-        <v>30</v>
-      </c>
-      <c r="U17" s="68">
-        <v>89</v>
-      </c>
-      <c r="V17" s="68">
-        <v>25</v>
-      </c>
-      <c r="W17" s="68">
-        <v>56</v>
-      </c>
-      <c r="X17" s="68">
-        <v>44</v>
-      </c>
-      <c r="Y17" s="68">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="68">
-        <v>68</v>
-      </c>
-      <c r="AA17" s="68">
-        <v>91</v>
-      </c>
-      <c r="AB17" s="68">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="68">
-        <v>70</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
       <c r="AD17" s="68"/>
       <c r="AE17" s="68"/>
       <c r="AF17" s="161"/>
@@ -3403,9 +3114,7 @@
       <c r="AH17" s="161"/>
       <c r="AI17" s="164"/>
       <c r="AJ17" s="165"/>
-      <c r="AK17" s="74" t="s">
-        <v>95</v>
-      </c>
+      <c r="AK17" s="74"/>
     </row>
     <row r="18" spans="1:37" customHeight="1" ht="24">
       <c r="A18" s="132"/>
@@ -3413,25 +3122,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>97</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D18" s="67"/>
       <c r="E18" s="96"/>
-      <c r="F18" s="63" t="s">
-        <v>98</v>
-      </c>
+      <c r="F18" s="63"/>
       <c r="G18" s="96"/>
       <c r="H18" s="74"/>
-      <c r="I18" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>100</v>
-      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -3441,7 +3142,7 @@
       <c r="Q18" s="68"/>
       <c r="R18" s="68"/>
       <c r="S18" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
@@ -3468,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="96"/>
@@ -3478,7 +3179,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="68"/>
@@ -3488,7 +3189,7 @@
       <c r="Q19" s="68"/>
       <c r="R19" s="68"/>
       <c r="S19" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T19" s="68"/>
       <c r="U19" s="68"/>
@@ -3515,80 +3216,38 @@
         <v>13</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="96"/>
-      <c r="F20" s="63" t="s">
-        <v>104</v>
-      </c>
+      <c r="F20" s="63"/>
       <c r="G20" s="96"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>106</v>
-      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="68">
-        <v>33</v>
-      </c>
-      <c r="M20" s="68">
-        <v>96</v>
-      </c>
-      <c r="N20" s="68">
-        <v>13</v>
-      </c>
-      <c r="O20" s="68">
-        <v>71</v>
-      </c>
-      <c r="P20" s="68">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="68">
-        <v>58</v>
-      </c>
-      <c r="R20" s="68">
-        <v>72</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" s="68">
-        <v>72</v>
-      </c>
-      <c r="U20" s="68">
-        <v>31</v>
-      </c>
-      <c r="V20" s="68">
-        <v>62</v>
-      </c>
-      <c r="W20" s="68">
-        <v>53</v>
-      </c>
-      <c r="X20" s="68">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="68">
-        <v>92</v>
-      </c>
-      <c r="Z20" s="68">
-        <v>71</v>
-      </c>
-      <c r="AA20" s="68">
-        <v>82</v>
-      </c>
-      <c r="AB20" s="68">
-        <v>90</v>
-      </c>
-      <c r="AC20" s="68">
-        <v>76</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
       <c r="AD20" s="68"/>
       <c r="AE20" s="68"/>
       <c r="AF20" s="161"/>
@@ -3596,9 +3255,7 @@
       <c r="AH20" s="161"/>
       <c r="AI20" s="164"/>
       <c r="AJ20" s="165"/>
-      <c r="AK20" s="74" t="s">
-        <v>107</v>
-      </c>
+      <c r="AK20" s="74"/>
     </row>
     <row r="21" spans="1:37" customHeight="1" ht="24">
       <c r="A21" s="132"/>
@@ -3606,7 +3263,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="96"/>
@@ -3616,7 +3273,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
@@ -3626,7 +3283,7 @@
       <c r="Q21" s="68"/>
       <c r="R21" s="68"/>
       <c r="S21" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T21" s="68"/>
       <c r="U21" s="68"/>
@@ -3653,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="96"/>
@@ -3663,7 +3320,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
@@ -3673,7 +3330,7 @@
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
       <c r="S22" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -3700,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="96"/>
@@ -3710,7 +3367,7 @@
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
@@ -3720,7 +3377,7 @@
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
       <c r="S23" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T23" s="68"/>
       <c r="U23" s="68"/>
@@ -3747,7 +3404,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="96"/>
@@ -3757,7 +3414,7 @@
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
       <c r="K24" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
@@ -3767,7 +3424,7 @@
       <c r="Q24" s="68"/>
       <c r="R24" s="68"/>
       <c r="S24" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T24" s="68"/>
       <c r="U24" s="68"/>
@@ -3794,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="96"/>
@@ -3804,7 +3461,7 @@
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
       <c r="K25" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
@@ -3814,7 +3471,7 @@
       <c r="Q25" s="68"/>
       <c r="R25" s="68"/>
       <c r="S25" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
@@ -3841,7 +3498,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="96"/>
@@ -3851,7 +3508,7 @@
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
       <c r="K26" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
@@ -3861,7 +3518,7 @@
       <c r="Q26" s="68"/>
       <c r="R26" s="68"/>
       <c r="S26" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T26" s="68"/>
       <c r="U26" s="68"/>
@@ -3888,7 +3545,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="96"/>
@@ -3898,7 +3555,7 @@
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
       <c r="K27" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
@@ -3908,7 +3565,7 @@
       <c r="Q27" s="68"/>
       <c r="R27" s="68"/>
       <c r="S27" s="96" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="T27" s="68"/>
       <c r="U27" s="68"/>
@@ -3935,7 +3592,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="96"/>
@@ -3945,7 +3602,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
       <c r="K28" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="68"/>
@@ -3955,7 +3612,7 @@
       <c r="Q28" s="68"/>
       <c r="R28" s="68"/>
       <c r="S28" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T28" s="68"/>
       <c r="U28" s="68"/>
@@ -3982,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="96"/>
@@ -3992,7 +3649,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="68"/>
       <c r="K29" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
@@ -4002,7 +3659,7 @@
       <c r="Q29" s="68"/>
       <c r="R29" s="68"/>
       <c r="S29" s="96" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T29" s="68"/>
       <c r="U29" s="68"/>
@@ -4029,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="96"/>
@@ -4039,7 +3696,7 @@
       <c r="I30" s="68"/>
       <c r="J30" s="68"/>
       <c r="K30" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
@@ -4049,7 +3706,7 @@
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
       <c r="S30" s="96" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T30" s="68"/>
       <c r="U30" s="68"/>
@@ -4076,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="96"/>
@@ -4086,7 +3743,7 @@
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
       <c r="K31" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L31" s="68"/>
       <c r="M31" s="68"/>
@@ -4096,7 +3753,7 @@
       <c r="Q31" s="68"/>
       <c r="R31" s="68"/>
       <c r="S31" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T31" s="68"/>
       <c r="U31" s="68"/>
@@ -4123,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="96"/>
@@ -4133,7 +3790,7 @@
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
       <c r="K32" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
@@ -4143,7 +3800,7 @@
       <c r="Q32" s="68"/>
       <c r="R32" s="68"/>
       <c r="S32" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T32" s="68"/>
       <c r="U32" s="68"/>
@@ -4170,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="96"/>
@@ -4180,7 +3837,7 @@
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
       <c r="K33" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
@@ -4190,7 +3847,7 @@
       <c r="Q33" s="68"/>
       <c r="R33" s="68"/>
       <c r="S33" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T33" s="68"/>
       <c r="U33" s="68"/>
@@ -4217,7 +3874,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="96"/>
@@ -4227,7 +3884,7 @@
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
       <c r="K34" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="68"/>
@@ -4237,7 +3894,7 @@
       <c r="Q34" s="68"/>
       <c r="R34" s="68"/>
       <c r="S34" s="96" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="T34" s="68"/>
       <c r="U34" s="68"/>
@@ -4264,7 +3921,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="96"/>
@@ -4274,7 +3931,7 @@
       <c r="I35" s="68"/>
       <c r="J35" s="68"/>
       <c r="K35" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
@@ -4284,7 +3941,7 @@
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T35" s="68"/>
       <c r="U35" s="68"/>
@@ -4311,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="96"/>
@@ -4321,7 +3978,7 @@
       <c r="I36" s="68"/>
       <c r="J36" s="68"/>
       <c r="K36" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
@@ -4331,7 +3988,7 @@
       <c r="Q36" s="68"/>
       <c r="R36" s="68"/>
       <c r="S36" s="96" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -4358,7 +4015,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="96"/>
@@ -4368,7 +4025,7 @@
       <c r="I37" s="68"/>
       <c r="J37" s="68"/>
       <c r="K37" s="152" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -4378,7 +4035,7 @@
       <c r="Q37" s="68"/>
       <c r="R37" s="68"/>
       <c r="S37" s="96" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="T37" s="68"/>
       <c r="U37" s="68"/>
@@ -4469,12 +4126,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -4486,83 +4143,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="109" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="110" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="AF6" s="104" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="AG6" s="82" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="AJ6" s="116" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -4570,10 +4227,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -4581,7 +4238,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -4589,67 +4246,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="T7" s="89" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="U7" s="89" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="W7" s="90" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="X7" s="90" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="Y7" s="90" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="Z7" s="112" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="90" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="AB7" s="90" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="AC7" s="106" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="89" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="AE7" s="90" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="AF7" s="90" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="AG7" s="119" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AH7" s="119" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -4736,16 +4393,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -4754,7 +4411,7 @@
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
       <c r="M8" s="63">
-        <v>56</v>
+        <v>8876</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -4778,16 +4435,16 @@
       <c r="AG8" s="125"/>
       <c r="AH8" s="95"/>
       <c r="AI8" s="126">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AJ8" s="127" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="AL8" s="128" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:113" customHeight="1" ht="23" s="45" customFormat="1">
@@ -5045,16 +4702,16 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="J15" s="97" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -5096,16 +4753,16 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -5147,16 +4804,16 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -5198,16 +4855,16 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -5249,16 +4906,16 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -6073,7 +5730,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
@@ -6097,7 +5754,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -6112,7 +5769,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -6146,16 +5803,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -6169,7 +5826,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -6178,7 +5835,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -6188,19 +5845,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -6210,28 +5867,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -6242,38 +5899,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -6292,9 +5949,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>12</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -6379,7 +6034,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -6422,9 +6077,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24">
-        <v>3</v>
-      </c>
+      <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -6445,7 +6098,9 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="24">
+        <v>45</v>
+      </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -6455,9 +6110,7 @@
       <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="29">
-        <v>9</v>
-      </c>
+      <c r="B19" s="29"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="24"/>
@@ -6466,9 +6119,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24">
-        <v>12</v>
-      </c>
+      <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -6478,9 +6129,7 @@
       <c r="A20" s="24">
         <v>10</v>
       </c>
-      <c r="B20" s="29">
-        <v>10</v>
-      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="24"/>
@@ -6489,9 +6138,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24">
-        <v>12</v>
-      </c>
+      <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -6501,9 +6148,7 @@
       <c r="A21" s="24">
         <v>11</v>
       </c>
-      <c r="B21" s="29">
-        <v>11</v>
-      </c>
+      <c r="B21" s="29"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="24"/>
@@ -6522,9 +6167,7 @@
       <c r="A22" s="24">
         <v>12</v>
       </c>
-      <c r="B22" s="29">
-        <v>12</v>
-      </c>
+      <c r="B22" s="29"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="24"/>
@@ -6543,9 +6186,7 @@
       <c r="A23" s="24">
         <v>13</v>
       </c>
-      <c r="B23" s="29">
-        <v>13</v>
-      </c>
+      <c r="B23" s="29"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="24"/>
@@ -7265,7 +6906,7 @@
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -7306,7 +6947,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="32" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
@@ -7314,7 +6955,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
       <c r="M63" s="32" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -7352,7 +6993,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="42" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
@@ -7360,7 +7001,7 @@
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="43" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
@@ -7370,7 +7011,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="42" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
@@ -7378,7 +7019,7 @@
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="43" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
@@ -7388,7 +7029,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="42" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
@@ -7396,7 +7037,7 @@
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="43" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -175,6 +175,78 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
+    <t>BKLG/PCE/J00153</t>
+  </si>
+  <si>
+    <t>sample pe</t>
+  </si>
+  <si>
+    <t>jalan abc</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00154</t>
+  </si>
+  <si>
+    <t>sample fp</t>
+  </si>
+  <si>
+    <t>sh link road</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>jalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00156</t>
+  </si>
+  <si>
+    <t>dsfsd</t>
+  </si>
+  <si>
+    <t>jalan test</t>
+  </si>
+  <si>
+    <t>7.0m</t>
+  </si>
+  <si>
+    <t>Pembahagian</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00157</t>
+  </si>
+  <si>
+    <t>Quintessa Boone</t>
+  </si>
+  <si>
+    <t>Leila Fletcher</t>
+  </si>
+  <si>
+    <t>Consectetur elit e</t>
+  </si>
+  <si>
+    <t>Dolores quam veniam</t>
+  </si>
+  <si>
+    <t>Terus</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00158</t>
+  </si>
+  <si>
     <t>Henry Melendez</t>
   </si>
   <si>
@@ -187,67 +259,34 @@
     <t>Consequatur occaecat</t>
   </si>
   <si>
-    <t>BKLG/PCE/J00153</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00154</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00155</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00156</t>
-  </si>
-  <si>
-    <t>jalan test</t>
-  </si>
-  <si>
-    <t>7.0m</t>
-  </si>
-  <si>
-    <t>Pembahagian</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00157</t>
-  </si>
-  <si>
-    <t>sample pe</t>
-  </si>
-  <si>
-    <t>jalan abc</t>
-  </si>
-  <si>
-    <t>Terus</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00158</t>
-  </si>
-  <si>
-    <t>sample fp</t>
-  </si>
-  <si>
-    <t>sh link road</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
-    <t xml:space="preserve">done </t>
-  </si>
-  <si>
-    <t>jalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>Oscar Sweeney</t>
+  </si>
+  <si>
+    <t>Charlotte Hopper</t>
+  </si>
+  <si>
+    <t>Incididunt cum nisi</t>
+  </si>
+  <si>
+    <t>Enim vitae esse sed</t>
   </si>
   <si>
     <t>BKLG/PCE/J00160</t>
+  </si>
+  <si>
+    <t>Ingrid Mcmillan</t>
+  </si>
+  <si>
+    <t>Chester Mccarty</t>
+  </si>
+  <si>
+    <t>Exercitation consequ</t>
+  </si>
+  <si>
+    <t>Vel fugiat aut reici</t>
   </si>
   <si>
     <t>BKLG/PCE/J00161</t>
@@ -592,7 +631,10 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>Qui ex quibusdam dol</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -2602,29 +2644,35 @@
       <c r="C8" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>43</v>
-      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="91"/>
-      <c r="F8" s="63" t="s">
-        <v>44</v>
-      </c>
+      <c r="F8" s="63"/>
       <c r="G8" s="91"/>
       <c r="H8" s="143"/>
-      <c r="I8" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>46</v>
-      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="152"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="L8" s="68">
+        <v>0</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0</v>
+      </c>
+      <c r="O8" s="68">
+        <v>0</v>
+      </c>
+      <c r="P8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>0</v>
+      </c>
+      <c r="R8" s="68">
+        <v>0</v>
+      </c>
       <c r="S8" s="96"/>
       <c r="T8" s="68"/>
       <c r="U8" s="68"/>
@@ -2651,23 +2699,41 @@
         <v>2</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="67"/>
+        <v>43</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="96"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="63" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="96"/>
       <c r="H9" s="74"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="152"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+      <c r="L9" s="68">
+        <v>0</v>
+      </c>
+      <c r="M9" s="68">
+        <v>0</v>
+      </c>
+      <c r="N9" s="68">
+        <v>0</v>
+      </c>
+      <c r="O9" s="68">
+        <v>0</v>
+      </c>
+      <c r="P9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>0</v>
+      </c>
+      <c r="R9" s="68">
+        <v>0</v>
+      </c>
       <c r="S9" s="96"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
@@ -2694,23 +2760,41 @@
         <v>3</v>
       </c>
       <c r="C10" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="63"/>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="152"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
+      <c r="L10" s="68">
+        <v>0</v>
+      </c>
+      <c r="M10" s="68">
+        <v>0</v>
+      </c>
+      <c r="N10" s="68">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
+        <v>0</v>
+      </c>
+      <c r="P10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>0</v>
+      </c>
+      <c r="R10" s="68">
+        <v>0</v>
+      </c>
       <c r="S10" s="96"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
@@ -2739,32 +2823,74 @@
       <c r="C11" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="67" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="96"/>
-      <c r="F11" s="63"/>
+      <c r="F11" s="63" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
+      <c r="I11" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="K11" s="152"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="L11" s="68">
+        <v>0</v>
+      </c>
+      <c r="M11" s="68">
+        <v>0</v>
+      </c>
+      <c r="N11" s="68">
+        <v>0</v>
+      </c>
+      <c r="O11" s="68">
+        <v>0</v>
+      </c>
+      <c r="P11" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>0</v>
+      </c>
+      <c r="R11" s="68">
+        <v>0</v>
+      </c>
       <c r="S11" s="96"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
+      <c r="T11" s="68">
+        <v>8</v>
+      </c>
+      <c r="U11" s="68">
+        <v>9</v>
+      </c>
+      <c r="V11" s="68">
+        <v>10</v>
+      </c>
+      <c r="W11" s="68">
+        <v>11</v>
+      </c>
+      <c r="X11" s="68">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="68">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="68">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="68">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="68">
+        <v>17</v>
+      </c>
       <c r="AD11" s="68"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="161"/>
@@ -2772,7 +2898,9 @@
       <c r="AH11" s="161"/>
       <c r="AI11" s="164"/>
       <c r="AJ11" s="165"/>
-      <c r="AK11" s="74"/>
+      <c r="AK11" s="74" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:37" customHeight="1" ht="21">
       <c r="A12" s="132"/>
@@ -2780,33 +2908,39 @@
         <v>5</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="67"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>56</v>
+      </c>
       <c r="E12" s="96"/>
       <c r="F12" s="63" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="68">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L12" s="68"/>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68">
+        <v>0</v>
+      </c>
+      <c r="P12" s="68">
         <v>1</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
+      <c r="Q12" s="68">
+        <v>0</v>
+      </c>
+      <c r="R12" s="68">
+        <v>0</v>
+      </c>
       <c r="S12" s="96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T12" s="68">
         <v>20</v>
@@ -2835,42 +2969,80 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="63" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="I13" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>64</v>
+      </c>
       <c r="K13" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
+        <v>58</v>
+      </c>
+      <c r="L13" s="68">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68">
+        <v>0</v>
+      </c>
+      <c r="N13" s="68">
+        <v>0</v>
+      </c>
+      <c r="O13" s="68">
+        <v>0</v>
+      </c>
+      <c r="P13" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>0</v>
+      </c>
+      <c r="R13" s="68">
+        <v>0</v>
+      </c>
       <c r="S13" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+        <v>65</v>
+      </c>
+      <c r="T13" s="68">
+        <v>55</v>
+      </c>
+      <c r="U13" s="68">
+        <v>64</v>
+      </c>
+      <c r="V13" s="68">
+        <v>30</v>
+      </c>
+      <c r="W13" s="68">
+        <v>66</v>
+      </c>
+      <c r="X13" s="68">
+        <v>77</v>
+      </c>
+      <c r="Y13" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="68">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="68">
+        <v>51</v>
+      </c>
+      <c r="AB13" s="68">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="68">
+        <v>60</v>
+      </c>
       <c r="AD13" s="68"/>
       <c r="AE13" s="68"/>
       <c r="AF13" s="161"/>
@@ -2886,31 +3058,49 @@
         <v>7</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="63" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="74"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="I14" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="K14" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
+        <v>58</v>
+      </c>
+      <c r="L14" s="68">
+        <v>1</v>
+      </c>
+      <c r="M14" s="68">
+        <v>0</v>
+      </c>
+      <c r="N14" s="68">
+        <v>0</v>
+      </c>
+      <c r="O14" s="68">
+        <v>0</v>
+      </c>
+      <c r="P14" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>1</v>
+      </c>
+      <c r="R14" s="68">
+        <v>0</v>
+      </c>
       <c r="S14" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
@@ -2937,80 +3127,60 @@
         <v>8</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="63" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J15" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="68">
+        <v>0</v>
+      </c>
+      <c r="M15" s="68">
+        <v>1</v>
+      </c>
+      <c r="N15" s="68">
+        <v>0</v>
+      </c>
+      <c r="O15" s="68">
+        <v>0</v>
+      </c>
+      <c r="P15" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>0</v>
+      </c>
+      <c r="R15" s="68">
+        <v>0</v>
+      </c>
+      <c r="S15" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="68">
-        <v>1</v>
-      </c>
-      <c r="M15" s="68">
-        <v>2</v>
-      </c>
-      <c r="N15" s="68">
-        <v>3</v>
-      </c>
-      <c r="O15" s="68">
-        <v>4</v>
-      </c>
-      <c r="P15" s="68">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="68">
-        <v>6</v>
-      </c>
-      <c r="R15" s="68">
-        <v>7</v>
-      </c>
-      <c r="S15" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="68">
-        <v>8</v>
-      </c>
-      <c r="U15" s="68">
-        <v>9</v>
-      </c>
-      <c r="V15" s="68">
-        <v>10</v>
-      </c>
-      <c r="W15" s="68">
-        <v>11</v>
-      </c>
-      <c r="X15" s="68">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="68">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="68">
-        <v>14</v>
-      </c>
-      <c r="AA15" s="68">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="68">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="68">
-        <v>17</v>
-      </c>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
       <c r="AD15" s="68"/>
       <c r="AE15" s="68"/>
       <c r="AF15" s="161"/>
@@ -3018,9 +3188,7 @@
       <c r="AH15" s="161"/>
       <c r="AI15" s="164"/>
       <c r="AJ15" s="165"/>
-      <c r="AK15" s="74" t="s">
-        <v>66</v>
-      </c>
+      <c r="AK15" s="74"/>
     </row>
     <row r="16" spans="1:37" customHeight="1" ht="24">
       <c r="A16" s="132"/>
@@ -3028,17 +3196,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="67"/>
+        <v>76</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="96"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+      <c r="I16" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>80</v>
+      </c>
       <c r="K16" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L16" s="68"/>
       <c r="M16" s="68"/>
@@ -3048,7 +3224,7 @@
       <c r="Q16" s="68"/>
       <c r="R16" s="68"/>
       <c r="S16" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
@@ -3057,7 +3233,9 @@
       <c r="X16" s="68"/>
       <c r="Y16" s="68"/>
       <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
+      <c r="AA16" s="68">
+        <v>234</v>
+      </c>
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
       <c r="AD16" s="68"/>
@@ -3075,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="96"/>
@@ -3085,7 +3263,7 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
@@ -3095,7 +3273,7 @@
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T17" s="68"/>
       <c r="U17" s="68"/>
@@ -3122,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="96"/>
@@ -3132,7 +3310,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -3142,7 +3320,7 @@
       <c r="Q18" s="68"/>
       <c r="R18" s="68"/>
       <c r="S18" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
@@ -3169,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="96"/>
@@ -3179,7 +3357,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="68"/>
@@ -3189,7 +3367,7 @@
       <c r="Q19" s="68"/>
       <c r="R19" s="68"/>
       <c r="S19" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T19" s="68"/>
       <c r="U19" s="68"/>
@@ -3216,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="96"/>
@@ -3226,7 +3404,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="68"/>
@@ -3236,7 +3414,7 @@
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
       <c r="S20" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T20" s="68"/>
       <c r="U20" s="68"/>
@@ -3263,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="96"/>
@@ -3273,7 +3451,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
@@ -3283,7 +3461,7 @@
       <c r="Q21" s="68"/>
       <c r="R21" s="68"/>
       <c r="S21" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T21" s="68"/>
       <c r="U21" s="68"/>
@@ -3310,7 +3488,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="96"/>
@@ -3320,7 +3498,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
@@ -3330,7 +3508,7 @@
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
       <c r="S22" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -3357,7 +3535,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="96"/>
@@ -3367,7 +3545,7 @@
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
@@ -3377,7 +3555,7 @@
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
       <c r="S23" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T23" s="68"/>
       <c r="U23" s="68"/>
@@ -3404,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="96"/>
@@ -3414,7 +3592,7 @@
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
       <c r="K24" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
@@ -3424,7 +3602,7 @@
       <c r="Q24" s="68"/>
       <c r="R24" s="68"/>
       <c r="S24" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T24" s="68"/>
       <c r="U24" s="68"/>
@@ -3451,7 +3629,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="96"/>
@@ -3461,7 +3639,7 @@
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
       <c r="K25" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
@@ -3471,7 +3649,7 @@
       <c r="Q25" s="68"/>
       <c r="R25" s="68"/>
       <c r="S25" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
@@ -3498,7 +3676,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="96"/>
@@ -3508,7 +3686,7 @@
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
       <c r="K26" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
@@ -3518,7 +3696,7 @@
       <c r="Q26" s="68"/>
       <c r="R26" s="68"/>
       <c r="S26" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T26" s="68"/>
       <c r="U26" s="68"/>
@@ -3545,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="96"/>
@@ -3555,7 +3733,7 @@
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
       <c r="K27" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
@@ -3565,7 +3743,7 @@
       <c r="Q27" s="68"/>
       <c r="R27" s="68"/>
       <c r="S27" s="96" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="T27" s="68"/>
       <c r="U27" s="68"/>
@@ -3592,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="96"/>
@@ -3602,7 +3780,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
       <c r="K28" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="68"/>
@@ -3612,7 +3790,7 @@
       <c r="Q28" s="68"/>
       <c r="R28" s="68"/>
       <c r="S28" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T28" s="68"/>
       <c r="U28" s="68"/>
@@ -3639,7 +3817,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="96"/>
@@ -3649,7 +3827,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="68"/>
       <c r="K29" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
@@ -3659,7 +3837,7 @@
       <c r="Q29" s="68"/>
       <c r="R29" s="68"/>
       <c r="S29" s="96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T29" s="68"/>
       <c r="U29" s="68"/>
@@ -3686,7 +3864,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="96"/>
@@ -3696,7 +3874,7 @@
       <c r="I30" s="68"/>
       <c r="J30" s="68"/>
       <c r="K30" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
@@ -3706,7 +3884,7 @@
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
       <c r="S30" s="96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T30" s="68"/>
       <c r="U30" s="68"/>
@@ -3733,7 +3911,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="96"/>
@@ -3743,7 +3921,7 @@
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
       <c r="K31" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L31" s="68"/>
       <c r="M31" s="68"/>
@@ -3753,7 +3931,7 @@
       <c r="Q31" s="68"/>
       <c r="R31" s="68"/>
       <c r="S31" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T31" s="68"/>
       <c r="U31" s="68"/>
@@ -3780,7 +3958,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="96"/>
@@ -3790,7 +3968,7 @@
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
       <c r="K32" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
@@ -3800,7 +3978,7 @@
       <c r="Q32" s="68"/>
       <c r="R32" s="68"/>
       <c r="S32" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T32" s="68"/>
       <c r="U32" s="68"/>
@@ -3827,7 +4005,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="96"/>
@@ -3837,7 +4015,7 @@
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
       <c r="K33" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
@@ -3847,7 +4025,7 @@
       <c r="Q33" s="68"/>
       <c r="R33" s="68"/>
       <c r="S33" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T33" s="68"/>
       <c r="U33" s="68"/>
@@ -3874,7 +4052,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="96"/>
@@ -3884,7 +4062,7 @@
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
       <c r="K34" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="68"/>
@@ -3894,7 +4072,7 @@
       <c r="Q34" s="68"/>
       <c r="R34" s="68"/>
       <c r="S34" s="96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T34" s="68"/>
       <c r="U34" s="68"/>
@@ -3921,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="96"/>
@@ -3931,7 +4109,7 @@
       <c r="I35" s="68"/>
       <c r="J35" s="68"/>
       <c r="K35" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
@@ -3941,7 +4119,7 @@
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T35" s="68"/>
       <c r="U35" s="68"/>
@@ -3968,7 +4146,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="96"/>
@@ -3978,7 +4156,7 @@
       <c r="I36" s="68"/>
       <c r="J36" s="68"/>
       <c r="K36" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
@@ -3988,7 +4166,7 @@
       <c r="Q36" s="68"/>
       <c r="R36" s="68"/>
       <c r="S36" s="96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -4015,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="96"/>
@@ -4025,7 +4203,7 @@
       <c r="I37" s="68"/>
       <c r="J37" s="68"/>
       <c r="K37" s="152" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -4035,7 +4213,7 @@
       <c r="Q37" s="68"/>
       <c r="R37" s="68"/>
       <c r="S37" s="96" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="T37" s="68"/>
       <c r="U37" s="68"/>
@@ -4126,12 +4304,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -4143,83 +4321,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Y6" s="109" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="AC6" s="110" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF6" s="104" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="AG6" s="82" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AJ6" s="116" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -4227,10 +4405,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -4238,7 +4416,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -4246,67 +4424,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="T7" s="89" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="U7" s="89" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="W7" s="90" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X7" s="90" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="90" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Z7" s="112" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="90" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AB7" s="90" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="AC7" s="106" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AD7" s="89" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AE7" s="90" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AF7" s="90" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AG7" s="119" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AH7" s="119" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -4393,16 +4571,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -4410,8 +4588,8 @@
       <c r="J8" s="92"/>
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
-      <c r="M8" s="63">
-        <v>8876</v>
+      <c r="M8" s="63" t="s">
+        <v>149</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -4434,18 +4612,14 @@
       <c r="AF8" s="107"/>
       <c r="AG8" s="125"/>
       <c r="AH8" s="95"/>
-      <c r="AI8" s="126">
-        <v>24</v>
-      </c>
+      <c r="AI8" s="126"/>
       <c r="AJ8" s="127" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL8" s="128" t="s">
-        <v>66</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AL8" s="128"/>
     </row>
     <row r="9" spans="1:113" customHeight="1" ht="23" s="45" customFormat="1">
       <c r="B9" s="66">
@@ -4702,16 +4876,16 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" s="97" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -4753,16 +4927,16 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -4804,16 +4978,16 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -4855,16 +5029,16 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -4906,16 +5080,16 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -5754,7 +5928,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5769,7 +5943,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -5803,16 +5977,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -5826,7 +6000,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -5835,7 +6009,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -5845,19 +6019,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -5867,28 +6041,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -5899,38 +6073,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -6012,7 +6186,9 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24">
+        <v>45</v>
+      </c>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -6098,9 +6274,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24">
-        <v>45</v>
-      </c>
+      <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -6110,7 +6284,9 @@
       <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="29">
+        <v>9</v>
+      </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="24"/>
@@ -6906,7 +7082,7 @@
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -6947,7 +7123,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="32" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
@@ -6955,7 +7131,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
       <c r="M63" s="32" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -6993,7 +7169,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="42" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
@@ -7001,7 +7177,7 @@
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="43" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
@@ -7011,7 +7187,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="42" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
@@ -7019,7 +7195,7 @@
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="43" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
@@ -7029,7 +7205,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="42" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
@@ -7037,7 +7213,7 @@
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="43" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -178,25 +178,46 @@
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
+    <t>sample pe</t>
+  </si>
+  <si>
+    <t>jalan abc</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
+    <t>sample fp</t>
+  </si>
+  <si>
+    <t>sh link road</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>sample pe</t>
-  </si>
-  <si>
-    <t>jalan abc</t>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>jalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
-    <t>sample fp</t>
-  </si>
-  <si>
-    <t>sh link road</t>
+    <t>dsfsd</t>
+  </si>
+  <si>
+    <t>jalan test</t>
   </si>
   <si>
     <t>7.0m</t>
@@ -208,106 +229,85 @@
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
-    <t xml:space="preserve">done </t>
-  </si>
-  <si>
-    <t>jalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>Quintessa Boone</t>
+  </si>
+  <si>
+    <t>Leila Fletcher</t>
+  </si>
+  <si>
+    <t>Consectetur elit e</t>
+  </si>
+  <si>
+    <t>Dolores quam veniam</t>
   </si>
   <si>
     <t>Terus</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
-    <t>dsfsd</t>
-  </si>
-  <si>
-    <t>jalan test</t>
+    <t>Henry Melendez</t>
+  </si>
+  <si>
+    <t>Micah Gallagher</t>
+  </si>
+  <si>
+    <t>Voluptatem quae dolo</t>
+  </si>
+  <si>
+    <t>Consequatur occaecat</t>
   </si>
   <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
-    <t>Quintessa Boone</t>
-  </si>
-  <si>
-    <t>Leila Fletcher</t>
-  </si>
-  <si>
-    <t>Consectetur elit e</t>
-  </si>
-  <si>
-    <t>Dolores quam veniam</t>
+    <t>Oscar Sweeney</t>
+  </si>
+  <si>
+    <t>Charlotte Hopper</t>
+  </si>
+  <si>
+    <t>Incididunt cum nisi</t>
+  </si>
+  <si>
+    <t>Enim vitae esse sed</t>
   </si>
   <si>
     <t>BKLG/PCE/J00160</t>
   </si>
   <si>
-    <t>Henry Melendez</t>
-  </si>
-  <si>
-    <t>Micah Gallagher</t>
-  </si>
-  <si>
-    <t>Voluptatem quae dolo</t>
-  </si>
-  <si>
-    <t>Consequatur occaecat</t>
+    <t>Ingrid Mcmillan</t>
+  </si>
+  <si>
+    <t>Chester Mccarty</t>
+  </si>
+  <si>
+    <t>Exercitation consequ</t>
+  </si>
+  <si>
+    <t>Vel fugiat aut reici</t>
   </si>
   <si>
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
-    <t>Oscar Sweeney</t>
-  </si>
-  <si>
-    <t>Charlotte Hopper</t>
-  </si>
-  <si>
-    <t>Incididunt cum nisi</t>
-  </si>
-  <si>
-    <t>Enim vitae esse sed</t>
+    <t>Bruce Ingram</t>
+  </si>
+  <si>
+    <t>Castor Baker</t>
+  </si>
+  <si>
+    <t>Ut ipsa qui soluta</t>
+  </si>
+  <si>
+    <t>Iure cumque voluptat</t>
   </si>
   <si>
     <t>BKLG/PCE/J00162</t>
   </si>
   <si>
-    <t>Ingrid Mcmillan</t>
-  </si>
-  <si>
-    <t>Chester Mccarty</t>
-  </si>
-  <si>
-    <t>Exercitation consequ</t>
-  </si>
-  <si>
-    <t>Vel fugiat aut reici</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00163</t>
-  </si>
-  <si>
-    <t>Bruce Ingram</t>
-  </si>
-  <si>
-    <t>Castor Baker</t>
-  </si>
-  <si>
-    <t>Ut ipsa qui soluta</t>
-  </si>
-  <si>
-    <t>Iure cumque voluptat</t>
   </si>
   <si>
     <t>BKLG/PCE/J00164</t>
@@ -2661,13 +2661,27 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="152"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="L8" s="68">
+        <v>0</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0</v>
+      </c>
+      <c r="O8" s="68">
+        <v>0</v>
+      </c>
+      <c r="P8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>0</v>
+      </c>
+      <c r="R8" s="68">
+        <v>0</v>
+      </c>
       <c r="S8" s="96"/>
       <c r="T8" s="68"/>
       <c r="U8" s="68"/>
@@ -2696,9 +2710,13 @@
       <c r="C9" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="96"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="63" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="96"/>
       <c r="H9" s="74"/>
       <c r="I9" s="68"/>
@@ -2751,23 +2769,41 @@
         <v>3</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="67"/>
+        <v>46</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="96"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="152"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
+      <c r="L10" s="68">
+        <v>0</v>
+      </c>
+      <c r="M10" s="68">
+        <v>0</v>
+      </c>
+      <c r="N10" s="68">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
+        <v>0</v>
+      </c>
+      <c r="P10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>0</v>
+      </c>
+      <c r="R10" s="68">
+        <v>0</v>
+      </c>
       <c r="S10" s="96"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
@@ -2794,19 +2830,23 @@
         <v>4</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E11" s="96"/>
       <c r="F11" s="63" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
+      <c r="I11" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="K11" s="152"/>
       <c r="L11" s="68">
         <v>0</v>
@@ -2830,16 +2870,36 @@
         <v>0</v>
       </c>
       <c r="S11" s="96"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
+      <c r="T11" s="68">
+        <v>8</v>
+      </c>
+      <c r="U11" s="68">
+        <v>9</v>
+      </c>
+      <c r="V11" s="68">
+        <v>10</v>
+      </c>
+      <c r="W11" s="68">
+        <v>11</v>
+      </c>
+      <c r="X11" s="68">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="68">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="68">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="68">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="68">
+        <v>17</v>
+      </c>
       <c r="AD11" s="68"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="161"/>
@@ -2847,7 +2907,9 @@
       <c r="AH11" s="161"/>
       <c r="AI11" s="164"/>
       <c r="AJ11" s="165"/>
-      <c r="AK11" s="74"/>
+      <c r="AK11" s="74" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:37" customHeight="1" ht="21">
       <c r="A12" s="132"/>
@@ -2855,36 +2917,30 @@
         <v>5</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="63" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="68">
-        <v>0</v>
-      </c>
-      <c r="M12" s="68">
-        <v>0</v>
-      </c>
-      <c r="N12" s="68">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="68">
         <v>0</v>
       </c>
       <c r="P12" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="68">
         <v>0</v>
@@ -2893,9 +2949,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="68"/>
+        <v>59</v>
+      </c>
+      <c r="T12" s="68">
+        <v>20</v>
+      </c>
       <c r="U12" s="68"/>
       <c r="V12" s="68"/>
       <c r="W12" s="68"/>
@@ -2920,25 +2978,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="63" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
       <c r="I13" s="68" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K13" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L13" s="68">
         <v>0</v>
@@ -2962,37 +3020,37 @@
         <v>0</v>
       </c>
       <c r="S13" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T13" s="68">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="U13" s="68">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="V13" s="68">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W13" s="68">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X13" s="68">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="68">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Z13" s="68">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="68">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AB13" s="68">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="AC13" s="68">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="68"/>
       <c r="AE13" s="68"/>
@@ -3001,9 +3059,7 @@
       <c r="AH13" s="161"/>
       <c r="AI13" s="164"/>
       <c r="AJ13" s="165"/>
-      <c r="AK13" s="74" t="s">
-        <v>59</v>
-      </c>
+      <c r="AK13" s="74"/>
     </row>
     <row r="14" spans="1:37" customHeight="1" ht="24">
       <c r="A14" s="132"/>
@@ -3011,43 +3067,51 @@
         <v>7</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="63" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="74"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="I14" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="K14" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+        <v>58</v>
+      </c>
+      <c r="L14" s="68">
+        <v>1</v>
+      </c>
+      <c r="M14" s="68">
+        <v>0</v>
+      </c>
+      <c r="N14" s="68">
+        <v>0</v>
+      </c>
       <c r="O14" s="68">
         <v>0</v>
       </c>
       <c r="P14" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="68">
         <v>1</v>
-      </c>
-      <c r="Q14" s="68">
-        <v>0</v>
       </c>
       <c r="R14" s="68">
         <v>0</v>
       </c>
       <c r="S14" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="68">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T14" s="68"/>
       <c r="U14" s="68"/>
       <c r="V14" s="68"/>
       <c r="W14" s="68"/>
@@ -3072,31 +3136,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="63" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K15" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L15" s="68">
         <v>0</v>
       </c>
       <c r="M15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="68">
         <v>0</v>
@@ -3105,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="68">
         <v>0</v>
@@ -3114,38 +3178,18 @@
         <v>0</v>
       </c>
       <c r="S15" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T15" s="68">
-        <v>55</v>
-      </c>
-      <c r="U15" s="68">
-        <v>64</v>
-      </c>
-      <c r="V15" s="68">
-        <v>30</v>
-      </c>
-      <c r="W15" s="68">
-        <v>66</v>
-      </c>
-      <c r="X15" s="68">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="68">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="68">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="68">
-        <v>51</v>
-      </c>
-      <c r="AB15" s="68">
-        <v>69</v>
-      </c>
-      <c r="AC15" s="68">
-        <v>60</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
       <c r="AD15" s="68"/>
       <c r="AE15" s="68"/>
       <c r="AF15" s="161"/>
@@ -3161,49 +3205,35 @@
         <v>9</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="63" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
       <c r="I16" s="68" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="68">
-        <v>1</v>
-      </c>
-      <c r="M16" s="68">
-        <v>0</v>
-      </c>
-      <c r="N16" s="68">
-        <v>0</v>
-      </c>
-      <c r="O16" s="68">
-        <v>0</v>
-      </c>
-      <c r="P16" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="68">
-        <v>1</v>
-      </c>
-      <c r="R16" s="68">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
@@ -3212,7 +3242,9 @@
       <c r="X16" s="68"/>
       <c r="Y16" s="68"/>
       <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
+      <c r="AA16" s="68">
+        <v>234</v>
+      </c>
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
       <c r="AD16" s="68"/>
@@ -3230,57 +3262,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="63" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" s="96"/>
       <c r="H17" s="74"/>
       <c r="I17" s="68" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K17" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="68">
-        <v>0</v>
-      </c>
-      <c r="M17" s="68">
-        <v>1</v>
-      </c>
-      <c r="N17" s="68">
-        <v>0</v>
-      </c>
-      <c r="O17" s="68">
-        <v>0</v>
-      </c>
-      <c r="P17" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="68">
-        <v>0</v>
-      </c>
-      <c r="R17" s="68">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17" s="68"/>
+        <v>65</v>
+      </c>
+      <c r="T17" s="68">
+        <v>4</v>
+      </c>
       <c r="U17" s="68"/>
       <c r="V17" s="68"/>
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
+      <c r="Y17" s="68">
+        <v>23234</v>
+      </c>
+      <c r="Z17" s="68">
+        <v>3</v>
+      </c>
       <c r="AA17" s="68"/>
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
@@ -3299,25 +3323,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>79</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D18" s="67"/>
       <c r="E18" s="96"/>
-      <c r="F18" s="63" t="s">
-        <v>80</v>
-      </c>
+      <c r="F18" s="63"/>
       <c r="G18" s="96"/>
       <c r="H18" s="74"/>
-      <c r="I18" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>82</v>
-      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -3327,7 +3343,7 @@
       <c r="Q18" s="68"/>
       <c r="R18" s="68"/>
       <c r="S18" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
@@ -3336,9 +3352,7 @@
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="68"/>
-      <c r="AA18" s="68">
-        <v>234</v>
-      </c>
+      <c r="AA18" s="68"/>
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
       <c r="AD18" s="68"/>
@@ -3356,25 +3370,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D19" s="67"/>
       <c r="E19" s="96"/>
-      <c r="F19" s="63" t="s">
-        <v>85</v>
-      </c>
+      <c r="F19" s="63"/>
       <c r="G19" s="96"/>
       <c r="H19" s="74"/>
-      <c r="I19" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>87</v>
-      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="68"/>
@@ -3384,21 +3390,15 @@
       <c r="Q19" s="68"/>
       <c r="R19" s="68"/>
       <c r="S19" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="68">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T19" s="68"/>
       <c r="U19" s="68"/>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
       <c r="X19" s="68"/>
-      <c r="Y19" s="68">
-        <v>23234</v>
-      </c>
-      <c r="Z19" s="68">
-        <v>3</v>
-      </c>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
       <c r="AA19" s="68"/>
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
@@ -3427,7 +3427,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="68"/>
@@ -3437,7 +3437,7 @@
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
       <c r="S20" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T20" s="68"/>
       <c r="U20" s="68"/>
@@ -3474,7 +3474,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
@@ -3484,7 +3484,7 @@
       <c r="Q21" s="68"/>
       <c r="R21" s="68"/>
       <c r="S21" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T21" s="68"/>
       <c r="U21" s="68"/>
@@ -3521,7 +3521,7 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
@@ -3531,7 +3531,7 @@
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
       <c r="S22" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -3568,7 +3568,7 @@
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
@@ -3578,7 +3578,7 @@
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
       <c r="S23" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T23" s="68"/>
       <c r="U23" s="68"/>
@@ -3615,7 +3615,7 @@
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
       <c r="K24" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
@@ -3625,7 +3625,7 @@
       <c r="Q24" s="68"/>
       <c r="R24" s="68"/>
       <c r="S24" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T24" s="68"/>
       <c r="U24" s="68"/>
@@ -3662,7 +3662,7 @@
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
       <c r="K25" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
@@ -3672,7 +3672,7 @@
       <c r="Q25" s="68"/>
       <c r="R25" s="68"/>
       <c r="S25" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
@@ -3709,7 +3709,7 @@
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
       <c r="K26" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
@@ -3719,7 +3719,7 @@
       <c r="Q26" s="68"/>
       <c r="R26" s="68"/>
       <c r="S26" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T26" s="68"/>
       <c r="U26" s="68"/>
@@ -3756,7 +3756,7 @@
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
       <c r="K27" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
@@ -3803,7 +3803,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
       <c r="K28" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="68"/>
@@ -3813,7 +3813,7 @@
       <c r="Q28" s="68"/>
       <c r="R28" s="68"/>
       <c r="S28" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T28" s="68"/>
       <c r="U28" s="68"/>
@@ -3850,7 +3850,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="68"/>
       <c r="K29" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
@@ -3860,7 +3860,7 @@
       <c r="Q29" s="68"/>
       <c r="R29" s="68"/>
       <c r="S29" s="96" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="T29" s="68"/>
       <c r="U29" s="68"/>
@@ -3897,7 +3897,7 @@
       <c r="I30" s="68"/>
       <c r="J30" s="68"/>
       <c r="K30" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
@@ -3907,7 +3907,7 @@
       <c r="Q30" s="68"/>
       <c r="R30" s="68"/>
       <c r="S30" s="96" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="T30" s="68"/>
       <c r="U30" s="68"/>
@@ -3944,7 +3944,7 @@
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
       <c r="K31" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L31" s="68"/>
       <c r="M31" s="68"/>
@@ -3954,7 +3954,7 @@
       <c r="Q31" s="68"/>
       <c r="R31" s="68"/>
       <c r="S31" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T31" s="68"/>
       <c r="U31" s="68"/>
@@ -3991,7 +3991,7 @@
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
       <c r="K32" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
@@ -4001,7 +4001,7 @@
       <c r="Q32" s="68"/>
       <c r="R32" s="68"/>
       <c r="S32" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T32" s="68"/>
       <c r="U32" s="68"/>
@@ -4038,7 +4038,7 @@
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
       <c r="K33" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
@@ -4048,7 +4048,7 @@
       <c r="Q33" s="68"/>
       <c r="R33" s="68"/>
       <c r="S33" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T33" s="68"/>
       <c r="U33" s="68"/>
@@ -4085,7 +4085,7 @@
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
       <c r="K34" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="68"/>
@@ -4095,7 +4095,7 @@
       <c r="Q34" s="68"/>
       <c r="R34" s="68"/>
       <c r="S34" s="96" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="T34" s="68"/>
       <c r="U34" s="68"/>
@@ -4132,7 +4132,7 @@
       <c r="I35" s="68"/>
       <c r="J35" s="68"/>
       <c r="K35" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
@@ -4142,7 +4142,7 @@
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T35" s="68"/>
       <c r="U35" s="68"/>
@@ -4179,7 +4179,7 @@
       <c r="I36" s="68"/>
       <c r="J36" s="68"/>
       <c r="K36" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
@@ -4189,7 +4189,7 @@
       <c r="Q36" s="68"/>
       <c r="R36" s="68"/>
       <c r="S36" s="96" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
@@ -4226,7 +4226,7 @@
       <c r="I37" s="68"/>
       <c r="J37" s="68"/>
       <c r="K37" s="152" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -4889,7 +4889,7 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H15" s="70" t="s">
         <v>154</v>
@@ -4940,7 +4940,7 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H16" s="70" t="s">
         <v>154</v>
@@ -4991,7 +4991,7 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H17" s="70" t="s">
         <v>154</v>
@@ -5042,7 +5042,7 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H18" s="70" t="s">
         <v>154</v>
@@ -5093,7 +5093,7 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H19" s="70" t="s">
         <v>154</v>
@@ -6199,7 +6199,9 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24">
+        <v>45</v>
+      </c>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -6220,7 +6222,9 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24">
+        <v>30</v>
+      </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -6241,9 +6245,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24">
-        <v>45</v>
-      </c>
+      <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -6264,9 +6266,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24">
-        <v>30</v>
-      </c>
+      <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -6360,9 +6360,7 @@
       <c r="A22" s="24">
         <v>12</v>
       </c>
-      <c r="B22" s="29">
-        <v>12</v>
-      </c>
+      <c r="B22" s="29"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="24"/>
@@ -6381,9 +6379,7 @@
       <c r="A23" s="24">
         <v>13</v>
       </c>
-      <c r="B23" s="29">
-        <v>13</v>
-      </c>
+      <c r="B23" s="29"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="24"/>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -175,46 +175,48 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>PE TAMAN SEROJA NO 1</t>
-  </si>
-  <si>
-    <t>Taman Seroja</t>
-  </si>
-  <si>
-    <t>JLN SEROJA 16</t>
+    <t>PE EURO ATLANTIK JLN PINGGIRAN 2</t>
+  </si>
+  <si>
+    <t>Jalan Pinggiran 3</t>
+  </si>
+  <si>
+    <t>JP 7/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP 3 /1 </t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>Jalan Seroja 12</t>
-  </si>
-  <si>
-    <t>JALAN SEROJA 12</t>
+    <t>Jalan Pinggiran 5</t>
+  </si>
+  <si>
+    <t>JP5 2</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>Jalan Seroja 15</t>
-  </si>
-  <si>
-    <t>JS 15
-12</t>
-  </si>
-  <si>
-    <t>JALAN SEROJA 15</t>
+    <t>JP7 5</t>
   </si>
   <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>JALAN SEROJA 14</t>
+    <t>JP5 4</t>
   </si>
   <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
+    <t>Beverly Heights</t>
+  </si>
+  <si>
     <t>7.0m</t>
   </si>
   <si>
@@ -239,7 +241,7 @@
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
-    <t>JALAN SEROJA 5</t>
+    <t>Jalan Pinggiran 7</t>
   </si>
   <si>
     <t>BKLG/PCE/J00162</t>
@@ -248,22 +250,31 @@
     <t>BKLG/PCE/J00163</t>
   </si>
   <si>
+    <t>JP7 3</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00164</t>
   </si>
   <si>
+    <t>Jalan Pinggiran</t>
+  </si>
+  <si>
+    <t>JP4 3</t>
+  </si>
+  <si>
+    <t>JP4 3/1</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00165</t>
   </si>
   <si>
+    <t>Jalan Pinggiran 4</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00166</t>
   </si>
   <si>
-    <t>SPS WARISAN MEGAH</t>
-  </si>
-  <si>
-    <t>Like Food House</t>
-  </si>
-  <si>
-    <t>JLN WARISAN MEGAH</t>
+    <t>JP 4</t>
   </si>
   <si>
     <t>BKLG/PCE/J00167</t>
@@ -272,76 +283,142 @@
     <t>BKLG/PCE/J00168</t>
   </si>
   <si>
-    <t>Avista Warisan Puteri</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00169</t>
   </si>
   <si>
-    <t>Farich Food House</t>
+    <t>JP 7 1</t>
+  </si>
+  <si>
+    <t>JP7 2</t>
   </si>
   <si>
     <t>BKLG/PCE/J00170</t>
   </si>
   <si>
-    <t>Jln warisan megah</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00171</t>
   </si>
   <si>
+    <t>JP2 5</t>
+  </si>
+  <si>
+    <t>JP7 1</t>
+  </si>
+  <si>
     <t>Tamatan</t>
   </si>
   <si>
     <t>BKLG/PCE/J00172</t>
   </si>
   <si>
+    <t>PE TAMAN BUKIT JOBINA</t>
+  </si>
+  <si>
+    <t>Jalan Lingkaran Tengah 2</t>
+  </si>
+  <si>
+    <t>JUK 3B</t>
+  </si>
+  <si>
+    <t>JUK 4B</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00173</t>
   </si>
   <si>
     <t>BKLG/PCE/J00174</t>
   </si>
   <si>
-    <t>WARISAN MEGAH</t>
+    <t>JUK 1B</t>
   </si>
   <si>
     <t>BKLG/PCE/J00175</t>
   </si>
   <si>
+    <t>JJ 1</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00176</t>
   </si>
   <si>
+    <t>Jalan Beverly Height 1</t>
+  </si>
+  <si>
+    <t>JJ 1/1</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00177</t>
   </si>
   <si>
-    <t>TMS 1</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00178</t>
   </si>
   <si>
+    <t>Taman Ukay Bistari</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00179</t>
   </si>
   <si>
-    <t>JALAN SEROJA 16</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00180</t>
   </si>
   <si>
+    <t>Pinggiran Ukay</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00181</t>
   </si>
   <si>
-    <t>JLN SEROJA 14</t>
-  </si>
-  <si>
-    <t>Jalan Seroja 13</t>
-  </si>
-  <si>
-    <t>JALAN SEROJA 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JALAN SEROJA 13 </t>
+    <t>P/E TAMAN BUKIT JOBINA</t>
+  </si>
+  <si>
+    <t>JUK 5B</t>
+  </si>
+  <si>
+    <t>JJ 2</t>
+  </si>
+  <si>
+    <t>JP 8/4</t>
+  </si>
+  <si>
+    <t>JUK 6B</t>
+  </si>
+  <si>
+    <t>Jalan Pinggiran 8</t>
+  </si>
+  <si>
+    <t>Taman Jobina</t>
+  </si>
+  <si>
+    <t>JJ 6</t>
+  </si>
+  <si>
+    <t>Jalan Bukit Jubina</t>
+  </si>
+  <si>
+    <t>JP 3 /3/1</t>
+  </si>
+  <si>
+    <t>JP 3/3/1</t>
+  </si>
+  <si>
+    <t>JP 3 /3/2</t>
+  </si>
+  <si>
+    <t>JP 3 /1</t>
+  </si>
+  <si>
+    <t>JP 3 /2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJ 4 /1 </t>
+  </si>
+  <si>
+    <t>JJ 4/2</t>
+  </si>
+  <si>
+    <t>JJ 4/1</t>
+  </si>
+  <si>
+    <t>JJ 3</t>
   </si>
   <si>
     <r>
@@ -620,10 +697,7 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2023-12-08</t>
+    <t>2023-12-15</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -720,12 +794,6 @@
   </si>
   <si>
     <t>Tidak Patuh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5 </t>
   </si>
   <si>
     <t>JUMLAH</t>
@@ -2414,7 +2482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK55"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AK8" sqref="AK8"/>
@@ -2652,7 +2720,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="152"/>
       <c r="L8" s="68">
@@ -2668,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="68">
         <v>0</v>
@@ -2678,12 +2746,10 @@
       </c>
       <c r="S8" s="96"/>
       <c r="T8" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="68"/>
-      <c r="V8" s="68">
-        <v>1</v>
-      </c>
+      <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68">
         <v>4</v>
@@ -2708,22 +2774,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="96"/>
       <c r="F9" s="63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="96"/>
       <c r="H9" s="74"/>
       <c r="I9" s="68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9" s="152"/>
       <c r="L9" s="68">
@@ -2739,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="68">
         <v>0</v>
@@ -2749,14 +2815,12 @@
       </c>
       <c r="S9" s="96"/>
       <c r="T9" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="68"/>
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
-      <c r="X9" s="68">
-        <v>4</v>
-      </c>
+      <c r="X9" s="68"/>
       <c r="Y9" s="68"/>
       <c r="Z9" s="68"/>
       <c r="AA9" s="68"/>
@@ -2777,22 +2841,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="96"/>
       <c r="F10" s="63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
       <c r="I10" s="68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="152"/>
       <c r="L10" s="68">
@@ -2808,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="68">
         <v>0</v>
@@ -2823,7 +2887,9 @@
       <c r="U10" s="68"/>
       <c r="V10" s="68"/>
       <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
+      <c r="X10" s="68">
+        <v>2</v>
+      </c>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
       <c r="AA10" s="68"/>
@@ -2851,12 +2917,12 @@
       </c>
       <c r="E11" s="96"/>
       <c r="F11" s="63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
       <c r="I11" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" s="68" t="s">
         <v>54</v>
@@ -2872,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="68">
         <v>0</v>
@@ -2884,11 +2950,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="96"/>
-      <c r="T11" s="68">
-        <v>1</v>
-      </c>
+      <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
+      <c r="V11" s="68">
+        <v>1</v>
+      </c>
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
       <c r="Y11" s="68"/>
@@ -2918,18 +2984,18 @@
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="63" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
       <c r="I12" s="68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" s="68">
         <v>0</v>
@@ -2944,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="68">
         <v>0</v>
@@ -2953,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" s="68">
         <v>1</v>
@@ -2961,7 +3027,9 @@
       <c r="U12" s="68"/>
       <c r="V12" s="68"/>
       <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
+      <c r="X12" s="68">
+        <v>2</v>
+      </c>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
@@ -2982,25 +3050,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="63" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
       <c r="I13" s="68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K13" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" s="68">
         <v>0</v>
@@ -3012,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="68">
         <v>0</v>
@@ -3024,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T13" s="68">
         <v>1</v>
@@ -3032,9 +3100,7 @@
       <c r="U13" s="68"/>
       <c r="V13" s="68"/>
       <c r="W13" s="68"/>
-      <c r="X13" s="68">
-        <v>4</v>
-      </c>
+      <c r="X13" s="68"/>
       <c r="Y13" s="68"/>
       <c r="Z13" s="68"/>
       <c r="AA13" s="68"/>
@@ -3055,25 +3121,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="74"/>
       <c r="I14" s="68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="68">
         <v>0</v>
@@ -3088,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="68">
         <v>0</v>
@@ -3097,17 +3163,15 @@
         <v>0</v>
       </c>
       <c r="S14" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T14" s="68">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
+      <c r="V14" s="68">
+        <v>2</v>
+      </c>
       <c r="W14" s="68"/>
-      <c r="X14" s="68">
-        <v>4</v>
-      </c>
+      <c r="X14" s="68"/>
       <c r="Y14" s="68"/>
       <c r="Z14" s="68"/>
       <c r="AA14" s="68"/>
@@ -3128,25 +3192,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="63" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="68">
         <v>0</v>
@@ -3161,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="68">
         <v>0</v>
@@ -3170,15 +3234,17 @@
         <v>0</v>
       </c>
       <c r="S15" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T15" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" s="68"/>
       <c r="V15" s="68"/>
       <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
+      <c r="X15" s="68">
+        <v>2</v>
+      </c>
       <c r="Y15" s="68"/>
       <c r="Z15" s="68"/>
       <c r="AA15" s="68"/>
@@ -3199,25 +3265,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
       <c r="I16" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" s="68">
         <v>0</v>
@@ -3232,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="68">
         <v>0</v>
@@ -3241,13 +3307,15 @@
         <v>0</v>
       </c>
       <c r="S16" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T16" s="68">
         <v>1</v>
       </c>
       <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
+      <c r="V16" s="68">
+        <v>1</v>
+      </c>
       <c r="W16" s="68"/>
       <c r="X16" s="68">
         <v>4</v>
@@ -3272,25 +3340,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="63" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G17" s="96"/>
       <c r="H17" s="74"/>
       <c r="I17" s="68" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K17" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" s="68">
         <v>0</v>
@@ -3305,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="68">
         <v>0</v>
@@ -3314,19 +3382,15 @@
         <v>0</v>
       </c>
       <c r="S17" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T17" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="68"/>
-      <c r="V17" s="68">
-        <v>1</v>
-      </c>
+      <c r="V17" s="68"/>
       <c r="W17" s="68"/>
-      <c r="X17" s="68">
-        <v>4</v>
-      </c>
+      <c r="X17" s="68"/>
       <c r="Y17" s="68"/>
       <c r="Z17" s="68"/>
       <c r="AA17" s="68"/>
@@ -3347,25 +3411,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="63" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G18" s="96"/>
       <c r="H18" s="74"/>
       <c r="I18" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K18" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" s="68">
         <v>0</v>
@@ -3380,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="68">
         <v>0</v>
@@ -3389,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T18" s="68">
         <v>1</v>
@@ -3397,9 +3461,7 @@
       <c r="U18" s="68"/>
       <c r="V18" s="68"/>
       <c r="W18" s="68"/>
-      <c r="X18" s="68">
-        <v>1</v>
-      </c>
+      <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="68"/>
       <c r="AA18" s="68"/>
@@ -3420,25 +3482,25 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="63" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G19" s="96"/>
       <c r="H19" s="74"/>
       <c r="I19" s="68" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19" s="68">
         <v>0</v>
@@ -3453,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="68">
         <v>0</v>
@@ -3462,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T19" s="68">
         <v>1</v>
@@ -3491,25 +3553,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="63" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G20" s="96"/>
       <c r="H20" s="74"/>
       <c r="I20" s="68" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K20" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" s="68">
         <v>0</v>
@@ -3521,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="68">
         <v>0</v>
@@ -3533,14 +3595,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T20" s="68">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="T20" s="68"/>
       <c r="U20" s="68"/>
       <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
+      <c r="W20" s="68">
+        <v>1</v>
+      </c>
       <c r="X20" s="68"/>
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
@@ -3562,25 +3624,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="63" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="74"/>
       <c r="I21" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K21" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="68">
         <v>0</v>
@@ -3595,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="68">
         <v>0</v>
@@ -3604,12 +3666,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T21" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T21" s="68">
+        <v>1</v>
+      </c>
       <c r="U21" s="68"/>
       <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
+      <c r="W21" s="68">
+        <v>1</v>
+      </c>
       <c r="X21" s="68">
         <v>4</v>
       </c>
@@ -3633,25 +3699,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G22" s="96"/>
       <c r="H22" s="74"/>
       <c r="I22" s="68" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K22" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L22" s="68">
         <v>0</v>
@@ -3666,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="68">
         <v>0</v>
@@ -3675,19 +3741,17 @@
         <v>0</v>
       </c>
       <c r="S22" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T22" s="68">
         <v>1</v>
       </c>
       <c r="U22" s="68"/>
-      <c r="V22" s="68">
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68">
         <v>2</v>
       </c>
-      <c r="W22" s="68">
-        <v>2</v>
-      </c>
-      <c r="X22" s="68"/>
       <c r="Y22" s="68"/>
       <c r="Z22" s="68"/>
       <c r="AA22" s="68"/>
@@ -3708,25 +3772,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G23" s="96"/>
       <c r="H23" s="74"/>
       <c r="I23" s="68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K23" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" s="68">
         <v>0</v>
@@ -3741,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="68">
         <v>0</v>
@@ -3750,15 +3814,17 @@
         <v>0</v>
       </c>
       <c r="S23" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T23" s="68">
+        <v>1</v>
+      </c>
       <c r="U23" s="68"/>
       <c r="V23" s="68"/>
-      <c r="W23" s="68">
-        <v>3</v>
-      </c>
-      <c r="X23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68">
+        <v>4</v>
+      </c>
       <c r="Y23" s="68"/>
       <c r="Z23" s="68"/>
       <c r="AA23" s="68"/>
@@ -3779,25 +3845,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="63" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G24" s="96"/>
       <c r="H24" s="74"/>
       <c r="I24" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K24" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" s="68">
         <v>0</v>
@@ -3812,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="68">
         <v>0</v>
@@ -3821,19 +3887,17 @@
         <v>0</v>
       </c>
       <c r="S24" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T24" s="68">
         <v>2</v>
       </c>
       <c r="U24" s="68"/>
-      <c r="V24" s="68">
-        <v>1</v>
-      </c>
-      <c r="W24" s="68">
-        <v>1</v>
-      </c>
-      <c r="X24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68">
+        <v>4</v>
+      </c>
       <c r="Y24" s="68"/>
       <c r="Z24" s="68"/>
       <c r="AA24" s="68"/>
@@ -3854,25 +3918,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="63" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G25" s="96"/>
       <c r="H25" s="74"/>
       <c r="I25" s="68" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K25" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="68">
         <v>0</v>
@@ -3887,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="68">
         <v>0</v>
@@ -3896,14 +3960,14 @@
         <v>0</v>
       </c>
       <c r="S25" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T25" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T25" s="68">
+        <v>2</v>
+      </c>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
-      <c r="W25" s="68">
-        <v>1</v>
-      </c>
+      <c r="W25" s="68"/>
       <c r="X25" s="68"/>
       <c r="Y25" s="68"/>
       <c r="Z25" s="68"/>
@@ -3925,25 +3989,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="63" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G26" s="96"/>
       <c r="H26" s="74"/>
       <c r="I26" s="68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K26" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L26" s="68">
         <v>0</v>
@@ -3955,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="68">
         <v>0</v>
@@ -3967,16 +4031,14 @@
         <v>0</v>
       </c>
       <c r="S26" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T26" s="68">
         <v>1</v>
       </c>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
-      <c r="W26" s="68">
-        <v>1</v>
-      </c>
+      <c r="W26" s="68"/>
       <c r="X26" s="68"/>
       <c r="Y26" s="68"/>
       <c r="Z26" s="68"/>
@@ -3998,25 +4060,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E27" s="96"/>
       <c r="F27" s="63" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G27" s="96"/>
       <c r="H27" s="74"/>
       <c r="I27" s="68" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K27" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="68">
         <v>0</v>
@@ -4031,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="68">
         <v>0</v>
@@ -4040,17 +4102,17 @@
         <v>0</v>
       </c>
       <c r="S27" s="96" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T27" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" s="68"/>
-      <c r="V27" s="68">
-        <v>5</v>
-      </c>
+      <c r="V27" s="68"/>
       <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
+      <c r="X27" s="68">
+        <v>4</v>
+      </c>
       <c r="Y27" s="68"/>
       <c r="Z27" s="68"/>
       <c r="AA27" s="68"/>
@@ -4071,25 +4133,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="68" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G28" s="96"/>
       <c r="H28" s="74"/>
       <c r="I28" s="68" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K28" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" s="68">
         <v>0</v>
@@ -4101,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="68">
         <v>0</v>
@@ -4113,19 +4175,15 @@
         <v>0</v>
       </c>
       <c r="S28" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68">
-        <v>5</v>
-      </c>
-      <c r="W28" s="68">
-        <v>2</v>
-      </c>
-      <c r="X28" s="68">
-        <v>4</v>
-      </c>
+      <c r="U28" s="68">
+        <v>1</v>
+      </c>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
       <c r="Y28" s="68"/>
       <c r="Z28" s="68"/>
       <c r="AA28" s="68"/>
@@ -4146,25 +4204,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="68" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G29" s="96"/>
       <c r="H29" s="74"/>
       <c r="I29" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K29" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L29" s="68">
         <v>0</v>
@@ -4176,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="68">
         <v>0</v>
@@ -4188,16 +4246,14 @@
         <v>0</v>
       </c>
       <c r="S29" s="96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68">
-        <v>1</v>
-      </c>
-      <c r="W29" s="68">
-        <v>2</v>
-      </c>
+      <c r="U29" s="68">
+        <v>1</v>
+      </c>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
       <c r="X29" s="68"/>
       <c r="Y29" s="68"/>
       <c r="Z29" s="68"/>
@@ -4219,25 +4275,25 @@
         <v>23</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="68" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G30" s="96"/>
       <c r="H30" s="74"/>
       <c r="I30" s="68" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L30" s="68">
         <v>0</v>
@@ -4252,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="68">
         <v>0</v>
@@ -4261,16 +4317,14 @@
         <v>0</v>
       </c>
       <c r="S30" s="96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68">
-        <v>1</v>
-      </c>
-      <c r="W30" s="68">
-        <v>1</v>
-      </c>
+      <c r="U30" s="68">
+        <v>2</v>
+      </c>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
       <c r="X30" s="68"/>
       <c r="Y30" s="68"/>
       <c r="Z30" s="68"/>
@@ -4292,25 +4346,25 @@
         <v>24</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="68" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G31" s="96"/>
       <c r="H31" s="74"/>
       <c r="I31" s="68" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="K31" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L31" s="68">
         <v>0</v>
@@ -4322,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="68">
         <v>0</v>
@@ -4334,14 +4388,14 @@
         <v>0</v>
       </c>
       <c r="S31" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
+      <c r="U31" s="68">
+        <v>2</v>
+      </c>
       <c r="V31" s="68"/>
-      <c r="W31" s="68">
-        <v>1</v>
-      </c>
+      <c r="W31" s="68"/>
       <c r="X31" s="68"/>
       <c r="Y31" s="68"/>
       <c r="Z31" s="68"/>
@@ -4363,25 +4417,25 @@
         <v>25</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="68" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G32" s="96"/>
       <c r="H32" s="74"/>
       <c r="I32" s="68" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="J32" s="68" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K32" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L32" s="68">
         <v>0</v>
@@ -4393,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="68">
         <v>0</v>
@@ -4405,12 +4459,14 @@
         <v>0</v>
       </c>
       <c r="S32" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T32" s="68">
-        <v>1</v>
-      </c>
-      <c r="U32" s="68"/>
+        <v>2</v>
+      </c>
+      <c r="U32" s="68">
+        <v>1</v>
+      </c>
       <c r="V32" s="68"/>
       <c r="W32" s="68"/>
       <c r="X32" s="68"/>
@@ -4434,25 +4490,25 @@
         <v>26</v>
       </c>
       <c r="C33" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="67" t="s">
         <v>88</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>43</v>
       </c>
       <c r="E33" s="96"/>
       <c r="F33" s="68" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G33" s="96"/>
       <c r="H33" s="74"/>
       <c r="I33" s="68" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="J33" s="68" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="K33" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="68">
         <v>0</v>
@@ -4464,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="68">
         <v>0</v>
@@ -4476,17 +4532,15 @@
         <v>0</v>
       </c>
       <c r="S33" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T33" s="68">
-        <v>1</v>
-      </c>
-      <c r="U33" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68">
+        <v>1</v>
+      </c>
       <c r="V33" s="68"/>
       <c r="W33" s="68"/>
-      <c r="X33" s="68">
-        <v>4</v>
-      </c>
+      <c r="X33" s="68"/>
       <c r="Y33" s="68"/>
       <c r="Z33" s="68"/>
       <c r="AA33" s="68"/>
@@ -4507,25 +4561,25 @@
         <v>27</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E34" s="96"/>
       <c r="F34" s="68" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="G34" s="96"/>
       <c r="H34" s="74"/>
       <c r="I34" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="K34" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L34" s="68">
         <v>0</v>
@@ -4537,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="68">
         <v>0</v>
@@ -4549,17 +4603,15 @@
         <v>0</v>
       </c>
       <c r="S34" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="68">
-        <v>1</v>
-      </c>
-      <c r="U34" s="68"/>
+        <v>58</v>
+      </c>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68">
+        <v>1</v>
+      </c>
       <c r="V34" s="68"/>
       <c r="W34" s="68"/>
-      <c r="X34" s="68">
-        <v>4</v>
-      </c>
+      <c r="X34" s="68"/>
       <c r="Y34" s="68"/>
       <c r="Z34" s="68"/>
       <c r="AA34" s="68"/>
@@ -4580,25 +4632,25 @@
         <v>28</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E35" s="96"/>
       <c r="F35" s="68" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G35" s="96"/>
       <c r="H35" s="74"/>
       <c r="I35" s="68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K35" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L35" s="68">
         <v>0</v>
@@ -4610,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="68">
         <v>0</v>
@@ -4622,18 +4674,16 @@
         <v>0</v>
       </c>
       <c r="S35" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T35" s="68">
-        <v>1</v>
-      </c>
-      <c r="U35" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68">
+        <v>1</v>
+      </c>
       <c r="V35" s="68"/>
       <c r="W35" s="68"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="68">
-        <v>1</v>
-      </c>
+      <c r="Y35" s="68"/>
       <c r="Z35" s="68"/>
       <c r="AA35" s="68"/>
       <c r="AB35" s="68"/>
@@ -4653,25 +4703,25 @@
         <v>29</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="68" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="G36" s="96"/>
       <c r="H36" s="74"/>
       <c r="I36" s="68" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="J36" s="68" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K36" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L36" s="68">
         <v>0</v>
@@ -4683,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="68">
         <v>0</v>
@@ -4695,12 +4745,12 @@
         <v>0</v>
       </c>
       <c r="S36" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="T36" s="68">
-        <v>1</v>
-      </c>
-      <c r="U36" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68">
+        <v>1</v>
+      </c>
       <c r="V36" s="68"/>
       <c r="W36" s="68"/>
       <c r="X36" s="68"/>
@@ -4724,25 +4774,25 @@
         <v>30</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E37" s="96"/>
       <c r="F37" s="68" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G37" s="96"/>
       <c r="H37" s="74"/>
       <c r="I37" s="68" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K37" s="152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L37" s="68">
         <v>0</v>
@@ -4754,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="68">
         <v>0</v>
@@ -4766,17 +4816,15 @@
         <v>0</v>
       </c>
       <c r="S37" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="T37" s="68">
-        <v>1</v>
-      </c>
-      <c r="U37" s="68"/>
+        <v>86</v>
+      </c>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68">
+        <v>1</v>
+      </c>
       <c r="V37" s="68"/>
       <c r="W37" s="68"/>
-      <c r="X37" s="68">
-        <v>4</v>
-      </c>
+      <c r="X37" s="68"/>
       <c r="Y37" s="68"/>
       <c r="Z37" s="68"/>
       <c r="AA37" s="68"/>
@@ -4796,28 +4844,28 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4829,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -4850,13 +4898,13 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4868,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4879,15 +4927,13 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39"/>
+      <c r="T39"/>
+      <c r="U39">
+        <v>1</v>
+      </c>
       <c r="V39"/>
       <c r="W39"/>
-      <c r="X39">
-        <v>4</v>
-      </c>
+      <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
@@ -4900,16 +4946,16 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4921,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4932,10 +4978,10 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40"/>
+      <c r="T40"/>
+      <c r="U40">
+        <v>1</v>
+      </c>
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
@@ -4954,13 +5000,13 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4972,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4983,15 +5029,13 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41"/>
+      <c r="T41"/>
+      <c r="U41">
+        <v>1</v>
+      </c>
       <c r="V41"/>
       <c r="W41"/>
-      <c r="X41">
-        <v>8</v>
-      </c>
+      <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
@@ -5007,14 +5051,12 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J42"/>
       <c r="L42">
         <v>0</v>
       </c>
@@ -5028,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5036,13 +5078,17 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42"/>
-      <c r="V42"/>
+      <c r="T42"/>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
       <c r="W42"/>
-      <c r="X42"/>
+      <c r="X42">
+        <v>4</v>
+      </c>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
@@ -5058,13 +5104,13 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5079,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5087,10 +5133,10 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43"/>
+      <c r="T43"/>
+      <c r="U43">
+        <v>1</v>
+      </c>
       <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
@@ -5109,13 +5155,13 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5130,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5138,10 +5184,10 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44"/>
+      <c r="T44"/>
+      <c r="U44">
+        <v>1</v>
+      </c>
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
@@ -5157,16 +5203,16 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -5178,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5189,15 +5235,15 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45"/>
-      <c r="V45"/>
+      <c r="T45"/>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
       <c r="W45"/>
-      <c r="X45">
-        <v>4</v>
-      </c>
+      <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
@@ -5210,22 +5256,22 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -5234,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -5264,13 +5310,13 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5282,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -5295,10 +5341,10 @@
       </c>
       <c r="T47"/>
       <c r="U47"/>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47"/>
+      <c r="V47"/>
+      <c r="W47">
+        <v>2</v>
+      </c>
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
@@ -5315,13 +5361,13 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5333,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -5344,17 +5390,13 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
+      <c r="T48"/>
       <c r="U48"/>
-      <c r="V48">
-        <v>2</v>
-      </c>
-      <c r="W48"/>
-      <c r="X48">
-        <v>4</v>
-      </c>
+      <c r="V48"/>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -5370,13 +5412,13 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5391,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -5400,12 +5442,16 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49"/>
-      <c r="V49"/>
+      <c r="V49">
+        <v>1</v>
+      </c>
       <c r="W49"/>
-      <c r="X49"/>
+      <c r="X49">
+        <v>2</v>
+      </c>
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
@@ -5421,13 +5467,13 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5442,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -5455,8 +5501,12 @@
       </c>
       <c r="U50"/>
       <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>4</v>
+      </c>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
@@ -5472,13 +5522,13 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5490,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5501,11 +5551,11 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
+      <c r="T51"/>
       <c r="U51"/>
-      <c r="V51"/>
+      <c r="V51">
+        <v>1</v>
+      </c>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
@@ -5520,16 +5570,16 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5544,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5557,7 +5607,9 @@
       </c>
       <c r="U52"/>
       <c r="V52"/>
-      <c r="W52"/>
+      <c r="W52">
+        <v>1</v>
+      </c>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
@@ -5571,16 +5623,16 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5592,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -5603,15 +5655,13 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
+      <c r="T53"/>
       <c r="U53"/>
-      <c r="V53"/>
+      <c r="V53">
+        <v>2</v>
+      </c>
       <c r="W53"/>
-      <c r="X53">
-        <v>4</v>
-      </c>
+      <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
@@ -5624,16 +5674,16 @@
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5645,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5656,10 +5706,12 @@
       <c r="R54">
         <v>0</v>
       </c>
-      <c r="T54"/>
+      <c r="T54">
+        <v>1</v>
+      </c>
       <c r="U54"/>
       <c r="V54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W54"/>
       <c r="X54"/>
@@ -5675,16 +5727,16 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5699,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5708,18 +5760,124 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
-      <c r="X55"/>
+      <c r="X55">
+        <v>1</v>
+      </c>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
       <c r="AC55"/>
       <c r="AK55"/>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="B56">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AK56"/>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AK57"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5791,12 +5949,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -5808,83 +5966,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="109" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AC6" s="110" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AF6" s="104" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="AG6" s="82" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AJ6" s="116" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -5892,10 +6050,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -5903,7 +6061,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -5911,67 +6069,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="T7" s="89" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="U7" s="89" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="W7" s="90" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="X7" s="90" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Y7" s="90" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z7" s="112" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AA7" s="90" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AB7" s="90" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AC7" s="106" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AD7" s="89" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AE7" s="90" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AF7" s="90" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AG7" s="119" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AH7" s="119" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -6061,13 +6219,13 @@
         <v>43</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -6076,7 +6234,7 @@
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
       <c r="M8" s="63" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -6103,10 +6261,10 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="127" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AL8" s="128"/>
     </row>
@@ -6365,16 +6523,16 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J15" s="97" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -6416,16 +6574,16 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -6467,16 +6625,16 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -6518,16 +6676,16 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -6569,16 +6727,16 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -7417,7 +7575,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -7432,7 +7590,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -7466,16 +7624,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -7489,7 +7647,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -7498,7 +7656,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -7508,19 +7666,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -7530,28 +7688,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -7562,38 +7720,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -7616,7 +7774,9 @@
         <v>5.5</v>
       </c>
       <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
       <c r="N11" s="21"/>
       <c r="O11" s="39"/>
     </row>
@@ -7635,11 +7795,11 @@
       <c r="H12" s="24"/>
       <c r="I12" s="21"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="24">
+        <v>1</v>
+      </c>
       <c r="N12" s="24"/>
       <c r="O12" s="40"/>
     </row>
@@ -7658,11 +7818,11 @@
       <c r="H13" s="24"/>
       <c r="I13" s="21"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
       <c r="N13" s="24"/>
       <c r="O13" s="28"/>
     </row>
@@ -7681,11 +7841,11 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="24">
+        <v>1</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="28"/>
     </row>
@@ -7704,11 +7864,11 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="24">
+        <v>1</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="28"/>
     </row>
@@ -7727,11 +7887,11 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K16" s="24"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="24">
+        <v>1</v>
+      </c>
       <c r="N16" s="24"/>
       <c r="O16" s="28"/>
     </row>
@@ -7750,9 +7910,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -7773,11 +7931,11 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K18" s="24"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
       <c r="N18" s="24"/>
       <c r="O18" s="28"/>
     </row>
@@ -7796,9 +7954,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -7819,11 +7975,11 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="24">
+        <v>1</v>
+      </c>
       <c r="N20" s="24"/>
       <c r="O20" s="28"/>
     </row>
@@ -7842,11 +7998,11 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K21" s="24"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="24">
+        <v>1</v>
+      </c>
       <c r="N21" s="24"/>
       <c r="O21" s="28"/>
     </row>
@@ -7865,11 +8021,11 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K22" s="24"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="M22" s="24">
+        <v>1</v>
+      </c>
       <c r="N22" s="24"/>
       <c r="O22" s="28"/>
     </row>
@@ -7888,11 +8044,11 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K23" s="24"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="24">
+        <v>1</v>
+      </c>
       <c r="N23" s="24"/>
       <c r="O23" s="28"/>
     </row>
@@ -7911,11 +8067,11 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="24">
+        <v>1</v>
+      </c>
       <c r="N24" s="24"/>
       <c r="O24" s="28"/>
     </row>
@@ -7934,11 +8090,11 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K25" s="24"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="M25" s="24">
+        <v>1</v>
+      </c>
       <c r="N25" s="24"/>
       <c r="O25" s="28"/>
     </row>
@@ -7957,11 +8113,11 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K26" s="24"/>
       <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="M26" s="24">
+        <v>1</v>
+      </c>
       <c r="N26" s="24"/>
       <c r="O26" s="28"/>
     </row>
@@ -7980,11 +8136,11 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24">
-        <v>4.8</v>
-      </c>
+      <c r="K27" s="24"/>
       <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="M27" s="24">
+        <v>1</v>
+      </c>
       <c r="N27" s="24"/>
       <c r="O27" s="28"/>
     </row>
@@ -8003,9 +8159,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -8026,11 +8180,11 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K29" s="24"/>
       <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="M29" s="24">
+        <v>1</v>
+      </c>
       <c r="N29" s="24"/>
       <c r="O29" s="28"/>
     </row>
@@ -8049,9 +8203,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -8072,11 +8224,11 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="K31" s="24"/>
       <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
       <c r="N31" s="24"/>
       <c r="O31" s="28"/>
     </row>
@@ -8095,11 +8247,11 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K32" s="24"/>
       <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="M32" s="24">
+        <v>1</v>
+      </c>
       <c r="N32" s="24"/>
       <c r="O32" s="28"/>
     </row>
@@ -8118,11 +8270,11 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K33" s="24"/>
       <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="M33" s="24">
+        <v>1</v>
+      </c>
       <c r="N33" s="24"/>
       <c r="O33" s="28"/>
     </row>
@@ -8141,9 +8293,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -8164,9 +8314,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="24">
-        <v>5.6</v>
-      </c>
+      <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -8187,9 +8335,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
@@ -8210,11 +8356,11 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K37" s="24"/>
       <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="M37" s="24">
+        <v>1</v>
+      </c>
       <c r="N37" s="24"/>
       <c r="O37" s="28"/>
     </row>
@@ -8233,11 +8379,11 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K38" s="24"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="M38" s="24">
+        <v>1</v>
+      </c>
       <c r="N38" s="24"/>
       <c r="O38" s="28"/>
     </row>
@@ -8256,11 +8402,11 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K39" s="24"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="M39" s="24">
+        <v>1</v>
+      </c>
       <c r="N39" s="24"/>
       <c r="O39" s="28"/>
     </row>
@@ -8279,11 +8425,11 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K40" s="24"/>
       <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="M40" s="24">
+        <v>1</v>
+      </c>
       <c r="N40" s="24"/>
       <c r="O40" s="28"/>
     </row>
@@ -8302,11 +8448,11 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K41" s="24"/>
       <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="M41" s="24">
+        <v>1</v>
+      </c>
       <c r="N41" s="24"/>
       <c r="O41" s="28"/>
     </row>
@@ -8327,7 +8473,9 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
+      <c r="M42" s="24">
+        <v>1</v>
+      </c>
       <c r="N42" s="24"/>
       <c r="O42" s="28"/>
     </row>
@@ -8346,9 +8494,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
@@ -8369,11 +8515,11 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K44" s="24"/>
       <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="M44" s="24">
+        <v>1</v>
+      </c>
       <c r="N44" s="24"/>
       <c r="O44" s="28"/>
     </row>
@@ -8392,11 +8538,11 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K45" s="24"/>
       <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="M45" s="24">
+        <v>1</v>
+      </c>
       <c r="N45" s="24"/>
       <c r="O45" s="28"/>
     </row>
@@ -8415,11 +8561,11 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K46" s="24"/>
       <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="M46" s="24">
+        <v>1</v>
+      </c>
       <c r="N46" s="24"/>
       <c r="O46" s="28"/>
     </row>
@@ -8438,11 +8584,11 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K47" s="24"/>
       <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="M47" s="24">
+        <v>1</v>
+      </c>
       <c r="N47" s="24"/>
       <c r="O47" s="28"/>
     </row>
@@ -8461,11 +8607,11 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K48" s="24"/>
       <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+      <c r="M48" s="24">
+        <v>1</v>
+      </c>
       <c r="N48" s="24"/>
       <c r="O48" s="28"/>
     </row>
@@ -8486,7 +8632,9 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
+      <c r="M49" s="24">
+        <v>1</v>
+      </c>
       <c r="N49" s="24"/>
       <c r="O49" s="28"/>
     </row>
@@ -8505,9 +8653,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -8528,9 +8674,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="24">
-        <v>5.5</v>
-      </c>
+      <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
@@ -8555,7 +8699,9 @@
         <v>5.5</v>
       </c>
       <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
+      <c r="M52" s="24">
+        <v>1</v>
+      </c>
       <c r="N52" s="24"/>
       <c r="O52" s="28"/>
     </row>
@@ -8578,7 +8724,9 @@
         <v>5.5</v>
       </c>
       <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="M53" s="24">
+        <v>1</v>
+      </c>
       <c r="N53" s="24"/>
       <c r="O53" s="28"/>
     </row>
@@ -8601,7 +8749,9 @@
         <v>5.5</v>
       </c>
       <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="M54" s="24">
+        <v>1</v>
+      </c>
       <c r="N54" s="24"/>
       <c r="O54" s="28"/>
     </row>
@@ -8624,7 +8774,9 @@
         <v>5.5</v>
       </c>
       <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
+      <c r="M55" s="24">
+        <v>1</v>
+      </c>
       <c r="N55" s="24"/>
       <c r="O55" s="28"/>
     </row>
@@ -8647,7 +8799,9 @@
         <v>5.5</v>
       </c>
       <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
+      <c r="M56" s="24">
+        <v>1</v>
+      </c>
       <c r="N56" s="24"/>
       <c r="O56" s="28"/>
     </row>
@@ -8692,10 +8846,12 @@
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="M58" s="24">
+        <v>1</v>
+      </c>
       <c r="N58" s="24"/>
       <c r="O58" s="28"/>
     </row>
@@ -8703,7 +8859,9 @@
       <c r="A59" s="24">
         <v>49</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="29">
+        <v>49</v>
+      </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="24"/>
@@ -8712,9 +8870,13 @@
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+      <c r="M59" s="24">
+        <v>1</v>
+      </c>
       <c r="N59" s="24"/>
       <c r="O59" s="28"/>
     </row>
@@ -8722,7 +8884,9 @@
       <c r="A60" s="24">
         <v>50</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="29">
+        <v>50</v>
+      </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="24"/>
@@ -8731,15 +8895,19 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="K60" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
+      <c r="M60" s="24">
+        <v>1</v>
+      </c>
       <c r="N60" s="24"/>
       <c r="O60" s="28"/>
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -8780,7 +8948,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="32" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
@@ -8788,7 +8956,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
       <c r="M63" s="32" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -8826,7 +8994,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="42" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
@@ -8834,7 +9002,7 @@
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="43" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
@@ -8844,7 +9012,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="42" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
@@ -8852,7 +9020,7 @@
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="43" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
@@ -8862,7 +9030,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="42" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
@@ -8870,7 +9038,7 @@
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="43" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -175,46 +175,61 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>PE EURO ATLANTIK JLN PINGGIRAN 2</t>
-  </si>
-  <si>
-    <t>Jalan Pinggiran 3</t>
-  </si>
-  <si>
-    <t>JP 7/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP 3 /1 </t>
+    <t>PETALING JAYA NO 4</t>
+  </si>
+  <si>
+    <t>Jalan 6/13</t>
+  </si>
+  <si>
+    <t>JLN 6/13/5</t>
+  </si>
+  <si>
+    <t>JLN 6/13/6</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>Jalan Pinggiran 5</t>
-  </si>
-  <si>
-    <t>JP5 2</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>P/E PJ :4</t>
+  </si>
+  <si>
+    <t>Jalan Tinggi</t>
+  </si>
+  <si>
+    <t>JLN 6/12 4</t>
+  </si>
+  <si>
+    <t>JLN 6/12 3</t>
   </si>
   <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>JP7 5</t>
+    <t>Jalan Anak Gasing</t>
+  </si>
+  <si>
+    <t>JLN 6/5/9</t>
   </si>
   <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>JP5 4</t>
+    <t>Jalan 6/5</t>
+  </si>
+  <si>
+    <t>JLN 6/5/8</t>
+  </si>
+  <si>
+    <t>JLN 6/5/7</t>
   </si>
   <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
-    <t>Beverly Heights</t>
+    <t>JLN 6/5/6</t>
+  </si>
+  <si>
+    <t>JLN 6/5/5</t>
   </si>
   <si>
     <t>7.0m</t>
@@ -226,82 +241,109 @@
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
+    <t>JLN 6/5/4</t>
+  </si>
+  <si>
+    <t>JLN 6/5/3</t>
+  </si>
+  <si>
     <t>Terus</t>
   </si>
   <si>
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
+    <t>JLN 6/13/3</t>
+  </si>
+  <si>
+    <t>JLN 6/13/4</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
     <t>BKLG/PCE/J00160</t>
   </si>
   <si>
+    <t>JLN 6/5/2</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
-    <t>Jalan Pinggiran 7</t>
+    <t>Jalan Mewah</t>
+  </si>
+  <si>
+    <t>JLN 6/9 4</t>
+  </si>
+  <si>
+    <t>JLN 6/9 5</t>
   </si>
   <si>
     <t>BKLG/PCE/J00162</t>
   </si>
   <si>
+    <t>JLN 6/13/1</t>
+  </si>
+  <si>
+    <t>JLN 6/13/2</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00163</t>
   </si>
   <si>
-    <t>JP7 3</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00164</t>
   </si>
   <si>
-    <t>Jalan Pinggiran</t>
-  </si>
-  <si>
-    <t>JP4 3</t>
-  </si>
-  <si>
-    <t>JP4 3/1</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00165</t>
   </si>
   <si>
-    <t>Jalan Pinggiran 4</t>
+    <t>JLN 6/13/7</t>
   </si>
   <si>
     <t>BKLG/PCE/J00166</t>
   </si>
   <si>
-    <t>JP 4</t>
+    <t>JLN 6/12/6</t>
   </si>
   <si>
     <t>BKLG/PCE/J00167</t>
   </si>
   <si>
+    <t>JLN 6/5/1</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00168</t>
   </si>
   <si>
     <t>BKLG/PCE/J00169</t>
   </si>
   <si>
-    <t>JP 7 1</t>
-  </si>
-  <si>
-    <t>JP7 2</t>
+    <t>JLN 6/12 7</t>
+  </si>
+  <si>
+    <t>JLN 6/12 6</t>
   </si>
   <si>
     <t>BKLG/PCE/J00170</t>
   </si>
   <si>
+    <t>P/E PJ: 4</t>
+  </si>
+  <si>
+    <t>JLN 6/12 10</t>
+  </si>
+  <si>
+    <t>JLN 6/12 9</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00171</t>
   </si>
   <si>
-    <t>JP2 5</t>
-  </si>
-  <si>
-    <t>JP7 1</t>
+    <t>P/E PJ : 4</t>
+  </si>
+  <si>
+    <t>JLN 6/12 13</t>
   </si>
   <si>
     <t>Tamatan</t>
@@ -310,115 +352,277 @@
     <t>BKLG/PCE/J00172</t>
   </si>
   <si>
-    <t>PE TAMAN BUKIT JOBINA</t>
-  </si>
-  <si>
-    <t>Jalan Lingkaran Tengah 2</t>
-  </si>
-  <si>
-    <t>JUK 3B</t>
-  </si>
-  <si>
-    <t>JUK 4B</t>
+    <t>Jalan 6/17</t>
+  </si>
+  <si>
+    <t>JLN 6/17 2</t>
+  </si>
+  <si>
+    <t>JLN 6/17 3</t>
   </si>
   <si>
     <t>BKLG/PCE/J00173</t>
   </si>
   <si>
+    <t>JLN 6/12 5</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00174</t>
   </si>
   <si>
-    <t>JUK 1B</t>
+    <t>JLN 6/12 8</t>
   </si>
   <si>
     <t>BKLG/PCE/J00175</t>
   </si>
   <si>
-    <t>JJ 1</t>
+    <t>JLN 6/12 2</t>
+  </si>
+  <si>
+    <t>JLN 6/12 1</t>
   </si>
   <si>
     <t>BKLG/PCE/J00176</t>
   </si>
   <si>
-    <t>Jalan Beverly Height 1</t>
-  </si>
-  <si>
-    <t>JJ 1/1</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00177</t>
   </si>
   <si>
+    <t>JLN 6/12 11</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00178</t>
   </si>
   <si>
-    <t>Taman Ukay Bistari</t>
+    <t>JLN 6 12 /13</t>
+  </si>
+  <si>
+    <t>JLN 6 /12 12</t>
   </si>
   <si>
     <t>BKLG/PCE/J00179</t>
   </si>
   <si>
+    <t>JLN 6/12 12</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00180</t>
   </si>
   <si>
-    <t>Pinggiran Ukay</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00181</t>
   </si>
   <si>
-    <t>P/E TAMAN BUKIT JOBINA</t>
-  </si>
-  <si>
-    <t>JUK 5B</t>
-  </si>
-  <si>
-    <t>JJ 2</t>
-  </si>
-  <si>
-    <t>JP 8/4</t>
-  </si>
-  <si>
-    <t>JUK 6B</t>
-  </si>
-  <si>
-    <t>Jalan Pinggiran 8</t>
-  </si>
-  <si>
-    <t>Taman Jobina</t>
-  </si>
-  <si>
-    <t>JJ 6</t>
-  </si>
-  <si>
-    <t>Jalan Bukit Jubina</t>
-  </si>
-  <si>
-    <t>JP 3 /3/1</t>
-  </si>
-  <si>
-    <t>JP 3/3/1</t>
-  </si>
-  <si>
-    <t>JP 3 /3/2</t>
-  </si>
-  <si>
-    <t>JP 3 /1</t>
-  </si>
-  <si>
-    <t>JP 3 /2/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJ 4 /1 </t>
-  </si>
-  <si>
-    <t>JJ 4/2</t>
-  </si>
-  <si>
-    <t>JJ 4/1</t>
-  </si>
-  <si>
-    <t>JJ 3</t>
+    <t>Jalan Permai</t>
+  </si>
+  <si>
+    <t>JLN 6/6/5</t>
+  </si>
+  <si>
+    <t>JLN 6/6/6</t>
+  </si>
+  <si>
+    <t>P/E PJ:4</t>
+  </si>
+  <si>
+    <t>Jalan Chawan (6/15)</t>
+  </si>
+  <si>
+    <t>JLN 6/15 15</t>
+  </si>
+  <si>
+    <t>JLN 6/15 16</t>
+  </si>
+  <si>
+    <t>JLN 6/15 17</t>
+  </si>
+  <si>
+    <t>PADAT JLN 6/10</t>
+  </si>
+  <si>
+    <t>Jalan Molek</t>
+  </si>
+  <si>
+    <t>JLN 6/8/4</t>
+  </si>
+  <si>
+    <t>JLN 6/8/5</t>
+  </si>
+  <si>
+    <t>Jalan 6/11</t>
+  </si>
+  <si>
+    <t>JLN 6/11 5</t>
+  </si>
+  <si>
+    <t>JLN 6/11 6</t>
+  </si>
+  <si>
+    <t>JLN 6/11 4</t>
+  </si>
+  <si>
+    <t>JLN 6/11 4/1</t>
+  </si>
+  <si>
+    <t>JLN 16/11 3</t>
+  </si>
+  <si>
+    <t>JLN 16/11 4</t>
+  </si>
+  <si>
+    <t>JLN 6/15 18</t>
+  </si>
+  <si>
+    <t>JLN 6/11 2</t>
+  </si>
+  <si>
+    <t>JLN 6/11 3</t>
+  </si>
+  <si>
+    <t>JLN 6/11 1</t>
+  </si>
+  <si>
+    <t>JLN 6/15 19</t>
+  </si>
+  <si>
+    <t>JLN 6/6/7</t>
+  </si>
+  <si>
+    <t>JLN 6/6/4</t>
+  </si>
+  <si>
+    <t>JLN 6/6/8</t>
+  </si>
+  <si>
+    <t>JLN 6/6/3</t>
+  </si>
+  <si>
+    <t>JLN 6/6/1</t>
+  </si>
+  <si>
+    <t>JLN 6/6/2</t>
+  </si>
+  <si>
+    <t>Jalan 17/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRG 6/15B </t>
+  </si>
+  <si>
+    <t>JLN 6/8/2</t>
+  </si>
+  <si>
+    <t>JLN 6/8/3</t>
+  </si>
+  <si>
+    <t>JLN 6/8/6</t>
+  </si>
+  <si>
+    <t>JLN 6/8/7</t>
+  </si>
+  <si>
+    <t>JLN 6/15 22</t>
+  </si>
+  <si>
+    <t>JLN 6/15 23</t>
+  </si>
+  <si>
+    <t>JLN 6/15 21</t>
+  </si>
+  <si>
+    <t>JLN 6/15 20</t>
+  </si>
+  <si>
+    <t>JLN 6/8/7/2</t>
+  </si>
+  <si>
+    <t>JLN 6/8/7/3</t>
+  </si>
+  <si>
+    <t>JLN 6/8/8</t>
+  </si>
+  <si>
+    <t>JLN 6/8/9</t>
+  </si>
+  <si>
+    <t>Jalan Bukit</t>
+  </si>
+  <si>
+    <t>JLN 6/10/1</t>
+  </si>
+  <si>
+    <t>JLN 6/10/2</t>
+  </si>
+  <si>
+    <t>JLN 6/6/9</t>
+  </si>
+  <si>
+    <t>JLN 6/6/10</t>
+  </si>
+  <si>
+    <t>JLN 6/6/11</t>
+  </si>
+  <si>
+    <t>JLN 6/15 12</t>
+  </si>
+  <si>
+    <t>JLN 6/15 13</t>
+  </si>
+  <si>
+    <t>JLN 6/9 3</t>
+  </si>
+  <si>
+    <t>JLN 6/12 13 /1</t>
+  </si>
+  <si>
+    <t>JLN 6/12 13/1</t>
+  </si>
+  <si>
+    <t>JLN 6/9 1</t>
+  </si>
+  <si>
+    <t>JLN 6/9 2</t>
+  </si>
+  <si>
+    <t>JLN 6/9 2/1</t>
+  </si>
+  <si>
+    <t>JLN 6/8/7/1</t>
+  </si>
+  <si>
+    <t>JLN 6/15 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLN 6/15 15 </t>
+  </si>
+  <si>
+    <t>JLN 6/17 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLN 6/17 2 </t>
+  </si>
+  <si>
+    <t>Jalan 17/6</t>
+  </si>
+  <si>
+    <t>JLN 6/8/1</t>
+  </si>
+  <si>
+    <t>JLN 6/10/5</t>
+  </si>
+  <si>
+    <t>JLN 6/10/6</t>
+  </si>
+  <si>
+    <t>JLN 6/10/7</t>
+  </si>
+  <si>
+    <t>JLN 6/10/4</t>
+  </si>
+  <si>
+    <t>JLN 6/10/3</t>
+  </si>
+  <si>
+    <t>JLN 6/6/12</t>
   </si>
   <si>
     <r>
@@ -797,21 +1001,6 @@
   </si>
   <si>
     <t>JUMLAH</t>
-  </si>
-  <si>
-    <t>DISEDIAKAN</t>
-  </si>
-  <si>
-    <t>DIPERAKUKAN</t>
-  </si>
-  <si>
-    <t>Nama:</t>
-  </si>
-  <si>
-    <t>No Pekerja:</t>
-  </si>
-  <si>
-    <t>Tarikh:</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AK8" sqref="AK8"/>
@@ -2746,14 +2935,12 @@
       </c>
       <c r="S8" s="96"/>
       <c r="T8" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="68"/>
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
-      <c r="X8" s="68">
-        <v>4</v>
-      </c>
+      <c r="X8" s="68"/>
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
@@ -2777,19 +2964,19 @@
         <v>47</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" s="96"/>
       <c r="F9" s="63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="96"/>
       <c r="H9" s="74"/>
       <c r="I9" s="68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="152"/>
       <c r="L9" s="68">
@@ -2801,18 +2988,10 @@
       <c r="N9" s="68">
         <v>0</v>
       </c>
-      <c r="O9" s="68">
-        <v>0</v>
-      </c>
-      <c r="P9" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="68">
-        <v>0</v>
-      </c>
-      <c r="R9" s="68">
-        <v>0</v>
-      </c>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="96"/>
       <c r="T9" s="68">
         <v>1</v>
@@ -2841,22 +3020,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="96"/>
       <c r="F10" s="63" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
       <c r="I10" s="68" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="152"/>
       <c r="L10" s="68">
@@ -2869,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="68">
         <v>0</v>
@@ -2884,12 +3063,12 @@
       <c r="T10" s="68">
         <v>1</v>
       </c>
-      <c r="U10" s="68"/>
+      <c r="U10" s="68">
+        <v>1</v>
+      </c>
       <c r="V10" s="68"/>
       <c r="W10" s="68"/>
-      <c r="X10" s="68">
-        <v>2</v>
-      </c>
+      <c r="X10" s="68"/>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
       <c r="AA10" s="68"/>
@@ -2910,22 +3089,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="96"/>
       <c r="F11" s="63" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
       <c r="I11" s="68" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K11" s="152"/>
       <c r="L11" s="68">
@@ -2938,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="68">
         <v>0</v>
@@ -2950,11 +3129,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="96"/>
-      <c r="T11" s="68"/>
+      <c r="T11" s="68">
+        <v>2</v>
+      </c>
       <c r="U11" s="68"/>
-      <c r="V11" s="68">
-        <v>1</v>
-      </c>
+      <c r="V11" s="68"/>
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
       <c r="Y11" s="68"/>
@@ -2977,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>43</v>
@@ -2989,13 +3168,13 @@
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
       <c r="I12" s="68" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K12" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L12" s="68">
         <v>0</v>
@@ -3019,17 +3198,17 @@
         <v>0</v>
       </c>
       <c r="S12" s="96" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T12" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
+      <c r="V12" s="68">
+        <v>1</v>
+      </c>
       <c r="W12" s="68"/>
-      <c r="X12" s="68">
-        <v>2</v>
-      </c>
+      <c r="X12" s="68"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
@@ -3050,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>43</v>
@@ -3062,13 +3241,13 @@
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
       <c r="I13" s="68" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K13" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L13" s="68">
         <v>0</v>
@@ -3092,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T13" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="68"/>
       <c r="V13" s="68"/>
@@ -3121,25 +3300,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="96"/>
       <c r="H14" s="74"/>
       <c r="I14" s="68" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K14" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L14" s="68">
         <v>0</v>
@@ -3151,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="68">
         <v>0</v>
@@ -3163,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="68"/>
+        <v>67</v>
+      </c>
+      <c r="T14" s="68">
+        <v>2</v>
+      </c>
       <c r="U14" s="68"/>
-      <c r="V14" s="68">
-        <v>2</v>
-      </c>
+      <c r="V14" s="68"/>
       <c r="W14" s="68"/>
       <c r="X14" s="68"/>
       <c r="Y14" s="68"/>
@@ -3192,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>43</v>
@@ -3204,13 +3383,13 @@
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K15" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L15" s="68">
         <v>0</v>
@@ -3222,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="68">
         <v>0</v>
@@ -3234,17 +3413,15 @@
         <v>0</v>
       </c>
       <c r="S15" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T15" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="68"/>
       <c r="V15" s="68"/>
       <c r="W15" s="68"/>
-      <c r="X15" s="68">
-        <v>2</v>
-      </c>
+      <c r="X15" s="68"/>
       <c r="Y15" s="68"/>
       <c r="Z15" s="68"/>
       <c r="AA15" s="68"/>
@@ -3265,25 +3442,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="63" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
       <c r="I16" s="68" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L16" s="68">
         <v>0</v>
@@ -3295,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="68">
         <v>0</v>
@@ -3307,18 +3484,16 @@
         <v>0</v>
       </c>
       <c r="S16" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T16" s="68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16" s="68"/>
-      <c r="V16" s="68">
-        <v>1</v>
-      </c>
+      <c r="V16" s="68"/>
       <c r="W16" s="68"/>
       <c r="X16" s="68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="68"/>
       <c r="Z16" s="68"/>
@@ -3340,25 +3515,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="63" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G17" s="96"/>
       <c r="H17" s="74"/>
       <c r="I17" s="68" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K17" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L17" s="68">
         <v>0</v>
@@ -3382,15 +3557,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T17" s="68">
+        <v>1</v>
+      </c>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68">
+        <v>1</v>
+      </c>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68">
         <v>2</v>
       </c>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
       <c r="Y17" s="68"/>
       <c r="Z17" s="68"/>
       <c r="AA17" s="68"/>
@@ -3411,25 +3590,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="63" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G18" s="96"/>
       <c r="H18" s="74"/>
       <c r="I18" s="68" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K18" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L18" s="68">
         <v>0</v>
@@ -3441,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="68">
         <v>0</v>
@@ -3453,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T18" s="68">
         <v>1</v>
@@ -3482,25 +3661,25 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="63" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G19" s="96"/>
       <c r="H19" s="74"/>
       <c r="I19" s="68" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K19" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L19" s="68">
         <v>0</v>
@@ -3524,15 +3703,19 @@
         <v>0</v>
       </c>
       <c r="S19" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T19" s="68">
-        <v>1</v>
-      </c>
-      <c r="U19" s="68"/>
+        <v>3</v>
+      </c>
+      <c r="U19" s="68">
+        <v>1</v>
+      </c>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
+      <c r="X19" s="68">
+        <v>2</v>
+      </c>
       <c r="Y19" s="68"/>
       <c r="Z19" s="68"/>
       <c r="AA19" s="68"/>
@@ -3553,25 +3736,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="63" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G20" s="96"/>
       <c r="H20" s="74"/>
       <c r="I20" s="68" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L20" s="68">
         <v>0</v>
@@ -3583,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="68">
         <v>0</v>
@@ -3595,15 +3778,17 @@
         <v>0</v>
       </c>
       <c r="S20" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" s="68"/>
+        <v>67</v>
+      </c>
+      <c r="T20" s="68">
+        <v>1</v>
+      </c>
       <c r="U20" s="68"/>
       <c r="V20" s="68"/>
-      <c r="W20" s="68">
-        <v>1</v>
-      </c>
-      <c r="X20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68">
+        <v>4</v>
+      </c>
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
       <c r="AA20" s="68"/>
@@ -3624,25 +3809,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="63" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="74"/>
       <c r="I21" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K21" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L21" s="68">
         <v>0</v>
@@ -3654,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="68">
         <v>0</v>
@@ -3666,19 +3851,15 @@
         <v>0</v>
       </c>
       <c r="S21" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T21" s="68">
         <v>1</v>
       </c>
       <c r="U21" s="68"/>
       <c r="V21" s="68"/>
-      <c r="W21" s="68">
-        <v>1</v>
-      </c>
-      <c r="X21" s="68">
-        <v>4</v>
-      </c>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
       <c r="Y21" s="68"/>
       <c r="Z21" s="68"/>
       <c r="AA21" s="68"/>
@@ -3699,25 +3880,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="63" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G22" s="96"/>
       <c r="H22" s="74"/>
       <c r="I22" s="68" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K22" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L22" s="68">
         <v>0</v>
@@ -3741,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T22" s="68">
         <v>1</v>
@@ -3750,7 +3931,7 @@
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="68"/>
       <c r="Z22" s="68"/>
@@ -3772,25 +3953,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="63" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G23" s="96"/>
       <c r="H23" s="74"/>
       <c r="I23" s="68" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L23" s="68">
         <v>0</v>
@@ -3814,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T23" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" s="68"/>
       <c r="V23" s="68"/>
@@ -3845,25 +4026,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D24" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="63" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G24" s="96"/>
       <c r="H24" s="74"/>
       <c r="I24" s="68" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L24" s="68">
         <v>0</v>
@@ -3875,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="68">
         <v>0</v>
@@ -3887,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T24" s="68">
         <v>2</v>
@@ -3896,7 +4077,7 @@
       <c r="V24" s="68"/>
       <c r="W24" s="68"/>
       <c r="X24" s="68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="68"/>
       <c r="Z24" s="68"/>
@@ -3918,25 +4099,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="63" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G25" s="96"/>
       <c r="H25" s="74"/>
       <c r="I25" s="68" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K25" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L25" s="68">
         <v>0</v>
@@ -3960,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T25" s="68">
         <v>2</v>
@@ -3989,25 +4170,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="63" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G26" s="96"/>
       <c r="H26" s="74"/>
       <c r="I26" s="68" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K26" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L26" s="68">
         <v>0</v>
@@ -4031,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T26" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
@@ -4060,25 +4241,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E27" s="96"/>
       <c r="F27" s="63" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G27" s="96"/>
       <c r="H27" s="74"/>
       <c r="I27" s="68" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K27" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L27" s="68">
         <v>0</v>
@@ -4102,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="96" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="T27" s="68">
         <v>2</v>
@@ -4110,9 +4291,7 @@
       <c r="U27" s="68"/>
       <c r="V27" s="68"/>
       <c r="W27" s="68"/>
-      <c r="X27" s="68">
-        <v>4</v>
-      </c>
+      <c r="X27" s="68"/>
       <c r="Y27" s="68"/>
       <c r="Z27" s="68"/>
       <c r="AA27" s="68"/>
@@ -4133,25 +4312,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="68" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G28" s="96"/>
       <c r="H28" s="74"/>
       <c r="I28" s="68" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K28" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L28" s="68">
         <v>0</v>
@@ -4175,12 +4354,12 @@
         <v>0</v>
       </c>
       <c r="S28" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="T28" s="68">
+        <v>1</v>
+      </c>
+      <c r="U28" s="68"/>
       <c r="V28" s="68"/>
       <c r="W28" s="68"/>
       <c r="X28" s="68"/>
@@ -4204,25 +4383,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="68" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G29" s="96"/>
       <c r="H29" s="74"/>
       <c r="I29" s="68" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K29" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L29" s="68">
         <v>0</v>
@@ -4234,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="68">
         <v>0</v>
@@ -4246,13 +4425,15 @@
         <v>0</v>
       </c>
       <c r="S29" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68">
-        <v>1</v>
-      </c>
-      <c r="V29" s="68"/>
+        <v>63</v>
+      </c>
+      <c r="T29" s="68">
+        <v>1</v>
+      </c>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68">
+        <v>1</v>
+      </c>
       <c r="W29" s="68"/>
       <c r="X29" s="68"/>
       <c r="Y29" s="68"/>
@@ -4275,25 +4456,25 @@
         <v>23</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="68" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G30" s="96"/>
       <c r="H30" s="74"/>
       <c r="I30" s="68" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L30" s="68">
         <v>0</v>
@@ -4305,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="68">
         <v>0</v>
@@ -4317,12 +4498,12 @@
         <v>0</v>
       </c>
       <c r="S30" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68">
+        <v>63</v>
+      </c>
+      <c r="T30" s="68">
         <v>2</v>
       </c>
+      <c r="U30" s="68"/>
       <c r="V30" s="68"/>
       <c r="W30" s="68"/>
       <c r="X30" s="68"/>
@@ -4346,25 +4527,25 @@
         <v>24</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="68" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G31" s="96"/>
       <c r="H31" s="74"/>
       <c r="I31" s="68" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K31" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L31" s="68">
         <v>0</v>
@@ -4376,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="68">
         <v>0</v>
@@ -4388,15 +4569,17 @@
         <v>0</v>
       </c>
       <c r="S31" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="T31" s="68">
+        <v>1</v>
+      </c>
+      <c r="U31" s="68"/>
       <c r="V31" s="68"/>
       <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
+      <c r="X31" s="68">
+        <v>2</v>
+      </c>
       <c r="Y31" s="68"/>
       <c r="Z31" s="68"/>
       <c r="AA31" s="68"/>
@@ -4417,25 +4600,25 @@
         <v>25</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="68" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G32" s="96"/>
       <c r="H32" s="74"/>
       <c r="I32" s="68" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J32" s="68" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K32" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L32" s="68">
         <v>0</v>
@@ -4459,14 +4642,12 @@
         <v>0</v>
       </c>
       <c r="S32" s="96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T32" s="68">
-        <v>2</v>
-      </c>
-      <c r="U32" s="68">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U32" s="68"/>
       <c r="V32" s="68"/>
       <c r="W32" s="68"/>
       <c r="X32" s="68"/>
@@ -4490,25 +4671,25 @@
         <v>26</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E33" s="96"/>
       <c r="F33" s="68" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G33" s="96"/>
       <c r="H33" s="74"/>
       <c r="I33" s="68" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="J33" s="68" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K33" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L33" s="68">
         <v>0</v>
@@ -4520,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="68">
         <v>0</v>
@@ -4532,12 +4713,12 @@
         <v>0</v>
       </c>
       <c r="S33" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="T33" s="68">
+        <v>3</v>
+      </c>
+      <c r="U33" s="68"/>
       <c r="V33" s="68"/>
       <c r="W33" s="68"/>
       <c r="X33" s="68"/>
@@ -4561,25 +4742,25 @@
         <v>27</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E34" s="96"/>
       <c r="F34" s="68" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G34" s="96"/>
       <c r="H34" s="74"/>
       <c r="I34" s="68" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="K34" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L34" s="68">
         <v>0</v>
@@ -4603,12 +4784,12 @@
         <v>0</v>
       </c>
       <c r="S34" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="T34" s="68">
+        <v>1</v>
+      </c>
+      <c r="U34" s="68"/>
       <c r="V34" s="68"/>
       <c r="W34" s="68"/>
       <c r="X34" s="68"/>
@@ -4632,25 +4813,25 @@
         <v>28</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E35" s="96"/>
       <c r="F35" s="68" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G35" s="96"/>
       <c r="H35" s="74"/>
       <c r="I35" s="68" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="K35" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L35" s="68">
         <v>0</v>
@@ -4662,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="68">
         <v>0</v>
@@ -4674,12 +4855,12 @@
         <v>0</v>
       </c>
       <c r="S35" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="T35" s="68">
+        <v>1</v>
+      </c>
+      <c r="U35" s="68"/>
       <c r="V35" s="68"/>
       <c r="W35" s="68"/>
       <c r="X35" s="68"/>
@@ -4703,25 +4884,25 @@
         <v>29</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="68" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G36" s="96"/>
       <c r="H36" s="74"/>
       <c r="I36" s="68" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J36" s="68" t="s">
         <v>50</v>
       </c>
       <c r="K36" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L36" s="68">
         <v>0</v>
@@ -4733,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="68">
         <v>0</v>
@@ -4745,13 +4926,15 @@
         <v>0</v>
       </c>
       <c r="S36" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68">
-        <v>1</v>
-      </c>
-      <c r="V36" s="68"/>
+        <v>67</v>
+      </c>
+      <c r="T36" s="68">
+        <v>1</v>
+      </c>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68">
+        <v>1</v>
+      </c>
       <c r="W36" s="68"/>
       <c r="X36" s="68"/>
       <c r="Y36" s="68"/>
@@ -4774,25 +4957,25 @@
         <v>30</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="E37" s="96"/>
       <c r="F37" s="68" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G37" s="96"/>
       <c r="H37" s="74"/>
       <c r="I37" s="68" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K37" s="152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L37" s="68">
         <v>0</v>
@@ -4804,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="68">
         <v>0</v>
@@ -4816,12 +4999,12 @@
         <v>0</v>
       </c>
       <c r="S37" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="T37" s="68">
+        <v>1</v>
+      </c>
+      <c r="U37" s="68"/>
       <c r="V37" s="68"/>
       <c r="W37" s="68"/>
       <c r="X37" s="68"/>
@@ -4844,31 +5027,31 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4898,13 +5081,13 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4927,13 +5110,15 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="T39"/>
-      <c r="U39">
-        <v>1</v>
-      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
-      <c r="X39"/>
+      <c r="X39">
+        <v>2</v>
+      </c>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
@@ -4946,16 +5131,16 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4967,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4978,13 +5163,15 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="T40"/>
-      <c r="U40">
-        <v>1</v>
-      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-      <c r="X40"/>
+      <c r="X40">
+        <v>4</v>
+      </c>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
@@ -4997,16 +5184,16 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5018,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5029,13 +5216,15 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="T41"/>
-      <c r="U41">
-        <v>1</v>
-      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
-      <c r="X41"/>
+      <c r="X41">
+        <v>2</v>
+      </c>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
@@ -5048,15 +5237,17 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42"/>
+        <v>132</v>
+      </c>
+      <c r="J42" t="s">
+        <v>133</v>
+      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -5078,17 +5269,13 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="T42"/>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42"/>
+      <c r="V42"/>
       <c r="W42"/>
-      <c r="X42">
-        <v>4</v>
-      </c>
+      <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
@@ -5101,16 +5288,16 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5122,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5133,10 +5320,10 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="T43"/>
-      <c r="U43">
-        <v>1</v>
-      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
@@ -5152,16 +5339,16 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5184,10 +5371,10 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="T44"/>
-      <c r="U44">
-        <v>1</v>
-      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
@@ -5203,16 +5390,16 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -5236,11 +5423,9 @@
         <v>0</v>
       </c>
       <c r="T45"/>
-      <c r="U45">
-        <v>1</v>
-      </c>
+      <c r="U45"/>
       <c r="V45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45"/>
       <c r="X45"/>
@@ -5256,31 +5441,31 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -5292,9 +5477,13 @@
         <v>1</v>
       </c>
       <c r="U46"/>
-      <c r="V46"/>
+      <c r="V46">
+        <v>1</v>
+      </c>
       <c r="W46"/>
-      <c r="X46"/>
+      <c r="X46">
+        <v>2</v>
+      </c>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -5307,16 +5496,16 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5339,13 +5528,15 @@
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="T47"/>
+      <c r="T47">
+        <v>1</v>
+      </c>
       <c r="U47"/>
       <c r="V47"/>
-      <c r="W47">
-        <v>2</v>
-      </c>
-      <c r="X47"/>
+      <c r="W47"/>
+      <c r="X47">
+        <v>4</v>
+      </c>
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
@@ -5358,16 +5549,16 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5379,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -5390,13 +5581,15 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="T48"/>
+      <c r="T48">
+        <v>1</v>
+      </c>
       <c r="U48"/>
       <c r="V48"/>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48"/>
+      <c r="W48"/>
+      <c r="X48">
+        <v>2</v>
+      </c>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -5409,16 +5602,16 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5442,16 +5635,12 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49"/>
-      <c r="V49">
-        <v>1</v>
-      </c>
+      <c r="V49"/>
       <c r="W49"/>
-      <c r="X49">
-        <v>2</v>
-      </c>
+      <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
@@ -5464,16 +5653,16 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5501,12 +5690,8 @@
       </c>
       <c r="U50"/>
       <c r="V50"/>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
-        <v>4</v>
-      </c>
+      <c r="W50"/>
+      <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
@@ -5519,16 +5704,16 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5540,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5551,11 +5736,11 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="T51"/>
+      <c r="T51">
+        <v>2</v>
+      </c>
       <c r="U51"/>
-      <c r="V51">
-        <v>1</v>
-      </c>
+      <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
@@ -5570,16 +5755,16 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5591,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5603,14 +5788,14 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52"/>
       <c r="V52"/>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52"/>
+      <c r="W52"/>
+      <c r="X52">
+        <v>4</v>
+      </c>
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>
@@ -5623,16 +5808,16 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I53" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5644,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -5655,13 +5840,15 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="T53"/>
+      <c r="T53">
+        <v>1</v>
+      </c>
       <c r="U53"/>
-      <c r="V53">
-        <v>2</v>
-      </c>
+      <c r="V53"/>
       <c r="W53"/>
-      <c r="X53"/>
+      <c r="X53">
+        <v>4</v>
+      </c>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
@@ -5674,16 +5861,16 @@
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5707,12 +5894,10 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54"/>
-      <c r="V54">
-        <v>2</v>
-      </c>
+      <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
@@ -5727,16 +5912,16 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5760,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
       <c r="X55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y55"/>
       <c r="Z55"/>
@@ -5780,16 +5965,16 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5801,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5813,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
       <c r="X56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y56"/>
       <c r="Z56"/>
@@ -5836,13 +6021,13 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5854,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5865,12 +6050,12 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="T57"/>
+      <c r="T57">
+        <v>1</v>
+      </c>
       <c r="U57"/>
       <c r="V57"/>
-      <c r="W57">
-        <v>1</v>
-      </c>
+      <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
@@ -5878,6 +6063,2066 @@
       <c r="AB57"/>
       <c r="AC57"/>
       <c r="AK57"/>
+    </row>
+    <row r="58" spans="1:37">
+      <c r="B58">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AK58"/>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="B59">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AK59"/>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="B60">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60" t="s">
+        <v>155</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AK60"/>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="B61">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AK61"/>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="B62">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" t="s">
+        <v>156</v>
+      </c>
+      <c r="J62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62"/>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AK62"/>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="B63">
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AK63"/>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="B64">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AK64"/>
+    </row>
+    <row r="65" spans="1:37">
+      <c r="B65">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>161</v>
+      </c>
+      <c r="J65" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AK65"/>
+    </row>
+    <row r="66" spans="1:37">
+      <c r="B66">
+        <v>59</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" t="s">
+        <v>161</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66">
+        <v>2</v>
+      </c>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AK66"/>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AK67"/>
+    </row>
+    <row r="68" spans="1:37">
+      <c r="B68">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I68" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AK68"/>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="B69">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" t="s">
+        <v>164</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AK69"/>
+    </row>
+    <row r="70" spans="1:37">
+      <c r="B70">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>166</v>
+      </c>
+      <c r="I70" t="s">
+        <v>167</v>
+      </c>
+      <c r="J70" t="s">
+        <v>168</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70"/>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AK70"/>
+    </row>
+    <row r="71" spans="1:37">
+      <c r="B71">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>169</v>
+      </c>
+      <c r="J71" t="s">
+        <v>170</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AK71"/>
+    </row>
+    <row r="72" spans="1:37">
+      <c r="B72">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="I72" t="s">
+        <v>170</v>
+      </c>
+      <c r="J72" t="s">
+        <v>171</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AK72"/>
+    </row>
+    <row r="73" spans="1:37">
+      <c r="B73">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" t="s">
+        <v>172</v>
+      </c>
+      <c r="J73" t="s">
+        <v>173</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73">
+        <v>4</v>
+      </c>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AK73"/>
+    </row>
+    <row r="74" spans="1:37">
+      <c r="B74">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s">
+        <v>174</v>
+      </c>
+      <c r="J74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74">
+        <v>4</v>
+      </c>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AK74"/>
+    </row>
+    <row r="75" spans="1:37">
+      <c r="B75">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>175</v>
+      </c>
+      <c r="J75" t="s">
+        <v>176</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AK75"/>
+    </row>
+    <row r="76" spans="1:37">
+      <c r="B76">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" t="s">
+        <v>178</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76"/>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>4</v>
+      </c>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AK76"/>
+    </row>
+    <row r="77" spans="1:37">
+      <c r="B77">
+        <v>70</v>
+      </c>
+      <c r="D77" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s">
+        <v>178</v>
+      </c>
+      <c r="J77" t="s">
+        <v>179</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77">
+        <v>4</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AK77"/>
+    </row>
+    <row r="78" spans="1:37">
+      <c r="B78">
+        <v>71</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" t="s">
+        <v>180</v>
+      </c>
+      <c r="J78" t="s">
+        <v>162</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AK78"/>
+    </row>
+    <row r="79" spans="1:37">
+      <c r="B79">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" t="s">
+        <v>157</v>
+      </c>
+      <c r="J79" t="s">
+        <v>180</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AK79"/>
+    </row>
+    <row r="80" spans="1:37">
+      <c r="B80">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J80" t="s">
+        <v>132</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AK80"/>
+    </row>
+    <row r="81" spans="1:37">
+      <c r="B81">
+        <v>74</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" t="s">
+        <v>181</v>
+      </c>
+      <c r="J81" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AK81"/>
+    </row>
+    <row r="82" spans="1:37">
+      <c r="B82">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" t="s">
+        <v>184</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82">
+        <v>4</v>
+      </c>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AK82"/>
+    </row>
+    <row r="83" spans="1:37">
+      <c r="B83">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" t="s">
+        <v>183</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AK83"/>
+    </row>
+    <row r="84" spans="1:37">
+      <c r="B84">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s">
+        <v>172</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AK84"/>
+    </row>
+    <row r="85" spans="1:37">
+      <c r="B85">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" t="s">
+        <v>173</v>
+      </c>
+      <c r="J85" t="s">
+        <v>181</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85">
+        <v>2</v>
+      </c>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AK85"/>
+    </row>
+    <row r="86" spans="1:37">
+      <c r="B86">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" t="s">
+        <v>186</v>
+      </c>
+      <c r="J86" t="s">
+        <v>187</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AK86"/>
+    </row>
+    <row r="87" spans="1:37">
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" t="s">
+        <v>188</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AK87"/>
+    </row>
+    <row r="88" spans="1:37">
+      <c r="B88">
+        <v>81</v>
+      </c>
+      <c r="D88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s">
+        <v>178</v>
+      </c>
+      <c r="J88" t="s">
+        <v>174</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88"/>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88"/>
+      <c r="X88">
+        <v>2</v>
+      </c>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AK88"/>
+    </row>
+    <row r="89" spans="1:37">
+      <c r="B89">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s">
+        <v>177</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89"/>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89"/>
+      <c r="X89">
+        <v>2</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AK89"/>
+    </row>
+    <row r="90" spans="1:37">
+      <c r="B90">
+        <v>83</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90" t="s">
+        <v>186</v>
+      </c>
+      <c r="J90" t="s">
+        <v>154</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AK90"/>
+    </row>
+    <row r="91" spans="1:37">
+      <c r="B91">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" t="s">
+        <v>166</v>
+      </c>
+      <c r="I91" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" t="s">
+        <v>189</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AK91"/>
+    </row>
+    <row r="92" spans="1:37">
+      <c r="B92">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+      <c r="I92" t="s">
+        <v>190</v>
+      </c>
+      <c r="J92" t="s">
+        <v>186</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AK92"/>
+    </row>
+    <row r="93" spans="1:37">
+      <c r="B93">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
+        <v>166</v>
+      </c>
+      <c r="I93" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93" t="s">
+        <v>191</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AK93"/>
+    </row>
+    <row r="94" spans="1:37">
+      <c r="B94">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" t="s">
+        <v>167</v>
+      </c>
+      <c r="J94" t="s">
+        <v>167</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AK94"/>
+    </row>
+    <row r="95" spans="1:37">
+      <c r="B95">
+        <v>88</v>
+      </c>
+      <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" t="s">
+        <v>171</v>
+      </c>
+      <c r="J95" t="s">
+        <v>192</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95"/>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AK95"/>
+    </row>
+    <row r="96" spans="1:37">
+      <c r="B96">
+        <v>89</v>
+      </c>
+      <c r="D96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
+      </c>
+      <c r="I96" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" t="s">
+        <v>190</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AK96"/>
+    </row>
+    <row r="97" spans="1:37">
+      <c r="B97">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>148</v>
+      </c>
+      <c r="J97" t="s">
+        <v>169</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AK97"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5949,12 +8194,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -5966,83 +8211,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="Y6" s="109" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="AC6" s="110" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="AF6" s="104" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="AG6" s="82" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="AJ6" s="116" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -6050,10 +8295,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -6061,7 +8306,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -6069,67 +8314,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="T7" s="89" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="U7" s="89" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="W7" s="90" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="X7" s="90" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="Y7" s="90" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="Z7" s="112" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="AA7" s="90" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="AB7" s="90" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="AC7" s="106" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="AD7" s="89" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="AE7" s="90" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="AF7" s="90" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="AG7" s="119" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="AH7" s="119" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -6219,13 +8464,13 @@
         <v>43</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -6234,7 +8479,7 @@
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
       <c r="M8" s="63" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -6258,13 +8503,13 @@
       <c r="AG8" s="125"/>
       <c r="AH8" s="95"/>
       <c r="AI8" s="126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="127" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="AL8" s="128"/>
     </row>
@@ -6523,16 +8768,16 @@
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J15" s="97" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -6574,16 +8819,16 @@
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -6625,16 +8870,16 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -6676,16 +8921,16 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -6727,16 +8972,16 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -7549,7 +9794,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N61" sqref="N61"/>
@@ -7575,7 +9820,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -7590,7 +9835,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -7624,16 +9869,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -7647,7 +9892,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -7656,7 +9901,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -7666,19 +9911,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -7688,28 +9933,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -7720,38 +9965,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -7770,9 +10015,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>5.5</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21">
         <v>1</v>
@@ -7795,7 +10038,9 @@
       <c r="H12" s="24"/>
       <c r="I12" s="21"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24">
         <v>1</v>
@@ -7912,7 +10157,9 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="M17" s="24">
+        <v>1</v>
+      </c>
       <c r="N17" s="24"/>
       <c r="O17" s="28"/>
     </row>
@@ -7956,7 +10203,9 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="M19" s="24">
+        <v>1</v>
+      </c>
       <c r="N19" s="24"/>
       <c r="O19" s="28"/>
     </row>
@@ -7975,7 +10224,9 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L20" s="24"/>
       <c r="M20" s="24">
         <v>1</v>
@@ -8067,7 +10318,9 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <v>1</v>
@@ -8159,9 +10412,13 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="M28" s="24">
+        <v>1</v>
+      </c>
       <c r="N28" s="24"/>
       <c r="O28" s="28"/>
     </row>
@@ -8180,7 +10437,9 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L29" s="24"/>
       <c r="M29" s="24">
         <v>1</v>
@@ -8203,9 +10462,13 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="M30" s="24">
+        <v>1</v>
+      </c>
       <c r="N30" s="24"/>
       <c r="O30" s="28"/>
     </row>
@@ -8224,7 +10487,9 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L31" s="24"/>
       <c r="M31" s="24">
         <v>1</v>
@@ -8247,7 +10512,9 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L32" s="24"/>
       <c r="M32" s="24">
         <v>1</v>
@@ -8270,7 +10537,9 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L33" s="24"/>
       <c r="M33" s="24">
         <v>1</v>
@@ -8293,9 +10562,13 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="M34" s="24">
+        <v>1</v>
+      </c>
       <c r="N34" s="24"/>
       <c r="O34" s="28"/>
     </row>
@@ -8314,9 +10587,13 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="M35" s="24">
+        <v>1</v>
+      </c>
       <c r="N35" s="24"/>
       <c r="O35" s="28"/>
     </row>
@@ -8335,9 +10612,13 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="M36" s="24">
+        <v>1</v>
+      </c>
       <c r="N36" s="24"/>
       <c r="O36" s="28"/>
     </row>
@@ -8356,7 +10637,9 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24">
         <v>1</v>
@@ -8379,7 +10662,9 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="K38" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L38" s="24"/>
       <c r="M38" s="24">
         <v>1</v>
@@ -8402,7 +10687,9 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L39" s="24"/>
       <c r="M39" s="24">
         <v>1</v>
@@ -8448,7 +10735,9 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="K41" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24">
         <v>1</v>
@@ -8471,7 +10760,9 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L42" s="24"/>
       <c r="M42" s="24">
         <v>1</v>
@@ -8494,9 +10785,13 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
+      <c r="M43" s="24">
+        <v>1</v>
+      </c>
       <c r="N43" s="24"/>
       <c r="O43" s="28"/>
     </row>
@@ -8515,7 +10810,9 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24">
         <v>1</v>
@@ -8538,7 +10835,9 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24">
         <v>1</v>
@@ -8561,7 +10860,9 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24">
         <v>1</v>
@@ -8584,7 +10885,9 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L47" s="24"/>
       <c r="M47" s="24">
         <v>1</v>
@@ -8607,7 +10910,9 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
+      <c r="K48" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L48" s="24"/>
       <c r="M48" s="24">
         <v>1</v>
@@ -8630,7 +10935,9 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L49" s="24"/>
       <c r="M49" s="24">
         <v>1</v>
@@ -8653,9 +10960,13 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
+      <c r="K50" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
+      <c r="M50" s="24">
+        <v>1</v>
+      </c>
       <c r="N50" s="24"/>
       <c r="O50" s="28"/>
     </row>
@@ -8674,9 +10985,13 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
+      <c r="K51" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+      <c r="M51" s="24">
+        <v>1</v>
+      </c>
       <c r="N51" s="24"/>
       <c r="O51" s="28"/>
     </row>
@@ -8907,9 +11222,11 @@
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="30"/>
+        <v>271</v>
+      </c>
+      <c r="B61" s="30">
+        <v>51</v>
+      </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
@@ -8918,156 +11235,718 @@
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="30">
+        <v>5.5</v>
+      </c>
       <c r="L61" s="30"/>
       <c r="M61" s="24">
-        <f>COUNTIF(M11:M60,"/")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="24">
-        <f>COUNTIF(N11:N60,"/")</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" s="24"/>
       <c r="O61" s="28"/>
     </row>
     <row r="62" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B62" s="31"/>
+      <c r="B62" s="31">
+        <v>52</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4">
+        <v>5.5</v>
+      </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4">
+        <v>1</v>
+      </c>
       <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B63" s="31"/>
+      <c r="B63" s="31">
+        <v>53</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="32" t="s">
-        <v>204</v>
-      </c>
+      <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
+      <c r="K63" s="32">
+        <v>5.5</v>
+      </c>
       <c r="L63" s="32"/>
-      <c r="M63" s="32" t="s">
-        <v>205</v>
+      <c r="M63" s="32">
+        <v>1</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
     </row>
     <row r="64" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B64" s="31"/>
+      <c r="B64" s="31">
+        <v>54</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
+      <c r="K64" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L64" s="24"/>
-      <c r="M64" s="41"/>
+      <c r="M64" s="41">
+        <v>1</v>
+      </c>
       <c r="N64" s="41"/>
       <c r="O64" s="41"/>
     </row>
     <row r="65" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B65" s="31"/>
+      <c r="B65" s="31">
+        <v>55</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
+      <c r="K65" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L65" s="24"/>
-      <c r="M65" s="41"/>
+      <c r="M65" s="41">
+        <v>1</v>
+      </c>
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
     </row>
     <row r="66" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B66" s="31"/>
+      <c r="B66" s="31">
+        <v>56</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="42" t="s">
-        <v>206</v>
-      </c>
+      <c r="G66" s="42"/>
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
+      <c r="K66" s="40">
+        <v>5.5</v>
+      </c>
       <c r="L66" s="40"/>
-      <c r="M66" s="43" t="s">
-        <v>206</v>
+      <c r="M66" s="43">
+        <v>1</v>
       </c>
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
     </row>
     <row r="67" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B67" s="31"/>
+      <c r="B67" s="31">
+        <v>57</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="42" t="s">
-        <v>207</v>
-      </c>
+      <c r="G67" s="42"/>
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
+      <c r="K67" s="40">
+        <v>5.5</v>
+      </c>
       <c r="L67" s="40"/>
-      <c r="M67" s="43" t="s">
-        <v>207</v>
+      <c r="M67" s="43">
+        <v>1</v>
       </c>
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
     </row>
     <row r="68" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B68" s="31"/>
+      <c r="B68" s="31">
+        <v>58</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="42" t="s">
-        <v>208</v>
-      </c>
+      <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="40">
+        <v>5.5</v>
+      </c>
       <c r="L68" s="40"/>
-      <c r="M68" s="43" t="s">
-        <v>208</v>
+      <c r="M68" s="43">
+        <v>1</v>
       </c>
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>
     </row>
     <row r="69" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B69" s="31"/>
+      <c r="B69" s="31">
+        <v>59</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="K69" s="4">
+        <v>5.5</v>
+      </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B70" s="31"/>
+      <c r="B70" s="31">
+        <v>60</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="4">
+        <v>5.5</v>
+      </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
       <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="B71">
+        <v>61</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71">
+        <v>4.5</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="B72">
+        <v>62</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72">
+        <v>4.5</v>
+      </c>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="B73">
+        <v>63</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73">
+        <v>5.0</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74">
+        <v>5.5</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75">
+        <v>5.5</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76">
+        <v>66</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="B77">
+        <v>67</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77">
+        <v>5.5</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="B78">
+        <v>68</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="B79">
+        <v>69</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79">
+        <v>5.5</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="B80">
+        <v>70</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80">
+        <v>5.5</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="B81">
+        <v>71</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81">
+        <v>5.5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="B82">
+        <v>72</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82">
+        <v>5.5</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="B83">
+        <v>73</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83">
+        <v>5.5</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="B84">
+        <v>74</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84">
+        <v>5.5</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="B85">
+        <v>75</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85">
+        <v>5.5</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="B86">
+        <v>76</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86">
+        <v>5.5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="B87">
+        <v>77</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87">
+        <v>5.5</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="B88">
+        <v>78</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88">
+        <v>5.5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="B89">
+        <v>79</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89">
+        <v>5.5</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="B90">
+        <v>80</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90">
+        <v>5.5</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="B91">
+        <v>81</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91">
+        <v>5.5</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92">
+        <v>5.5</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="B93">
+        <v>83</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93">
+        <v>5.5</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="B94">
+        <v>84</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94">
+        <v>5.5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="B95">
+        <v>85</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95">
+        <v>5.5</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="B96">
+        <v>86</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96">
+        <v>5.5</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="B97">
+        <v>87</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97">
+        <v>5.5</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="B98">
+        <v>88</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98">
+        <v>5.0</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="B99">
+        <v>89</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99">
+        <v>5.5</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="B100">
+        <v>90</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100">
+        <v>5.5</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -178,58 +178,52 @@
     <t>PETALING JAYA NO 4</t>
   </si>
   <si>
-    <t>Jalan 6/13</t>
-  </si>
-  <si>
-    <t>JLN 6/13/5</t>
-  </si>
-  <si>
-    <t>JLN 6/13/6</t>
+    <t>Jalan Endah</t>
+  </si>
+  <si>
+    <t>JLN 6/7/2</t>
+  </si>
+  <si>
+    <t>JLN 6/7/3</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
+    <t xml:space="preserve">P/E PJ :4 </t>
+  </si>
+  <si>
+    <t>Jalan 6/21</t>
+  </si>
+  <si>
+    <t>JLN 6/21 1</t>
+  </si>
+  <si>
+    <t>JLN 6/21 2</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00154</t>
+  </si>
+  <si>
+    <t>JLN 6/7/4</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00155</t>
+  </si>
+  <si>
+    <t>JLN 6/7/5</t>
+  </si>
+  <si>
+    <t>JLN 6/7/5/1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00156</t>
+  </si>
+  <si>
     <t>P/E PJ :4</t>
   </si>
   <si>
-    <t>Jalan Tinggi</t>
-  </si>
-  <si>
-    <t>JLN 6/12 4</t>
-  </si>
-  <si>
-    <t>JLN 6/12 3</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00154</t>
-  </si>
-  <si>
-    <t>Jalan Anak Gasing</t>
-  </si>
-  <si>
-    <t>JLN 6/5/9</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00155</t>
-  </si>
-  <si>
-    <t>Jalan 6/5</t>
-  </si>
-  <si>
-    <t>JLN 6/5/8</t>
-  </si>
-  <si>
-    <t>JLN 6/5/7</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00156</t>
-  </si>
-  <si>
-    <t>JLN 6/5/6</t>
-  </si>
-  <si>
-    <t>JLN 6/5/5</t>
+    <t>JLN 6/21 3</t>
   </si>
   <si>
     <t>7.0m</t>
@@ -241,10 +235,16 @@
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
-    <t>JLN 6/5/4</t>
-  </si>
-  <si>
-    <t>JLN 6/5/3</t>
+    <t>P/E PJ:4</t>
+  </si>
+  <si>
+    <t>Lorong 6/15A</t>
+  </si>
+  <si>
+    <t>LRG 6/15 A 1</t>
+  </si>
+  <si>
+    <t>LRG 6/15 A 3</t>
   </si>
   <si>
     <t>Terus</t>
@@ -253,10 +253,10 @@
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
-    <t>JLN 6/13/3</t>
-  </si>
-  <si>
-    <t>JLN 6/13/4</t>
+    <t>JLN 6/7/1</t>
+  </si>
+  <si>
+    <t>JLN 6/7/1/1</t>
   </si>
   <si>
     <t>BKLG/PCE/J00159</t>
@@ -265,364 +265,394 @@
     <t>BKLG/PCE/J00160</t>
   </si>
   <si>
-    <t>JLN 6/5/2</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
+    <t>BKLG/PCE/J00162</t>
+  </si>
+  <si>
+    <t>P/E PJ : 4</t>
+  </si>
+  <si>
+    <t>JLN 6/28 1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00163</t>
+  </si>
+  <si>
+    <t>Jalan 6/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLN 6/28 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLN 6/28 2 </t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00164</t>
+  </si>
+  <si>
+    <t>Jalan 6/19</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>JLN 6/19 2</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00165</t>
+  </si>
+  <si>
+    <t>JLN 6/15 16</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00166</t>
+  </si>
+  <si>
+    <t>JLN 6/28 2</t>
+  </si>
+  <si>
+    <t>JLN 6/28 2/1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00167</t>
+  </si>
+  <si>
+    <t>JLN 6/15 12</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00168</t>
+  </si>
+  <si>
+    <t>JLN 6/15 17</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00169</t>
+  </si>
+  <si>
+    <t>Jalan 6/14</t>
+  </si>
+  <si>
+    <t>JLN 6/14 3</t>
+  </si>
+  <si>
+    <t>JLN 6/14 4</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00170</t>
+  </si>
+  <si>
+    <t>JLN 6/14 3/1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00171</t>
+  </si>
+  <si>
+    <t>JLN 6/14 2</t>
+  </si>
+  <si>
+    <t>Tamatan</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00172</t>
+  </si>
+  <si>
+    <t>JLN 6/14 2/2</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00173</t>
+  </si>
+  <si>
+    <t>P/E PJ: 4</t>
+  </si>
+  <si>
+    <t>JLN 6/14 2/1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00174</t>
+  </si>
+  <si>
+    <t>FP 1 JLN 6/15</t>
+  </si>
+  <si>
+    <t>Jalan Chawan (6/15)</t>
+  </si>
+  <si>
+    <t>JLN 6/15/9</t>
+  </si>
+  <si>
+    <t>JLN 6/15/8/1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00175</t>
+  </si>
+  <si>
+    <t>JLN 6/14 1</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00176</t>
+  </si>
+  <si>
+    <t>JLN 6/15 19</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00177</t>
+  </si>
+  <si>
+    <t>Jalan 6/26</t>
+  </si>
+  <si>
+    <t>JLN 6/26 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00178</t>
+  </si>
+  <si>
+    <t>JLN 6/26 1</t>
+  </si>
+  <si>
+    <t>JLN 6 / 26 2</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00179</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00180</t>
+  </si>
+  <si>
+    <t>JLN 6/15/4</t>
+  </si>
+  <si>
+    <t>JLN 6/15/3</t>
+  </si>
+  <si>
+    <t>BKLG/PCE/J00181</t>
+  </si>
+  <si>
+    <t>JLN 6/15/6</t>
+  </si>
+  <si>
+    <t>JLN 6/15/5</t>
+  </si>
+  <si>
+    <t>FP 1 JLN 6/15/6</t>
+  </si>
+  <si>
+    <t>Jalan 6/15</t>
+  </si>
+  <si>
+    <t>JLN 6/15/7</t>
+  </si>
+  <si>
+    <t>JLN 6/15/8</t>
+  </si>
+  <si>
+    <t>JLN 6/15/7/1</t>
+  </si>
+  <si>
+    <t>JLN 6/15/1</t>
+  </si>
+  <si>
+    <t>JLN 6/15/1/1</t>
+  </si>
+  <si>
+    <t>JLN 6/15/12</t>
+  </si>
+  <si>
+    <t>JLN 6/15A/1</t>
+  </si>
+  <si>
+    <t>JLN 6/15/11</t>
+  </si>
+  <si>
+    <t>JLN 6/15/10</t>
+  </si>
+  <si>
     <t>Jalan Mewah</t>
   </si>
   <si>
-    <t>JLN 6/9 4</t>
-  </si>
-  <si>
-    <t>JLN 6/9 5</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00162</t>
-  </si>
-  <si>
-    <t>JLN 6/13/1</t>
-  </si>
-  <si>
-    <t>JLN 6/13/2</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00163</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00164</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00165</t>
-  </si>
-  <si>
-    <t>JLN 6/13/7</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00166</t>
-  </si>
-  <si>
-    <t>JLN 6/12/6</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00167</t>
-  </si>
-  <si>
-    <t>JLN 6/5/1</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00168</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00169</t>
-  </si>
-  <si>
-    <t>JLN 6/12 7</t>
-  </si>
-  <si>
-    <t>JLN 6/12 6</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00170</t>
-  </si>
-  <si>
-    <t>P/E PJ: 4</t>
-  </si>
-  <si>
-    <t>JLN 6/12 10</t>
-  </si>
-  <si>
-    <t>JLN 6/12 9</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00171</t>
-  </si>
-  <si>
-    <t>P/E PJ : 4</t>
-  </si>
-  <si>
-    <t>JLN 6/12 13</t>
-  </si>
-  <si>
-    <t>Tamatan</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00172</t>
-  </si>
-  <si>
-    <t>Jalan 6/17</t>
-  </si>
-  <si>
-    <t>JLN 6/17 2</t>
-  </si>
-  <si>
-    <t>JLN 6/17 3</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00173</t>
-  </si>
-  <si>
-    <t>JLN 6/12 5</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00174</t>
-  </si>
-  <si>
-    <t>JLN 6/12 8</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00175</t>
-  </si>
-  <si>
-    <t>JLN 6/12 2</t>
-  </si>
-  <si>
-    <t>JLN 6/12 1</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00176</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00177</t>
-  </si>
-  <si>
-    <t>JLN 6/12 11</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00178</t>
-  </si>
-  <si>
-    <t>JLN 6 12 /13</t>
-  </si>
-  <si>
-    <t>JLN 6 /12 12</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00179</t>
-  </si>
-  <si>
-    <t>JLN 6/12 12</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00180</t>
-  </si>
-  <si>
-    <t>BKLG/PCE/J00181</t>
-  </si>
-  <si>
-    <t>Jalan Permai</t>
-  </si>
-  <si>
-    <t>JLN 6/6/5</t>
-  </si>
-  <si>
-    <t>JLN 6/6/6</t>
-  </si>
-  <si>
-    <t>P/E PJ:4</t>
-  </si>
-  <si>
-    <t>Jalan Chawan (6/15)</t>
-  </si>
-  <si>
-    <t>JLN 6/15 15</t>
-  </si>
-  <si>
-    <t>JLN 6/15 16</t>
-  </si>
-  <si>
-    <t>JLN 6/15 17</t>
-  </si>
-  <si>
-    <t>PADAT JLN 6/10</t>
-  </si>
-  <si>
-    <t>Jalan Molek</t>
-  </si>
-  <si>
-    <t>JLN 6/8/4</t>
-  </si>
-  <si>
-    <t>JLN 6/8/5</t>
-  </si>
-  <si>
-    <t>Jalan 6/11</t>
-  </si>
-  <si>
-    <t>JLN 6/11 5</t>
-  </si>
-  <si>
-    <t>JLN 6/11 6</t>
-  </si>
-  <si>
-    <t>JLN 6/11 4</t>
-  </si>
-  <si>
-    <t>JLN 6/11 4/1</t>
-  </si>
-  <si>
-    <t>JLN 16/11 3</t>
-  </si>
-  <si>
-    <t>JLN 16/11 4</t>
-  </si>
-  <si>
-    <t>JLN 6/15 18</t>
-  </si>
-  <si>
-    <t>JLN 6/11 2</t>
-  </si>
-  <si>
-    <t>JLN 6/11 3</t>
-  </si>
-  <si>
-    <t>JLN 6/11 1</t>
-  </si>
-  <si>
-    <t>JLN 6/15 19</t>
-  </si>
-  <si>
-    <t>JLN 6/6/7</t>
-  </si>
-  <si>
-    <t>JLN 6/6/4</t>
-  </si>
-  <si>
-    <t>JLN 6/6/8</t>
-  </si>
-  <si>
-    <t>JLN 6/6/3</t>
-  </si>
-  <si>
-    <t>JLN 6/6/1</t>
-  </si>
-  <si>
-    <t>JLN 6/6/2</t>
-  </si>
-  <si>
-    <t>Jalan 17/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRG 6/15B </t>
-  </si>
-  <si>
-    <t>JLN 6/8/2</t>
-  </si>
-  <si>
-    <t>JLN 6/8/3</t>
-  </si>
-  <si>
-    <t>JLN 6/8/6</t>
-  </si>
-  <si>
-    <t>JLN 6/8/7</t>
-  </si>
-  <si>
-    <t>JLN 6/15 22</t>
-  </si>
-  <si>
-    <t>JLN 6/15 23</t>
+    <t>JLN 6/9/5</t>
+  </si>
+  <si>
+    <t>JLN 6/15/2</t>
+  </si>
+  <si>
+    <t>JLN 6/15A/2</t>
+  </si>
+  <si>
+    <t>JLN 6/15A/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETALING JAYA NO 4 </t>
+  </si>
+  <si>
+    <t>Jalan 6/20</t>
+  </si>
+  <si>
+    <t>JLN 6/20/2</t>
+  </si>
+  <si>
+    <t>JLN 6/20/3</t>
+  </si>
+  <si>
+    <t>JLN 6/20/4</t>
+  </si>
+  <si>
+    <t>JLN 6/20/4/1</t>
+  </si>
+  <si>
+    <t>JLN 6/20/1</t>
+  </si>
+  <si>
+    <t>Jalan 6/18</t>
+  </si>
+  <si>
+    <t>JLN 6/18/1</t>
+  </si>
+  <si>
+    <t>JLN 6/18/2</t>
+  </si>
+  <si>
+    <t>JLN 6/20/2/1</t>
+  </si>
+  <si>
+    <t>JLN 6/18/3</t>
+  </si>
+  <si>
+    <t>Jalan 6/16</t>
+  </si>
+  <si>
+    <t>JLN 6/16 1</t>
+  </si>
+  <si>
+    <t>JLN 6/16 2</t>
   </si>
   <si>
     <t>JLN 6/15 21</t>
   </si>
   <si>
-    <t>JLN 6/15 20</t>
-  </si>
-  <si>
-    <t>JLN 6/8/7/2</t>
-  </si>
-  <si>
-    <t>JLN 6/8/7/3</t>
-  </si>
-  <si>
-    <t>JLN 6/8/8</t>
-  </si>
-  <si>
-    <t>JLN 6/8/9</t>
-  </si>
-  <si>
-    <t>Jalan Bukit</t>
-  </si>
-  <si>
-    <t>JLN 6/10/1</t>
-  </si>
-  <si>
-    <t>JLN 6/10/2</t>
-  </si>
-  <si>
-    <t>JLN 6/6/9</t>
-  </si>
-  <si>
-    <t>JLN 6/6/10</t>
-  </si>
-  <si>
-    <t>JLN 6/6/11</t>
-  </si>
-  <si>
-    <t>JLN 6/15 12</t>
-  </si>
-  <si>
-    <t>JLN 6/15 13</t>
-  </si>
-  <si>
-    <t>JLN 6/9 3</t>
-  </si>
-  <si>
-    <t>JLN 6/12 13 /1</t>
-  </si>
-  <si>
-    <t>JLN 6/12 13/1</t>
-  </si>
-  <si>
-    <t>JLN 6/9 1</t>
-  </si>
-  <si>
-    <t>JLN 6/9 2</t>
-  </si>
-  <si>
-    <t>JLN 6/9 2/1</t>
-  </si>
-  <si>
-    <t>JLN 6/8/7/1</t>
-  </si>
-  <si>
-    <t>JLN 6/15 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JLN 6/15 15 </t>
-  </si>
-  <si>
-    <t>JLN 6/17 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JLN 6/17 2 </t>
-  </si>
-  <si>
-    <t>Jalan 17/6</t>
-  </si>
-  <si>
-    <t>JLN 6/8/1</t>
-  </si>
-  <si>
-    <t>JLN 6/10/5</t>
-  </si>
-  <si>
-    <t>JLN 6/10/6</t>
-  </si>
-  <si>
-    <t>JLN 6/10/7</t>
-  </si>
-  <si>
-    <t>JLN 6/10/4</t>
-  </si>
-  <si>
-    <t>JLN 6/10/3</t>
-  </si>
-  <si>
-    <t>JLN 6/6/12</t>
+    <t xml:space="preserve">JLN 6/16 2 </t>
+  </si>
+  <si>
+    <t>JLN 6/16 3</t>
+  </si>
+  <si>
+    <t>Jalan 6/24</t>
+  </si>
+  <si>
+    <t>JLN 6/24 1</t>
+  </si>
+  <si>
+    <t>JLN 6/24 1/2</t>
+  </si>
+  <si>
+    <t>JLN 6/24 2</t>
+  </si>
+  <si>
+    <t>JLN 6/24 3</t>
+  </si>
+  <si>
+    <t>JLN 6/16 4</t>
+  </si>
+  <si>
+    <t>JLN 6/16 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLN 6/16 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/E PJ:4 </t>
+  </si>
+  <si>
+    <t>JLN 6/16 6</t>
+  </si>
+  <si>
+    <t>JLN 6/16 6/1</t>
+  </si>
+  <si>
+    <t>JLN 6/24 2/1</t>
+  </si>
+  <si>
+    <t>JLN 6/24 4</t>
+  </si>
+  <si>
+    <t>JLN 6/24 1/1</t>
+  </si>
+  <si>
+    <t>Jalan Templer 6/3</t>
+  </si>
+  <si>
+    <t>JLN 6/3 7</t>
+  </si>
+  <si>
+    <t>JLN 6/3 8</t>
+  </si>
+  <si>
+    <t>JLN 6/3 4</t>
+  </si>
+  <si>
+    <t>JLN 6/3 4/1</t>
+  </si>
+  <si>
+    <t>JLN 6/3 2</t>
+  </si>
+  <si>
+    <t>JLN 6/3 2/1</t>
+  </si>
+  <si>
+    <t>JLN 6/3 1</t>
+  </si>
+  <si>
+    <t>JLN 6/3 1/1</t>
+  </si>
+  <si>
+    <t>JLN 6/3/5</t>
+  </si>
+  <si>
+    <t>JLN 6/3/6</t>
+  </si>
+  <si>
+    <t>JLN 6/3/4</t>
+  </si>
+  <si>
+    <t>JLN 6/3/7</t>
+  </si>
+  <si>
+    <t>JLN 6/3/1</t>
+  </si>
+  <si>
+    <t>JLN 6/3/2</t>
+  </si>
+  <si>
+    <t>JLN 6/3/3</t>
+  </si>
+  <si>
+    <t>JLN TMPLR 17</t>
+  </si>
+  <si>
+    <t>Lorong 6/1C</t>
+  </si>
+  <si>
+    <t>JLN 6/1 5</t>
+  </si>
+  <si>
+    <t>LRG 6/1 C 1</t>
+  </si>
+  <si>
+    <t>Lorong Templer 6/1</t>
+  </si>
+  <si>
+    <t>JLN 6/1 4</t>
+  </si>
+  <si>
+    <t>JLN 6/15</t>
+  </si>
+  <si>
+    <t>LRG 6/1 C 2</t>
   </si>
   <si>
     <r>
@@ -901,7 +931,7 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>2023-12-16</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -2671,7 +2701,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AK8" sqref="AK8"/>
@@ -2940,7 +2970,9 @@
       <c r="U8" s="68"/>
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
+      <c r="X8" s="68">
+        <v>2</v>
+      </c>
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
@@ -2988,10 +3020,18 @@
       <c r="N9" s="68">
         <v>0</v>
       </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+      <c r="O9" s="68">
+        <v>1</v>
+      </c>
+      <c r="P9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>0</v>
+      </c>
+      <c r="R9" s="68">
+        <v>0</v>
+      </c>
       <c r="S9" s="96"/>
       <c r="T9" s="68">
         <v>1</v>
@@ -2999,7 +3039,9 @@
       <c r="U9" s="68"/>
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
+      <c r="X9" s="68">
+        <v>4</v>
+      </c>
       <c r="Y9" s="68"/>
       <c r="Z9" s="68"/>
       <c r="AA9" s="68"/>
@@ -3027,15 +3069,15 @@
       </c>
       <c r="E10" s="96"/>
       <c r="F10" s="63" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="74"/>
       <c r="I10" s="68" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="152"/>
       <c r="L10" s="68">
@@ -3063,12 +3105,12 @@
       <c r="T10" s="68">
         <v>1</v>
       </c>
-      <c r="U10" s="68">
-        <v>1</v>
-      </c>
+      <c r="U10" s="68"/>
       <c r="V10" s="68"/>
       <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
+      <c r="X10" s="68">
+        <v>4</v>
+      </c>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
       <c r="AA10" s="68"/>
@@ -3089,22 +3131,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="96"/>
       <c r="F11" s="63" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G11" s="96"/>
       <c r="H11" s="74"/>
       <c r="I11" s="68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="152"/>
       <c r="L11" s="68">
@@ -3129,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="S11" s="96"/>
-      <c r="T11" s="68">
-        <v>2</v>
-      </c>
+      <c r="T11" s="68"/>
       <c r="U11" s="68"/>
       <c r="V11" s="68"/>
       <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
+      <c r="X11" s="68">
+        <v>1</v>
+      </c>
       <c r="Y11" s="68"/>
       <c r="Z11" s="68"/>
       <c r="AA11" s="68"/>
@@ -3156,59 +3198,59 @@
         <v>5</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="63" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G12" s="96"/>
       <c r="H12" s="74"/>
       <c r="I12" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="L12" s="68">
+        <v>0</v>
+      </c>
+      <c r="M12" s="68">
+        <v>0</v>
+      </c>
+      <c r="N12" s="68">
+        <v>0</v>
+      </c>
+      <c r="O12" s="68">
+        <v>1</v>
+      </c>
+      <c r="P12" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>0</v>
+      </c>
+      <c r="R12" s="68">
+        <v>0</v>
+      </c>
+      <c r="S12" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="68">
-        <v>0</v>
-      </c>
-      <c r="M12" s="68">
-        <v>0</v>
-      </c>
-      <c r="N12" s="68">
-        <v>0</v>
-      </c>
-      <c r="O12" s="68">
-        <v>0</v>
-      </c>
-      <c r="P12" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="68">
-        <v>0</v>
-      </c>
-      <c r="R12" s="68">
-        <v>0</v>
-      </c>
-      <c r="S12" s="96" t="s">
-        <v>63</v>
-      </c>
       <c r="T12" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="68"/>
-      <c r="V12" s="68">
-        <v>1</v>
-      </c>
+      <c r="V12" s="68"/>
       <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
+      <c r="X12" s="68">
+        <v>1</v>
+      </c>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
@@ -3229,14 +3271,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="63" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G13" s="96"/>
       <c r="H13" s="74"/>
@@ -3247,7 +3289,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L13" s="68">
         <v>0</v>
@@ -3273,11 +3315,11 @@
       <c r="S13" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T13" s="68">
-        <v>2</v>
-      </c>
+      <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
+      <c r="V13" s="68">
+        <v>1</v>
+      </c>
       <c r="W13" s="68"/>
       <c r="X13" s="68"/>
       <c r="Y13" s="68"/>
@@ -3318,7 +3360,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" s="68">
         <v>0</v>
@@ -3344,13 +3386,13 @@
       <c r="S14" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T14" s="68">
-        <v>2</v>
-      </c>
+      <c r="T14" s="68"/>
       <c r="U14" s="68"/>
       <c r="V14" s="68"/>
       <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
+      <c r="X14" s="68">
+        <v>2</v>
+      </c>
       <c r="Y14" s="68"/>
       <c r="Z14" s="68"/>
       <c r="AA14" s="68"/>
@@ -3378,19 +3420,19 @@
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="63" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G15" s="96"/>
       <c r="H15" s="74"/>
       <c r="I15" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="152" t="s">
-        <v>62</v>
-      </c>
       <c r="L15" s="68">
         <v>0</v>
       </c>
@@ -3401,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="68">
         <v>0</v>
@@ -3416,12 +3458,16 @@
         <v>67</v>
       </c>
       <c r="T15" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
+      <c r="V15" s="68">
+        <v>1</v>
+      </c>
       <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
+      <c r="X15" s="68">
+        <v>1</v>
+      </c>
       <c r="Y15" s="68"/>
       <c r="Z15" s="68"/>
       <c r="AA15" s="68"/>
@@ -3449,18 +3495,18 @@
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="63" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" s="96"/>
       <c r="H16" s="74"/>
       <c r="I16" s="68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="68">
         <v>0</v>
@@ -3472,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="68">
         <v>0</v>
@@ -3487,13 +3533,17 @@
         <v>67</v>
       </c>
       <c r="T16" s="68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
+      <c r="V16" s="68">
+        <v>1</v>
+      </c>
+      <c r="W16" s="68">
+        <v>1</v>
+      </c>
       <c r="X16" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="68"/>
       <c r="Z16" s="68"/>
@@ -3515,25 +3565,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="63" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G17" s="96"/>
       <c r="H17" s="74"/>
       <c r="I17" s="68" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K17" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" s="68">
         <v>0</v>
@@ -3563,12 +3613,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="68"/>
-      <c r="V17" s="68">
-        <v>1</v>
-      </c>
+      <c r="V17" s="68"/>
       <c r="W17" s="68"/>
       <c r="X17" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="68"/>
       <c r="Z17" s="68"/>
@@ -3590,25 +3638,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="63" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G18" s="96"/>
       <c r="H18" s="74"/>
       <c r="I18" s="68" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K18" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L18" s="68">
         <v>0</v>
@@ -3634,11 +3682,11 @@
       <c r="S18" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T18" s="68">
-        <v>1</v>
-      </c>
+      <c r="T18" s="68"/>
       <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
+      <c r="V18" s="68">
+        <v>1</v>
+      </c>
       <c r="W18" s="68"/>
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
@@ -3661,40 +3709,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="63" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G19" s="96"/>
       <c r="H19" s="74"/>
       <c r="I19" s="68" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K19" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="68">
-        <v>0</v>
-      </c>
-      <c r="M19" s="68">
-        <v>0</v>
-      </c>
-      <c r="N19" s="68">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="68">
         <v>0</v>
@@ -3705,16 +3747,14 @@
       <c r="S19" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T19" s="68">
-        <v>3</v>
-      </c>
-      <c r="U19" s="68">
-        <v>1</v>
-      </c>
-      <c r="V19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68">
+        <v>1</v>
+      </c>
       <c r="W19" s="68"/>
       <c r="X19" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="68"/>
       <c r="Z19" s="68"/>
@@ -3736,25 +3776,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="63" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G20" s="96"/>
       <c r="H20" s="74"/>
       <c r="I20" s="68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K20" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L20" s="68">
         <v>0</v>
@@ -3784,10 +3824,12 @@
         <v>1</v>
       </c>
       <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
+      <c r="V20" s="68">
+        <v>1</v>
+      </c>
       <c r="W20" s="68"/>
       <c r="X20" s="68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
@@ -3809,25 +3851,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="63" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="74"/>
       <c r="I21" s="68" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="68">
         <v>0</v>
@@ -3839,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="68">
         <v>0</v>
@@ -3857,7 +3899,9 @@
         <v>1</v>
       </c>
       <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
+      <c r="V21" s="68">
+        <v>2</v>
+      </c>
       <c r="W21" s="68"/>
       <c r="X21" s="68"/>
       <c r="Y21" s="68"/>
@@ -3880,25 +3924,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="63" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G22" s="96"/>
       <c r="H22" s="74"/>
       <c r="I22" s="68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K22" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L22" s="68">
         <v>0</v>
@@ -3909,29 +3953,19 @@
       <c r="N22" s="68">
         <v>0</v>
       </c>
-      <c r="O22" s="68">
-        <v>0</v>
-      </c>
-      <c r="P22" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="68">
-        <v>0</v>
-      </c>
-      <c r="R22" s="68">
-        <v>0</v>
-      </c>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T22" s="68">
-        <v>1</v>
-      </c>
+      <c r="T22" s="68"/>
       <c r="U22" s="68"/>
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="68"/>
       <c r="Z22" s="68"/>
@@ -3953,25 +3987,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="63" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G23" s="96"/>
       <c r="H23" s="74"/>
       <c r="I23" s="68" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K23" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L23" s="68">
         <v>0</v>
@@ -3998,13 +4032,15 @@
         <v>67</v>
       </c>
       <c r="T23" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
+      <c r="V23" s="68">
+        <v>1</v>
+      </c>
       <c r="W23" s="68"/>
       <c r="X23" s="68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="68"/>
       <c r="Z23" s="68"/>
@@ -4026,25 +4062,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="63" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G24" s="96"/>
       <c r="H24" s="74"/>
       <c r="I24" s="68" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K24" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L24" s="68">
         <v>0</v>
@@ -4071,10 +4107,12 @@
         <v>67</v>
       </c>
       <c r="T24" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
+      <c r="V24" s="68">
+        <v>1</v>
+      </c>
       <c r="W24" s="68"/>
       <c r="X24" s="68">
         <v>2</v>
@@ -4099,25 +4137,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="63" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G25" s="96"/>
       <c r="H25" s="74"/>
       <c r="I25" s="68" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K25" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L25" s="68">
         <v>0</v>
@@ -4129,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="68">
         <v>0</v>
@@ -4143,13 +4181,13 @@
       <c r="S25" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T25" s="68">
-        <v>2</v>
-      </c>
+      <c r="T25" s="68"/>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
       <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
+      <c r="X25" s="68">
+        <v>4</v>
+      </c>
       <c r="Y25" s="68"/>
       <c r="Z25" s="68"/>
       <c r="AA25" s="68"/>
@@ -4170,25 +4208,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="63" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G26" s="96"/>
       <c r="H26" s="74"/>
       <c r="I26" s="68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K26" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L26" s="68">
         <v>0</v>
@@ -4214,13 +4252,13 @@
       <c r="S26" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T26" s="68">
-        <v>2</v>
-      </c>
+      <c r="T26" s="68"/>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
       <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
+      <c r="X26" s="68">
+        <v>4</v>
+      </c>
       <c r="Y26" s="68"/>
       <c r="Z26" s="68"/>
       <c r="AA26" s="68"/>
@@ -4241,25 +4279,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E27" s="96"/>
       <c r="F27" s="63" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G27" s="96"/>
       <c r="H27" s="74"/>
       <c r="I27" s="68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K27" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="68">
         <v>0</v>
@@ -4270,28 +4308,22 @@
       <c r="N27" s="68">
         <v>0</v>
       </c>
-      <c r="O27" s="68">
-        <v>0</v>
-      </c>
-      <c r="P27" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="68">
-        <v>0</v>
-      </c>
-      <c r="R27" s="68">
-        <v>0</v>
-      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
       <c r="S27" s="96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T27" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" s="68"/>
       <c r="V27" s="68"/>
       <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
+      <c r="X27" s="68">
+        <v>4</v>
+      </c>
       <c r="Y27" s="68"/>
       <c r="Z27" s="68"/>
       <c r="AA27" s="68"/>
@@ -4312,25 +4344,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="68" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G28" s="96"/>
       <c r="H28" s="74"/>
       <c r="I28" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J28" s="68" t="s">
         <v>104</v>
       </c>
       <c r="K28" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L28" s="68">
         <v>0</v>
@@ -4356,11 +4388,11 @@
       <c r="S28" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T28" s="68">
-        <v>1</v>
-      </c>
+      <c r="T28" s="68"/>
       <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
+      <c r="V28" s="68">
+        <v>1</v>
+      </c>
       <c r="W28" s="68"/>
       <c r="X28" s="68"/>
       <c r="Y28" s="68"/>
@@ -4386,22 +4418,22 @@
         <v>105</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G29" s="96"/>
       <c r="H29" s="74"/>
       <c r="I29" s="68" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K29" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L29" s="68">
         <v>0</v>
@@ -4413,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="68">
         <v>0</v>
@@ -4425,17 +4457,15 @@
         <v>0</v>
       </c>
       <c r="S29" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="T29" s="68">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T29" s="68"/>
       <c r="U29" s="68"/>
-      <c r="V29" s="68">
-        <v>1</v>
-      </c>
+      <c r="V29" s="68"/>
       <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
+      <c r="X29" s="68">
+        <v>2</v>
+      </c>
       <c r="Y29" s="68"/>
       <c r="Z29" s="68"/>
       <c r="AA29" s="68"/>
@@ -4456,25 +4486,25 @@
         <v>23</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="68" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="G30" s="96"/>
       <c r="H30" s="74"/>
       <c r="I30" s="68" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L30" s="68">
         <v>0</v>
@@ -4498,15 +4528,15 @@
         <v>0</v>
       </c>
       <c r="S30" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="68">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T30" s="68"/>
       <c r="U30" s="68"/>
       <c r="V30" s="68"/>
       <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
+      <c r="X30" s="68">
+        <v>4</v>
+      </c>
       <c r="Y30" s="68"/>
       <c r="Z30" s="68"/>
       <c r="AA30" s="68"/>
@@ -4527,25 +4557,25 @@
         <v>24</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G31" s="96"/>
       <c r="H31" s="74"/>
       <c r="I31" s="68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K31" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L31" s="68">
         <v>0</v>
@@ -4556,18 +4586,10 @@
       <c r="N31" s="68">
         <v>0</v>
       </c>
-      <c r="O31" s="68">
-        <v>0</v>
-      </c>
-      <c r="P31" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="68">
-        <v>0</v>
-      </c>
-      <c r="R31" s="68">
-        <v>0</v>
-      </c>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
       <c r="S31" s="96" t="s">
         <v>67</v>
       </c>
@@ -4575,10 +4597,12 @@
         <v>1</v>
       </c>
       <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
+      <c r="V31" s="68">
+        <v>1</v>
+      </c>
       <c r="W31" s="68"/>
       <c r="X31" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y31" s="68"/>
       <c r="Z31" s="68"/>
@@ -4600,25 +4624,25 @@
         <v>25</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="68" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G32" s="96"/>
       <c r="H32" s="74"/>
       <c r="I32" s="68" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="J32" s="68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K32" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L32" s="68">
         <v>0</v>
@@ -4630,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="68">
         <v>0</v>
@@ -4648,9 +4672,13 @@
         <v>1</v>
       </c>
       <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
+      <c r="V32" s="68">
+        <v>1</v>
+      </c>
       <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
+      <c r="X32" s="68">
+        <v>3</v>
+      </c>
       <c r="Y32" s="68"/>
       <c r="Z32" s="68"/>
       <c r="AA32" s="68"/>
@@ -4671,25 +4699,25 @@
         <v>26</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E33" s="96"/>
       <c r="F33" s="68" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G33" s="96"/>
       <c r="H33" s="74"/>
       <c r="I33" s="68" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J33" s="68" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K33" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="68">
         <v>0</v>
@@ -4701,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="68">
         <v>0</v>
@@ -4715,13 +4743,13 @@
       <c r="S33" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="T33" s="68">
-        <v>3</v>
-      </c>
+      <c r="T33" s="68"/>
       <c r="U33" s="68"/>
       <c r="V33" s="68"/>
       <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
+      <c r="X33" s="68">
+        <v>2</v>
+      </c>
       <c r="Y33" s="68"/>
       <c r="Z33" s="68"/>
       <c r="AA33" s="68"/>
@@ -4742,25 +4770,25 @@
         <v>27</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E34" s="96"/>
       <c r="F34" s="68" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G34" s="96"/>
       <c r="H34" s="74"/>
       <c r="I34" s="68" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K34" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L34" s="68">
         <v>0</v>
@@ -4784,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T34" s="68">
         <v>1</v>
@@ -4792,7 +4820,9 @@
       <c r="U34" s="68"/>
       <c r="V34" s="68"/>
       <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
+      <c r="X34" s="68">
+        <v>4</v>
+      </c>
       <c r="Y34" s="68"/>
       <c r="Z34" s="68"/>
       <c r="AA34" s="68"/>
@@ -4813,25 +4843,25 @@
         <v>28</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E35" s="96"/>
       <c r="F35" s="68" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="G35" s="96"/>
       <c r="H35" s="74"/>
       <c r="I35" s="68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K35" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L35" s="68">
         <v>0</v>
@@ -4843,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="68">
         <v>0</v>
@@ -4861,9 +4891,13 @@
         <v>1</v>
       </c>
       <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
+      <c r="V35" s="68">
+        <v>1</v>
+      </c>
       <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
+      <c r="X35" s="68">
+        <v>4</v>
+      </c>
       <c r="Y35" s="68"/>
       <c r="Z35" s="68"/>
       <c r="AA35" s="68"/>
@@ -4884,25 +4918,25 @@
         <v>29</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="68" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="G36" s="96"/>
       <c r="H36" s="74"/>
       <c r="I36" s="68" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="J36" s="68" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K36" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L36" s="68">
         <v>0</v>
@@ -4932,9 +4966,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="68"/>
-      <c r="V36" s="68">
-        <v>1</v>
-      </c>
+      <c r="V36" s="68"/>
       <c r="W36" s="68"/>
       <c r="X36" s="68"/>
       <c r="Y36" s="68"/>
@@ -4957,25 +4989,25 @@
         <v>30</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E37" s="96"/>
       <c r="F37" s="68" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="G37" s="96"/>
       <c r="H37" s="74"/>
       <c r="I37" s="68" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K37" s="152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L37" s="68">
         <v>0</v>
@@ -4999,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T37" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="68"/>
       <c r="V37" s="68"/>
@@ -5027,16 +5059,16 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5078,16 +5110,16 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -5116,9 +5148,7 @@
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
-      <c r="X39">
-        <v>2</v>
-      </c>
+      <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
@@ -5131,16 +5161,16 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -5152,10 +5182,10 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -5163,15 +5193,15 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
+      <c r="T40"/>
       <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40">
-        <v>4</v>
-      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
@@ -5184,16 +5214,16 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5205,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5216,15 +5246,13 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
+      <c r="T41"/>
       <c r="U41"/>
-      <c r="V41"/>
+      <c r="V41">
+        <v>1</v>
+      </c>
       <c r="W41"/>
-      <c r="X41">
-        <v>2</v>
-      </c>
+      <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
@@ -5237,16 +5265,16 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5273,9 +5301,13 @@
         <v>1</v>
       </c>
       <c r="U42"/>
-      <c r="V42"/>
+      <c r="V42">
+        <v>1</v>
+      </c>
       <c r="W42"/>
-      <c r="X42"/>
+      <c r="X42">
+        <v>2</v>
+      </c>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
@@ -5288,16 +5320,16 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5321,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U43"/>
       <c r="V43"/>
@@ -5339,16 +5371,16 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5360,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5390,13 +5422,13 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
         <v>138</v>
@@ -5411,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -5422,11 +5454,11 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="T45"/>
+      <c r="T45">
+        <v>3</v>
+      </c>
       <c r="U45"/>
-      <c r="V45">
-        <v>1</v>
-      </c>
+      <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
@@ -5441,16 +5473,16 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -5462,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -5474,16 +5506,12 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U46"/>
-      <c r="V46">
-        <v>1</v>
-      </c>
+      <c r="V46"/>
       <c r="W46"/>
-      <c r="X46">
-        <v>2</v>
-      </c>
+      <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -5496,16 +5524,16 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5517,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -5532,10 +5560,12 @@
         <v>1</v>
       </c>
       <c r="U47"/>
-      <c r="V47"/>
+      <c r="V47">
+        <v>1</v>
+      </c>
       <c r="W47"/>
       <c r="X47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y47"/>
       <c r="Z47"/>
@@ -5549,16 +5579,16 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5570,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -5587,9 +5617,7 @@
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
-      <c r="X48">
-        <v>2</v>
-      </c>
+      <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -5602,16 +5630,16 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" t="s">
         <v>134</v>
       </c>
-      <c r="I49" t="s">
-        <v>144</v>
-      </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5638,8 +5666,12 @@
         <v>1</v>
       </c>
       <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
@@ -5653,16 +5685,16 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5694,7 +5726,9 @@
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
-      <c r="AA50"/>
+      <c r="AA50">
+        <v>4</v>
+      </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AK50"/>
@@ -5704,16 +5738,16 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5725,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5736,11 +5770,11 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
+      <c r="T51"/>
       <c r="U51"/>
-      <c r="V51"/>
+      <c r="V51">
+        <v>1</v>
+      </c>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
@@ -5755,16 +5789,16 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5776,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5793,12 +5827,12 @@
       <c r="U52"/>
       <c r="V52"/>
       <c r="W52"/>
-      <c r="X52">
-        <v>4</v>
-      </c>
+      <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52"/>
+      <c r="AA52">
+        <v>2</v>
+      </c>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AK52"/>
@@ -5808,16 +5842,16 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5845,7 +5879,9 @@
       </c>
       <c r="U53"/>
       <c r="V53"/>
-      <c r="W53"/>
+      <c r="W53">
+        <v>1</v>
+      </c>
       <c r="X53">
         <v>4</v>
       </c>
@@ -5861,16 +5897,16 @@
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I54" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5894,12 +5930,16 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54"/>
-      <c r="V54"/>
+      <c r="V54">
+        <v>1</v>
+      </c>
       <c r="W54"/>
-      <c r="X54"/>
+      <c r="X54">
+        <v>4</v>
+      </c>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
@@ -5912,16 +5952,16 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5933,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5944,15 +5984,13 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
+      <c r="T55"/>
       <c r="U55"/>
-      <c r="V55"/>
+      <c r="V55">
+        <v>1</v>
+      </c>
       <c r="W55"/>
-      <c r="X55">
-        <v>4</v>
-      </c>
+      <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
@@ -5965,16 +6003,16 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5998,14 +6036,12 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
-      <c r="X56">
-        <v>4</v>
-      </c>
+      <c r="X56"/>
       <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
@@ -6018,16 +6054,16 @@
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -6050,13 +6086,13 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
+      <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
       <c r="W57"/>
-      <c r="X57"/>
+      <c r="X57">
+        <v>4</v>
+      </c>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -6069,16 +6105,16 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -6107,7 +6143,9 @@
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
-      <c r="X58"/>
+      <c r="X58">
+        <v>4</v>
+      </c>
       <c r="Y58"/>
       <c r="Z58"/>
       <c r="AA58"/>
@@ -6120,16 +6158,16 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -6141,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -6152,11 +6190,11 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="T59">
-        <v>1</v>
-      </c>
+      <c r="T59"/>
       <c r="U59"/>
-      <c r="V59"/>
+      <c r="V59">
+        <v>1</v>
+      </c>
       <c r="W59"/>
       <c r="X59"/>
       <c r="Y59"/>
@@ -6171,16 +6209,16 @@
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -6207,9 +6245,13 @@
         <v>1</v>
       </c>
       <c r="U60"/>
-      <c r="V60"/>
+      <c r="V60">
+        <v>2</v>
+      </c>
       <c r="W60"/>
-      <c r="X60"/>
+      <c r="X60">
+        <v>4</v>
+      </c>
       <c r="Y60"/>
       <c r="Z60"/>
       <c r="AA60"/>
@@ -6222,16 +6264,16 @@
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -6243,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6260,7 +6302,9 @@
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61"/>
-      <c r="X61"/>
+      <c r="X61">
+        <v>4</v>
+      </c>
       <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
@@ -6273,16 +6317,16 @@
         <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -6305,14 +6349,14 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="T62"/>
+      <c r="T62">
+        <v>1</v>
+      </c>
       <c r="U62"/>
-      <c r="V62">
-        <v>1</v>
-      </c>
+      <c r="V62"/>
       <c r="W62"/>
       <c r="X62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y62"/>
       <c r="Z62"/>
@@ -6326,16 +6370,16 @@
         <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -6347,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -6377,16 +6421,16 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6413,7 +6457,9 @@
         <v>1</v>
       </c>
       <c r="U64"/>
-      <c r="V64"/>
+      <c r="V64">
+        <v>1</v>
+      </c>
       <c r="W64"/>
       <c r="X64"/>
       <c r="Y64"/>
@@ -6428,16 +6474,16 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="I65" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6449,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -6460,11 +6506,11 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
+      <c r="T65"/>
       <c r="U65"/>
-      <c r="V65"/>
+      <c r="V65">
+        <v>1</v>
+      </c>
       <c r="W65"/>
       <c r="X65"/>
       <c r="Y65"/>
@@ -6479,16 +6525,16 @@
         <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="I66" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="J66" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6499,27 +6545,15 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66"/>
-      <c r="V66"/>
+      <c r="V66">
+        <v>1</v>
+      </c>
       <c r="W66"/>
-      <c r="X66">
-        <v>2</v>
-      </c>
+      <c r="X66"/>
       <c r="Y66"/>
       <c r="Z66"/>
       <c r="AA66"/>
@@ -6532,16 +6566,16 @@
         <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="I67" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J67" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6564,13 +6598,17 @@
       <c r="R67">
         <v>0</v>
       </c>
-      <c r="T67"/>
+      <c r="T67">
+        <v>1</v>
+      </c>
       <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67"/>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67"/>
+      <c r="X67">
+        <v>4</v>
+      </c>
       <c r="Y67"/>
       <c r="Z67"/>
       <c r="AA67"/>
@@ -6583,16 +6621,16 @@
         <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="I68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6619,9 +6657,13 @@
         <v>1</v>
       </c>
       <c r="U68"/>
-      <c r="V68"/>
+      <c r="V68">
+        <v>1</v>
+      </c>
       <c r="W68"/>
-      <c r="X68"/>
+      <c r="X68">
+        <v>2</v>
+      </c>
       <c r="Y68"/>
       <c r="Z68"/>
       <c r="AA68"/>
@@ -6634,16 +6676,16 @@
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I69" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J69" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6672,7 +6714,9 @@
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
-      <c r="X69"/>
+      <c r="X69">
+        <v>4</v>
+      </c>
       <c r="Y69"/>
       <c r="Z69"/>
       <c r="AA69"/>
@@ -6685,16 +6729,16 @@
         <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J70" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6721,11 +6765,13 @@
         <v>1</v>
       </c>
       <c r="U70"/>
-      <c r="V70">
-        <v>1</v>
-      </c>
-      <c r="W70"/>
-      <c r="X70"/>
+      <c r="V70"/>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>2</v>
+      </c>
       <c r="Y70"/>
       <c r="Z70"/>
       <c r="AA70"/>
@@ -6738,16 +6784,16 @@
         <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="I71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6759,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -6774,9 +6820,13 @@
         <v>1</v>
       </c>
       <c r="U71"/>
-      <c r="V71"/>
+      <c r="V71">
+        <v>1</v>
+      </c>
       <c r="W71"/>
-      <c r="X71"/>
+      <c r="X71">
+        <v>4</v>
+      </c>
       <c r="Y71"/>
       <c r="Z71"/>
       <c r="AA71"/>
@@ -6789,16 +6839,16 @@
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="I72" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6821,12 +6871,12 @@
       <c r="R72">
         <v>0</v>
       </c>
-      <c r="T72">
-        <v>1</v>
-      </c>
+      <c r="T72"/>
       <c r="U72"/>
       <c r="V72"/>
-      <c r="W72"/>
+      <c r="W72">
+        <v>1</v>
+      </c>
       <c r="X72"/>
       <c r="Y72"/>
       <c r="Z72"/>
@@ -6840,16 +6890,16 @@
         <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="I73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J73" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6864,23 +6914,21 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
+      <c r="T73"/>
       <c r="U73"/>
-      <c r="V73"/>
+      <c r="V73">
+        <v>1</v>
+      </c>
       <c r="W73"/>
-      <c r="X73">
-        <v>4</v>
-      </c>
+      <c r="X73"/>
       <c r="Y73"/>
       <c r="Z73"/>
       <c r="AA73"/>
@@ -6893,16 +6941,16 @@
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I74" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J74" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6914,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6925,15 +6973,13 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="T74">
-        <v>1</v>
-      </c>
+      <c r="T74"/>
       <c r="U74"/>
-      <c r="V74"/>
+      <c r="V74">
+        <v>1</v>
+      </c>
       <c r="W74"/>
-      <c r="X74">
-        <v>4</v>
-      </c>
+      <c r="X74"/>
       <c r="Y74"/>
       <c r="Z74"/>
       <c r="AA74"/>
@@ -6946,16 +6992,16 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="I75" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6995,16 +7041,16 @@
         <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="I76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7016,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -7031,15 +7077,9 @@
         <v>1</v>
       </c>
       <c r="U76"/>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76">
-        <v>4</v>
-      </c>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
       <c r="Y76"/>
       <c r="Z76"/>
       <c r="AA76"/>
@@ -7052,16 +7092,16 @@
         <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="I77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7070,15 +7110,27 @@
         <v>0</v>
       </c>
       <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <v>0</v>
       </c>
       <c r="T77"/>
       <c r="U77"/>
-      <c r="V77"/>
+      <c r="V77">
+        <v>1</v>
+      </c>
       <c r="W77"/>
-      <c r="X77">
-        <v>4</v>
-      </c>
+      <c r="X77"/>
       <c r="Y77"/>
       <c r="Z77"/>
       <c r="AA77"/>
@@ -7091,16 +7143,16 @@
         <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I78" t="s">
         <v>180</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -7125,10 +7177,10 @@
       </c>
       <c r="T78"/>
       <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78">
-        <v>1</v>
-      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78"/>
       <c r="X78"/>
       <c r="Y78"/>
       <c r="Z78"/>
@@ -7142,16 +7194,16 @@
         <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="J79" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -7176,10 +7228,10 @@
       </c>
       <c r="T79"/>
       <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79">
-        <v>1</v>
-      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79"/>
       <c r="X79"/>
       <c r="Y79"/>
       <c r="Z79"/>
@@ -7193,16 +7245,16 @@
         <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7225,12 +7277,12 @@
       <c r="R80">
         <v>0</v>
       </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
+      <c r="T80"/>
       <c r="U80"/>
       <c r="V80"/>
-      <c r="W80"/>
+      <c r="W80">
+        <v>1</v>
+      </c>
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80"/>
@@ -7244,16 +7296,16 @@
         <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="I81" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J81" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7277,12 +7329,16 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81"/>
       <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>2</v>
+      </c>
       <c r="Y81"/>
       <c r="Z81"/>
       <c r="AA81"/>
@@ -7295,16 +7351,16 @@
         <v>75</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="I82" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7316,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -7348,16 +7404,16 @@
         <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J83" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7369,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -7384,11 +7440,11 @@
         <v>1</v>
       </c>
       <c r="U83"/>
-      <c r="V83"/>
+      <c r="V83">
+        <v>1</v>
+      </c>
       <c r="W83"/>
-      <c r="X83">
-        <v>3</v>
-      </c>
+      <c r="X83"/>
       <c r="Y83"/>
       <c r="Z83"/>
       <c r="AA83"/>
@@ -7401,16 +7457,16 @@
         <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I84" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="J84" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7434,12 +7490,16 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U84"/>
-      <c r="V84"/>
+      <c r="V84">
+        <v>1</v>
+      </c>
       <c r="W84"/>
-      <c r="X84"/>
+      <c r="X84">
+        <v>4</v>
+      </c>
       <c r="Y84"/>
       <c r="Z84"/>
       <c r="AA84"/>
@@ -7452,16 +7512,16 @@
         <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="I85" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J85" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7488,10 +7548,12 @@
         <v>1</v>
       </c>
       <c r="U85"/>
-      <c r="V85"/>
+      <c r="V85">
+        <v>1</v>
+      </c>
       <c r="W85"/>
       <c r="X85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y85"/>
       <c r="Z85"/>
@@ -7505,16 +7567,16 @@
         <v>79</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I86" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J86" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7526,10 +7588,10 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -7537,13 +7599,13 @@
       <c r="R86">
         <v>0</v>
       </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
+      <c r="T86"/>
       <c r="U86"/>
       <c r="V86"/>
       <c r="W86"/>
-      <c r="X86"/>
+      <c r="X86">
+        <v>4</v>
+      </c>
       <c r="Y86"/>
       <c r="Z86"/>
       <c r="AA86"/>
@@ -7556,16 +7618,16 @@
         <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I87" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J87" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7577,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -7589,12 +7651,16 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U87"/>
       <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <v>2</v>
+      </c>
       <c r="Y87"/>
       <c r="Z87"/>
       <c r="AA87"/>
@@ -7607,16 +7673,16 @@
         <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="I88" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J88" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -7628,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -7643,13 +7709,9 @@
         <v>1</v>
       </c>
       <c r="U88"/>
-      <c r="V88">
-        <v>1</v>
-      </c>
+      <c r="V88"/>
       <c r="W88"/>
-      <c r="X88">
-        <v>2</v>
-      </c>
+      <c r="X88"/>
       <c r="Y88"/>
       <c r="Z88"/>
       <c r="AA88"/>
@@ -7662,16 +7724,16 @@
         <v>82</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="I89" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="J89" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -7683,10 +7745,10 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -7698,13 +7760,11 @@
         <v>1</v>
       </c>
       <c r="U89"/>
-      <c r="V89">
-        <v>1</v>
-      </c>
-      <c r="W89"/>
-      <c r="X89">
-        <v>2</v>
-      </c>
+      <c r="V89"/>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89"/>
       <c r="AA89"/>
@@ -7717,16 +7777,16 @@
         <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="I90" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J90" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -7738,10 +7798,10 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -7762,367 +7822,6 @@
       <c r="AB90"/>
       <c r="AC90"/>
       <c r="AK90"/>
-    </row>
-    <row r="91" spans="1:37">
-      <c r="B91">
-        <v>84</v>
-      </c>
-      <c r="D91" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" t="s">
-        <v>166</v>
-      </c>
-      <c r="I91" t="s">
-        <v>188</v>
-      </c>
-      <c r="J91" t="s">
-        <v>189</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91">
-        <v>1</v>
-      </c>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
-      <c r="AC91"/>
-      <c r="AK91"/>
-    </row>
-    <row r="92" spans="1:37">
-      <c r="B92">
-        <v>85</v>
-      </c>
-      <c r="D92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" t="s">
-        <v>131</v>
-      </c>
-      <c r="I92" t="s">
-        <v>190</v>
-      </c>
-      <c r="J92" t="s">
-        <v>186</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
-      <c r="AC92"/>
-      <c r="AK92"/>
-    </row>
-    <row r="93" spans="1:37">
-      <c r="B93">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" t="s">
-        <v>166</v>
-      </c>
-      <c r="I93" t="s">
-        <v>168</v>
-      </c>
-      <c r="J93" t="s">
-        <v>191</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>1</v>
-      </c>
-      <c r="U93"/>
-      <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AB93"/>
-      <c r="AC93"/>
-      <c r="AK93"/>
-    </row>
-    <row r="94" spans="1:37">
-      <c r="B94">
-        <v>87</v>
-      </c>
-      <c r="D94" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94" t="s">
-        <v>166</v>
-      </c>
-      <c r="I94" t="s">
-        <v>167</v>
-      </c>
-      <c r="J94" t="s">
-        <v>167</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>1</v>
-      </c>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
-      <c r="AK94"/>
-    </row>
-    <row r="95" spans="1:37">
-      <c r="B95">
-        <v>88</v>
-      </c>
-      <c r="D95" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s">
-        <v>131</v>
-      </c>
-      <c r="I95" t="s">
-        <v>171</v>
-      </c>
-      <c r="J95" t="s">
-        <v>192</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
-      <c r="U95"/>
-      <c r="V95">
-        <v>1</v>
-      </c>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-      <c r="Z95"/>
-      <c r="AA95"/>
-      <c r="AB95"/>
-      <c r="AC95"/>
-      <c r="AK95"/>
-    </row>
-    <row r="96" spans="1:37">
-      <c r="B96">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
-      </c>
-      <c r="I96" t="s">
-        <v>191</v>
-      </c>
-      <c r="J96" t="s">
-        <v>190</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>1</v>
-      </c>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96"/>
-      <c r="AC96"/>
-      <c r="AK96"/>
-    </row>
-    <row r="97" spans="1:37">
-      <c r="B97">
-        <v>90</v>
-      </c>
-      <c r="D97" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" t="s">
-        <v>122</v>
-      </c>
-      <c r="I97" t="s">
-        <v>148</v>
-      </c>
-      <c r="J97" t="s">
-        <v>169</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
-      </c>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-      <c r="AA97"/>
-      <c r="AB97"/>
-      <c r="AC97"/>
-      <c r="AK97"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8194,12 +7893,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -8211,83 +7910,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Y6" s="109" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AC6" s="110" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF6" s="104" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AG6" s="82" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AJ6" s="116" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -8295,10 +7994,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -8306,7 +8005,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -8314,67 +8013,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="T7" s="89" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="U7" s="89" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="W7" s="90" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="X7" s="90" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Y7" s="90" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Z7" s="112" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AA7" s="90" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB7" s="90" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AC7" s="106" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AD7" s="89" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AE7" s="90" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AF7" s="90" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AG7" s="119" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AH7" s="119" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -8461,16 +8160,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -8479,7 +8178,7 @@
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
       <c r="M8" s="63" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -8506,10 +8205,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="127" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AL8" s="128"/>
     </row>
@@ -8771,13 +8470,13 @@
         <v>71</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J15" s="97" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -8822,13 +8521,13 @@
         <v>72</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -8870,16 +8569,16 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -8921,16 +8620,16 @@
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -8972,16 +8671,16 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -9794,7 +9493,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N61" sqref="N61"/>
@@ -9820,7 +9519,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -9835,7 +9534,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -9869,16 +9568,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -9892,7 +9591,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -9901,7 +9600,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -9911,19 +9610,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -9933,28 +9632,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -9965,38 +9664,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -10015,7 +9714,9 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="21">
+        <v>5.5</v>
+      </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21">
         <v>1</v>
@@ -10063,7 +9764,9 @@
       <c r="H13" s="24"/>
       <c r="I13" s="21"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L13" s="24"/>
       <c r="M13" s="24">
         <v>1</v>
@@ -10086,7 +9789,9 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L14" s="24"/>
       <c r="M14" s="24">
         <v>1</v>
@@ -10109,7 +9814,9 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24">
         <v>1</v>
@@ -10132,7 +9839,9 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24">
         <v>1</v>
@@ -10155,7 +9864,9 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L17" s="24"/>
       <c r="M17" s="24">
         <v>1</v>
@@ -10178,11 +9889,11 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="24">
+        <v>4.5</v>
+      </c>
       <c r="L18" s="24"/>
-      <c r="M18" s="24">
-        <v>1</v>
-      </c>
+      <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="28"/>
     </row>
@@ -10201,7 +9912,9 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="K19" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24">
         <v>1</v>
@@ -10249,7 +9962,9 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L21" s="24"/>
       <c r="M21" s="24">
         <v>1</v>
@@ -10272,7 +9987,9 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L22" s="24"/>
       <c r="M22" s="24">
         <v>1</v>
@@ -10295,7 +10012,9 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L23" s="24"/>
       <c r="M23" s="24">
         <v>1</v>
@@ -10343,7 +10062,9 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="K25" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24">
         <v>1</v>
@@ -10366,7 +10087,9 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24">
         <v>1</v>
@@ -10389,7 +10112,9 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L27" s="24"/>
       <c r="M27" s="24">
         <v>1</v>
@@ -10712,7 +10437,9 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="24">
+        <v>5.5</v>
+      </c>
       <c r="L40" s="24"/>
       <c r="M40" s="24">
         <v>1</v>
@@ -10739,9 +10466,7 @@
         <v>5.5</v>
       </c>
       <c r="L41" s="24"/>
-      <c r="M41" s="24">
-        <v>1</v>
-      </c>
+      <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="28"/>
     </row>
@@ -11222,7 +10947,7 @@
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B61" s="30">
         <v>51</v>
@@ -11433,9 +11158,11 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71">
-        <v>4.5</v>
-      </c>
-      <c r="M71"/>
+        <v>5.5</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
       <c r="N71"/>
     </row>
     <row r="72" spans="1:15">
@@ -11449,9 +11176,11 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72">
-        <v>4.5</v>
-      </c>
-      <c r="M72"/>
+        <v>5.5</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
       <c r="N72"/>
     </row>
     <row r="73" spans="1:15">
@@ -11465,9 +11194,11 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73">
-        <v>5.0</v>
-      </c>
-      <c r="M73"/>
+        <v>5.5</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
       <c r="N73"/>
     </row>
     <row r="74" spans="1:15">
@@ -11552,7 +11283,13 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78"/>
+      <c r="K78">
+        <v>5.5</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78"/>
     </row>
     <row r="79" spans="1:15">
       <c r="B79">
@@ -11823,130 +11560,6 @@
         <v>1</v>
       </c>
       <c r="N93"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="B94">
-        <v>84</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94">
-        <v>5.5</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="B95">
-        <v>85</v>
-      </c>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95">
-        <v>5.5</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95"/>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="B96">
-        <v>86</v>
-      </c>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96">
-        <v>5.5</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="B97">
-        <v>87</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97">
-        <v>5.5</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97"/>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="B98">
-        <v>88</v>
-      </c>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98">
-        <v>5.0</v>
-      </c>
-      <c r="M98"/>
-      <c r="N98"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="B99">
-        <v>89</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99">
-        <v>5.5</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="B100">
-        <v>90</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100">
-        <v>5.5</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>ENGR-750-44-QR-01</t>
   </si>
@@ -460,34 +460,31 @@
     <t>JLN 6/15/1/1</t>
   </si>
   <si>
+    <t>JLN 6/15/11</t>
+  </si>
+  <si>
+    <t>JLN 6/15/10</t>
+  </si>
+  <si>
     <t>JLN 6/15/12</t>
   </si>
   <si>
+    <t>Jalan Mewah</t>
+  </si>
+  <si>
+    <t>JLN 6/9/5</t>
+  </si>
+  <si>
+    <t>JLN 6/15/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETALING JAYA NO 4 </t>
+  </si>
+  <si>
     <t>JLN 6/15A/1</t>
   </si>
   <si>
-    <t>JLN 6/15/11</t>
-  </si>
-  <si>
-    <t>JLN 6/15/10</t>
-  </si>
-  <si>
-    <t>Jalan Mewah</t>
-  </si>
-  <si>
-    <t>JLN 6/9/5</t>
-  </si>
-  <si>
-    <t>JLN 6/15/2</t>
-  </si>
-  <si>
     <t>JLN 6/15A/2</t>
-  </si>
-  <si>
-    <t>JLN 6/15A/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETALING JAYA NO 4 </t>
   </si>
   <si>
     <t>Jalan 6/20</t>
@@ -2701,7 +2698,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK90"/>
+  <dimension ref="A1:AK88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AK8" sqref="AK8"/>
@@ -5268,7 +5265,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="I42" t="s">
         <v>138</v>
@@ -5286,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5298,16 +5295,12 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U42"/>
-      <c r="V42">
-        <v>1</v>
-      </c>
+      <c r="V42"/>
       <c r="W42"/>
-      <c r="X42">
-        <v>2</v>
-      </c>
+      <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
@@ -5329,7 +5322,7 @@
         <v>140</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5353,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U43"/>
       <c r="V43"/>
@@ -5374,10 +5367,10 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J44" t="s">
         <v>140</v>
@@ -5392,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5404,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U44"/>
       <c r="V44"/>
@@ -5422,16 +5415,16 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -5479,10 +5472,10 @@
         <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -5506,12 +5499,16 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U46"/>
-      <c r="V46"/>
+      <c r="V46">
+        <v>1</v>
+      </c>
       <c r="W46"/>
-      <c r="X46"/>
+      <c r="X46">
+        <v>2</v>
+      </c>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -5530,10 +5527,10 @@
         <v>110</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5545,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -5560,13 +5557,9 @@
         <v>1</v>
       </c>
       <c r="U47"/>
-      <c r="V47">
-        <v>1</v>
-      </c>
+      <c r="V47"/>
       <c r="W47"/>
-      <c r="X47">
-        <v>2</v>
-      </c>
+      <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
@@ -5585,10 +5578,10 @@
         <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5600,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -5615,8 +5608,12 @@
         <v>1</v>
       </c>
       <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
@@ -5636,10 +5633,10 @@
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5666,16 +5663,14 @@
         <v>1</v>
       </c>
       <c r="U49"/>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
+      <c r="V49"/>
+      <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
-      <c r="AA49"/>
+      <c r="AA49">
+        <v>4</v>
+      </c>
       <c r="AB49"/>
       <c r="AC49"/>
       <c r="AK49"/>
@@ -5685,16 +5680,16 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5727,7 +5722,7 @@
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB50"/>
       <c r="AC50"/>
@@ -5738,16 +5733,16 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5759,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5770,13 +5765,17 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="T51"/>
+      <c r="T51">
+        <v>1</v>
+      </c>
       <c r="U51"/>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51"/>
-      <c r="X51"/>
+      <c r="V51"/>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>4</v>
+      </c>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
@@ -5789,16 +5788,16 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
         <v>147</v>
       </c>
-      <c r="F52" t="s">
-        <v>64</v>
-      </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5825,14 +5824,16 @@
         <v>1</v>
       </c>
       <c r="U52"/>
-      <c r="V52"/>
+      <c r="V52">
+        <v>1</v>
+      </c>
       <c r="W52"/>
-      <c r="X52"/>
+      <c r="X52">
+        <v>4</v>
+      </c>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52">
-        <v>2</v>
-      </c>
+      <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AK52"/>
@@ -5845,13 +5846,13 @@
         <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5863,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -5874,17 +5875,13 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
+      <c r="T53"/>
       <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
-        <v>4</v>
-      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53"/>
+      <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
@@ -5900,13 +5897,13 @@
         <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5930,16 +5927,12 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54"/>
-      <c r="V54">
-        <v>1</v>
-      </c>
+      <c r="V54"/>
       <c r="W54"/>
-      <c r="X54">
-        <v>4</v>
-      </c>
+      <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
@@ -5955,13 +5948,13 @@
         <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5973,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5986,11 +5979,11 @@
       </c>
       <c r="T55"/>
       <c r="U55"/>
-      <c r="V55">
-        <v>1</v>
-      </c>
+      <c r="V55"/>
       <c r="W55"/>
-      <c r="X55"/>
+      <c r="X55">
+        <v>4</v>
+      </c>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
@@ -6006,13 +5999,13 @@
         <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -6036,12 +6029,14 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
-      <c r="X56"/>
+      <c r="X56">
+        <v>4</v>
+      </c>
       <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
@@ -6057,10 +6052,10 @@
         <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
         <v>156</v>
@@ -6075,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -6088,11 +6083,11 @@
       </c>
       <c r="T57"/>
       <c r="U57"/>
-      <c r="V57"/>
+      <c r="V57">
+        <v>1</v>
+      </c>
       <c r="W57"/>
-      <c r="X57">
-        <v>4</v>
-      </c>
+      <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -6108,13 +6103,13 @@
         <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I58" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -6141,7 +6136,9 @@
         <v>1</v>
       </c>
       <c r="U58"/>
-      <c r="V58"/>
+      <c r="V58">
+        <v>2</v>
+      </c>
       <c r="W58"/>
       <c r="X58">
         <v>4</v>
@@ -6161,10 +6158,10 @@
         <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I59" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
         <v>157</v>
@@ -6179,10 +6176,10 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -6190,13 +6187,15 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="T59"/>
+      <c r="T59">
+        <v>1</v>
+      </c>
       <c r="U59"/>
-      <c r="V59">
-        <v>1</v>
-      </c>
+      <c r="V59"/>
       <c r="W59"/>
-      <c r="X59"/>
+      <c r="X59">
+        <v>4</v>
+      </c>
       <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
@@ -6209,16 +6208,16 @@
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -6245,9 +6244,7 @@
         <v>1</v>
       </c>
       <c r="U60"/>
-      <c r="V60">
-        <v>2</v>
-      </c>
+      <c r="V60"/>
       <c r="W60"/>
       <c r="X60">
         <v>4</v>
@@ -6264,16 +6261,16 @@
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I61" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -6285,10 +6282,10 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6302,9 +6299,7 @@
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61"/>
-      <c r="X61">
-        <v>4</v>
-      </c>
+      <c r="X61"/>
       <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
@@ -6317,16 +6312,16 @@
         <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -6338,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -6353,11 +6348,11 @@
         <v>1</v>
       </c>
       <c r="U62"/>
-      <c r="V62"/>
+      <c r="V62">
+        <v>1</v>
+      </c>
       <c r="W62"/>
-      <c r="X62">
-        <v>4</v>
-      </c>
+      <c r="X62"/>
       <c r="Y62"/>
       <c r="Z62"/>
       <c r="AA62"/>
@@ -6370,16 +6365,16 @@
         <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J63" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -6402,11 +6397,11 @@
       <c r="R63">
         <v>0</v>
       </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
+      <c r="T63"/>
       <c r="U63"/>
-      <c r="V63"/>
+      <c r="V63">
+        <v>1</v>
+      </c>
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
@@ -6421,16 +6416,16 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6439,18 +6434,6 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
         <v>0</v>
       </c>
       <c r="T64">
@@ -6474,16 +6457,16 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6506,13 +6489,17 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="T65"/>
+      <c r="T65">
+        <v>1</v>
+      </c>
       <c r="U65"/>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="W65"/>
-      <c r="X65"/>
+      <c r="X65">
+        <v>4</v>
+      </c>
       <c r="Y65"/>
       <c r="Z65"/>
       <c r="AA65"/>
@@ -6525,17 +6512,17 @@
         <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I66" t="s">
+        <v>161</v>
+      </c>
+      <c r="J66" t="s">
         <v>165</v>
       </c>
-      <c r="I66" t="s">
-        <v>166</v>
-      </c>
-      <c r="J66" t="s">
-        <v>168</v>
-      </c>
       <c r="L66">
         <v>0</v>
       </c>
@@ -6543,6 +6530,18 @@
         <v>0</v>
       </c>
       <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>0</v>
       </c>
       <c r="T66">
@@ -6553,7 +6552,9 @@
         <v>1</v>
       </c>
       <c r="W66"/>
-      <c r="X66"/>
+      <c r="X66">
+        <v>2</v>
+      </c>
       <c r="Y66"/>
       <c r="Z66"/>
       <c r="AA66"/>
@@ -6566,13 +6567,13 @@
         <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J67" t="s">
         <v>169</v>
@@ -6587,10 +6588,10 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -6602,9 +6603,7 @@
         <v>1</v>
       </c>
       <c r="U67"/>
-      <c r="V67">
-        <v>1</v>
-      </c>
+      <c r="V67"/>
       <c r="W67"/>
       <c r="X67">
         <v>4</v>
@@ -6621,16 +6620,16 @@
         <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I68" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J68" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6642,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -6657,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="U68"/>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="W68"/>
+      <c r="V68"/>
+      <c r="W68">
+        <v>1</v>
+      </c>
       <c r="X68">
         <v>2</v>
       </c>
@@ -6676,13 +6675,13 @@
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I69" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -6712,7 +6711,9 @@
         <v>1</v>
       </c>
       <c r="U69"/>
-      <c r="V69"/>
+      <c r="V69">
+        <v>1</v>
+      </c>
       <c r="W69"/>
       <c r="X69">
         <v>4</v>
@@ -6732,13 +6733,13 @@
         <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6750,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -6761,17 +6762,13 @@
       <c r="R70">
         <v>0</v>
       </c>
-      <c r="T70">
-        <v>1</v>
-      </c>
+      <c r="T70"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70">
         <v>1</v>
       </c>
-      <c r="X70">
-        <v>2</v>
-      </c>
+      <c r="X70"/>
       <c r="Y70"/>
       <c r="Z70"/>
       <c r="AA70"/>
@@ -6784,16 +6781,16 @@
         <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6808,25 +6805,21 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
+      <c r="T71"/>
       <c r="U71"/>
       <c r="V71">
         <v>1</v>
       </c>
       <c r="W71"/>
-      <c r="X71">
-        <v>4</v>
-      </c>
+      <c r="X71"/>
       <c r="Y71"/>
       <c r="Z71"/>
       <c r="AA71"/>
@@ -6839,16 +6832,16 @@
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I72" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6873,10 +6866,10 @@
       </c>
       <c r="T72"/>
       <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72">
-        <v>1</v>
-      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72"/>
       <c r="X72"/>
       <c r="Y72"/>
       <c r="Z72"/>
@@ -6890,16 +6883,16 @@
         <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I73" t="s">
         <v>165</v>
       </c>
-      <c r="I73" t="s">
-        <v>168</v>
-      </c>
       <c r="J73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6911,22 +6904,20 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="T73"/>
       <c r="U73"/>
-      <c r="V73">
-        <v>1</v>
-      </c>
+      <c r="V73"/>
       <c r="W73"/>
       <c r="X73"/>
       <c r="Y73"/>
@@ -6941,16 +6932,16 @@
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I74" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J74" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6973,11 +6964,11 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="T74"/>
+      <c r="T74">
+        <v>1</v>
+      </c>
       <c r="U74"/>
-      <c r="V74">
-        <v>1</v>
-      </c>
+      <c r="V74"/>
       <c r="W74"/>
       <c r="X74"/>
       <c r="Y74"/>
@@ -6992,16 +6983,16 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I75" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J75" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -7026,7 +7017,9 @@
       </c>
       <c r="T75"/>
       <c r="U75"/>
-      <c r="V75"/>
+      <c r="V75">
+        <v>1</v>
+      </c>
       <c r="W75"/>
       <c r="X75"/>
       <c r="Y75"/>
@@ -7041,16 +7034,16 @@
         <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F76" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" t="s">
         <v>179</v>
       </c>
-      <c r="I76" t="s">
-        <v>180</v>
-      </c>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7073,11 +7066,11 @@
       <c r="R76">
         <v>0</v>
       </c>
-      <c r="T76">
-        <v>1</v>
-      </c>
+      <c r="T76"/>
       <c r="U76"/>
-      <c r="V76"/>
+      <c r="V76">
+        <v>1</v>
+      </c>
       <c r="W76"/>
       <c r="X76"/>
       <c r="Y76"/>
@@ -7095,13 +7088,13 @@
         <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7143,16 +7136,16 @@
         <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I78" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -7177,10 +7170,10 @@
       </c>
       <c r="T78"/>
       <c r="U78"/>
-      <c r="V78">
-        <v>1</v>
-      </c>
-      <c r="W78"/>
+      <c r="V78"/>
+      <c r="W78">
+        <v>1</v>
+      </c>
       <c r="X78"/>
       <c r="Y78"/>
       <c r="Z78"/>
@@ -7194,16 +7187,16 @@
         <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I79" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -7215,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -7226,13 +7219,17 @@
       <c r="R79">
         <v>0</v>
       </c>
-      <c r="T79"/>
+      <c r="T79">
+        <v>1</v>
+      </c>
       <c r="U79"/>
-      <c r="V79">
-        <v>1</v>
-      </c>
-      <c r="W79"/>
-      <c r="X79"/>
+      <c r="V79"/>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>2</v>
+      </c>
       <c r="Y79"/>
       <c r="Z79"/>
       <c r="AA79"/>
@@ -7245,13 +7242,13 @@
         <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J80" t="s">
         <v>187</v>
@@ -7266,10 +7263,10 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -7277,13 +7274,15 @@
       <c r="R80">
         <v>0</v>
       </c>
-      <c r="T80"/>
+      <c r="T80">
+        <v>1</v>
+      </c>
       <c r="U80"/>
       <c r="V80"/>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80"/>
+      <c r="W80"/>
+      <c r="X80">
+        <v>4</v>
+      </c>
       <c r="Y80"/>
       <c r="Z80"/>
       <c r="AA80"/>
@@ -7299,13 +7298,13 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I81" t="s">
         <v>188</v>
       </c>
       <c r="J81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7317,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -7332,13 +7331,11 @@
         <v>1</v>
       </c>
       <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81">
-        <v>1</v>
-      </c>
-      <c r="X81">
-        <v>2</v>
-      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81"/>
+      <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
       <c r="AA81"/>
@@ -7354,13 +7351,13 @@
         <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J82" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7387,7 +7384,9 @@
         <v>1</v>
       </c>
       <c r="U82"/>
-      <c r="V82"/>
+      <c r="V82">
+        <v>1</v>
+      </c>
       <c r="W82"/>
       <c r="X82">
         <v>4</v>
@@ -7407,14 +7406,14 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I83" t="s">
+        <v>193</v>
+      </c>
+      <c r="J83" t="s">
         <v>189</v>
       </c>
-      <c r="J83" t="s">
-        <v>191</v>
-      </c>
       <c r="L83">
         <v>0</v>
       </c>
@@ -7425,10 +7424,10 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -7444,7 +7443,9 @@
         <v>1</v>
       </c>
       <c r="W83"/>
-      <c r="X83"/>
+      <c r="X83">
+        <v>4</v>
+      </c>
       <c r="Y83"/>
       <c r="Z83"/>
       <c r="AA83"/>
@@ -7460,7 +7461,7 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I84" t="s">
         <v>192</v>
@@ -7489,13 +7490,9 @@
       <c r="R84">
         <v>0</v>
       </c>
-      <c r="T84">
-        <v>1</v>
-      </c>
+      <c r="T84"/>
       <c r="U84"/>
-      <c r="V84">
-        <v>1</v>
-      </c>
+      <c r="V84"/>
       <c r="W84"/>
       <c r="X84">
         <v>4</v>
@@ -7515,13 +7512,13 @@
         <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I85" t="s">
         <v>194</v>
       </c>
       <c r="J85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7548,12 +7545,12 @@
         <v>1</v>
       </c>
       <c r="U85"/>
-      <c r="V85">
-        <v>1</v>
-      </c>
-      <c r="W85"/>
+      <c r="V85"/>
+      <c r="W85">
+        <v>1</v>
+      </c>
       <c r="X85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y85"/>
       <c r="Z85"/>
@@ -7567,16 +7564,16 @@
         <v>79</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J86" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7588,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -7599,13 +7596,13 @@
       <c r="R86">
         <v>0</v>
       </c>
-      <c r="T86"/>
+      <c r="T86">
+        <v>1</v>
+      </c>
       <c r="U86"/>
       <c r="V86"/>
       <c r="W86"/>
-      <c r="X86">
-        <v>4</v>
-      </c>
+      <c r="X86"/>
       <c r="Y86"/>
       <c r="Z86"/>
       <c r="AA86"/>
@@ -7618,16 +7615,16 @@
         <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I87" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J87" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7658,9 +7655,7 @@
       <c r="W87">
         <v>1</v>
       </c>
-      <c r="X87">
-        <v>2</v>
-      </c>
+      <c r="X87"/>
       <c r="Y87"/>
       <c r="Z87"/>
       <c r="AA87"/>
@@ -7673,16 +7668,16 @@
         <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I88" t="s">
         <v>197</v>
       </c>
       <c r="J88" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -7694,10 +7689,10 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -7718,110 +7713,6 @@
       <c r="AB88"/>
       <c r="AC88"/>
       <c r="AK88"/>
-    </row>
-    <row r="89" spans="1:37">
-      <c r="B89">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>106</v>
-      </c>
-      <c r="F89" t="s">
-        <v>199</v>
-      </c>
-      <c r="I89" t="s">
-        <v>200</v>
-      </c>
-      <c r="J89" t="s">
-        <v>201</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>1</v>
-      </c>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89">
-        <v>1</v>
-      </c>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
-      <c r="AK89"/>
-    </row>
-    <row r="90" spans="1:37">
-      <c r="B90">
-        <v>83</v>
-      </c>
-      <c r="D90" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" t="s">
-        <v>196</v>
-      </c>
-      <c r="I90" t="s">
-        <v>198</v>
-      </c>
-      <c r="J90" t="s">
-        <v>202</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>1</v>
-      </c>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
-      <c r="AK90"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7893,12 +7784,12 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -7910,83 +7801,83 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>205</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>206</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="I6" s="77" t="s">
         <v>208</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>209</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="79"/>
       <c r="L6" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="N6" s="82" t="s">
         <v>211</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>212</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R6" s="103"/>
       <c r="S6" s="104"/>
       <c r="T6" s="103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U6" s="103"/>
       <c r="V6" s="105"/>
       <c r="W6" s="104"/>
       <c r="X6" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y6" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="Y6" s="109" t="s">
+      <c r="Z6" s="82" t="s">
         <v>216</v>
-      </c>
-      <c r="Z6" s="82" t="s">
-        <v>217</v>
       </c>
       <c r="AA6" s="104"/>
       <c r="AB6" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC6" s="110" t="s">
         <v>218</v>
-      </c>
-      <c r="AC6" s="110" t="s">
-        <v>219</v>
       </c>
       <c r="AD6" s="111"/>
       <c r="AE6" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF6" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="AF6" s="104" t="s">
+      <c r="AG6" s="82" t="s">
         <v>221</v>
-      </c>
-      <c r="AG6" s="82" t="s">
-        <v>222</v>
       </c>
       <c r="AH6" s="105"/>
       <c r="AI6" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ6" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="AJ6" s="116" t="s">
+      <c r="AK6" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="AK6" s="117" t="s">
+      <c r="AL6" s="118" t="s">
         <v>225</v>
-      </c>
-      <c r="AL6" s="118" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="44" customFormat="1">
@@ -7994,10 +7885,10 @@
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="58" t="s">
         <v>227</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>228</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="60"/>
@@ -8005,7 +7896,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>25</v>
@@ -8013,67 +7904,67 @@
       <c r="L7" s="87"/>
       <c r="M7" s="88"/>
       <c r="N7" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="P7" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="Q7" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="Q7" s="89" t="s">
+      <c r="R7" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="R7" s="89" t="s">
+      <c r="S7" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="S7" s="90" t="s">
+      <c r="T7" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="T7" s="89" t="s">
+      <c r="U7" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="U7" s="89" t="s">
+      <c r="V7" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="V7" s="106" t="s">
+      <c r="W7" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="W7" s="90" t="s">
+      <c r="X7" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="X7" s="90" t="s">
+      <c r="Y7" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z7" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="Y7" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z7" s="112" t="s">
+      <c r="AA7" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB7" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="AA7" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB7" s="90" t="s">
+      <c r="AC7" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="AC7" s="106" t="s">
+      <c r="AD7" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="AD7" s="89" t="s">
+      <c r="AE7" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="AE7" s="90" t="s">
+      <c r="AF7" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="AF7" s="90" t="s">
+      <c r="AG7" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="AG7" s="119" t="s">
+      <c r="AH7" s="119" t="s">
         <v>247</v>
-      </c>
-      <c r="AH7" s="119" t="s">
-        <v>248</v>
       </c>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="121"/>
@@ -8163,13 +8054,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
@@ -8178,7 +8069,7 @@
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
       <c r="M8" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -8205,10 +8096,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK8" s="127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL8" s="128"/>
     </row>
@@ -8470,13 +8361,13 @@
         <v>71</v>
       </c>
       <c r="H15" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="J15" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="J15" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98">
@@ -8521,13 +8412,13 @@
         <v>72</v>
       </c>
       <c r="H16" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="J16" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="J16" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98">
@@ -8572,13 +8463,13 @@
         <v>73</v>
       </c>
       <c r="H17" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="J17" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="J17" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="98">
@@ -8623,13 +8514,13 @@
         <v>74</v>
       </c>
       <c r="H18" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I18" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="J18" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="J18" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98">
@@ -8674,13 +8565,13 @@
         <v>77</v>
       </c>
       <c r="H19" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="J19" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="J19" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="98">
@@ -9493,7 +9384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N61" sqref="N61"/>
@@ -9519,7 +9410,7 @@
   <sheetData>
     <row r="1" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -9534,7 +9425,7 @@
     </row>
     <row r="2" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -9568,16 +9459,16 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="B4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -9591,7 +9482,7 @@
     <row r="5" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7">
         <v>10012345</v>
@@ -9600,7 +9491,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K5" s="34">
         <v>0.4375</v>
@@ -9610,19 +9501,19 @@
     <row r="6" spans="1:15" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="H6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -9632,28 +9523,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="10" t="s">
@@ -9664,38 +9555,38 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>278</v>
       </c>
       <c r="L10" s="36"/>
       <c r="M10" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="N10" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>280</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -10947,7 +10838,7 @@
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" s="30">
         <v>51</v>
@@ -11524,42 +11415,6 @@
         <v>1</v>
       </c>
       <c r="N91"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="B92">
-        <v>82</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92">
-        <v>5.5</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="B93">
-        <v>83</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93">
-        <v>5.5</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>Daftar Aset SAVR</t>
   </si>
@@ -172,33 +172,30 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>Jalan SR 6/2</t>
+    <t>Jalan Beverly Height 1</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>Jalan SR 6/3</t>
+    <t>Jalan Pinggiran</t>
   </si>
   <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>Jalan SR 6/4</t>
+    <t>Jalan Pinggiran 2</t>
   </si>
   <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>Jalan SR 6/4JS</t>
+    <t>Jalan Pinggiran 8</t>
   </si>
   <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
-    <t>Jalan SR 7/1</t>
-  </si>
-  <si>
     <t>7.0m</t>
   </si>
   <si>
@@ -208,66 +205,36 @@
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
-    <t>Jalan SR 7/10</t>
-  </si>
-  <si>
     <t>Terus</t>
   </si>
   <si>
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
-    <t>Jalan SR 7/11</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
-    <t>Jalan SR 7/2</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00160</t>
   </si>
   <si>
-    <t>Jalan SR 7/4</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00161</t>
   </si>
   <si>
-    <t>Jalan SR 7/5</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00162</t>
   </si>
   <si>
-    <t>Jalan SR 7/8</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00163</t>
   </si>
   <si>
-    <t>Jalan SR 7/9</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00164</t>
   </si>
   <si>
-    <t>Jalan Utama</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00165</t>
   </si>
   <si>
-    <t>Serdang Raya 6</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00166</t>
   </si>
   <si>
-    <t>Serdang Raya 7</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00167</t>
   </si>
   <si>
@@ -316,7 +283,7 @@
     <t>BKLG/PCE/J00181</t>
   </si>
   <si>
-    <t>BANGI</t>
+    <t>KUALA LUMPUR PUSAT</t>
   </si>
   <si>
     <r>
@@ -345,7 +312,7 @@
     </r>
   </si>
   <si>
-    <t>Tarikh Pemeriksaan : 2023-12-20</t>
+    <t>Tarikh Pemeriksaan : 2023-12-21</t>
   </si>
   <si>
     <t>Feeder Name / Nama Jalan</t>
@@ -572,68 +539,31 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>TMN SERDANG RAYA NO 3</t>
-  </si>
-  <si>
-    <t>JSR
-7/8
-3</t>
-  </si>
-  <si>
-    <t>Taman serdang raya no 5</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-8</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-6</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-5</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-4</t>
-  </si>
-  <si>
-    <t>Taman serdang raya no 3</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-3</t>
-  </si>
-  <si>
-    <t>JSR
-7/11
-1</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-5</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-4</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-6</t>
+    <t>PE RUMAH PUMP SUPERVIEW</t>
+  </si>
+  <si>
+    <t>JP2 2</t>
+  </si>
+  <si>
+    <t>JP2 1</t>
+  </si>
+  <si>
+    <t>JP2 1/1A</t>
+  </si>
+  <si>
+    <t>JP2 3</t>
+  </si>
+  <si>
+    <t>PE EURO ATLANTIK JLN PINGGIRAN 2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>JP2 6</t>
+  </si>
+  <si>
+    <t>JP2 5</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -645,255 +575,7 @@
     <t>FP Jalan Sanggul 5</t>
   </si>
   <si>
-    <t>JSR
-7/4
-5/1A</t>
-  </si>
-  <si>
-    <t>JSR 
-7/10
-6</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-5</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-3</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-10</t>
-  </si>
-  <si>
-    <t>JSR
-7/10
-5/1A</t>
-  </si>
-  <si>
-    <t>JSR 7/2 N/A</t>
-  </si>
-  <si>
-    <t>JSR 7/10 N/A</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>JSR 7/2</t>
-  </si>
-  <si>
-    <t>JSR 7/1 N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSR 7/1 N/A </t>
-  </si>
-  <si>
-    <t>JSR
-7/9
-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-JSR 7/9</t>
-  </si>
-  <si>
-    <t>JSR
-7/8
-1</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-1</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-1/1</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-6</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-5</t>
-  </si>
-  <si>
-    <t>JSR
-7/8
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-7</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-3</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-1</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-4</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-3</t>
-  </si>
-  <si>
-    <t>JSR
-7/9
-3</t>
-  </si>
-  <si>
-    <t>JSR
-7/9
-4</t>
-  </si>
-  <si>
-    <t>JSR
-7/9
-2</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-8</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-7</t>
-  </si>
-  <si>
-    <t>JSR
-7/5
-4</t>
-  </si>
-  <si>
-    <t>JSR
-7/6</t>
-  </si>
-  <si>
-    <t>JSR
-7/4
-6</t>
-  </si>
-  <si>
-    <t>PE TURF VIEW</t>
-  </si>
-  <si>
-    <t>JSR 6/4 2</t>
-  </si>
-  <si>
-    <t>JSR 6/4 3</t>
-  </si>
-  <si>
-    <t>JSR 6/4
-3</t>
-  </si>
-  <si>
-    <t>JSR 6/4
-4</t>
-  </si>
-  <si>
-    <t>JSR 6/4 4</t>
-  </si>
-  <si>
-    <t>JSR 6/4
-1</t>
-  </si>
-  <si>
-    <t>JSR 6/4 1</t>
-  </si>
-  <si>
-    <t>JSR 6/3
-1</t>
-  </si>
-  <si>
-    <t>JSR 6/3
-2</t>
-  </si>
-  <si>
-    <t>JSR 6/3 
-2</t>
-  </si>
-  <si>
-    <t>JSR 6/4 5</t>
-  </si>
-  <si>
-    <t>JSR 6/3
-3</t>
-  </si>
-  <si>
-    <t>JSR 6/3 4</t>
-  </si>
-  <si>
-    <t>JSR 6/3 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSR 6/3
-1
-</t>
-  </si>
-  <si>
-    <t>JSR 6/2
-2</t>
-  </si>
-  <si>
-    <t>JSR 6/2
-1</t>
-  </si>
-  <si>
-    <t>JSR 6/2 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE TURF VIEWJSR </t>
-  </si>
-  <si>
-    <t>JSR 6/3
-4</t>
-  </si>
-  <si>
-    <t>JSR 6/3
-5</t>
-  </si>
-  <si>
-    <t>JSR 6/3 5</t>
-  </si>
-  <si>
-    <t>JSR 6/3</t>
+    <t>JP 2 1</t>
   </si>
   <si>
     <t>Tarikh Semakan dibuat</t>
@@ -950,7 +632,10 @@
     <t>Tidak Patuh</t>
   </si>
   <si>
-    <t>2023-12-18</t>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2739,7 +2424,7 @@
       <c r="J8" s="46"/>
       <c r="K8" s="115"/>
       <c r="L8" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="46">
         <v>0</v>
@@ -2748,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="46">
         <v>0</v>
@@ -2782,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="46">
         <v>0</v>
       </c>
       <c r="AC8" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="46"/>
       <c r="AF8" s="123">
@@ -2828,7 +2513,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="115"/>
       <c r="L9" s="46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" s="46">
         <v>0</v>
@@ -2837,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P9" s="46">
         <v>0</v>
@@ -2871,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="AA9" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="46">
         <v>0</v>
       </c>
       <c r="AC9" s="46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="46">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE9" s="46"/>
       <c r="AF9" s="123">
@@ -2917,19 +2602,19 @@
       <c r="J10" s="46"/>
       <c r="K10" s="115"/>
       <c r="L10" s="46">
+        <v>5</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>1</v>
+      </c>
+      <c r="P10" s="46">
         <v>4</v>
-      </c>
-      <c r="M10" s="46">
-        <v>0</v>
-      </c>
-      <c r="N10" s="46">
-        <v>0</v>
-      </c>
-      <c r="O10" s="46">
-        <v>4</v>
-      </c>
-      <c r="P10" s="46">
-        <v>0</v>
       </c>
       <c r="Q10" s="46">
         <v>0</v>
@@ -2960,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="AA10" s="46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="46">
         <v>0</v>
       </c>
       <c r="AC10" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="46">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE10" s="46"/>
       <c r="AF10" s="123">
@@ -3015,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="46">
+        <v>0</v>
+      </c>
+      <c r="P11" s="46">
         <v>1</v>
-      </c>
-      <c r="P11" s="46">
-        <v>0</v>
       </c>
       <c r="Q11" s="46">
         <v>0</v>
@@ -3049,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="46">
         <v>0</v>
@@ -3058,11 +2743,11 @@
         <v>1</v>
       </c>
       <c r="AD11" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="46"/>
       <c r="AF11" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="123">
         <v>0</v>
@@ -3086,87 +2771,41 @@
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="65"/>
-      <c r="F12" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="F12" s="43"/>
       <c r="G12" s="65"/>
       <c r="H12" s="47"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="46">
-        <v>1</v>
-      </c>
-      <c r="M12" s="46">
-        <v>0</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0</v>
-      </c>
-      <c r="O12" s="46">
-        <v>1</v>
-      </c>
-      <c r="P12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>0</v>
-      </c>
-      <c r="R12" s="46">
-        <v>0</v>
-      </c>
-      <c r="S12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="46">
-        <v>0</v>
-      </c>
-      <c r="U12" s="46">
-        <v>0</v>
-      </c>
-      <c r="V12" s="46">
-        <v>0</v>
-      </c>
-      <c r="W12" s="46">
-        <v>0</v>
-      </c>
-      <c r="X12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="46">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="46">
-        <v>3</v>
-      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
-      <c r="AF12" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="123"/>
+      <c r="AH12" s="123"/>
       <c r="AI12" s="125"/>
-      <c r="AJ12" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ12" s="123"/>
       <c r="AK12" s="47"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="21">
@@ -3175,91 +2814,45 @@
         <v>6</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="F13" s="43"/>
       <c r="G13" s="65"/>
       <c r="H13" s="47"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="46">
-        <v>3</v>
-      </c>
-      <c r="M13" s="46">
-        <v>0</v>
-      </c>
-      <c r="N13" s="46">
-        <v>0</v>
-      </c>
-      <c r="O13" s="46">
-        <v>3</v>
-      </c>
-      <c r="P13" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="46">
-        <v>0</v>
-      </c>
-      <c r="R13" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="46">
-        <v>0</v>
-      </c>
-      <c r="U13" s="46">
-        <v>0</v>
-      </c>
-      <c r="V13" s="46">
-        <v>0</v>
-      </c>
-      <c r="W13" s="46">
-        <v>0</v>
-      </c>
-      <c r="X13" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="46">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="46">
-        <v>9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
-      <c r="AF13" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
       <c r="AI13" s="125"/>
-      <c r="AJ13" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ13" s="123"/>
       <c r="AK13" s="47"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="24">
@@ -3268,91 +2861,45 @@
         <v>7</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="65"/>
-      <c r="F14" s="43" t="s">
-        <v>57</v>
-      </c>
+      <c r="F14" s="43"/>
       <c r="G14" s="65"/>
       <c r="H14" s="47"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="46">
-        <v>3</v>
-      </c>
-      <c r="M14" s="46">
-        <v>0</v>
-      </c>
-      <c r="N14" s="46">
-        <v>0</v>
-      </c>
-      <c r="O14" s="46">
-        <v>3</v>
-      </c>
-      <c r="P14" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="46">
-        <v>0</v>
-      </c>
-      <c r="R14" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
       <c r="S14" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" s="46">
-        <v>0</v>
-      </c>
-      <c r="U14" s="46">
-        <v>0</v>
-      </c>
-      <c r="V14" s="46">
-        <v>0</v>
-      </c>
-      <c r="W14" s="46">
-        <v>0</v>
-      </c>
-      <c r="X14" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="46">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="46">
-        <v>9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
       <c r="AE14" s="46"/>
-      <c r="AF14" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
       <c r="AI14" s="125"/>
-      <c r="AJ14" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ14" s="123"/>
       <c r="AK14" s="47"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="24">
@@ -3361,91 +2908,45 @@
         <v>8</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="65"/>
-      <c r="F15" s="43" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="43"/>
       <c r="G15" s="65"/>
       <c r="H15" s="47"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="46">
-        <v>4</v>
-      </c>
-      <c r="M15" s="46">
-        <v>0</v>
-      </c>
-      <c r="N15" s="46">
-        <v>0</v>
-      </c>
-      <c r="O15" s="46">
-        <v>4</v>
-      </c>
-      <c r="P15" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="46">
-        <v>0</v>
-      </c>
-      <c r="R15" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="46">
-        <v>0</v>
-      </c>
-      <c r="U15" s="46">
-        <v>0</v>
-      </c>
-      <c r="V15" s="46">
-        <v>0</v>
-      </c>
-      <c r="W15" s="46">
-        <v>0</v>
-      </c>
-      <c r="X15" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="46">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="46">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
       <c r="AE15" s="46"/>
-      <c r="AF15" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
       <c r="AI15" s="125"/>
-      <c r="AJ15" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ15" s="123"/>
       <c r="AK15" s="47"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="24">
@@ -3454,91 +2955,45 @@
         <v>9</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="F16" s="43"/>
       <c r="G16" s="65"/>
       <c r="H16" s="47"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="46">
-        <v>7</v>
-      </c>
-      <c r="M16" s="46">
-        <v>0</v>
-      </c>
-      <c r="N16" s="46">
-        <v>0</v>
-      </c>
-      <c r="O16" s="46">
-        <v>2</v>
-      </c>
-      <c r="P16" s="46">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>0</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
       <c r="S16" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="46">
-        <v>0</v>
-      </c>
-      <c r="U16" s="46">
-        <v>0</v>
-      </c>
-      <c r="V16" s="46">
-        <v>0</v>
-      </c>
-      <c r="W16" s="46">
-        <v>0</v>
-      </c>
-      <c r="X16" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="46">
-        <v>7</v>
-      </c>
-      <c r="AD16" s="46">
-        <v>21</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
       <c r="AE16" s="46"/>
-      <c r="AF16" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="123"/>
+      <c r="AH16" s="123"/>
       <c r="AI16" s="125"/>
-      <c r="AJ16" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ16" s="123"/>
       <c r="AK16" s="47"/>
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="24">
@@ -3547,91 +3002,45 @@
         <v>10</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="65"/>
-      <c r="F17" s="43" t="s">
-        <v>63</v>
-      </c>
+      <c r="F17" s="43"/>
       <c r="G17" s="65"/>
       <c r="H17" s="47"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="46">
-        <v>7</v>
-      </c>
-      <c r="M17" s="46">
-        <v>0</v>
-      </c>
-      <c r="N17" s="46">
-        <v>0</v>
-      </c>
-      <c r="O17" s="46">
-        <v>0</v>
-      </c>
-      <c r="P17" s="46">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="46">
-        <v>0</v>
-      </c>
-      <c r="R17" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
       <c r="S17" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="46">
-        <v>0</v>
-      </c>
-      <c r="U17" s="46">
-        <v>0</v>
-      </c>
-      <c r="V17" s="46">
-        <v>0</v>
-      </c>
-      <c r="W17" s="46">
-        <v>0</v>
-      </c>
-      <c r="X17" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="46">
-        <v>7</v>
-      </c>
-      <c r="AD17" s="46">
-        <v>21</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
-      <c r="AF17" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="123"/>
       <c r="AI17" s="125"/>
-      <c r="AJ17" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ17" s="123"/>
       <c r="AK17" s="47"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="24">
@@ -3640,91 +3049,45 @@
         <v>11</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="65"/>
-      <c r="F18" s="43" t="s">
-        <v>65</v>
-      </c>
+      <c r="F18" s="43"/>
       <c r="G18" s="65"/>
       <c r="H18" s="47"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="46">
-        <v>3</v>
-      </c>
-      <c r="M18" s="46">
-        <v>0</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0</v>
-      </c>
-      <c r="O18" s="46">
-        <v>0</v>
-      </c>
-      <c r="P18" s="46">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>0</v>
-      </c>
-      <c r="R18" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
       <c r="S18" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" s="46">
-        <v>0</v>
-      </c>
-      <c r="U18" s="46">
-        <v>0</v>
-      </c>
-      <c r="V18" s="46">
-        <v>0</v>
-      </c>
-      <c r="W18" s="46">
-        <v>0</v>
-      </c>
-      <c r="X18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="46">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="46">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
-      <c r="AF18" s="123">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="123"/>
       <c r="AI18" s="125"/>
-      <c r="AJ18" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ18" s="123"/>
       <c r="AK18" s="47"/>
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="24">
@@ -3733,91 +3096,45 @@
         <v>12</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="65"/>
-      <c r="F19" s="43" t="s">
-        <v>67</v>
-      </c>
+      <c r="F19" s="43"/>
       <c r="G19" s="65"/>
       <c r="H19" s="47"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="46">
-        <v>4</v>
-      </c>
-      <c r="M19" s="46">
-        <v>0</v>
-      </c>
-      <c r="N19" s="46">
-        <v>0</v>
-      </c>
-      <c r="O19" s="46">
-        <v>1</v>
-      </c>
-      <c r="P19" s="46">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="46">
-        <v>0</v>
-      </c>
-      <c r="R19" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19" s="46">
-        <v>0</v>
-      </c>
-      <c r="U19" s="46">
-        <v>0</v>
-      </c>
-      <c r="V19" s="46">
-        <v>0</v>
-      </c>
-      <c r="W19" s="46">
-        <v>0</v>
-      </c>
-      <c r="X19" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="46">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="46">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
       <c r="AE19" s="46"/>
-      <c r="AF19" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
       <c r="AI19" s="125"/>
-      <c r="AJ19" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ19" s="123"/>
       <c r="AK19" s="47"/>
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="24">
@@ -3826,91 +3143,45 @@
         <v>13</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="65"/>
-      <c r="F20" s="43" t="s">
-        <v>69</v>
-      </c>
+      <c r="F20" s="43"/>
       <c r="G20" s="65"/>
       <c r="H20" s="47"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="46">
-        <v>1</v>
-      </c>
-      <c r="M20" s="46">
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0</v>
-      </c>
-      <c r="O20" s="46">
-        <v>0</v>
-      </c>
-      <c r="P20" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="46">
-        <v>0</v>
-      </c>
-      <c r="R20" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20" s="46">
-        <v>0</v>
-      </c>
-      <c r="U20" s="46">
-        <v>0</v>
-      </c>
-      <c r="V20" s="46">
-        <v>0</v>
-      </c>
-      <c r="W20" s="46">
-        <v>0</v>
-      </c>
-      <c r="X20" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="46">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="46">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
-      <c r="AF20" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
       <c r="AI20" s="125"/>
-      <c r="AJ20" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ20" s="123"/>
       <c r="AK20" s="47"/>
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="24">
@@ -3919,91 +3190,45 @@
         <v>14</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="65"/>
-      <c r="F21" s="43" t="s">
-        <v>71</v>
-      </c>
+      <c r="F21" s="43"/>
       <c r="G21" s="65"/>
       <c r="H21" s="47"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="46">
-        <v>1</v>
-      </c>
-      <c r="M21" s="46">
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0</v>
-      </c>
-      <c r="O21" s="46">
-        <v>1</v>
-      </c>
-      <c r="P21" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="46">
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" s="46">
-        <v>0</v>
-      </c>
-      <c r="U21" s="46">
-        <v>0</v>
-      </c>
-      <c r="V21" s="46">
-        <v>0</v>
-      </c>
-      <c r="W21" s="46">
-        <v>0</v>
-      </c>
-      <c r="X21" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="46">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="46">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
       <c r="AE21" s="46"/>
-      <c r="AF21" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
       <c r="AI21" s="125"/>
-      <c r="AJ21" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ21" s="123"/>
       <c r="AK21" s="47"/>
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="24">
@@ -4012,91 +3237,45 @@
         <v>15</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="65"/>
-      <c r="F22" s="43" t="s">
-        <v>73</v>
-      </c>
+      <c r="F22" s="43"/>
       <c r="G22" s="65"/>
       <c r="H22" s="47"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="46">
-        <v>8</v>
-      </c>
-      <c r="M22" s="46">
-        <v>0</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0</v>
-      </c>
-      <c r="O22" s="46">
-        <v>8</v>
-      </c>
-      <c r="P22" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="46">
-        <v>0</v>
-      </c>
-      <c r="R22" s="46">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
       <c r="S22" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="46">
-        <v>0</v>
-      </c>
-      <c r="U22" s="46">
-        <v>0</v>
-      </c>
-      <c r="V22" s="46">
-        <v>0</v>
-      </c>
-      <c r="W22" s="46">
-        <v>0</v>
-      </c>
-      <c r="X22" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="46">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="46">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
       <c r="AE22" s="46"/>
-      <c r="AF22" s="123">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
       <c r="AI22" s="125"/>
-      <c r="AJ22" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ22" s="123"/>
       <c r="AK22" s="47"/>
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="24">
@@ -4105,7 +3284,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="65"/>
@@ -4115,7 +3294,7 @@
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
@@ -4125,7 +3304,7 @@
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T23" s="46"/>
       <c r="U23" s="46"/>
@@ -4152,7 +3331,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="65"/>
@@ -4162,7 +3341,7 @@
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
@@ -4172,7 +3351,7 @@
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
       <c r="S24" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="46"/>
@@ -4199,7 +3378,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="65"/>
@@ -4209,7 +3388,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
@@ -4219,7 +3398,7 @@
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
       <c r="S25" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
@@ -4246,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="65"/>
@@ -4256,7 +3435,7 @@
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
@@ -4266,7 +3445,7 @@
       <c r="Q26" s="46"/>
       <c r="R26" s="46"/>
       <c r="S26" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T26" s="46"/>
       <c r="U26" s="46"/>
@@ -4293,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="65"/>
@@ -4303,7 +3482,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="46"/>
       <c r="M27" s="46"/>
@@ -4313,7 +3492,7 @@
       <c r="Q27" s="46"/>
       <c r="R27" s="46"/>
       <c r="S27" s="65" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="T27" s="46"/>
       <c r="U27" s="46"/>
@@ -4340,7 +3519,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="65"/>
@@ -4350,7 +3529,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
@@ -4360,7 +3539,7 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
       <c r="S28" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
@@ -4387,7 +3566,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="65"/>
@@ -4397,7 +3576,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
@@ -4407,7 +3586,7 @@
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="46"/>
@@ -4434,7 +3613,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="65"/>
@@ -4444,7 +3623,7 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
@@ -4454,7 +3633,7 @@
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="46"/>
@@ -4481,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="65"/>
@@ -4491,7 +3670,7 @@
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
@@ -4501,7 +3680,7 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="46"/>
@@ -4528,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="65"/>
@@ -4538,7 +3717,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="46"/>
@@ -4548,7 +3727,7 @@
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T32" s="46"/>
       <c r="U32" s="46"/>
@@ -4575,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="65"/>
@@ -4585,7 +3764,7 @@
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="46"/>
@@ -4595,7 +3774,7 @@
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
       <c r="S33" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T33" s="46"/>
       <c r="U33" s="46"/>
@@ -4622,7 +3801,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="65"/>
@@ -4632,7 +3811,7 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L34" s="46"/>
       <c r="M34" s="46"/>
@@ -4642,7 +3821,7 @@
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
       <c r="S34" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="46"/>
@@ -4669,7 +3848,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="65"/>
@@ -4679,7 +3858,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
@@ -4689,7 +3868,7 @@
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
       <c r="S35" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="46"/>
@@ -4716,7 +3895,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="65"/>
@@ -4726,7 +3905,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L36" s="46"/>
       <c r="M36" s="46"/>
@@ -4736,7 +3915,7 @@
       <c r="Q36" s="46"/>
       <c r="R36" s="46"/>
       <c r="S36" s="65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T36" s="46"/>
       <c r="U36" s="46"/>
@@ -4763,7 +3942,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="65"/>
@@ -4773,7 +3952,7 @@
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
@@ -4783,7 +3962,7 @@
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
       <c r="S37" s="65" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
@@ -4853,10 +4032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:DI62"/>
+  <dimension ref="A1:DI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AL62" sqref="AL62"/>
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4902,15 +4081,15 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="126" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -4922,83 +4101,83 @@
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
       <c r="L6" s="51" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="70" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="71"/>
       <c r="T6" s="70" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="72"/>
       <c r="W6" s="71"/>
       <c r="X6" s="71" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="53" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AA6" s="71"/>
       <c r="AB6" s="76" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="77" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="78"/>
       <c r="AE6" s="78" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="71" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AG6" s="53" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AH6" s="72"/>
       <c r="AI6" s="82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AJ6" s="83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AK6" s="84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AL6" s="85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="26" customFormat="1">
@@ -5006,10 +4185,10 @@
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
@@ -5017,7 +4196,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K7" s="57" t="s">
         <v>24</v>
@@ -5025,67 +4204,67 @@
       <c r="L7" s="58"/>
       <c r="M7" s="59"/>
       <c r="N7" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="AA7" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="61" t="s">
+      <c r="AC7" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="AD7" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="AE7" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="AF7" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="60" t="s">
+      <c r="AG7" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="U7" s="60" t="s">
+      <c r="AH7" s="86" t="s">
         <v>125</v>
-      </c>
-      <c r="V7" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="W7" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="X7" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y7" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z7" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB7" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC7" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD7" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE7" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF7" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG7" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH7" s="86" t="s">
-        <v>136</v>
       </c>
       <c r="AI7" s="87"/>
       <c r="AJ7" s="88"/>
@@ -5172,16 +4351,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G8" s="132"/>
       <c r="H8" s="129"/>
@@ -5190,13 +4369,13 @@
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
       <c r="M8" s="43" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N8" s="43">
         <v>0</v>
       </c>
       <c r="O8" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="64">
         <v>0</v>
@@ -5210,9 +4389,11 @@
       <c r="S8" s="64">
         <v>0</v>
       </c>
-      <c r="T8" s="43"/>
+      <c r="T8" s="43">
+        <v>0</v>
+      </c>
       <c r="U8" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="74">
         <v>0</v>
@@ -5254,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="94"/>
       <c r="AK8" s="94"/>
@@ -5265,16 +4446,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G9" s="105"/>
       <c r="H9" s="130"/>
@@ -5283,13 +4464,13 @@
       <c r="K9" s="65"/>
       <c r="L9" s="66"/>
       <c r="M9" s="46" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N9" s="46">
         <v>0</v>
       </c>
       <c r="O9" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="67">
         <v>0</v>
@@ -5301,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="46">
         <v>0</v>
@@ -5349,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="94"/>
       <c r="AK9" s="95"/>
@@ -5360,16 +4541,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G10" s="105"/>
       <c r="H10" s="130"/>
@@ -5378,7 +4559,7 @@
       <c r="K10" s="65"/>
       <c r="L10" s="66"/>
       <c r="M10" s="46" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="N10" s="46">
         <v>0</v>
@@ -5387,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="46">
         <v>0</v>
@@ -5396,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="46">
         <v>0</v>
@@ -5444,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="94"/>
       <c r="AK10" s="95"/>
@@ -5455,16 +4636,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="130"/>
@@ -5473,7 +4654,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="66"/>
       <c r="M11" s="46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="N11" s="46">
         <v>0</v>
@@ -5482,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="P11" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
         <v>1</v>
       </c>
-      <c r="Q11" s="46">
-        <v>0</v>
-      </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
       <c r="S11" s="67">
         <v>0</v>
       </c>
@@ -5497,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="75">
         <v>0</v>
@@ -5539,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="94"/>
       <c r="AK11" s="95"/>
@@ -5550,16 +4731,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G12" s="105"/>
       <c r="H12" s="130"/>
@@ -5568,7 +4749,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="66"/>
       <c r="M12" s="46" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N12" s="46">
         <v>0</v>
@@ -5583,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="67">
         <v>0</v>
@@ -5594,7 +4775,9 @@
       <c r="U12" s="46">
         <v>0</v>
       </c>
-      <c r="V12" s="75"/>
+      <c r="V12" s="75">
+        <v>0</v>
+      </c>
       <c r="W12" s="67">
         <v>0</v>
       </c>
@@ -5632,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="94"/>
       <c r="AK12" s="95"/>
@@ -5643,16 +4826,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="130"/>
@@ -5661,7 +4844,7 @@
       <c r="K13" s="65"/>
       <c r="L13" s="66"/>
       <c r="M13" s="46" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="N13" s="46">
         <v>0</v>
@@ -5670,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="46">
         <v>0</v>
@@ -5727,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="94"/>
       <c r="AK13" s="95"/>
@@ -5738,16 +4921,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G14" s="105"/>
       <c r="H14" s="130"/>
@@ -5756,7 +4939,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="66"/>
       <c r="M14" s="46" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="N14" s="46">
         <v>0</v>
@@ -5765,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="46">
         <v>0</v>
@@ -5822,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="94"/>
       <c r="AK14" s="95"/>
@@ -5833,35 +5016,35 @@
         <v>8</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H15" s="130" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K15" s="65"/>
       <c r="L15" s="66">
         <v>40817</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="N15" s="46">
         <v>0</v>
@@ -5927,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="94"/>
       <c r="AK15" s="95"/>
@@ -5938,35 +5121,35 @@
         <v>9</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G16" s="133" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H16" s="130" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I16" s="65" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K16" s="65"/>
       <c r="L16" s="66">
         <v>40817</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N16" s="46">
         <v>0</v>
@@ -5975,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="46">
         <v>0</v>
@@ -5984,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="46">
         <v>0</v>
@@ -6032,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="94"/>
       <c r="AK16" s="95"/>
@@ -6043,35 +5226,35 @@
         <v>10</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H17" s="130" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K17" s="65"/>
       <c r="L17" s="66">
         <v>40817</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="N17" s="46">
         <v>0</v>
@@ -6080,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="46">
         <v>0</v>
@@ -6137,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="94"/>
       <c r="AK17" s="95"/>
@@ -6147,103 +5330,49 @@
       <c r="B18" s="41">
         <v>11</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>154</v>
-      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="133" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H18" s="130" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="66">
         <v>40817</v>
       </c>
-      <c r="M18" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0</v>
-      </c>
-      <c r="O18" s="46">
-        <v>0</v>
-      </c>
-      <c r="P18" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>0</v>
-      </c>
-      <c r="R18" s="46">
-        <v>1</v>
-      </c>
-      <c r="S18" s="67">
-        <v>0</v>
-      </c>
-      <c r="T18" s="46">
-        <v>0</v>
-      </c>
-      <c r="U18" s="46">
-        <v>0</v>
-      </c>
-      <c r="V18" s="75">
-        <v>0</v>
-      </c>
-      <c r="W18" s="67">
-        <v>0</v>
-      </c>
-      <c r="X18" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="93">
-        <v>5</v>
-      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="93"/>
       <c r="AJ18" s="94"/>
       <c r="AK18" s="95"/>
       <c r="AL18" s="44"/>
@@ -6252,103 +5381,49 @@
       <c r="B19" s="44">
         <v>12</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>158</v>
-      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="133" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H19" s="130" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K19" s="65"/>
       <c r="L19" s="66">
         <v>40817</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" s="46">
-        <v>0</v>
-      </c>
-      <c r="O19" s="46">
-        <v>0</v>
-      </c>
-      <c r="P19" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="46">
-        <v>0</v>
-      </c>
-      <c r="R19" s="46">
-        <v>0</v>
-      </c>
-      <c r="S19" s="67">
-        <v>0</v>
-      </c>
-      <c r="T19" s="46">
-        <v>0</v>
-      </c>
-      <c r="U19" s="46">
-        <v>0</v>
-      </c>
-      <c r="V19" s="75">
-        <v>0</v>
-      </c>
-      <c r="W19" s="67">
-        <v>0</v>
-      </c>
-      <c r="X19" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="93">
-        <v>2</v>
-      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="93"/>
       <c r="AJ19" s="94"/>
       <c r="AK19" s="95"/>
       <c r="AL19" s="44"/>
@@ -6357,93 +5432,39 @@
       <c r="B20" s="41">
         <v>13</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>157</v>
-      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="133"/>
       <c r="H20" s="130"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="68"/>
-      <c r="M20" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0</v>
-      </c>
-      <c r="O20" s="46">
-        <v>0</v>
-      </c>
-      <c r="P20" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="46">
-        <v>0</v>
-      </c>
-      <c r="R20" s="46">
-        <v>0</v>
-      </c>
-      <c r="S20" s="67">
-        <v>0</v>
-      </c>
-      <c r="T20" s="46">
-        <v>0</v>
-      </c>
-      <c r="U20" s="46">
-        <v>0</v>
-      </c>
-      <c r="V20" s="75">
-        <v>0</v>
-      </c>
-      <c r="W20" s="67">
-        <v>0</v>
-      </c>
-      <c r="X20" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="93">
-        <v>3</v>
-      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="93"/>
       <c r="AJ20" s="94"/>
       <c r="AK20" s="95"/>
       <c r="AL20" s="44"/>
@@ -6452,91 +5473,39 @@
       <c r="B21" s="44">
         <v>14</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="133"/>
       <c r="H21" s="130"/>
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="68"/>
-      <c r="M21" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0</v>
-      </c>
-      <c r="O21" s="46">
-        <v>0</v>
-      </c>
-      <c r="P21" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="46">
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
-        <v>1</v>
-      </c>
-      <c r="S21" s="67">
-        <v>0</v>
-      </c>
-      <c r="T21" s="46">
-        <v>0</v>
-      </c>
-      <c r="U21" s="46">
-        <v>0</v>
-      </c>
-      <c r="V21" s="75">
-        <v>0</v>
-      </c>
-      <c r="W21" s="67">
-        <v>0</v>
-      </c>
-      <c r="X21" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="67">
-        <v>0</v>
-      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="67"/>
       <c r="AF21" s="75"/>
-      <c r="AG21" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="93">
-        <v>5</v>
-      </c>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="93"/>
       <c r="AJ21" s="94"/>
       <c r="AK21" s="95"/>
       <c r="AL21" s="44"/>
@@ -6545,93 +5514,39 @@
       <c r="B22" s="41">
         <v>15</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>162</v>
-      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="133"/>
       <c r="H22" s="130"/>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="68"/>
-      <c r="M22" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0</v>
-      </c>
-      <c r="O22" s="46">
-        <v>0</v>
-      </c>
-      <c r="P22" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="46">
-        <v>0</v>
-      </c>
-      <c r="R22" s="46">
-        <v>0</v>
-      </c>
-      <c r="S22" s="67">
-        <v>1</v>
-      </c>
-      <c r="T22" s="46">
-        <v>0</v>
-      </c>
-      <c r="U22" s="46">
-        <v>0</v>
-      </c>
-      <c r="V22" s="75">
-        <v>0</v>
-      </c>
-      <c r="W22" s="67">
-        <v>0</v>
-      </c>
-      <c r="X22" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="93">
-        <v>4</v>
-      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="93"/>
       <c r="AJ22" s="94"/>
       <c r="AK22" s="95"/>
       <c r="AL22" s="44"/>
@@ -6640,93 +5555,39 @@
       <c r="B23" s="44">
         <v>16</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>162</v>
-      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="133"/>
       <c r="H23" s="131"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="68"/>
-      <c r="M23" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" s="46">
-        <v>0</v>
-      </c>
-      <c r="O23" s="46">
-        <v>0</v>
-      </c>
-      <c r="P23" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="46">
-        <v>0</v>
-      </c>
-      <c r="R23" s="46">
-        <v>0</v>
-      </c>
-      <c r="S23" s="67">
-        <v>1</v>
-      </c>
-      <c r="T23" s="46">
-        <v>0</v>
-      </c>
-      <c r="U23" s="46">
-        <v>0</v>
-      </c>
-      <c r="V23" s="75">
-        <v>0</v>
-      </c>
-      <c r="W23" s="67">
-        <v>0</v>
-      </c>
-      <c r="X23" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="93">
-        <v>4</v>
-      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="93"/>
       <c r="AJ23" s="94"/>
       <c r="AK23" s="95"/>
       <c r="AL23" s="44"/>
@@ -6735,91 +5596,39 @@
       <c r="B24" s="41">
         <v>17</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>166</v>
-      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
-      <c r="M24" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="46">
-        <v>0</v>
-      </c>
-      <c r="O24" s="46">
-        <v>1</v>
-      </c>
-      <c r="P24" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="46">
-        <v>0</v>
-      </c>
-      <c r="R24" s="46">
-        <v>0</v>
-      </c>
-      <c r="S24" s="67">
-        <v>1</v>
-      </c>
-      <c r="T24" s="46">
-        <v>0</v>
-      </c>
-      <c r="U24" s="46">
-        <v>0</v>
-      </c>
-      <c r="V24" s="75">
-        <v>0</v>
-      </c>
-      <c r="W24" s="67">
-        <v>0</v>
-      </c>
-      <c r="X24" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="81">
-        <v>0</v>
-      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="81"/>
       <c r="AA24" s="67"/>
-      <c r="AB24" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="75">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="93">
-        <v>6</v>
-      </c>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="93"/>
       <c r="AJ24" s="94"/>
       <c r="AK24" s="95"/>
       <c r="AL24" s="44"/>
@@ -6828,93 +5637,39 @@
       <c r="B25" s="44">
         <v>18</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>168</v>
-      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
-      <c r="M25" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" s="46">
-        <v>0</v>
-      </c>
-      <c r="O25" s="46">
-        <v>1</v>
-      </c>
-      <c r="P25" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="46">
-        <v>0</v>
-      </c>
-      <c r="R25" s="46">
-        <v>0</v>
-      </c>
-      <c r="S25" s="67">
-        <v>0</v>
-      </c>
-      <c r="T25" s="46">
-        <v>0</v>
-      </c>
-      <c r="U25" s="46">
-        <v>0</v>
-      </c>
-      <c r="V25" s="75">
-        <v>0</v>
-      </c>
-      <c r="W25" s="67">
-        <v>0</v>
-      </c>
-      <c r="X25" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="93">
-        <v>4</v>
-      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="93"/>
       <c r="AJ25" s="94"/>
       <c r="AK25" s="95"/>
       <c r="AL25" s="44"/>
@@ -6923,93 +5678,39 @@
       <c r="B26" s="41">
         <v>19</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>170</v>
-      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
-      <c r="M26" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0</v>
-      </c>
-      <c r="O26" s="46">
-        <v>1</v>
-      </c>
-      <c r="P26" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="46">
-        <v>0</v>
-      </c>
-      <c r="R26" s="46">
-        <v>0</v>
-      </c>
-      <c r="S26" s="67">
-        <v>0</v>
-      </c>
-      <c r="T26" s="46">
-        <v>0</v>
-      </c>
-      <c r="U26" s="46">
-        <v>0</v>
-      </c>
-      <c r="V26" s="75">
-        <v>0</v>
-      </c>
-      <c r="W26" s="67">
-        <v>0</v>
-      </c>
-      <c r="X26" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="93">
-        <v>4</v>
-      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="93"/>
       <c r="AJ26" s="94"/>
       <c r="AK26" s="95"/>
       <c r="AL26" s="44"/>
@@ -7018,93 +5719,39 @@
       <c r="B27" s="44">
         <v>20</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>156</v>
-      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
-      <c r="M27" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0</v>
-      </c>
-      <c r="O27" s="46">
-        <v>1</v>
-      </c>
-      <c r="P27" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="46">
-        <v>0</v>
-      </c>
-      <c r="R27" s="46">
-        <v>0</v>
-      </c>
-      <c r="S27" s="67">
-        <v>0</v>
-      </c>
-      <c r="T27" s="46">
-        <v>0</v>
-      </c>
-      <c r="U27" s="46">
-        <v>0</v>
-      </c>
-      <c r="V27" s="75">
-        <v>0</v>
-      </c>
-      <c r="W27" s="67">
-        <v>0</v>
-      </c>
-      <c r="X27" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="93">
-        <v>4</v>
-      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="93"/>
       <c r="AJ27" s="94"/>
       <c r="AK27" s="95"/>
       <c r="AL27" s="44"/>
@@ -7113,93 +5760,39 @@
       <c r="B28" s="41">
         <v>21</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>172</v>
-      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
-      <c r="M28" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="46">
-        <v>0</v>
-      </c>
-      <c r="O28" s="46">
-        <v>0</v>
-      </c>
-      <c r="P28" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="46">
-        <v>0</v>
-      </c>
-      <c r="R28" s="46">
-        <v>0</v>
-      </c>
-      <c r="S28" s="67">
-        <v>0</v>
-      </c>
-      <c r="T28" s="46">
-        <v>0</v>
-      </c>
-      <c r="U28" s="46">
-        <v>0</v>
-      </c>
-      <c r="V28" s="75">
-        <v>0</v>
-      </c>
-      <c r="W28" s="67">
-        <v>0</v>
-      </c>
-      <c r="X28" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="93">
-        <v>4</v>
-      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="93"/>
       <c r="AJ28" s="94"/>
       <c r="AK28" s="95"/>
       <c r="AL28" s="44"/>
@@ -7208,93 +5801,39 @@
       <c r="B29" s="44">
         <v>22</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>171</v>
-      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
       <c r="J29" s="69"/>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
-      <c r="M29" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="N29" s="46">
-        <v>0</v>
-      </c>
-      <c r="O29" s="46">
-        <v>0</v>
-      </c>
-      <c r="P29" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="46">
-        <v>0</v>
-      </c>
-      <c r="R29" s="46">
-        <v>0</v>
-      </c>
-      <c r="S29" s="67">
-        <v>0</v>
-      </c>
-      <c r="T29" s="46">
-        <v>0</v>
-      </c>
-      <c r="U29" s="46">
-        <v>0</v>
-      </c>
-      <c r="V29" s="75">
-        <v>0</v>
-      </c>
-      <c r="W29" s="67">
-        <v>0</v>
-      </c>
-      <c r="X29" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="93">
-        <v>3</v>
-      </c>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="93"/>
       <c r="AJ29" s="94"/>
       <c r="AK29" s="95"/>
       <c r="AL29" s="44"/>
@@ -7303,91 +5842,39 @@
       <c r="B30" s="41">
         <v>23</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>174</v>
-      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
       <c r="J30" s="69"/>
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="N30" s="46">
-        <v>0</v>
-      </c>
-      <c r="O30" s="46">
-        <v>0</v>
-      </c>
-      <c r="P30" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="46">
-        <v>1</v>
-      </c>
-      <c r="R30" s="46">
-        <v>0</v>
-      </c>
-      <c r="S30" s="67">
-        <v>0</v>
-      </c>
-      <c r="T30" s="46">
-        <v>0</v>
-      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="46"/>
       <c r="U30" s="46"/>
-      <c r="V30" s="75">
-        <v>0</v>
-      </c>
-      <c r="W30" s="67">
-        <v>0</v>
-      </c>
-      <c r="X30" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="93">
-        <v>5</v>
-      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="93"/>
       <c r="AJ30" s="94"/>
       <c r="AK30" s="95"/>
       <c r="AL30" s="44"/>
@@ -7396,93 +5883,39 @@
       <c r="B31" s="44">
         <v>24</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>175</v>
-      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
       <c r="J31" s="69"/>
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
-      <c r="M31" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="N31" s="46">
-        <v>0</v>
-      </c>
-      <c r="O31" s="46">
-        <v>0</v>
-      </c>
-      <c r="P31" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <v>0</v>
-      </c>
-      <c r="R31" s="46">
-        <v>0</v>
-      </c>
-      <c r="S31" s="67">
-        <v>0</v>
-      </c>
-      <c r="T31" s="46">
-        <v>0</v>
-      </c>
-      <c r="U31" s="46">
-        <v>0</v>
-      </c>
-      <c r="V31" s="75">
-        <v>0</v>
-      </c>
-      <c r="W31" s="67">
-        <v>0</v>
-      </c>
-      <c r="X31" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="93">
-        <v>2</v>
-      </c>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="93"/>
       <c r="AJ31" s="94"/>
       <c r="AK31" s="95"/>
       <c r="AL31" s="44"/>
@@ -7491,91 +5924,39 @@
       <c r="B32" s="41">
         <v>25</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>169</v>
-      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
       <c r="J32" s="69"/>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
-      <c r="M32" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="46">
-        <v>0</v>
-      </c>
-      <c r="O32" s="46">
-        <v>1</v>
-      </c>
-      <c r="P32" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <v>0</v>
-      </c>
-      <c r="R32" s="46">
-        <v>1</v>
-      </c>
-      <c r="S32" s="67">
-        <v>0</v>
-      </c>
-      <c r="T32" s="46">
-        <v>0</v>
-      </c>
-      <c r="U32" s="46">
-        <v>0</v>
-      </c>
-      <c r="V32" s="75">
-        <v>0</v>
-      </c>
-      <c r="W32" s="67">
-        <v>0</v>
-      </c>
-      <c r="X32" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="81">
-        <v>0</v>
-      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="81"/>
       <c r="AA32" s="67"/>
-      <c r="AB32" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="93">
-        <v>4</v>
-      </c>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="93"/>
       <c r="AJ32" s="94"/>
       <c r="AK32" s="95"/>
       <c r="AL32" s="44"/>
@@ -7584,93 +5965,39 @@
       <c r="B33" s="44">
         <v>26</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>140</v>
-      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="69"/>
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="69"/>
       <c r="L33" s="69"/>
-      <c r="M33" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="N33" s="46">
-        <v>0</v>
-      </c>
-      <c r="O33" s="46">
-        <v>0</v>
-      </c>
-      <c r="P33" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="46">
-        <v>0</v>
-      </c>
-      <c r="R33" s="46">
-        <v>0</v>
-      </c>
-      <c r="S33" s="67">
-        <v>0</v>
-      </c>
-      <c r="T33" s="46">
-        <v>0</v>
-      </c>
-      <c r="U33" s="46">
-        <v>0</v>
-      </c>
-      <c r="V33" s="75">
-        <v>0</v>
-      </c>
-      <c r="W33" s="67">
-        <v>0</v>
-      </c>
-      <c r="X33" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="93">
-        <v>3</v>
-      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="93"/>
       <c r="AJ33" s="94"/>
       <c r="AK33" s="95"/>
       <c r="AL33" s="44"/>
@@ -7679,93 +6006,39 @@
       <c r="B34" s="41">
         <v>27</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>178</v>
-      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
       <c r="J34" s="69"/>
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
-      <c r="M34" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="N34" s="46">
-        <v>0</v>
-      </c>
-      <c r="O34" s="46">
-        <v>0</v>
-      </c>
-      <c r="P34" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="46">
-        <v>0</v>
-      </c>
-      <c r="R34" s="46">
-        <v>0</v>
-      </c>
-      <c r="S34" s="67">
-        <v>0</v>
-      </c>
-      <c r="T34" s="46">
-        <v>0</v>
-      </c>
-      <c r="U34" s="46">
-        <v>0</v>
-      </c>
-      <c r="V34" s="75">
-        <v>0</v>
-      </c>
-      <c r="W34" s="67">
-        <v>0</v>
-      </c>
-      <c r="X34" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="93">
-        <v>2</v>
-      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="93"/>
       <c r="AJ34" s="94"/>
       <c r="AK34" s="95"/>
       <c r="AL34" s="44"/>
@@ -7774,93 +6047,39 @@
       <c r="B35" s="44">
         <v>28</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>179</v>
-      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
       <c r="J35" s="69"/>
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
-      <c r="M35" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="N35" s="46">
-        <v>0</v>
-      </c>
-      <c r="O35" s="46">
-        <v>1</v>
-      </c>
-      <c r="P35" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="46">
-        <v>0</v>
-      </c>
-      <c r="R35" s="46">
-        <v>0</v>
-      </c>
-      <c r="S35" s="67">
-        <v>0</v>
-      </c>
-      <c r="T35" s="46">
-        <v>0</v>
-      </c>
-      <c r="U35" s="46">
-        <v>0</v>
-      </c>
-      <c r="V35" s="75">
-        <v>0</v>
-      </c>
-      <c r="W35" s="67">
-        <v>0</v>
-      </c>
-      <c r="X35" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="93">
-        <v>4</v>
-      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="93"/>
       <c r="AJ35" s="94"/>
       <c r="AK35" s="95"/>
       <c r="AL35" s="44"/>
@@ -7869,91 +6088,39 @@
       <c r="B36" s="41">
         <v>29</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>181</v>
-      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
       <c r="I36" s="69"/>
       <c r="J36" s="69"/>
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
-      <c r="M36" s="46" t="s">
-        <v>181</v>
-      </c>
+      <c r="M36" s="46"/>
       <c r="N36" s="46"/>
-      <c r="O36" s="46">
-        <v>0</v>
-      </c>
-      <c r="P36" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="46">
-        <v>0</v>
-      </c>
-      <c r="R36" s="46">
-        <v>0</v>
-      </c>
-      <c r="S36" s="67">
-        <v>0</v>
-      </c>
-      <c r="T36" s="46">
-        <v>0</v>
-      </c>
-      <c r="U36" s="46">
-        <v>0</v>
-      </c>
-      <c r="V36" s="75">
-        <v>0</v>
-      </c>
-      <c r="W36" s="67">
-        <v>0</v>
-      </c>
-      <c r="X36" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="93">
-        <v>2</v>
-      </c>
+      <c r="O36" s="46"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="93"/>
       <c r="AJ36" s="94"/>
       <c r="AK36" s="95"/>
       <c r="AL36" s="44"/>
@@ -7962,1717 +6129,42 @@
       <c r="B37" s="44">
         <v>30</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>183</v>
-      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
-      <c r="M37" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="N37" s="46">
-        <v>0</v>
-      </c>
-      <c r="O37" s="46">
-        <v>1</v>
-      </c>
-      <c r="P37" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="46">
-        <v>0</v>
-      </c>
-      <c r="R37" s="46">
-        <v>1</v>
-      </c>
-      <c r="S37" s="67">
-        <v>1</v>
-      </c>
-      <c r="T37" s="46">
-        <v>0</v>
-      </c>
-      <c r="U37" s="46">
-        <v>0</v>
-      </c>
-      <c r="V37" s="75">
-        <v>0</v>
-      </c>
-      <c r="W37" s="67">
-        <v>0</v>
-      </c>
-      <c r="X37" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="93">
-        <v>6</v>
-      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="93"/>
       <c r="AJ37" s="94"/>
       <c r="AK37" s="95"/>
       <c r="AL37" s="44"/>
-    </row>
-    <row r="38" spans="1:113">
-      <c r="B38" s="26">
-        <v>31</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="N38" s="26">
-        <v>0</v>
-      </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>1</v>
-      </c>
-      <c r="R38" s="26">
-        <v>1</v>
-      </c>
-      <c r="S38" s="26">
-        <v>1</v>
-      </c>
-      <c r="T38" s="26">
-        <v>0</v>
-      </c>
-      <c r="U38" s="26">
-        <v>0</v>
-      </c>
-      <c r="V38" s="26">
-        <v>0</v>
-      </c>
-      <c r="W38" s="26">
-        <v>0</v>
-      </c>
-      <c r="X38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL38" s="26"/>
-    </row>
-    <row r="39" spans="1:113">
-      <c r="B39" s="26">
-        <v>32</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="N39" s="26">
-        <v>0</v>
-      </c>
-      <c r="O39" s="26">
-        <v>0</v>
-      </c>
-      <c r="P39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="26">
-        <v>0</v>
-      </c>
-      <c r="R39" s="26">
-        <v>0</v>
-      </c>
-      <c r="S39" s="26">
-        <v>0</v>
-      </c>
-      <c r="T39" s="26">
-        <v>0</v>
-      </c>
-      <c r="U39" s="26">
-        <v>0</v>
-      </c>
-      <c r="V39" s="26">
-        <v>0</v>
-      </c>
-      <c r="W39" s="26">
-        <v>0</v>
-      </c>
-      <c r="X39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL39" s="26"/>
-    </row>
-    <row r="40" spans="1:113">
-      <c r="B40" s="26">
-        <v>33</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N40" s="26">
-        <v>0</v>
-      </c>
-      <c r="O40" s="26">
-        <v>1</v>
-      </c>
-      <c r="P40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="26">
-        <v>0</v>
-      </c>
-      <c r="R40" s="26">
-        <v>0</v>
-      </c>
-      <c r="S40" s="26">
-        <v>0</v>
-      </c>
-      <c r="T40" s="26">
-        <v>0</v>
-      </c>
-      <c r="U40" s="26">
-        <v>0</v>
-      </c>
-      <c r="V40" s="26">
-        <v>0</v>
-      </c>
-      <c r="W40" s="26">
-        <v>0</v>
-      </c>
-      <c r="X40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="26"/>
-    </row>
-    <row r="41" spans="1:113">
-      <c r="B41" s="26">
-        <v>34</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M41" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="N41" s="26">
-        <v>0</v>
-      </c>
-      <c r="O41" s="26">
-        <v>0</v>
-      </c>
-      <c r="P41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>0</v>
-      </c>
-      <c r="R41" s="26">
-        <v>0</v>
-      </c>
-      <c r="S41" s="26">
-        <v>0</v>
-      </c>
-      <c r="T41" s="26">
-        <v>0</v>
-      </c>
-      <c r="U41" s="26">
-        <v>0</v>
-      </c>
-      <c r="V41" s="26">
-        <v>0</v>
-      </c>
-      <c r="W41" s="26">
-        <v>0</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL41" s="26"/>
-    </row>
-    <row r="42" spans="1:113">
-      <c r="B42" s="26">
-        <v>35</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="M42" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="26">
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>0</v>
-      </c>
-      <c r="R42" s="26">
-        <v>0</v>
-      </c>
-      <c r="S42" s="26">
-        <v>1</v>
-      </c>
-      <c r="T42" s="26">
-        <v>0</v>
-      </c>
-      <c r="U42" s="26">
-        <v>0</v>
-      </c>
-      <c r="V42" s="26">
-        <v>0</v>
-      </c>
-      <c r="W42" s="26">
-        <v>0</v>
-      </c>
-      <c r="X42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL42" s="26"/>
-    </row>
-    <row r="43" spans="1:113">
-      <c r="B43" s="26">
-        <v>36</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="26">
-        <v>0</v>
-      </c>
-      <c r="R43" s="26">
-        <v>1</v>
-      </c>
-      <c r="S43" s="26">
-        <v>0</v>
-      </c>
-      <c r="T43" s="26">
-        <v>0</v>
-      </c>
-      <c r="U43" s="26">
-        <v>0</v>
-      </c>
-      <c r="V43" s="26">
-        <v>0</v>
-      </c>
-      <c r="W43" s="26">
-        <v>0</v>
-      </c>
-      <c r="X43" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL43" s="26"/>
-    </row>
-    <row r="44" spans="1:113">
-      <c r="B44" s="26">
-        <v>37</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="N44" s="26">
-        <v>0</v>
-      </c>
-      <c r="O44" s="26">
-        <v>0</v>
-      </c>
-      <c r="P44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>0</v>
-      </c>
-      <c r="R44" s="26">
-        <v>0</v>
-      </c>
-      <c r="S44" s="26">
-        <v>0</v>
-      </c>
-      <c r="T44" s="26">
-        <v>0</v>
-      </c>
-      <c r="U44" s="26">
-        <v>0</v>
-      </c>
-      <c r="V44" s="26">
-        <v>0</v>
-      </c>
-      <c r="W44" s="26">
-        <v>0</v>
-      </c>
-      <c r="X44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL44" s="26"/>
-    </row>
-    <row r="45" spans="1:113">
-      <c r="B45" s="26">
-        <v>38</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="M45" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="26">
-        <v>0</v>
-      </c>
-      <c r="P45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>0</v>
-      </c>
-      <c r="R45" s="26">
-        <v>0</v>
-      </c>
-      <c r="S45" s="26">
-        <v>0</v>
-      </c>
-      <c r="T45" s="26">
-        <v>0</v>
-      </c>
-      <c r="U45" s="26">
-        <v>0</v>
-      </c>
-      <c r="V45" s="26">
-        <v>0</v>
-      </c>
-      <c r="W45" s="26">
-        <v>0</v>
-      </c>
-      <c r="X45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="26">
-        <v>1</v>
-      </c>
-      <c r="AL45" s="26"/>
-    </row>
-    <row r="46" spans="1:113">
-      <c r="B46" s="26">
-        <v>39</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M46" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="N46" s="26">
-        <v>0</v>
-      </c>
-      <c r="O46" s="26">
-        <v>0</v>
-      </c>
-      <c r="P46" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>0</v>
-      </c>
-      <c r="R46" s="26">
-        <v>0</v>
-      </c>
-      <c r="S46" s="26">
-        <v>0</v>
-      </c>
-      <c r="T46" s="26">
-        <v>0</v>
-      </c>
-      <c r="U46" s="26">
-        <v>0</v>
-      </c>
-      <c r="V46" s="26">
-        <v>0</v>
-      </c>
-      <c r="W46" s="26">
-        <v>0</v>
-      </c>
-      <c r="X46" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL46" s="26"/>
-    </row>
-    <row r="47" spans="1:113">
-      <c r="B47" s="26">
-        <v>40</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="M47" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="N47" s="26">
-        <v>0</v>
-      </c>
-      <c r="O47" s="26">
-        <v>0</v>
-      </c>
-      <c r="P47" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="26">
-        <v>0</v>
-      </c>
-      <c r="R47" s="26">
-        <v>0</v>
-      </c>
-      <c r="S47" s="26">
-        <v>0</v>
-      </c>
-      <c r="T47" s="26">
-        <v>0</v>
-      </c>
-      <c r="U47" s="26">
-        <v>0</v>
-      </c>
-      <c r="V47" s="26">
-        <v>0</v>
-      </c>
-      <c r="W47" s="26">
-        <v>0</v>
-      </c>
-      <c r="X47" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL47" s="26"/>
-    </row>
-    <row r="48" spans="1:113">
-      <c r="B48" s="26">
-        <v>41</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="N48" s="26">
-        <v>0</v>
-      </c>
-      <c r="O48" s="26">
-        <v>0</v>
-      </c>
-      <c r="P48" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="26">
-        <v>0</v>
-      </c>
-      <c r="R48" s="26">
-        <v>0</v>
-      </c>
-      <c r="S48" s="26">
-        <v>0</v>
-      </c>
-      <c r="T48" s="26">
-        <v>0</v>
-      </c>
-      <c r="U48" s="26">
-        <v>0</v>
-      </c>
-      <c r="V48" s="26">
-        <v>0</v>
-      </c>
-      <c r="W48" s="26">
-        <v>0</v>
-      </c>
-      <c r="X48" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL48" s="26"/>
-    </row>
-    <row r="49" spans="1:113">
-      <c r="B49" s="26">
-        <v>42</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="M49" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL49" s="26"/>
-    </row>
-    <row r="50" spans="1:113">
-      <c r="B50" s="26">
-        <v>43</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M50" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26">
-        <v>1</v>
-      </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL50" s="26"/>
-    </row>
-    <row r="51" spans="1:113">
-      <c r="B51" s="26">
-        <v>44</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="M51" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL51" s="26"/>
-    </row>
-    <row r="52" spans="1:113">
-      <c r="B52" s="26">
-        <v>45</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M52" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26">
-        <v>1</v>
-      </c>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26">
-        <v>1</v>
-      </c>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL52" s="26"/>
-    </row>
-    <row r="53" spans="1:113">
-      <c r="B53" s="26">
-        <v>46</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="M53" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL53" s="26"/>
-    </row>
-    <row r="54" spans="1:113">
-      <c r="B54" s="26">
-        <v>47</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="M54" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL54" s="26"/>
-    </row>
-    <row r="55" spans="1:113">
-      <c r="B55" s="26">
-        <v>48</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M55" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26">
-        <v>1</v>
-      </c>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26">
-        <v>1</v>
-      </c>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="26"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL55" s="26"/>
-    </row>
-    <row r="56" spans="1:113">
-      <c r="B56" s="26">
-        <v>49</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="M56" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26">
-        <v>1</v>
-      </c>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL56" s="26"/>
-    </row>
-    <row r="57" spans="1:113">
-      <c r="B57" s="26">
-        <v>50</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="M57" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26">
-        <v>1</v>
-      </c>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL57" s="26"/>
-    </row>
-    <row r="58" spans="1:113">
-      <c r="B58" s="26">
-        <v>51</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="M58" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26">
-        <v>1</v>
-      </c>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
-      <c r="AI58" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL58" s="26"/>
-    </row>
-    <row r="59" spans="1:113">
-      <c r="B59" s="26">
-        <v>52</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="M59" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26">
-        <v>1</v>
-      </c>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL59" s="26"/>
-    </row>
-    <row r="60" spans="1:113">
-      <c r="B60" s="26">
-        <v>53</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="M60" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26">
-        <v>1</v>
-      </c>
-      <c r="P60" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26">
-        <v>1</v>
-      </c>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL60" s="26"/>
-    </row>
-    <row r="61" spans="1:113">
-      <c r="B61" s="26">
-        <v>54</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M61" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26">
-        <v>1</v>
-      </c>
-      <c r="P61" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26">
-        <v>1</v>
-      </c>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="26"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL61" s="26"/>
-    </row>
-    <row r="62" spans="1:113">
-      <c r="B62" s="26">
-        <v>55</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26">
-        <v>1</v>
-      </c>
-      <c r="P62" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26">
-        <v>1</v>
-      </c>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26">
-        <v>5</v>
-      </c>
-      <c r="AL62" s="26"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9835,28 +6327,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="22" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="4" t="s">
@@ -9867,38 +6359,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="12" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="O10" s="25"/>
     </row>
@@ -9907,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -9920,7 +6412,9 @@
       <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15">
         <v>0</v>
@@ -9928,9 +6422,7 @@
       <c r="K11" s="15">
         <v>0</v>
       </c>
-      <c r="L11" s="15">
-        <v>5.6</v>
-      </c>
+      <c r="L11" s="15"/>
       <c r="M11" s="15">
         <v>1</v>
       </c>
@@ -9942,15 +6434,15 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -9965,13 +6457,11 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="18">
-        <v>5.2</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18">
         <v>1</v>
       </c>
+      <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -9979,12 +6469,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -10002,13 +6492,11 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18">
         <v>1</v>
       </c>
+      <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10016,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -10039,9 +6527,7 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L14" s="18"/>
       <c r="M14" s="18">
         <v>1</v>
       </c>
@@ -10053,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -10076,9 +6562,7 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L15" s="18"/>
       <c r="M15" s="18">
         <v>1</v>
       </c>
@@ -10090,7 +6574,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -10113,9 +6597,7 @@
       <c r="K16" s="18">
         <v>0</v>
       </c>
-      <c r="L16" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L16" s="18"/>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -10127,12 +6609,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
@@ -10150,9 +6632,7 @@
       <c r="K17" s="18">
         <v>0</v>
       </c>
-      <c r="L17" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L17" s="18"/>
       <c r="M17" s="18">
         <v>1</v>
       </c>
@@ -10164,7 +6644,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -10172,24 +6652,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
         <v>1</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="18">
         <v>0</v>
       </c>
-      <c r="L18" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L18" s="18"/>
       <c r="M18" s="18">
         <v>1</v>
       </c>
@@ -10201,7 +6679,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -10224,13 +6702,11 @@
       <c r="K19" s="18">
         <v>0</v>
       </c>
-      <c r="L19" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18">
         <v>1</v>
       </c>
+      <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10238,12 +6714,12 @@
         <v>10</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -10261,9 +6737,7 @@
       <c r="K20" s="18">
         <v>0</v>
       </c>
-      <c r="L20" s="18">
-        <v>5.6</v>
-      </c>
+      <c r="L20" s="18"/>
       <c r="M20" s="18">
         <v>1</v>
       </c>
@@ -10274,34 +6748,18 @@
       <c r="A21" s="18">
         <v>11</v>
       </c>
-      <c r="B21" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B21" s="137"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M21" s="18">
-        <v>1</v>
-      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
@@ -10309,36 +6767,18 @@
       <c r="A22" s="18">
         <v>12</v>
       </c>
-      <c r="B22" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B22" s="137"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="18">
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M22" s="18">
-        <v>1</v>
-      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
@@ -10346,36 +6786,18 @@
       <c r="A23" s="18">
         <v>13</v>
       </c>
-      <c r="B23" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B23" s="137"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M23" s="18">
-        <v>1</v>
-      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
@@ -10383,36 +6805,18 @@
       <c r="A24" s="18">
         <v>14</v>
       </c>
-      <c r="B24" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B24" s="137"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="18">
-        <v>0</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M24" s="18">
-        <v>1</v>
-      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
@@ -10420,36 +6824,18 @@
       <c r="A25" s="18">
         <v>15</v>
       </c>
-      <c r="B25" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B25" s="137"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <v>5.3</v>
-      </c>
-      <c r="M25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
@@ -10457,110 +6843,56 @@
       <c r="A26" s="18">
         <v>16</v>
       </c>
-      <c r="B26" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B26" s="137"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="18">
-        <v>0</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <v>5.3</v>
-      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="18">
-        <v>1</v>
-      </c>
+      <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A27" s="18">
         <v>17</v>
       </c>
-      <c r="B27" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" s="137"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0</v>
-      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="18">
-        <v>0</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <v>5.3</v>
-      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="18">
-        <v>1</v>
-      </c>
+      <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A28" s="18">
         <v>18</v>
       </c>
-      <c r="B28" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B28" s="137"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="18">
-        <v>0</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M28" s="18">
-        <v>1</v>
-      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
@@ -10568,36 +6900,18 @@
       <c r="A29" s="18">
         <v>19</v>
       </c>
-      <c r="B29" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B29" s="137"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="18">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M29" s="18">
-        <v>1</v>
-      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
@@ -10605,36 +6919,18 @@
       <c r="A30" s="18">
         <v>20</v>
       </c>
-      <c r="B30" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B30" s="137"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="18">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0</v>
-      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="18">
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M30" s="18">
-        <v>1</v>
-      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
     </row>
@@ -10642,36 +6938,18 @@
       <c r="A31" s="18">
         <v>21</v>
       </c>
-      <c r="B31" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B31" s="137"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18">
-        <v>1</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0</v>
-      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="18">
-        <v>0</v>
-      </c>
-      <c r="K31" s="18">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M31" s="18">
-        <v>1</v>
-      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
     </row>
@@ -10679,36 +6957,18 @@
       <c r="A32" s="18">
         <v>22</v>
       </c>
-      <c r="B32" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B32" s="137"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="18">
-        <v>1</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0</v>
-      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="18">
-        <v>0</v>
-      </c>
-      <c r="K32" s="18">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M32" s="18">
-        <v>1</v>
-      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
     </row>
@@ -10716,36 +6976,18 @@
       <c r="A33" s="18">
         <v>23</v>
       </c>
-      <c r="B33" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B33" s="137"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="18">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M33" s="18">
-        <v>1</v>
-      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
@@ -10753,32 +6995,18 @@
       <c r="A34" s="18">
         <v>24</v>
       </c>
-      <c r="B34" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B34" s="137"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="18">
-        <v>0</v>
-      </c>
-      <c r="K34" s="18">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M34" s="18">
-        <v>1</v>
-      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
@@ -10786,36 +7014,18 @@
       <c r="A35" s="18">
         <v>25</v>
       </c>
-      <c r="B35" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B35" s="137"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0</v>
-      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="18">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M35" s="18">
-        <v>1</v>
-      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
@@ -10823,36 +7033,18 @@
       <c r="A36" s="18">
         <v>26</v>
       </c>
-      <c r="B36" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B36" s="137"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="18">
-        <v>1</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="18">
-        <v>0</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M36" s="18">
-        <v>1</v>
-      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
     </row>
@@ -10860,36 +7052,18 @@
       <c r="A37" s="18">
         <v>27</v>
       </c>
-      <c r="B37" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B37" s="137"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0</v>
-      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="18">
-        <v>0</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M37" s="18">
-        <v>1</v>
-      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
@@ -10897,36 +7071,18 @@
       <c r="A38" s="18">
         <v>28</v>
       </c>
-      <c r="B38" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B38" s="137"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="18">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="18">
-        <v>0</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M38" s="18">
-        <v>1</v>
-      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
@@ -10934,36 +7090,18 @@
       <c r="A39" s="18">
         <v>29</v>
       </c>
-      <c r="B39" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B39" s="137"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="18">
-        <v>0</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M39" s="18">
-        <v>1</v>
-      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
@@ -10971,110 +7109,56 @@
       <c r="A40" s="18">
         <v>30</v>
       </c>
-      <c r="B40" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B40" s="137"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="18">
-        <v>0</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <v>5.0</v>
-      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="18">
-        <v>1</v>
-      </c>
+      <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A41" s="18">
         <v>31</v>
       </c>
-      <c r="B41" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B41" s="137"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <v>5.1</v>
-      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="18">
-        <v>1</v>
-      </c>
+      <c r="N41" s="18"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A42" s="18">
         <v>32</v>
       </c>
-      <c r="B42" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B42" s="137"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="18">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>1</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0</v>
-      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="18">
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M42" s="18">
-        <v>1</v>
-      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
     </row>
@@ -11082,36 +7166,18 @@
       <c r="A43" s="18">
         <v>33</v>
       </c>
-      <c r="B43" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B43" s="137"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
-        <v>0</v>
-      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="18">
-        <v>0</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M43" s="18">
-        <v>1</v>
-      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
@@ -11119,36 +7185,18 @@
       <c r="A44" s="18">
         <v>34</v>
       </c>
-      <c r="B44" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B44" s="137"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="18">
-        <v>1</v>
-      </c>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18">
-        <v>0</v>
-      </c>
-      <c r="L44" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M44" s="18">
-        <v>1</v>
-      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
@@ -11156,73 +7204,37 @@
       <c r="A45" s="18">
         <v>35</v>
       </c>
-      <c r="B45" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B45" s="137"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="18">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="18">
-        <v>0</v>
-      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="18"/>
-      <c r="J45" s="18">
-        <v>0</v>
-      </c>
-      <c r="K45" s="18">
-        <v>0</v>
-      </c>
-      <c r="L45" s="18">
-        <v>5.3</v>
-      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="18">
-        <v>1</v>
-      </c>
+      <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A46" s="18">
         <v>36</v>
       </c>
-      <c r="B46" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B46" s="137"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="18">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
-      <c r="H46" s="18">
-        <v>0</v>
-      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="18">
-        <v>0</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0</v>
-      </c>
-      <c r="L46" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M46" s="18">
-        <v>1</v>
-      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
@@ -11230,36 +7242,18 @@
       <c r="A47" s="18">
         <v>37</v>
       </c>
-      <c r="B47" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B47" s="137"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="18">
-        <v>0</v>
-      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="18"/>
-      <c r="J47" s="18">
-        <v>0</v>
-      </c>
-      <c r="K47" s="18">
-        <v>0</v>
-      </c>
-      <c r="L47" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M47" s="18">
-        <v>1</v>
-      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
@@ -11267,36 +7261,18 @@
       <c r="A48" s="18">
         <v>38</v>
       </c>
-      <c r="B48" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B48" s="137"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="18">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-      <c r="H48" s="18">
-        <v>0</v>
-      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="18">
-        <v>0</v>
-      </c>
-      <c r="K48" s="18">
-        <v>0</v>
-      </c>
-      <c r="L48" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M48" s="18">
-        <v>1</v>
-      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
@@ -11304,36 +7280,18 @@
       <c r="A49" s="18">
         <v>39</v>
       </c>
-      <c r="B49" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B49" s="137"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="18">
-        <v>1</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18">
-        <v>0</v>
-      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="18">
-        <v>0</v>
-      </c>
-      <c r="K49" s="18">
-        <v>0</v>
-      </c>
-      <c r="L49" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M49" s="18">
-        <v>1</v>
-      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
@@ -11341,36 +7299,18 @@
       <c r="A50" s="18">
         <v>40</v>
       </c>
-      <c r="B50" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B50" s="137"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="18">
-        <v>1</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0</v>
-      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="18">
-        <v>0</v>
-      </c>
-      <c r="K50" s="18">
-        <v>0</v>
-      </c>
-      <c r="L50" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M50" s="18">
-        <v>1</v>
-      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
@@ -11378,36 +7318,18 @@
       <c r="A51" s="18">
         <v>41</v>
       </c>
-      <c r="B51" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B51" s="137"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18">
-        <v>1</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="18">
-        <v>0</v>
-      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="18">
-        <v>0</v>
-      </c>
-      <c r="K51" s="18">
-        <v>0</v>
-      </c>
-      <c r="L51" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M51" s="18">
-        <v>1</v>
-      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
@@ -11415,26 +7337,18 @@
       <c r="A52" s="18">
         <v>42</v>
       </c>
-      <c r="B52" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B52" s="137"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="18">
-        <v>1</v>
-      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
-      <c r="L52" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M52" s="18">
-        <v>1</v>
-      </c>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
     </row>
@@ -11442,26 +7356,18 @@
       <c r="A53" s="18">
         <v>43</v>
       </c>
-      <c r="B53" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B53" s="137"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="18">
-        <v>1</v>
-      </c>
+      <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M53" s="18">
-        <v>1</v>
-      </c>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
     </row>
@@ -11469,26 +7375,18 @@
       <c r="A54" s="18">
         <v>44</v>
       </c>
-      <c r="B54" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B54" s="137"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="18">
-        <v>1</v>
-      </c>
+      <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
-      <c r="L54" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M54" s="18">
-        <v>1</v>
-      </c>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
@@ -11496,55 +7394,37 @@
       <c r="A55" s="18">
         <v>45</v>
       </c>
-      <c r="B55" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B55" s="137"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="18">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1</v>
-      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
-      <c r="L55" s="18">
-        <v>5.3</v>
-      </c>
+      <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="18">
-        <v>1</v>
-      </c>
+      <c r="N55" s="18"/>
       <c r="O55" s="18"/>
     </row>
     <row r="56" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A56" s="18">
         <v>46</v>
       </c>
-      <c r="B56" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B56" s="137"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="18">
-        <v>1</v>
-      </c>
+      <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M56" s="18">
-        <v>1</v>
-      </c>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
     </row>
@@ -11552,26 +7432,18 @@
       <c r="A57" s="18">
         <v>47</v>
       </c>
-      <c r="B57" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B57" s="137"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18">
-        <v>1</v>
-      </c>
+      <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
-      <c r="L57" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M57" s="18">
-        <v>1</v>
-      </c>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
     </row>
@@ -11579,28 +7451,18 @@
       <c r="A58" s="18">
         <v>48</v>
       </c>
-      <c r="B58" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B58" s="137"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18">
-        <v>1</v>
-      </c>
+      <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="18">
-        <v>0</v>
-      </c>
-      <c r="L58" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M58" s="18">
-        <v>1</v>
-      </c>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
@@ -11608,184 +7470,117 @@
       <c r="A59" s="18">
         <v>49</v>
       </c>
-      <c r="B59" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B59" s="137"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="18">
-        <v>1</v>
-      </c>
+      <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
-      <c r="L59" s="18">
-        <v>5.0</v>
-      </c>
+      <c r="L59" s="18"/>
       <c r="M59" s="18"/>
-      <c r="N59" s="18">
-        <v>1</v>
-      </c>
+      <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
     <row r="60" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A60" s="18">
         <v>50</v>
       </c>
-      <c r="B60" s="137" t="s">
-        <v>231</v>
-      </c>
+      <c r="B60" s="137"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="18">
-        <v>1</v>
-      </c>
+      <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
-      <c r="L60" s="18">
-        <v>5.6</v>
-      </c>
-      <c r="M60" s="18">
-        <v>1</v>
-      </c>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A61" s="135">
-        <v>51</v>
-      </c>
-      <c r="B61" s="135" t="s">
-        <v>231</v>
-      </c>
+      <c r="A61" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="135"/>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
-      <c r="E61" s="135">
-        <v>0</v>
-      </c>
-      <c r="F61" s="135">
-        <v>1</v>
-      </c>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
       <c r="G61" s="135"/>
       <c r="H61" s="135"/>
       <c r="I61" s="135"/>
       <c r="J61" s="135"/>
       <c r="K61" s="135"/>
-      <c r="L61" s="135">
-        <v>5.5</v>
-      </c>
+      <c r="L61" s="135"/>
       <c r="M61" s="18">
-        <v>1</v>
-      </c>
-      <c r="N61" s="18"/>
+        <f>COUNTIF(M11:M60,"/")</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="18">
+        <f>COUNTIF(N11:N60,"/")</f>
+        <v>0</v>
+      </c>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A62" s="1">
-        <v>52</v>
-      </c>
-      <c r="B62" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
+      <c r="B62" s="138"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A63" s="1">
-        <v>53</v>
-      </c>
-      <c r="B63" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
+      <c r="B63" s="138"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="136"/>
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="136"/>
       <c r="K63" s="136"/>
-      <c r="L63" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M63" s="136">
-        <v>1</v>
-      </c>
+      <c r="L63" s="136"/>
+      <c r="M63" s="136"/>
       <c r="N63" s="136"/>
       <c r="O63" s="136"/>
     </row>
     <row r="64" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A64" s="1">
-        <v>54</v>
-      </c>
-      <c r="B64" s="138" t="s">
-        <v>231</v>
-      </c>
+      <c r="B64" s="138"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="136"/>
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="136"/>
       <c r="K64" s="136"/>
-      <c r="L64" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M64" s="136">
-        <v>1</v>
-      </c>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
       <c r="N64" s="136"/>
       <c r="O64" s="136"/>
     </row>
     <row r="65" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A65" s="1">
-        <v>55</v>
-      </c>
-      <c r="B65" s="138" t="s">
-        <v>231</v>
-      </c>
+      <c r="B65" s="138"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="136"/>
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="136"/>
       <c r="K65" s="136"/>
-      <c r="L65" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M65" s="136">
-        <v>1</v>
-      </c>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
       <c r="N65" s="136"/>
       <c r="O65" s="136"/>
     </row>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>Daftar Aset SAVR</t>
   </si>
@@ -172,27 +172,24 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>Jalan Beverly Height 1</t>
+    <t>Jalan Tanjung 5/4</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>Jalan Pinggiran</t>
+    <t>JALAN TANJUNG 5/4</t>
   </si>
   <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>Jalan Pinggiran 2</t>
+    <t>JLN TANJUNG 5/4</t>
   </si>
   <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
-    <t>Jalan Pinggiran 8</t>
-  </si>
-  <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
@@ -283,7 +280,7 @@
     <t>BKLG/PCE/J00181</t>
   </si>
   <si>
-    <t>KUALA LUMPUR PUSAT</t>
+    <t>PETALING JAYA</t>
   </si>
   <si>
     <r>
@@ -539,31 +536,49 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t>PE RUMAH PUMP SUPERVIEW</t>
-  </si>
-  <si>
-    <t>JP2 2</t>
-  </si>
-  <si>
-    <t>JP2 1</t>
-  </si>
-  <si>
-    <t>JP2 1/1A</t>
-  </si>
-  <si>
-    <t>JP2 3</t>
-  </si>
-  <si>
-    <t>PE EURO ATLANTIK JLN PINGGIRAN 2</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>JP2 6</t>
-  </si>
-  <si>
-    <t>JP2 5</t>
+    <t xml:space="preserve">PENCAWANG ELETRIK P/J NO 9 </t>
+  </si>
+  <si>
+    <t>JLN 5/4/42</t>
+  </si>
+  <si>
+    <t>JLN 5/4/43</t>
+  </si>
+  <si>
+    <t>JLN 5/4/38</t>
+  </si>
+  <si>
+    <t>JLN 5/4/39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/E JLN TANJUNG </t>
+  </si>
+  <si>
+    <t>JLN 5/4/14</t>
+  </si>
+  <si>
+    <t>JLN 5/4/15</t>
+  </si>
+  <si>
+    <t>JLN 5/4/13</t>
+  </si>
+  <si>
+    <t>JLN 5/4/15/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/12</t>
+  </si>
+  <si>
+    <t>JLN 5/4/11</t>
+  </si>
+  <si>
+    <t>FP 1 JLN 5/4</t>
+  </si>
+  <si>
+    <t>JLN 5/4/9</t>
+  </si>
+  <si>
+    <t>JLN 5/4/10</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -575,7 +590,160 @@
     <t>FP Jalan Sanggul 5</t>
   </si>
   <si>
-    <t>JP 2 1</t>
+    <t>JLN  5/4/10</t>
+  </si>
+  <si>
+    <t>JLN 5/4/8</t>
+  </si>
+  <si>
+    <t>JLN 5/4/5</t>
+  </si>
+  <si>
+    <t>JLN 5/4/6</t>
+  </si>
+  <si>
+    <t>JLN 5/4/4</t>
+  </si>
+  <si>
+    <t>JLN 5/4/10/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/7</t>
+  </si>
+  <si>
+    <t>JLN 5/4/7/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/6/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/3</t>
+  </si>
+  <si>
+    <t>JLN 5/4/3/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/2</t>
+  </si>
+  <si>
+    <t>JLN 5/17/13</t>
+  </si>
+  <si>
+    <t>JLN 5/4/1</t>
+  </si>
+  <si>
+    <t>P/E PDT JLN TANJUNG</t>
+  </si>
+  <si>
+    <t>JLN 5/4/18</t>
+  </si>
+  <si>
+    <t>JLN 5/4/18/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/E PDT JLN TANJUNG </t>
+  </si>
+  <si>
+    <t>JLN 5/4/20</t>
+  </si>
+  <si>
+    <t>JLN 5/4/21</t>
+  </si>
+  <si>
+    <t>JLN 5/4/23</t>
+  </si>
+  <si>
+    <t>JLN 5/4/23/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/24</t>
+  </si>
+  <si>
+    <t>JLN 5/4/25</t>
+  </si>
+  <si>
+    <t>JLN 5/4/26</t>
+  </si>
+  <si>
+    <t>JLN 5/4/25/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/22</t>
+  </si>
+  <si>
+    <t>JLN 5/4/16</t>
+  </si>
+  <si>
+    <t>JLN 5/4/17</t>
+  </si>
+  <si>
+    <t>JLN 5/4/41</t>
+  </si>
+  <si>
+    <t>JLN 5/4/28</t>
+  </si>
+  <si>
+    <t>JLN 5/4/29</t>
+  </si>
+  <si>
+    <t>JLN 5/4/19</t>
+  </si>
+  <si>
+    <t>JLN 5/4/46</t>
+  </si>
+  <si>
+    <t>JLN 5/4/47</t>
+  </si>
+  <si>
+    <t>JLN 5/4/48</t>
+  </si>
+  <si>
+    <t>JLN 5/4/44</t>
+  </si>
+  <si>
+    <t>JLN 5/4/45</t>
+  </si>
+  <si>
+    <t>JLN 5/4/40</t>
+  </si>
+  <si>
+    <t>JLN 5/4/35</t>
+  </si>
+  <si>
+    <t>JLN 5/4/36</t>
+  </si>
+  <si>
+    <t>JLN 5/4/33</t>
+  </si>
+  <si>
+    <t>JLN 5/4/34</t>
+  </si>
+  <si>
+    <t>PENCAWANG ELETRIK P/J NO 9</t>
+  </si>
+  <si>
+    <t>JLN 5/4/31</t>
+  </si>
+  <si>
+    <t>JLN 5/4/30</t>
+  </si>
+  <si>
+    <t>JLN 5/4/32</t>
+  </si>
+  <si>
+    <t>JLN 5/4/27</t>
+  </si>
+  <si>
+    <t>JLN 5/4/37</t>
+  </si>
+  <si>
+    <t>JLN 5/4/28/</t>
+  </si>
+  <si>
+    <t>JLN 5/4/28/1</t>
+  </si>
+  <si>
+    <t>JLN 5/4/27/1</t>
   </si>
   <si>
     <t>Tarikh Semakan dibuat</t>
@@ -632,10 +800,10 @@
     <t>Tidak Patuh</t>
   </si>
   <si>
-    <t>2023-12-13</t>
-  </si>
-  <si>
-    <t>JUMLAH</t>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5 </t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2424,7 +2592,7 @@
       <c r="J8" s="46"/>
       <c r="K8" s="115"/>
       <c r="L8" s="46">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M8" s="46">
         <v>0</v>
@@ -2433,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P8" s="46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="46">
         <v>0</v>
@@ -2467,20 +2635,20 @@
         <v>0</v>
       </c>
       <c r="AA8" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="46">
         <v>0</v>
       </c>
       <c r="AC8" s="46">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="46">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="AE8" s="46"/>
       <c r="AF8" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="123">
         <v>0</v>
@@ -2513,7 +2681,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="115"/>
       <c r="L9" s="46">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M9" s="46">
         <v>0</v>
@@ -2522,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="46">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P9" s="46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="46">
         <v>0</v>
@@ -2556,20 +2724,20 @@
         <v>0</v>
       </c>
       <c r="AA9" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="46">
         <v>0</v>
       </c>
       <c r="AC9" s="46">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AD9" s="46">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="AE9" s="46"/>
       <c r="AF9" s="123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="123">
         <v>0</v>
@@ -2602,7 +2770,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="115"/>
       <c r="L10" s="46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" s="46">
         <v>0</v>
@@ -2614,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="46">
         <v>0</v>
@@ -2645,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="AA10" s="46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="46">
         <v>0</v>
       </c>
       <c r="AC10" s="46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="46">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="46"/>
       <c r="AF10" s="123">
@@ -2682,83 +2850,37 @@
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="65"/>
-      <c r="F11" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="65"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="115"/>
-      <c r="L11" s="46">
-        <v>1</v>
-      </c>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46">
-        <v>0</v>
-      </c>
-      <c r="O11" s="46">
-        <v>0</v>
-      </c>
-      <c r="P11" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="46">
-        <v>0</v>
-      </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="65"/>
-      <c r="T11" s="46">
-        <v>0</v>
-      </c>
-      <c r="U11" s="46">
-        <v>0</v>
-      </c>
-      <c r="V11" s="46">
-        <v>0</v>
-      </c>
-      <c r="W11" s="46">
-        <v>0</v>
-      </c>
-      <c r="X11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="46">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="46">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="46">
-        <v>5</v>
-      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
       <c r="AE11" s="46"/>
-      <c r="AF11" s="123">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="123">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="123">
-        <v>0</v>
-      </c>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
       <c r="AI11" s="125"/>
-      <c r="AJ11" s="123">
-        <v>0</v>
-      </c>
+      <c r="AJ11" s="123"/>
       <c r="AK11" s="47"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="21">
@@ -2767,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="65"/>
@@ -2777,7 +2899,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
@@ -2787,7 +2909,7 @@
       <c r="Q12" s="46"/>
       <c r="R12" s="46"/>
       <c r="S12" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T12" s="46"/>
       <c r="U12" s="46"/>
@@ -2814,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="65"/>
@@ -2824,7 +2946,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
@@ -2834,7 +2956,7 @@
       <c r="Q13" s="46"/>
       <c r="R13" s="46"/>
       <c r="S13" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
@@ -2861,7 +2983,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="65"/>
@@ -2871,7 +2993,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
@@ -2881,7 +3003,7 @@
       <c r="Q14" s="46"/>
       <c r="R14" s="46"/>
       <c r="S14" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="46"/>
@@ -2908,7 +3030,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="65"/>
@@ -2918,7 +3040,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -2928,7 +3050,7 @@
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
       <c r="S15" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
@@ -2955,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="65"/>
@@ -2965,7 +3087,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
@@ -2975,7 +3097,7 @@
       <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
       <c r="S16" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
@@ -3002,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="65"/>
@@ -3012,7 +3134,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -3022,7 +3144,7 @@
       <c r="Q17" s="46"/>
       <c r="R17" s="46"/>
       <c r="S17" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" s="46"/>
       <c r="U17" s="46"/>
@@ -3049,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="65"/>
@@ -3059,7 +3181,7 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -3069,7 +3191,7 @@
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
       <c r="S18" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" s="46"/>
       <c r="U18" s="46"/>
@@ -3096,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="65"/>
@@ -3106,7 +3228,7 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
@@ -3116,7 +3238,7 @@
       <c r="Q19" s="46"/>
       <c r="R19" s="46"/>
       <c r="S19" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="46"/>
@@ -3143,7 +3265,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="65"/>
@@ -3153,7 +3275,7 @@
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
@@ -3163,7 +3285,7 @@
       <c r="Q20" s="46"/>
       <c r="R20" s="46"/>
       <c r="S20" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="46"/>
@@ -3190,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="65"/>
@@ -3200,7 +3322,7 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="46"/>
@@ -3210,7 +3332,7 @@
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
       <c r="S21" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" s="46"/>
       <c r="U21" s="46"/>
@@ -3237,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="65"/>
@@ -3247,7 +3369,7 @@
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
@@ -3257,7 +3379,7 @@
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
       <c r="S22" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="46"/>
@@ -3284,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="65"/>
@@ -3294,7 +3416,7 @@
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
@@ -3304,7 +3426,7 @@
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" s="46"/>
       <c r="U23" s="46"/>
@@ -3331,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="65"/>
@@ -3341,7 +3463,7 @@
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
@@ -3351,7 +3473,7 @@
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
       <c r="S24" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="46"/>
@@ -3378,7 +3500,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="65"/>
@@ -3388,7 +3510,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
@@ -3398,7 +3520,7 @@
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
       <c r="S25" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
@@ -3425,7 +3547,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="65"/>
@@ -3435,7 +3557,7 @@
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
@@ -3445,7 +3567,7 @@
       <c r="Q26" s="46"/>
       <c r="R26" s="46"/>
       <c r="S26" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" s="46"/>
       <c r="U26" s="46"/>
@@ -3472,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="65"/>
@@ -3482,7 +3604,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" s="46"/>
       <c r="M27" s="46"/>
@@ -3492,7 +3614,7 @@
       <c r="Q27" s="46"/>
       <c r="R27" s="46"/>
       <c r="S27" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T27" s="46"/>
       <c r="U27" s="46"/>
@@ -3519,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="65"/>
@@ -3529,7 +3651,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
@@ -3539,7 +3661,7 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
       <c r="S28" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
@@ -3566,7 +3688,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="65"/>
@@ -3576,7 +3698,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
@@ -3586,7 +3708,7 @@
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="46"/>
@@ -3613,7 +3735,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="65"/>
@@ -3623,7 +3745,7 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
@@ -3633,7 +3755,7 @@
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="46"/>
@@ -3660,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="65"/>
@@ -3670,7 +3792,7 @@
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
@@ -3680,7 +3802,7 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="46"/>
@@ -3707,7 +3829,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="65"/>
@@ -3717,7 +3839,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="46"/>
@@ -3727,7 +3849,7 @@
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T32" s="46"/>
       <c r="U32" s="46"/>
@@ -3754,7 +3876,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="65"/>
@@ -3764,7 +3886,7 @@
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="46"/>
@@ -3774,7 +3896,7 @@
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
       <c r="S33" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" s="46"/>
       <c r="U33" s="46"/>
@@ -3801,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="65"/>
@@ -3811,7 +3933,7 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34" s="46"/>
       <c r="M34" s="46"/>
@@ -3821,7 +3943,7 @@
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
       <c r="S34" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="46"/>
@@ -3848,7 +3970,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="65"/>
@@ -3858,7 +3980,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
@@ -3868,7 +3990,7 @@
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
       <c r="S35" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="46"/>
@@ -3895,7 +4017,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="65"/>
@@ -3905,7 +4027,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" s="46"/>
       <c r="M36" s="46"/>
@@ -3915,7 +4037,7 @@
       <c r="Q36" s="46"/>
       <c r="R36" s="46"/>
       <c r="S36" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T36" s="46"/>
       <c r="U36" s="46"/>
@@ -3942,7 +4064,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="65"/>
@@ -3952,7 +4074,7 @@
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
@@ -3962,7 +4084,7 @@
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
       <c r="S37" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
@@ -4032,10 +4154,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:DI37"/>
+  <dimension ref="A1:DI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AL37" sqref="AL37"/>
+      <selection activeCell="AL65" sqref="AL65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4081,15 +4203,15 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -4101,83 +4223,83 @@
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="48" t="s">
         <v>85</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>86</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
       <c r="L6" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="N6" s="53" t="s">
         <v>88</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>89</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="71"/>
       <c r="T6" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="72"/>
       <c r="W6" s="71"/>
       <c r="X6" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="76" t="s">
+      <c r="Z6" s="53" t="s">
         <v>93</v>
-      </c>
-      <c r="Z6" s="53" t="s">
-        <v>94</v>
       </c>
       <c r="AA6" s="71"/>
       <c r="AB6" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="77" t="s">
         <v>95</v>
-      </c>
-      <c r="AC6" s="77" t="s">
-        <v>96</v>
       </c>
       <c r="AD6" s="78"/>
       <c r="AE6" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF6" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" s="71" t="s">
+      <c r="AG6" s="53" t="s">
         <v>98</v>
-      </c>
-      <c r="AG6" s="53" t="s">
-        <v>99</v>
       </c>
       <c r="AH6" s="72"/>
       <c r="AI6" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="AJ6" s="83" t="s">
+      <c r="AK6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="AK6" s="84" t="s">
+      <c r="AL6" s="85" t="s">
         <v>102</v>
-      </c>
-      <c r="AL6" s="85" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="26" customFormat="1">
@@ -4185,10 +4307,10 @@
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>105</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
@@ -4196,7 +4318,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" s="57" t="s">
         <v>24</v>
@@ -4204,67 +4326,67 @@
       <c r="L7" s="58"/>
       <c r="M7" s="59"/>
       <c r="N7" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="P7" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="61" t="s">
+      <c r="Q7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="R7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="S7" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="T7" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="T7" s="60" t="s">
+      <c r="U7" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="U7" s="60" t="s">
+      <c r="V7" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="V7" s="73" t="s">
+      <c r="W7" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="W7" s="61" t="s">
+      <c r="X7" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="61" t="s">
+      <c r="Y7" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z7" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z7" s="79" t="s">
+      <c r="AA7" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="AA7" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB7" s="61" t="s">
+      <c r="AC7" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" s="73" t="s">
+      <c r="AD7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="AD7" s="60" t="s">
+      <c r="AE7" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="AE7" s="61" t="s">
+      <c r="AF7" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="AF7" s="61" t="s">
+      <c r="AG7" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="AG7" s="86" t="s">
+      <c r="AH7" s="86" t="s">
         <v>124</v>
-      </c>
-      <c r="AH7" s="86" t="s">
-        <v>125</v>
       </c>
       <c r="AI7" s="87"/>
       <c r="AJ7" s="88"/>
@@ -4351,16 +4473,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="F8" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="G8" s="132"/>
       <c r="H8" s="129"/>
@@ -4369,7 +4491,7 @@
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
       <c r="M8" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="43">
         <v>0</v>
@@ -4384,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="64">
         <v>0</v>
@@ -4435,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="94"/>
       <c r="AK8" s="94"/>
@@ -4446,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>128</v>
@@ -4530,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ9" s="94"/>
       <c r="AK9" s="95"/>
@@ -4541,16 +4663,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G10" s="105"/>
       <c r="H10" s="130"/>
@@ -4559,7 +4681,7 @@
       <c r="K10" s="65"/>
       <c r="L10" s="66"/>
       <c r="M10" s="46" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N10" s="46">
         <v>0</v>
@@ -4574,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="67">
         <v>0</v>
@@ -4625,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="94"/>
       <c r="AK10" s="95"/>
@@ -4636,16 +4758,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>131</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>133</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="130"/>
@@ -4654,7 +4776,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="66"/>
       <c r="M11" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N11" s="46">
         <v>0</v>
@@ -4672,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="S11" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="46">
         <v>0</v>
       </c>
       <c r="U11" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="75">
         <v>0</v>
@@ -4720,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ11" s="94"/>
       <c r="AK11" s="95"/>
@@ -4731,13 +4853,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>134</v>
@@ -4764,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="67">
         <v>0</v>
@@ -4815,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="94"/>
       <c r="AK12" s="95"/>
@@ -4826,16 +4948,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="130"/>
@@ -4844,7 +4966,7 @@
       <c r="K13" s="65"/>
       <c r="L13" s="66"/>
       <c r="M13" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="46">
         <v>0</v>
@@ -4853,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="46">
         <v>0</v>
@@ -4910,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="94"/>
       <c r="AK13" s="95"/>
@@ -4921,16 +5043,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G14" s="105"/>
       <c r="H14" s="130"/>
@@ -4939,7 +5061,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="66"/>
       <c r="M14" s="46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N14" s="46">
         <v>0</v>
@@ -5005,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="94"/>
       <c r="AK14" s="95"/>
@@ -5016,44 +5138,44 @@
         <v>8</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K15" s="65"/>
       <c r="L15" s="66">
         <v>40817</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="N15" s="46">
         <v>0</v>
       </c>
       <c r="O15" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="46">
         <v>0</v>
@@ -5110,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="94"/>
       <c r="AK15" s="95"/>
@@ -5121,35 +5243,35 @@
         <v>9</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>132</v>
-      </c>
       <c r="G16" s="133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I16" s="65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K16" s="65"/>
       <c r="L16" s="66">
         <v>40817</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N16" s="46">
         <v>0</v>
@@ -5158,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="46">
         <v>0</v>
@@ -5170,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
@@ -5215,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ16" s="94"/>
       <c r="AK16" s="95"/>
@@ -5226,35 +5348,35 @@
         <v>10</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K17" s="65"/>
       <c r="L17" s="66">
         <v>40817</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="N17" s="46">
         <v>0</v>
@@ -5263,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="46">
         <v>0</v>
@@ -5320,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="94"/>
       <c r="AK17" s="95"/>
@@ -5330,49 +5452,103 @@
       <c r="B18" s="41">
         <v>11</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="G18" s="133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="66">
         <v>40817</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="93"/>
+      <c r="M18" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P18" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
+        <v>1</v>
+      </c>
+      <c r="S18" s="67">
+        <v>0</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0</v>
+      </c>
+      <c r="U18" s="46">
+        <v>0</v>
+      </c>
+      <c r="V18" s="75">
+        <v>0</v>
+      </c>
+      <c r="W18" s="67">
+        <v>0</v>
+      </c>
+      <c r="X18" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="93">
+        <v>4</v>
+      </c>
       <c r="AJ18" s="94"/>
       <c r="AK18" s="95"/>
       <c r="AL18" s="44"/>
@@ -5381,49 +5557,103 @@
       <c r="B19" s="44">
         <v>12</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="G19" s="133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K19" s="65"/>
       <c r="L19" s="66">
         <v>40817</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="93"/>
+      <c r="M19" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0</v>
+      </c>
+      <c r="S19" s="67">
+        <v>0</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0</v>
+      </c>
+      <c r="V19" s="75">
+        <v>0</v>
+      </c>
+      <c r="W19" s="67">
+        <v>0</v>
+      </c>
+      <c r="X19" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="93">
+        <v>2</v>
+      </c>
       <c r="AJ19" s="94"/>
       <c r="AK19" s="95"/>
       <c r="AL19" s="44"/>
@@ -5432,39 +5662,93 @@
       <c r="B20" s="41">
         <v>13</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>148</v>
+      </c>
       <c r="G20" s="133"/>
       <c r="H20" s="130"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="68"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="93"/>
+      <c r="M20" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <v>0</v>
+      </c>
+      <c r="P20" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+      <c r="S20" s="67">
+        <v>0</v>
+      </c>
+      <c r="T20" s="46">
+        <v>0</v>
+      </c>
+      <c r="U20" s="46">
+        <v>0</v>
+      </c>
+      <c r="V20" s="75">
+        <v>0</v>
+      </c>
+      <c r="W20" s="67">
+        <v>0</v>
+      </c>
+      <c r="X20" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="93">
+        <v>2</v>
+      </c>
       <c r="AJ20" s="94"/>
       <c r="AK20" s="95"/>
       <c r="AL20" s="44"/>
@@ -5473,39 +5757,93 @@
       <c r="B21" s="44">
         <v>14</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>150</v>
+      </c>
       <c r="G21" s="133"/>
       <c r="H21" s="130"/>
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
       <c r="L21" s="68"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="93"/>
+      <c r="M21" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="46">
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <v>0</v>
+      </c>
+      <c r="P21" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0</v>
+      </c>
+      <c r="S21" s="67">
+        <v>0</v>
+      </c>
+      <c r="T21" s="46">
+        <v>0</v>
+      </c>
+      <c r="U21" s="46">
+        <v>0</v>
+      </c>
+      <c r="V21" s="75">
+        <v>0</v>
+      </c>
+      <c r="W21" s="67">
+        <v>0</v>
+      </c>
+      <c r="X21" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="94"/>
       <c r="AK21" s="95"/>
       <c r="AL21" s="44"/>
@@ -5514,39 +5852,93 @@
       <c r="B22" s="41">
         <v>15</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="C22" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>151</v>
+      </c>
       <c r="G22" s="133"/>
       <c r="H22" s="130"/>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="68"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="93"/>
+      <c r="M22" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0</v>
+      </c>
+      <c r="P22" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="67">
+        <v>0</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0</v>
+      </c>
+      <c r="U22" s="46">
+        <v>0</v>
+      </c>
+      <c r="V22" s="75">
+        <v>0</v>
+      </c>
+      <c r="W22" s="67">
+        <v>0</v>
+      </c>
+      <c r="X22" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="94"/>
       <c r="AK22" s="95"/>
       <c r="AL22" s="44"/>
@@ -5555,39 +5947,93 @@
       <c r="B23" s="44">
         <v>16</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>144</v>
+      </c>
       <c r="G23" s="133"/>
       <c r="H23" s="131"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="68"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="93"/>
+      <c r="M23" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="46">
+        <v>0</v>
+      </c>
+      <c r="O23" s="46">
+        <v>0</v>
+      </c>
+      <c r="P23" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <v>1</v>
+      </c>
+      <c r="S23" s="67">
+        <v>1</v>
+      </c>
+      <c r="T23" s="46">
+        <v>0</v>
+      </c>
+      <c r="U23" s="46">
+        <v>0</v>
+      </c>
+      <c r="V23" s="75">
+        <v>0</v>
+      </c>
+      <c r="W23" s="67">
+        <v>0</v>
+      </c>
+      <c r="X23" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="93">
+        <v>5</v>
+      </c>
       <c r="AJ23" s="94"/>
       <c r="AK23" s="95"/>
       <c r="AL23" s="44"/>
@@ -5596,39 +6042,93 @@
       <c r="B24" s="41">
         <v>17</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>149</v>
+      </c>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="93"/>
+      <c r="M24" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="46">
+        <v>0</v>
+      </c>
+      <c r="O24" s="46">
+        <v>0</v>
+      </c>
+      <c r="P24" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
+        <v>1</v>
+      </c>
+      <c r="S24" s="67">
+        <v>0</v>
+      </c>
+      <c r="T24" s="46">
+        <v>0</v>
+      </c>
+      <c r="U24" s="46">
+        <v>0</v>
+      </c>
+      <c r="V24" s="75">
+        <v>0</v>
+      </c>
+      <c r="W24" s="67">
+        <v>0</v>
+      </c>
+      <c r="X24" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="93">
+        <v>4</v>
+      </c>
       <c r="AJ24" s="94"/>
       <c r="AK24" s="95"/>
       <c r="AL24" s="44"/>
@@ -5637,39 +6137,93 @@
       <c r="B25" s="44">
         <v>18</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>153</v>
+      </c>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="93"/>
+      <c r="M25" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="46">
+        <v>0</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0</v>
+      </c>
+      <c r="P25" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+      <c r="S25" s="67">
+        <v>0</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0</v>
+      </c>
+      <c r="V25" s="75">
+        <v>0</v>
+      </c>
+      <c r="W25" s="67">
+        <v>0</v>
+      </c>
+      <c r="X25" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ25" s="94"/>
       <c r="AK25" s="95"/>
       <c r="AL25" s="44"/>
@@ -5678,39 +6232,93 @@
       <c r="B26" s="41">
         <v>19</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="C26" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>152</v>
+      </c>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="93"/>
+      <c r="M26" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="N26" s="46">
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <v>0</v>
+      </c>
+      <c r="P26" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>1</v>
+      </c>
+      <c r="S26" s="67">
+        <v>0</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0</v>
+      </c>
+      <c r="U26" s="46">
+        <v>0</v>
+      </c>
+      <c r="V26" s="75">
+        <v>0</v>
+      </c>
+      <c r="W26" s="67">
+        <v>0</v>
+      </c>
+      <c r="X26" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ26" s="94"/>
       <c r="AK26" s="95"/>
       <c r="AL26" s="44"/>
@@ -5719,39 +6327,93 @@
       <c r="B27" s="44">
         <v>20</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="C27" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>147</v>
+      </c>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="93"/>
+      <c r="M27" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0</v>
+      </c>
+      <c r="P27" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="46">
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <v>1</v>
+      </c>
+      <c r="S27" s="67">
+        <v>1</v>
+      </c>
+      <c r="T27" s="46">
+        <v>0</v>
+      </c>
+      <c r="U27" s="46">
+        <v>0</v>
+      </c>
+      <c r="V27" s="75">
+        <v>0</v>
+      </c>
+      <c r="W27" s="67">
+        <v>0</v>
+      </c>
+      <c r="X27" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="93">
+        <v>4</v>
+      </c>
       <c r="AJ27" s="94"/>
       <c r="AK27" s="95"/>
       <c r="AL27" s="44"/>
@@ -5760,39 +6422,93 @@
       <c r="B28" s="41">
         <v>21</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="93"/>
+      <c r="M28" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0</v>
+      </c>
+      <c r="O28" s="46">
+        <v>0</v>
+      </c>
+      <c r="P28" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+      <c r="S28" s="67">
+        <v>0</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0</v>
+      </c>
+      <c r="U28" s="46">
+        <v>0</v>
+      </c>
+      <c r="V28" s="75">
+        <v>0</v>
+      </c>
+      <c r="W28" s="67">
+        <v>0</v>
+      </c>
+      <c r="X28" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="93">
+        <v>2</v>
+      </c>
       <c r="AJ28" s="94"/>
       <c r="AK28" s="95"/>
       <c r="AL28" s="44"/>
@@ -5801,39 +6517,93 @@
       <c r="B29" s="44">
         <v>22</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>154</v>
+      </c>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
       <c r="J29" s="69"/>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="93"/>
+      <c r="M29" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="N29" s="46">
+        <v>0</v>
+      </c>
+      <c r="O29" s="46">
+        <v>0</v>
+      </c>
+      <c r="P29" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>1</v>
+      </c>
+      <c r="S29" s="67">
+        <v>1</v>
+      </c>
+      <c r="T29" s="46">
+        <v>0</v>
+      </c>
+      <c r="U29" s="46">
+        <v>1</v>
+      </c>
+      <c r="V29" s="75">
+        <v>0</v>
+      </c>
+      <c r="W29" s="67">
+        <v>0</v>
+      </c>
+      <c r="X29" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="93">
+        <v>7</v>
+      </c>
       <c r="AJ29" s="94"/>
       <c r="AK29" s="95"/>
       <c r="AL29" s="44"/>
@@ -5842,39 +6612,93 @@
       <c r="B30" s="41">
         <v>23</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>159</v>
+      </c>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
       <c r="J30" s="69"/>
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="93"/>
+      <c r="M30" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="46">
+        <v>0</v>
+      </c>
+      <c r="P30" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="46">
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+      <c r="S30" s="67">
+        <v>0</v>
+      </c>
+      <c r="T30" s="46">
+        <v>0</v>
+      </c>
+      <c r="U30" s="46">
+        <v>0</v>
+      </c>
+      <c r="V30" s="75">
+        <v>0</v>
+      </c>
+      <c r="W30" s="67">
+        <v>0</v>
+      </c>
+      <c r="X30" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="93">
+        <v>4</v>
+      </c>
       <c r="AJ30" s="94"/>
       <c r="AK30" s="95"/>
       <c r="AL30" s="44"/>
@@ -5883,39 +6707,93 @@
       <c r="B31" s="44">
         <v>24</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
       <c r="J31" s="69"/>
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="93"/>
+      <c r="M31" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <v>0</v>
+      </c>
+      <c r="P31" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>1</v>
+      </c>
+      <c r="S31" s="67">
+        <v>0</v>
+      </c>
+      <c r="T31" s="46">
+        <v>0</v>
+      </c>
+      <c r="U31" s="46">
+        <v>0</v>
+      </c>
+      <c r="V31" s="75">
+        <v>0</v>
+      </c>
+      <c r="W31" s="67">
+        <v>0</v>
+      </c>
+      <c r="X31" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="93">
+        <v>5</v>
+      </c>
       <c r="AJ31" s="94"/>
       <c r="AK31" s="95"/>
       <c r="AL31" s="44"/>
@@ -5924,39 +6802,93 @@
       <c r="B32" s="41">
         <v>25</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>164</v>
+      </c>
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
       <c r="J32" s="69"/>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="93"/>
+      <c r="M32" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="46">
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <v>0</v>
+      </c>
+      <c r="P32" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0</v>
+      </c>
+      <c r="S32" s="67">
+        <v>0</v>
+      </c>
+      <c r="T32" s="46">
+        <v>0</v>
+      </c>
+      <c r="U32" s="46">
+        <v>0</v>
+      </c>
+      <c r="V32" s="75">
+        <v>0</v>
+      </c>
+      <c r="W32" s="67">
+        <v>0</v>
+      </c>
+      <c r="X32" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ32" s="94"/>
       <c r="AK32" s="95"/>
       <c r="AL32" s="44"/>
@@ -5965,39 +6897,93 @@
       <c r="B33" s="44">
         <v>26</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="C33" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>165</v>
+      </c>
       <c r="G33" s="69"/>
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="69"/>
       <c r="L33" s="69"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="93"/>
+      <c r="M33" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33" s="46">
+        <v>0</v>
+      </c>
+      <c r="O33" s="46">
+        <v>0</v>
+      </c>
+      <c r="P33" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="46">
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
+        <v>0</v>
+      </c>
+      <c r="S33" s="67">
+        <v>1</v>
+      </c>
+      <c r="T33" s="46">
+        <v>0</v>
+      </c>
+      <c r="U33" s="46">
+        <v>0</v>
+      </c>
+      <c r="V33" s="75">
+        <v>0</v>
+      </c>
+      <c r="W33" s="67">
+        <v>0</v>
+      </c>
+      <c r="X33" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ33" s="94"/>
       <c r="AK33" s="95"/>
       <c r="AL33" s="44"/>
@@ -6006,39 +6992,93 @@
       <c r="B34" s="41">
         <v>27</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="C34" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
       <c r="J34" s="69"/>
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="93"/>
+      <c r="M34" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="46">
+        <v>0</v>
+      </c>
+      <c r="O34" s="46">
+        <v>0</v>
+      </c>
+      <c r="P34" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0</v>
+      </c>
+      <c r="S34" s="67">
+        <v>0</v>
+      </c>
+      <c r="T34" s="46">
+        <v>0</v>
+      </c>
+      <c r="U34" s="46">
+        <v>0</v>
+      </c>
+      <c r="V34" s="75">
+        <v>0</v>
+      </c>
+      <c r="W34" s="67">
+        <v>0</v>
+      </c>
+      <c r="X34" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="93">
+        <v>2</v>
+      </c>
       <c r="AJ34" s="94"/>
       <c r="AK34" s="95"/>
       <c r="AL34" s="44"/>
@@ -6047,39 +7087,93 @@
       <c r="B35" s="44">
         <v>28</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>168</v>
+      </c>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
       <c r="J35" s="69"/>
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="93"/>
+      <c r="M35" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="46">
+        <v>0</v>
+      </c>
+      <c r="O35" s="46">
+        <v>0</v>
+      </c>
+      <c r="P35" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="46">
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+      <c r="S35" s="67">
+        <v>0</v>
+      </c>
+      <c r="T35" s="46">
+        <v>0</v>
+      </c>
+      <c r="U35" s="46">
+        <v>0</v>
+      </c>
+      <c r="V35" s="75">
+        <v>0</v>
+      </c>
+      <c r="W35" s="67">
+        <v>0</v>
+      </c>
+      <c r="X35" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ35" s="94"/>
       <c r="AK35" s="95"/>
       <c r="AL35" s="44"/>
@@ -6088,39 +7182,93 @@
       <c r="B36" s="41">
         <v>29</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="C36" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>163</v>
+      </c>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
       <c r="I36" s="69"/>
       <c r="J36" s="69"/>
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="92"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="93"/>
+      <c r="M36" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="N36" s="46">
+        <v>0</v>
+      </c>
+      <c r="O36" s="46">
+        <v>0</v>
+      </c>
+      <c r="P36" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0</v>
+      </c>
+      <c r="S36" s="67">
+        <v>0</v>
+      </c>
+      <c r="T36" s="46">
+        <v>0</v>
+      </c>
+      <c r="U36" s="46">
+        <v>0</v>
+      </c>
+      <c r="V36" s="75">
+        <v>0</v>
+      </c>
+      <c r="W36" s="67">
+        <v>0</v>
+      </c>
+      <c r="X36" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="93">
+        <v>3</v>
+      </c>
       <c r="AJ36" s="94"/>
       <c r="AK36" s="95"/>
       <c r="AL36" s="44"/>
@@ -6129,42 +7277,2532 @@
       <c r="B37" s="44">
         <v>30</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="C37" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>171</v>
+      </c>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="92"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="93"/>
+      <c r="M37" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="N37" s="46">
+        <v>0</v>
+      </c>
+      <c r="O37" s="46">
+        <v>0</v>
+      </c>
+      <c r="P37" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
+        <v>0</v>
+      </c>
+      <c r="S37" s="67">
+        <v>0</v>
+      </c>
+      <c r="T37" s="46">
+        <v>0</v>
+      </c>
+      <c r="U37" s="46">
+        <v>0</v>
+      </c>
+      <c r="V37" s="75">
+        <v>0</v>
+      </c>
+      <c r="W37" s="67">
+        <v>0</v>
+      </c>
+      <c r="X37" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="67">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="93">
+        <v>2</v>
+      </c>
       <c r="AJ37" s="94"/>
       <c r="AK37" s="95"/>
       <c r="AL37" s="44"/>
+    </row>
+    <row r="38" spans="1:113">
+      <c r="B38" s="26">
+        <v>31</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0</v>
+      </c>
+      <c r="R38" s="26">
+        <v>0</v>
+      </c>
+      <c r="S38" s="26">
+        <v>0</v>
+      </c>
+      <c r="T38" s="26">
+        <v>0</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="26"/>
+    </row>
+    <row r="39" spans="1:113">
+      <c r="B39" s="26">
+        <v>32</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="N39" s="26">
+        <v>0</v>
+      </c>
+      <c r="O39" s="26">
+        <v>0</v>
+      </c>
+      <c r="P39" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>0</v>
+      </c>
+      <c r="R39" s="26">
+        <v>1</v>
+      </c>
+      <c r="S39" s="26">
+        <v>0</v>
+      </c>
+      <c r="T39" s="26">
+        <v>0</v>
+      </c>
+      <c r="U39" s="26">
+        <v>0</v>
+      </c>
+      <c r="V39" s="26">
+        <v>0</v>
+      </c>
+      <c r="W39" s="26">
+        <v>0</v>
+      </c>
+      <c r="X39" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL39" s="26"/>
+    </row>
+    <row r="40" spans="1:113">
+      <c r="B40" s="26">
+        <v>33</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
+      <c r="O40" s="26">
+        <v>0</v>
+      </c>
+      <c r="P40" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0</v>
+      </c>
+      <c r="R40" s="26">
+        <v>1</v>
+      </c>
+      <c r="S40" s="26">
+        <v>0</v>
+      </c>
+      <c r="T40" s="26">
+        <v>0</v>
+      </c>
+      <c r="U40" s="26">
+        <v>0</v>
+      </c>
+      <c r="V40" s="26">
+        <v>0</v>
+      </c>
+      <c r="W40" s="26">
+        <v>0</v>
+      </c>
+      <c r="X40" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="26"/>
+    </row>
+    <row r="41" spans="1:113">
+      <c r="B41" s="26">
+        <v>34</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="N41" s="26">
+        <v>0</v>
+      </c>
+      <c r="O41" s="26">
+        <v>1</v>
+      </c>
+      <c r="P41" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>0</v>
+      </c>
+      <c r="R41" s="26">
+        <v>1</v>
+      </c>
+      <c r="S41" s="26">
+        <v>0</v>
+      </c>
+      <c r="T41" s="26">
+        <v>0</v>
+      </c>
+      <c r="U41" s="26">
+        <v>0</v>
+      </c>
+      <c r="V41" s="26">
+        <v>0</v>
+      </c>
+      <c r="W41" s="26">
+        <v>0</v>
+      </c>
+      <c r="X41" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="26">
+        <v>5</v>
+      </c>
+      <c r="AL41" s="26"/>
+    </row>
+    <row r="42" spans="1:113">
+      <c r="B42" s="26">
+        <v>35</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N42" s="26">
+        <v>0</v>
+      </c>
+      <c r="O42" s="26">
+        <v>1</v>
+      </c>
+      <c r="P42" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>0</v>
+      </c>
+      <c r="R42" s="26">
+        <v>1</v>
+      </c>
+      <c r="S42" s="26">
+        <v>1</v>
+      </c>
+      <c r="T42" s="26">
+        <v>0</v>
+      </c>
+      <c r="U42" s="26">
+        <v>0</v>
+      </c>
+      <c r="V42" s="26">
+        <v>0</v>
+      </c>
+      <c r="W42" s="26">
+        <v>0</v>
+      </c>
+      <c r="X42" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="26">
+        <v>6</v>
+      </c>
+      <c r="AL42" s="26"/>
+    </row>
+    <row r="43" spans="1:113">
+      <c r="B43" s="26">
+        <v>36</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="26">
+        <v>1</v>
+      </c>
+      <c r="P43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>0</v>
+      </c>
+      <c r="R43" s="26">
+        <v>0</v>
+      </c>
+      <c r="S43" s="26">
+        <v>0</v>
+      </c>
+      <c r="T43" s="26">
+        <v>0</v>
+      </c>
+      <c r="U43" s="26">
+        <v>0</v>
+      </c>
+      <c r="V43" s="26">
+        <v>0</v>
+      </c>
+      <c r="W43" s="26">
+        <v>0</v>
+      </c>
+      <c r="X43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL43" s="26"/>
+    </row>
+    <row r="44" spans="1:113">
+      <c r="B44" s="26">
+        <v>37</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N44" s="26">
+        <v>0</v>
+      </c>
+      <c r="O44" s="26">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>0</v>
+      </c>
+      <c r="R44" s="26">
+        <v>1</v>
+      </c>
+      <c r="S44" s="26">
+        <v>0</v>
+      </c>
+      <c r="T44" s="26">
+        <v>0</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0</v>
+      </c>
+      <c r="V44" s="26">
+        <v>0</v>
+      </c>
+      <c r="W44" s="26">
+        <v>0</v>
+      </c>
+      <c r="X44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL44" s="26"/>
+    </row>
+    <row r="45" spans="1:113">
+      <c r="B45" s="26">
+        <v>38</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>0</v>
+      </c>
+      <c r="R45" s="26">
+        <v>1</v>
+      </c>
+      <c r="S45" s="26">
+        <v>1</v>
+      </c>
+      <c r="T45" s="26">
+        <v>0</v>
+      </c>
+      <c r="U45" s="26">
+        <v>0</v>
+      </c>
+      <c r="V45" s="26">
+        <v>0</v>
+      </c>
+      <c r="W45" s="26">
+        <v>0</v>
+      </c>
+      <c r="X45" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="26">
+        <v>6</v>
+      </c>
+      <c r="AL45" s="26"/>
+    </row>
+    <row r="46" spans="1:113">
+      <c r="B46" s="26">
+        <v>39</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="26">
+        <v>0</v>
+      </c>
+      <c r="O46" s="26">
+        <v>0</v>
+      </c>
+      <c r="P46" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>0</v>
+      </c>
+      <c r="R46" s="26">
+        <v>0</v>
+      </c>
+      <c r="S46" s="26">
+        <v>0</v>
+      </c>
+      <c r="T46" s="26">
+        <v>0</v>
+      </c>
+      <c r="U46" s="26">
+        <v>0</v>
+      </c>
+      <c r="V46" s="26">
+        <v>0</v>
+      </c>
+      <c r="W46" s="26">
+        <v>0</v>
+      </c>
+      <c r="X46" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="26"/>
+    </row>
+    <row r="47" spans="1:113">
+      <c r="B47" s="26">
+        <v>40</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="26">
+        <v>0</v>
+      </c>
+      <c r="O47" s="26">
+        <v>0</v>
+      </c>
+      <c r="P47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>0</v>
+      </c>
+      <c r="R47" s="26">
+        <v>0</v>
+      </c>
+      <c r="S47" s="26">
+        <v>1</v>
+      </c>
+      <c r="T47" s="26">
+        <v>0</v>
+      </c>
+      <c r="U47" s="26">
+        <v>0</v>
+      </c>
+      <c r="V47" s="26">
+        <v>0</v>
+      </c>
+      <c r="W47" s="26">
+        <v>0</v>
+      </c>
+      <c r="X47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL47" s="26"/>
+    </row>
+    <row r="48" spans="1:113">
+      <c r="B48" s="26">
+        <v>41</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" s="26">
+        <v>0</v>
+      </c>
+      <c r="O48" s="26">
+        <v>0</v>
+      </c>
+      <c r="P48" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>0</v>
+      </c>
+      <c r="R48" s="26">
+        <v>1</v>
+      </c>
+      <c r="S48" s="26">
+        <v>1</v>
+      </c>
+      <c r="T48" s="26">
+        <v>0</v>
+      </c>
+      <c r="U48" s="26">
+        <v>0</v>
+      </c>
+      <c r="V48" s="26">
+        <v>0</v>
+      </c>
+      <c r="W48" s="26">
+        <v>0</v>
+      </c>
+      <c r="X48" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL48" s="26"/>
+    </row>
+    <row r="49" spans="1:113">
+      <c r="B49" s="26">
+        <v>42</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="N49" s="26">
+        <v>0</v>
+      </c>
+      <c r="O49" s="26">
+        <v>0</v>
+      </c>
+      <c r="P49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>0</v>
+      </c>
+      <c r="R49" s="26">
+        <v>1</v>
+      </c>
+      <c r="S49" s="26">
+        <v>1</v>
+      </c>
+      <c r="T49" s="26">
+        <v>0</v>
+      </c>
+      <c r="U49" s="26">
+        <v>0</v>
+      </c>
+      <c r="V49" s="26">
+        <v>0</v>
+      </c>
+      <c r="W49" s="26">
+        <v>0</v>
+      </c>
+      <c r="X49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL49" s="26"/>
+    </row>
+    <row r="50" spans="1:113">
+      <c r="B50" s="26">
+        <v>43</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="26">
+        <v>0</v>
+      </c>
+      <c r="O50" s="26">
+        <v>0</v>
+      </c>
+      <c r="P50" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>0</v>
+      </c>
+      <c r="R50" s="26">
+        <v>0</v>
+      </c>
+      <c r="S50" s="26">
+        <v>1</v>
+      </c>
+      <c r="T50" s="26">
+        <v>0</v>
+      </c>
+      <c r="U50" s="26">
+        <v>0</v>
+      </c>
+      <c r="V50" s="26">
+        <v>0</v>
+      </c>
+      <c r="W50" s="26">
+        <v>0</v>
+      </c>
+      <c r="X50" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="26"/>
+    </row>
+    <row r="51" spans="1:113">
+      <c r="B51" s="26">
+        <v>44</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="N51" s="26">
+        <v>0</v>
+      </c>
+      <c r="O51" s="26">
+        <v>0</v>
+      </c>
+      <c r="P51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>0</v>
+      </c>
+      <c r="R51" s="26">
+        <v>1</v>
+      </c>
+      <c r="S51" s="26">
+        <v>0</v>
+      </c>
+      <c r="T51" s="26">
+        <v>0</v>
+      </c>
+      <c r="U51" s="26">
+        <v>0</v>
+      </c>
+      <c r="V51" s="26">
+        <v>0</v>
+      </c>
+      <c r="W51" s="26">
+        <v>0</v>
+      </c>
+      <c r="X51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL51" s="26"/>
+    </row>
+    <row r="52" spans="1:113">
+      <c r="B52" s="26">
+        <v>45</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N52" s="26">
+        <v>0</v>
+      </c>
+      <c r="O52" s="26">
+        <v>0</v>
+      </c>
+      <c r="P52" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>0</v>
+      </c>
+      <c r="R52" s="26">
+        <v>1</v>
+      </c>
+      <c r="S52" s="26">
+        <v>0</v>
+      </c>
+      <c r="T52" s="26">
+        <v>0</v>
+      </c>
+      <c r="U52" s="26">
+        <v>0</v>
+      </c>
+      <c r="V52" s="26">
+        <v>0</v>
+      </c>
+      <c r="W52" s="26">
+        <v>0</v>
+      </c>
+      <c r="X52" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL52" s="26"/>
+    </row>
+    <row r="53" spans="1:113">
+      <c r="B53" s="26">
+        <v>46</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="N53" s="26">
+        <v>0</v>
+      </c>
+      <c r="O53" s="26">
+        <v>0</v>
+      </c>
+      <c r="P53" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>0</v>
+      </c>
+      <c r="R53" s="26">
+        <v>0</v>
+      </c>
+      <c r="S53" s="26">
+        <v>0</v>
+      </c>
+      <c r="T53" s="26">
+        <v>0</v>
+      </c>
+      <c r="U53" s="26">
+        <v>0</v>
+      </c>
+      <c r="V53" s="26">
+        <v>0</v>
+      </c>
+      <c r="W53" s="26">
+        <v>0</v>
+      </c>
+      <c r="X53" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL53" s="26"/>
+    </row>
+    <row r="54" spans="1:113">
+      <c r="B54" s="26">
+        <v>47</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N54" s="26">
+        <v>0</v>
+      </c>
+      <c r="O54" s="26">
+        <v>0</v>
+      </c>
+      <c r="P54" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>0</v>
+      </c>
+      <c r="R54" s="26">
+        <v>0</v>
+      </c>
+      <c r="S54" s="26">
+        <v>0</v>
+      </c>
+      <c r="T54" s="26">
+        <v>0</v>
+      </c>
+      <c r="U54" s="26">
+        <v>0</v>
+      </c>
+      <c r="V54" s="26">
+        <v>0</v>
+      </c>
+      <c r="W54" s="26">
+        <v>0</v>
+      </c>
+      <c r="X54" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="26"/>
+    </row>
+    <row r="55" spans="1:113">
+      <c r="B55" s="26">
+        <v>48</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N55" s="26">
+        <v>0</v>
+      </c>
+      <c r="O55" s="26">
+        <v>0</v>
+      </c>
+      <c r="P55" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>0</v>
+      </c>
+      <c r="R55" s="26">
+        <v>0</v>
+      </c>
+      <c r="S55" s="26">
+        <v>0</v>
+      </c>
+      <c r="T55" s="26">
+        <v>0</v>
+      </c>
+      <c r="U55" s="26">
+        <v>0</v>
+      </c>
+      <c r="V55" s="26">
+        <v>0</v>
+      </c>
+      <c r="W55" s="26">
+        <v>0</v>
+      </c>
+      <c r="X55" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL55" s="26"/>
+    </row>
+    <row r="56" spans="1:113">
+      <c r="B56" s="26">
+        <v>49</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26">
+        <v>1</v>
+      </c>
+      <c r="S56" s="26">
+        <v>0</v>
+      </c>
+      <c r="T56" s="26">
+        <v>0</v>
+      </c>
+      <c r="U56" s="26">
+        <v>0</v>
+      </c>
+      <c r="V56" s="26">
+        <v>0</v>
+      </c>
+      <c r="W56" s="26">
+        <v>0</v>
+      </c>
+      <c r="X56" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL56" s="26"/>
+    </row>
+    <row r="57" spans="1:113">
+      <c r="B57" s="26">
+        <v>50</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" s="26">
+        <v>0</v>
+      </c>
+      <c r="O57" s="26">
+        <v>1</v>
+      </c>
+      <c r="P57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>0</v>
+      </c>
+      <c r="R57" s="26">
+        <v>0</v>
+      </c>
+      <c r="S57" s="26">
+        <v>0</v>
+      </c>
+      <c r="T57" s="26">
+        <v>0</v>
+      </c>
+      <c r="U57" s="26">
+        <v>0</v>
+      </c>
+      <c r="V57" s="26">
+        <v>0</v>
+      </c>
+      <c r="W57" s="26">
+        <v>0</v>
+      </c>
+      <c r="X57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL57" s="26"/>
+    </row>
+    <row r="58" spans="1:113">
+      <c r="B58" s="26">
+        <v>51</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N58" s="26">
+        <v>0</v>
+      </c>
+      <c r="O58" s="26">
+        <v>0</v>
+      </c>
+      <c r="P58" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>0</v>
+      </c>
+      <c r="R58" s="26">
+        <v>1</v>
+      </c>
+      <c r="S58" s="26">
+        <v>0</v>
+      </c>
+      <c r="T58" s="26">
+        <v>0</v>
+      </c>
+      <c r="U58" s="26">
+        <v>0</v>
+      </c>
+      <c r="V58" s="26">
+        <v>0</v>
+      </c>
+      <c r="W58" s="26">
+        <v>0</v>
+      </c>
+      <c r="X58" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL58" s="26"/>
+    </row>
+    <row r="59" spans="1:113">
+      <c r="B59" s="26">
+        <v>52</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="N59" s="26">
+        <v>0</v>
+      </c>
+      <c r="O59" s="26">
+        <v>0</v>
+      </c>
+      <c r="P59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>0</v>
+      </c>
+      <c r="R59" s="26">
+        <v>1</v>
+      </c>
+      <c r="S59" s="26">
+        <v>0</v>
+      </c>
+      <c r="T59" s="26">
+        <v>0</v>
+      </c>
+      <c r="U59" s="26">
+        <v>0</v>
+      </c>
+      <c r="V59" s="26">
+        <v>0</v>
+      </c>
+      <c r="W59" s="26">
+        <v>0</v>
+      </c>
+      <c r="X59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL59" s="26"/>
+    </row>
+    <row r="60" spans="1:113">
+      <c r="B60" s="26">
+        <v>53</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N60" s="26">
+        <v>0</v>
+      </c>
+      <c r="O60" s="26">
+        <v>0</v>
+      </c>
+      <c r="P60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>0</v>
+      </c>
+      <c r="R60" s="26">
+        <v>1</v>
+      </c>
+      <c r="S60" s="26">
+        <v>0</v>
+      </c>
+      <c r="T60" s="26">
+        <v>0</v>
+      </c>
+      <c r="U60" s="26">
+        <v>0</v>
+      </c>
+      <c r="V60" s="26">
+        <v>0</v>
+      </c>
+      <c r="W60" s="26">
+        <v>0</v>
+      </c>
+      <c r="X60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL60" s="26"/>
+    </row>
+    <row r="61" spans="1:113">
+      <c r="B61" s="26">
+        <v>54</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="N61" s="26">
+        <v>0</v>
+      </c>
+      <c r="O61" s="26">
+        <v>0</v>
+      </c>
+      <c r="P61" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>0</v>
+      </c>
+      <c r="R61" s="26">
+        <v>0</v>
+      </c>
+      <c r="S61" s="26">
+        <v>0</v>
+      </c>
+      <c r="T61" s="26">
+        <v>0</v>
+      </c>
+      <c r="U61" s="26">
+        <v>0</v>
+      </c>
+      <c r="V61" s="26">
+        <v>0</v>
+      </c>
+      <c r="W61" s="26">
+        <v>0</v>
+      </c>
+      <c r="X61" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL61" s="26"/>
+    </row>
+    <row r="62" spans="1:113">
+      <c r="B62" s="26">
+        <v>55</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N62" s="26">
+        <v>0</v>
+      </c>
+      <c r="O62" s="26">
+        <v>0</v>
+      </c>
+      <c r="P62" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>0</v>
+      </c>
+      <c r="R62" s="26">
+        <v>0</v>
+      </c>
+      <c r="S62" s="26">
+        <v>0</v>
+      </c>
+      <c r="T62" s="26">
+        <v>0</v>
+      </c>
+      <c r="U62" s="26">
+        <v>0</v>
+      </c>
+      <c r="V62" s="26">
+        <v>0</v>
+      </c>
+      <c r="W62" s="26">
+        <v>0</v>
+      </c>
+      <c r="X62" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL62" s="26"/>
+    </row>
+    <row r="63" spans="1:113">
+      <c r="B63" s="26">
+        <v>56</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="N63" s="26">
+        <v>0</v>
+      </c>
+      <c r="O63" s="26">
+        <v>0</v>
+      </c>
+      <c r="P63" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="26">
+        <v>0</v>
+      </c>
+      <c r="R63" s="26">
+        <v>1</v>
+      </c>
+      <c r="S63" s="26">
+        <v>0</v>
+      </c>
+      <c r="T63" s="26">
+        <v>0</v>
+      </c>
+      <c r="U63" s="26">
+        <v>0</v>
+      </c>
+      <c r="V63" s="26">
+        <v>0</v>
+      </c>
+      <c r="W63" s="26">
+        <v>0</v>
+      </c>
+      <c r="X63" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL63" s="26"/>
+    </row>
+    <row r="64" spans="1:113">
+      <c r="B64" s="26">
+        <v>57</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="N64" s="26">
+        <v>0</v>
+      </c>
+      <c r="O64" s="26">
+        <v>0</v>
+      </c>
+      <c r="P64" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="26">
+        <v>0</v>
+      </c>
+      <c r="R64" s="26">
+        <v>1</v>
+      </c>
+      <c r="S64" s="26">
+        <v>0</v>
+      </c>
+      <c r="T64" s="26">
+        <v>0</v>
+      </c>
+      <c r="U64" s="26">
+        <v>0</v>
+      </c>
+      <c r="V64" s="26">
+        <v>0</v>
+      </c>
+      <c r="W64" s="26">
+        <v>0</v>
+      </c>
+      <c r="X64" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL64" s="26"/>
+    </row>
+    <row r="65" spans="1:113">
+      <c r="B65" s="26">
+        <v>58</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="26">
+        <v>0</v>
+      </c>
+      <c r="O65" s="26">
+        <v>0</v>
+      </c>
+      <c r="P65" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="26">
+        <v>0</v>
+      </c>
+      <c r="R65" s="26">
+        <v>1</v>
+      </c>
+      <c r="S65" s="26">
+        <v>0</v>
+      </c>
+      <c r="T65" s="26">
+        <v>0</v>
+      </c>
+      <c r="U65" s="26">
+        <v>0</v>
+      </c>
+      <c r="V65" s="26">
+        <v>0</v>
+      </c>
+      <c r="W65" s="26">
+        <v>0</v>
+      </c>
+      <c r="X65" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL65" s="26"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -6327,28 +9965,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="22" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="4" t="s">
@@ -6359,38 +9997,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="12" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="O10" s="25"/>
     </row>
@@ -6399,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -6409,9 +10047,7 @@
       <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="15">
         <v>0</v>
       </c>
@@ -6422,7 +10058,9 @@
       <c r="K11" s="15">
         <v>0</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15">
+        <v>5.5</v>
+      </c>
       <c r="M11" s="15">
         <v>1</v>
       </c>
@@ -6434,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -6442,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -6457,7 +10095,9 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M12" s="18">
         <v>1</v>
       </c>
@@ -6469,15 +10109,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -6492,7 +10132,9 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M13" s="18">
         <v>1</v>
       </c>
@@ -6504,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -6527,11 +10169,13 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18">
-        <v>1</v>
-      </c>
-      <c r="N14" s="18"/>
+      <c r="L14" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -6539,12 +10183,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -6562,7 +10206,9 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="M15" s="18">
         <v>1</v>
       </c>
@@ -6574,7 +10220,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -6597,7 +10243,9 @@
       <c r="K16" s="18">
         <v>0</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -6609,7 +10257,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -6632,7 +10280,9 @@
       <c r="K17" s="18">
         <v>0</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M17" s="18">
         <v>1</v>
       </c>
@@ -6644,7 +10294,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -6652,22 +10302,24 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <v>0</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M18" s="18">
         <v>1</v>
       </c>
@@ -6679,12 +10331,12 @@
         <v>9</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
@@ -6702,7 +10354,9 @@
       <c r="K19" s="18">
         <v>0</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M19" s="18">
         <v>1</v>
       </c>
@@ -6714,12 +10368,12 @@
         <v>10</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -6737,7 +10391,9 @@
       <c r="K20" s="18">
         <v>0</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="18">
+        <v>5.5</v>
+      </c>
       <c r="M20" s="18">
         <v>1</v>
       </c>
@@ -6748,18 +10404,36 @@
       <c r="A21" s="18">
         <v>11</v>
       </c>
-      <c r="B21" s="137"/>
+      <c r="B21" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
@@ -6767,18 +10441,36 @@
       <c r="A22" s="18">
         <v>12</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M22" s="18">
+        <v>1</v>
+      </c>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
@@ -6786,18 +10478,36 @@
       <c r="A23" s="18">
         <v>13</v>
       </c>
-      <c r="B23" s="137"/>
+      <c r="B23" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1</v>
+      </c>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
@@ -6805,18 +10515,36 @@
       <c r="A24" s="18">
         <v>14</v>
       </c>
-      <c r="B24" s="137"/>
+      <c r="B24" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M24" s="18">
+        <v>1</v>
+      </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
@@ -6824,18 +10552,36 @@
       <c r="A25" s="18">
         <v>15</v>
       </c>
-      <c r="B25" s="137"/>
+      <c r="B25" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
@@ -6843,37 +10589,73 @@
       <c r="A26" s="18">
         <v>16</v>
       </c>
-      <c r="B26" s="137"/>
+      <c r="B26" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>4.5</v>
+      </c>
       <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="N26" s="18">
+        <v>1</v>
+      </c>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A27" s="18">
         <v>17</v>
       </c>
-      <c r="B27" s="137"/>
+      <c r="B27" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1</v>
+      </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
@@ -6881,18 +10663,36 @@
       <c r="A28" s="18">
         <v>18</v>
       </c>
-      <c r="B28" s="137"/>
+      <c r="B28" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
@@ -6900,18 +10700,36 @@
       <c r="A29" s="18">
         <v>19</v>
       </c>
-      <c r="B29" s="137"/>
+      <c r="B29" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
       <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1</v>
+      </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
@@ -6919,37 +10737,73 @@
       <c r="A30" s="18">
         <v>20</v>
       </c>
-      <c r="B30" s="137"/>
+      <c r="B30" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
       <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <v>4.5</v>
+      </c>
       <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="N30" s="18">
+        <v>1</v>
+      </c>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
-      <c r="B31" s="137"/>
+      <c r="B31" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1</v>
+      </c>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
     </row>
@@ -6957,37 +10811,73 @@
       <c r="A32" s="18">
         <v>22</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
       <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <v>4.5</v>
+      </c>
       <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="N32" s="18">
+        <v>1</v>
+      </c>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A33" s="18">
         <v>23</v>
       </c>
-      <c r="B33" s="137"/>
+      <c r="B33" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1</v>
+      </c>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
@@ -6995,18 +10885,36 @@
       <c r="A34" s="18">
         <v>24</v>
       </c>
-      <c r="B34" s="137"/>
+      <c r="B34" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
       <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
@@ -7014,18 +10922,36 @@
       <c r="A35" s="18">
         <v>25</v>
       </c>
-      <c r="B35" s="137"/>
+      <c r="B35" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
       <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1</v>
+      </c>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
@@ -7033,37 +10959,73 @@
       <c r="A36" s="18">
         <v>26</v>
       </c>
-      <c r="B36" s="137"/>
+      <c r="B36" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
       <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>3.5</v>
+      </c>
       <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="N36" s="18">
+        <v>1</v>
+      </c>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A37" s="18">
         <v>27</v>
       </c>
-      <c r="B37" s="137"/>
+      <c r="B37" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
       <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1</v>
+      </c>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
@@ -7071,18 +11033,36 @@
       <c r="A38" s="18">
         <v>28</v>
       </c>
-      <c r="B38" s="137"/>
+      <c r="B38" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
       <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1</v>
+      </c>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
@@ -7090,18 +11070,36 @@
       <c r="A39" s="18">
         <v>29</v>
       </c>
-      <c r="B39" s="137"/>
+      <c r="B39" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
       <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1</v>
+      </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
@@ -7109,18 +11107,36 @@
       <c r="A40" s="18">
         <v>30</v>
       </c>
-      <c r="B40" s="137"/>
+      <c r="B40" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
       <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1</v>
+      </c>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
@@ -7128,18 +11144,36 @@
       <c r="A41" s="18">
         <v>31</v>
       </c>
-      <c r="B41" s="137"/>
+      <c r="B41" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
       <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1</v>
+      </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
     </row>
@@ -7147,18 +11181,36 @@
       <c r="A42" s="18">
         <v>32</v>
       </c>
-      <c r="B42" s="137"/>
+      <c r="B42" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
       <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1</v>
+      </c>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
     </row>
@@ -7166,18 +11218,36 @@
       <c r="A43" s="18">
         <v>33</v>
       </c>
-      <c r="B43" s="137"/>
+      <c r="B43" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1</v>
+      </c>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
@@ -7185,18 +11255,36 @@
       <c r="A44" s="18">
         <v>34</v>
       </c>
-      <c r="B44" s="137"/>
+      <c r="B44" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
       <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="J44" s="18">
+        <v>0</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1</v>
+      </c>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
@@ -7204,56 +11292,110 @@
       <c r="A45" s="18">
         <v>35</v>
       </c>
-      <c r="B45" s="137"/>
+      <c r="B45" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <v>4.5</v>
+      </c>
       <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
+      <c r="N45" s="18">
+        <v>1</v>
+      </c>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A46" s="18">
         <v>36</v>
       </c>
-      <c r="B46" s="137"/>
+      <c r="B46" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0</v>
+      </c>
       <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
+        <v>5.0</v>
+      </c>
       <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
+      <c r="N46" s="18">
+        <v>1</v>
+      </c>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A47" s="18">
         <v>37</v>
       </c>
-      <c r="B47" s="137"/>
+      <c r="B47" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1</v>
+      </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
@@ -7261,37 +11403,73 @@
       <c r="A48" s="18">
         <v>38</v>
       </c>
-      <c r="B48" s="137"/>
+      <c r="B48" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0</v>
+      </c>
       <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="J48" s="18">
+        <v>0</v>
+      </c>
+      <c r="K48" s="18">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
+        <v>5.0</v>
+      </c>
       <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="N48" s="18">
+        <v>1</v>
+      </c>
       <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A49" s="18">
         <v>39</v>
       </c>
-      <c r="B49" s="137"/>
+      <c r="B49" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
       <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
+      <c r="J49" s="18">
+        <v>0</v>
+      </c>
+      <c r="K49" s="18">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1</v>
+      </c>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
@@ -7299,94 +11477,184 @@
       <c r="A50" s="18">
         <v>40</v>
       </c>
-      <c r="B50" s="137"/>
+      <c r="B50" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
       <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="J50" s="18">
+        <v>0</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <v>4.5</v>
+      </c>
       <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
+      <c r="N50" s="18">
+        <v>1</v>
+      </c>
       <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A51" s="18">
         <v>41</v>
       </c>
-      <c r="B51" s="137"/>
+      <c r="B51" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
       <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
+      <c r="J51" s="18">
+        <v>0</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
+        <v>3.5</v>
+      </c>
       <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
+      <c r="N51" s="18">
+        <v>1</v>
+      </c>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A52" s="18">
         <v>42</v>
       </c>
-      <c r="B52" s="137"/>
+      <c r="B52" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="J52" s="18">
+        <v>0</v>
+      </c>
+      <c r="K52" s="18">
+        <v>0</v>
+      </c>
+      <c r="L52" s="18">
+        <v>3.5</v>
+      </c>
       <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
+      <c r="N52" s="18">
+        <v>1</v>
+      </c>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A53" s="18">
         <v>43</v>
       </c>
-      <c r="B53" s="137"/>
+      <c r="B53" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="E53" s="18">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
       <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="J53" s="18">
+        <v>0</v>
+      </c>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
+        <v>5.0</v>
+      </c>
       <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
+      <c r="N53" s="18">
+        <v>1</v>
+      </c>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A54" s="18">
         <v>44</v>
       </c>
-      <c r="B54" s="137"/>
+      <c r="B54" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1</v>
+      </c>
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
@@ -7394,18 +11662,36 @@
       <c r="A55" s="18">
         <v>45</v>
       </c>
-      <c r="B55" s="137"/>
+      <c r="B55" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
       <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="J55" s="18">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M55" s="18">
+        <v>1</v>
+      </c>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
     </row>
@@ -7413,18 +11699,36 @@
       <c r="A56" s="18">
         <v>46</v>
       </c>
-      <c r="B56" s="137"/>
+      <c r="B56" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="E56" s="18">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
       <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="J56" s="18">
+        <v>0</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M56" s="18">
+        <v>1</v>
+      </c>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
     </row>
@@ -7432,18 +11736,36 @@
       <c r="A57" s="18">
         <v>47</v>
       </c>
-      <c r="B57" s="137"/>
+      <c r="B57" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
       <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
+      <c r="J57" s="18">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M57" s="18">
+        <v>1</v>
+      </c>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
     </row>
@@ -7451,18 +11773,36 @@
       <c r="A58" s="18">
         <v>48</v>
       </c>
-      <c r="B58" s="137"/>
+      <c r="B58" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="E58" s="18">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
       <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
+      <c r="J58" s="18">
+        <v>0</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M58" s="18">
+        <v>1</v>
+      </c>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
@@ -7470,18 +11810,36 @@
       <c r="A59" s="18">
         <v>49</v>
       </c>
-      <c r="B59" s="137"/>
+      <c r="B59" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="E59" s="18">
+        <v>0</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
       <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
+      <c r="J59" s="18">
+        <v>0</v>
+      </c>
+      <c r="K59" s="18">
+        <v>0</v>
+      </c>
+      <c r="L59" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
@@ -7489,140 +11847,318 @@
       <c r="A60" s="18">
         <v>50</v>
       </c>
-      <c r="B60" s="137"/>
+      <c r="B60" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="E60" s="18">
+        <v>0</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18">
+        <v>0</v>
+      </c>
       <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
+      <c r="J60" s="18">
+        <v>0</v>
+      </c>
+      <c r="K60" s="18">
+        <v>0</v>
+      </c>
+      <c r="L60" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M60" s="18">
+        <v>1</v>
+      </c>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A61" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="135"/>
+      <c r="A61" s="135">
+        <v>51</v>
+      </c>
+      <c r="B61" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
+      <c r="E61" s="135">
+        <v>1</v>
+      </c>
+      <c r="F61" s="135">
+        <v>1</v>
+      </c>
+      <c r="G61" s="135">
+        <v>0</v>
+      </c>
+      <c r="H61" s="135">
+        <v>0</v>
+      </c>
       <c r="I61" s="135"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
+      <c r="J61" s="135">
+        <v>0</v>
+      </c>
+      <c r="K61" s="135">
+        <v>0</v>
+      </c>
+      <c r="L61" s="135">
+        <v>5.5</v>
+      </c>
       <c r="M61" s="18">
-        <f>COUNTIF(M11:M60,"/")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="18">
-        <f>COUNTIF(N11:N60,"/")</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" s="18"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B62" s="138"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="1">
+        <v>52</v>
+      </c>
+      <c r="B62" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
       <c r="N62" s="3"/>
+      <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B63" s="138"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
+      <c r="A63" s="1">
+        <v>53</v>
+      </c>
+      <c r="B63" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="136">
+        <v>0</v>
+      </c>
+      <c r="H63" s="136">
+        <v>0</v>
+      </c>
       <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
+      <c r="J63" s="136">
+        <v>0</v>
+      </c>
+      <c r="K63" s="136">
+        <v>0</v>
+      </c>
+      <c r="L63" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M63" s="136">
+        <v>1</v>
+      </c>
       <c r="N63" s="136"/>
       <c r="O63" s="136"/>
     </row>
     <row r="64" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B64" s="138"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
+      <c r="A64" s="1">
+        <v>54</v>
+      </c>
+      <c r="B64" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="136">
+        <v>0</v>
+      </c>
+      <c r="H64" s="136">
+        <v>0</v>
+      </c>
       <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
+      <c r="J64" s="136">
+        <v>0</v>
+      </c>
+      <c r="K64" s="136">
+        <v>0</v>
+      </c>
+      <c r="L64" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M64" s="136">
+        <v>1</v>
+      </c>
       <c r="N64" s="136"/>
       <c r="O64" s="136"/>
     </row>
     <row r="65" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B65" s="138"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
+      <c r="A65" s="1">
+        <v>55</v>
+      </c>
+      <c r="B65" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="136">
+        <v>0</v>
+      </c>
+      <c r="H65" s="136">
+        <v>0</v>
+      </c>
       <c r="I65" s="136"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
+      <c r="J65" s="136">
+        <v>0</v>
+      </c>
+      <c r="K65" s="136">
+        <v>0</v>
+      </c>
+      <c r="L65" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M65" s="136">
+        <v>1</v>
+      </c>
       <c r="N65" s="136"/>
       <c r="O65" s="136"/>
     </row>
     <row r="66" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B66" s="138"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="136"/>
+      <c r="A66" s="1">
+        <v>56</v>
+      </c>
+      <c r="B66" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="136">
+        <v>0</v>
+      </c>
+      <c r="H66" s="136">
+        <v>0</v>
+      </c>
       <c r="I66" s="136"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
+      <c r="J66" s="136">
+        <v>0</v>
+      </c>
+      <c r="K66" s="136">
+        <v>0</v>
+      </c>
+      <c r="L66" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M66" s="136">
+        <v>1</v>
+      </c>
       <c r="N66" s="136"/>
       <c r="O66" s="136"/>
     </row>
     <row r="67" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B67" s="138"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="136"/>
+      <c r="A67" s="1">
+        <v>57</v>
+      </c>
+      <c r="B67" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="136">
+        <v>0</v>
+      </c>
+      <c r="H67" s="136">
+        <v>0</v>
+      </c>
       <c r="I67" s="136"/>
-      <c r="J67" s="136"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
+      <c r="J67" s="136">
+        <v>0</v>
+      </c>
+      <c r="K67" s="136">
+        <v>0</v>
+      </c>
+      <c r="L67" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M67" s="136">
+        <v>1</v>
+      </c>
       <c r="N67" s="136"/>
       <c r="O67" s="136"/>
     </row>
     <row r="68" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="B68" s="138"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="136"/>
+      <c r="A68" s="1">
+        <v>58</v>
+      </c>
+      <c r="B68" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="136">
+        <v>0</v>
+      </c>
+      <c r="H68" s="136">
+        <v>0</v>
+      </c>
       <c r="I68" s="136"/>
-      <c r="J68" s="136"/>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
+      <c r="J68" s="136">
+        <v>0</v>
+      </c>
+      <c r="K68" s="136">
+        <v>0</v>
+      </c>
+      <c r="L68" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="M68" s="136">
+        <v>1</v>
+      </c>
       <c r="N68" s="136"/>
       <c r="O68" s="136"/>
     </row>

--- a/public/assets/updated-excels/qr-tiang-talian.xlsx
+++ b/public/assets/updated-excels/qr-tiang-talian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>Daftar Aset SAVR</t>
   </si>
@@ -172,27 +172,33 @@
     <t>BKLG/PCE/J00152</t>
   </si>
   <si>
-    <t>Jalan Tanjung 5/4</t>
+    <t>Avista Warisan Puteri</t>
   </si>
   <si>
     <t>BKLG/PCE/J00153</t>
   </si>
   <si>
-    <t>JALAN TANJUNG 5/4</t>
+    <t>Farich Food House</t>
   </si>
   <si>
     <t>BKLG/PCE/J00154</t>
   </si>
   <si>
-    <t>JLN TANJUNG 5/4</t>
+    <t>Jalan Seroja 12</t>
   </si>
   <si>
     <t>BKLG/PCE/J00155</t>
   </si>
   <si>
+    <t>Jalan Seroja 13</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00156</t>
   </si>
   <si>
+    <t>Jalan Seroja 15</t>
+  </si>
+  <si>
     <t>7.0m</t>
   </si>
   <si>
@@ -202,12 +208,18 @@
     <t>BKLG/PCE/J00157</t>
   </si>
   <si>
+    <t>Like Food House</t>
+  </si>
+  <si>
     <t>Terus</t>
   </si>
   <si>
     <t>BKLG/PCE/J00158</t>
   </si>
   <si>
+    <t>Taman Seroja</t>
+  </si>
+  <si>
     <t>BKLG/PCE/J00159</t>
   </si>
   <si>
@@ -280,7 +292,7 @@
     <t>BKLG/PCE/J00181</t>
   </si>
   <si>
-    <t>PETALING JAYA</t>
+    <t>SEPANG</t>
   </si>
   <si>
     <r>
@@ -536,49 +548,31 @@
     <t>Junction Box Tanggal / Kesan Bakar</t>
   </si>
   <si>
-    <t xml:space="preserve">PENCAWANG ELETRIK P/J NO 9 </t>
-  </si>
-  <si>
-    <t>JLN 5/4/42</t>
-  </si>
-  <si>
-    <t>JLN 5/4/43</t>
-  </si>
-  <si>
-    <t>JLN 5/4/38</t>
-  </si>
-  <si>
-    <t>JLN 5/4/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/E JLN TANJUNG </t>
-  </si>
-  <si>
-    <t>JLN 5/4/14</t>
-  </si>
-  <si>
-    <t>JLN 5/4/15</t>
-  </si>
-  <si>
-    <t>JLN 5/4/13</t>
-  </si>
-  <si>
-    <t>JLN 5/4/15/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/12</t>
-  </si>
-  <si>
-    <t>JLN 5/4/11</t>
-  </si>
-  <si>
-    <t>FP 1 JLN 5/4</t>
-  </si>
-  <si>
-    <t>JLN 5/4/9</t>
-  </si>
-  <si>
-    <t>JLN 5/4/10</t>
+    <t>PE TAMAN SEROJA NO 1</t>
+  </si>
+  <si>
+    <t>JALAN SEROJA 14</t>
+  </si>
+  <si>
+    <t>n/A</t>
+  </si>
+  <si>
+    <t>JALAN SEROJA 15</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SPS WARISAN MEGAH</t>
+  </si>
+  <si>
+    <t>JLN WARISAN MEGAH</t>
+  </si>
+  <si>
+    <t>JALAN SEROJA 16</t>
+  </si>
+  <si>
+    <t>TMS 1</t>
   </si>
   <si>
     <t>Bandar Puteri No.7</t>
@@ -590,160 +584,53 @@
     <t>FP Jalan Sanggul 5</t>
   </si>
   <si>
-    <t>JLN  5/4/10</t>
-  </si>
-  <si>
-    <t>JLN 5/4/8</t>
-  </si>
-  <si>
-    <t>JLN 5/4/5</t>
-  </si>
-  <si>
-    <t>JLN 5/4/6</t>
-  </si>
-  <si>
-    <t>JLN 5/4/4</t>
-  </si>
-  <si>
-    <t>JLN 5/4/10/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/7</t>
-  </si>
-  <si>
-    <t>JLN 5/4/7/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/6/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/3</t>
-  </si>
-  <si>
-    <t>JLN 5/4/3/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/2</t>
-  </si>
-  <si>
-    <t>JLN 5/17/13</t>
-  </si>
-  <si>
-    <t>JLN 5/4/1</t>
-  </si>
-  <si>
-    <t>P/E PDT JLN TANJUNG</t>
-  </si>
-  <si>
-    <t>JLN 5/4/18</t>
-  </si>
-  <si>
-    <t>JLN 5/4/18/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/E PDT JLN TANJUNG </t>
-  </si>
-  <si>
-    <t>JLN 5/4/20</t>
-  </si>
-  <si>
-    <t>JLN 5/4/21</t>
-  </si>
-  <si>
-    <t>JLN 5/4/23</t>
-  </si>
-  <si>
-    <t>JLN 5/4/23/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/24</t>
-  </si>
-  <si>
-    <t>JLN 5/4/25</t>
-  </si>
-  <si>
-    <t>JLN 5/4/26</t>
-  </si>
-  <si>
-    <t>JLN 5/4/25/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/22</t>
-  </si>
-  <si>
-    <t>JLN 5/4/16</t>
-  </si>
-  <si>
-    <t>JLN 5/4/17</t>
-  </si>
-  <si>
-    <t>JLN 5/4/41</t>
-  </si>
-  <si>
-    <t>JLN 5/4/28</t>
-  </si>
-  <si>
-    <t>JLN 5/4/29</t>
-  </si>
-  <si>
-    <t>JLN 5/4/19</t>
-  </si>
-  <si>
-    <t>JLN 5/4/46</t>
-  </si>
-  <si>
-    <t>JLN 5/4/47</t>
-  </si>
-  <si>
-    <t>JLN 5/4/48</t>
-  </si>
-  <si>
-    <t>JLN 5/4/44</t>
-  </si>
-  <si>
-    <t>JLN 5/4/45</t>
-  </si>
-  <si>
-    <t>JLN 5/4/40</t>
-  </si>
-  <si>
-    <t>JLN 5/4/35</t>
-  </si>
-  <si>
-    <t>JLN 5/4/36</t>
-  </si>
-  <si>
-    <t>JLN 5/4/33</t>
-  </si>
-  <si>
-    <t>JLN 5/4/34</t>
-  </si>
-  <si>
-    <t>PENCAWANG ELETRIK P/J NO 9</t>
-  </si>
-  <si>
-    <t>JLN 5/4/31</t>
-  </si>
-  <si>
-    <t>JLN 5/4/30</t>
-  </si>
-  <si>
-    <t>JLN 5/4/32</t>
-  </si>
-  <si>
-    <t>JLN 5/4/27</t>
-  </si>
-  <si>
-    <t>JLN 5/4/37</t>
-  </si>
-  <si>
-    <t>JLN 5/4/28/</t>
-  </si>
-  <si>
-    <t>JLN 5/4/28/1</t>
-  </si>
-  <si>
-    <t>JLN 5/4/27/1</t>
+    <t>JALAN SEROJA 13</t>
+  </si>
+  <si>
+    <t>JST 
+81/33
+2</t>
+  </si>
+  <si>
+    <t>JLN SEROJA 16</t>
+  </si>
+  <si>
+    <t>JALAN SEROJA 12</t>
+  </si>
+  <si>
+    <t>JS 15
+12</t>
+  </si>
+  <si>
+    <t>TMS1
+5</t>
+  </si>
+  <si>
+    <t>JALAN SEROJA 5</t>
+  </si>
+  <si>
+    <t>Jln warisan megah</t>
+  </si>
+  <si>
+    <t>WARISAN MEGAH</t>
+  </si>
+  <si>
+    <t>TMS1 
+5</t>
+  </si>
+  <si>
+    <t>TMS1
+6</t>
+  </si>
+  <si>
+    <t>JLN SEROJA 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALAN SEROJA 13 </t>
+  </si>
+  <si>
+    <t>TMS1 
+11</t>
   </si>
   <si>
     <t>Tarikh Semakan dibuat</t>
@@ -800,10 +687,16 @@
     <t>Tidak Patuh</t>
   </si>
   <si>
-    <t>2023-12-20</t>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1 </t>
   </si>
   <si>
     <t xml:space="preserve">5.5 </t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2592,7 +2485,7 @@
       <c r="J8" s="46"/>
       <c r="K8" s="115"/>
       <c r="L8" s="46">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M8" s="46">
         <v>0</v>
@@ -2601,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8" s="46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="46">
         <v>0</v>
@@ -2641,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="46">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AD8" s="46">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="AE8" s="46"/>
       <c r="AF8" s="123">
@@ -2681,7 +2574,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="115"/>
       <c r="L9" s="46">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M9" s="46">
         <v>0</v>
@@ -2690,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="46">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P9" s="46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="46">
         <v>0</v>
@@ -2730,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="AC9" s="46">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="46">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="46"/>
       <c r="AF9" s="123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="123">
         <v>0</v>
@@ -2770,7 +2663,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="115"/>
       <c r="L10" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" s="46">
         <v>0</v>
@@ -2779,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" s="46">
         <v>0</v>
@@ -2819,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="46">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE10" s="46"/>
       <c r="AF10" s="123">
@@ -2850,37 +2743,83 @@
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="65"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="65"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="115"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="L11" s="46">
+        <v>7</v>
+      </c>
+      <c r="M11" s="46">
+        <v>0</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0</v>
+      </c>
+      <c r="O11" s="46">
+        <v>7</v>
+      </c>
+      <c r="P11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0</v>
+      </c>
       <c r="S11" s="65"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
+      <c r="T11" s="46">
+        <v>0</v>
+      </c>
+      <c r="U11" s="46">
+        <v>0</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0</v>
+      </c>
+      <c r="W11" s="46">
+        <v>0</v>
+      </c>
+      <c r="X11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="46">
+        <v>22</v>
+      </c>
       <c r="AE11" s="46"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
+      <c r="AF11" s="123">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="123">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="123">
+        <v>0</v>
+      </c>
       <c r="AI11" s="125"/>
-      <c r="AJ11" s="123"/>
+      <c r="AJ11" s="123">
+        <v>0</v>
+      </c>
       <c r="AK11" s="47"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="21">
@@ -2889,45 +2828,91 @@
         <v>5</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="65"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="65"/>
       <c r="H12" s="47"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="L12" s="46">
+        <v>9</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0</v>
+      </c>
+      <c r="O12" s="46">
+        <v>9</v>
+      </c>
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
       <c r="S12" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="T12" s="46">
+        <v>0</v>
+      </c>
+      <c r="U12" s="46">
+        <v>0</v>
+      </c>
+      <c r="V12" s="46">
+        <v>0</v>
+      </c>
+      <c r="W12" s="46">
+        <v>0</v>
+      </c>
+      <c r="X12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="46">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="46">
+        <v>28</v>
+      </c>
       <c r="AE12" s="46"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="123"/>
+      <c r="AF12" s="123">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="123">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="123">
+        <v>0</v>
+      </c>
       <c r="AI12" s="125"/>
-      <c r="AJ12" s="123"/>
+      <c r="AJ12" s="123">
+        <v>0</v>
+      </c>
       <c r="AK12" s="47"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="21">
@@ -2936,45 +2921,91 @@
         <v>6</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>54</v>
+      </c>
       <c r="G13" s="65"/>
       <c r="H13" s="47"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="L13" s="46">
+        <v>2</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0</v>
+      </c>
+      <c r="O13" s="46">
+        <v>2</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0</v>
+      </c>
       <c r="S13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="T13" s="46">
+        <v>0</v>
+      </c>
+      <c r="U13" s="46">
+        <v>0</v>
+      </c>
+      <c r="V13" s="46">
+        <v>0</v>
+      </c>
+      <c r="W13" s="46">
+        <v>0</v>
+      </c>
+      <c r="X13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="46">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="46">
+        <v>6</v>
+      </c>
       <c r="AE13" s="46"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
+      <c r="AF13" s="123">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="123">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="123">
+        <v>0</v>
+      </c>
       <c r="AI13" s="125"/>
-      <c r="AJ13" s="123"/>
+      <c r="AJ13" s="123">
+        <v>0</v>
+      </c>
       <c r="AK13" s="47"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="24">
@@ -2983,45 +3014,91 @@
         <v>7</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="65"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="65"/>
       <c r="H14" s="47"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="L14" s="46">
+        <v>17</v>
+      </c>
+      <c r="M14" s="46">
+        <v>0</v>
+      </c>
+      <c r="N14" s="46">
+        <v>0</v>
+      </c>
+      <c r="O14" s="46">
+        <v>17</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0</v>
+      </c>
       <c r="S14" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="T14" s="46">
+        <v>0</v>
+      </c>
+      <c r="U14" s="46">
+        <v>0</v>
+      </c>
+      <c r="V14" s="46">
+        <v>0</v>
+      </c>
+      <c r="W14" s="46">
+        <v>0</v>
+      </c>
+      <c r="X14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="46">
+        <v>17</v>
+      </c>
+      <c r="AD14" s="46">
+        <v>51</v>
+      </c>
       <c r="AE14" s="46"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
+      <c r="AF14" s="123">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="123">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="123">
+        <v>0</v>
+      </c>
       <c r="AI14" s="125"/>
-      <c r="AJ14" s="123"/>
+      <c r="AJ14" s="123">
+        <v>0</v>
+      </c>
       <c r="AK14" s="47"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="24">
@@ -3030,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="65"/>
@@ -3040,7 +3117,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
@@ -3050,7 +3127,7 @@
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
       <c r="S15" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
@@ -3077,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="65"/>
@@ -3087,7 +3164,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
@@ -3097,7 +3174,7 @@
       <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
       <c r="S16" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
@@ -3124,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="65"/>
@@ -3134,7 +3211,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
@@ -3144,7 +3221,7 @@
       <c r="Q17" s="46"/>
       <c r="R17" s="46"/>
       <c r="S17" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T17" s="46"/>
       <c r="U17" s="46"/>
@@ -3171,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="65"/>
@@ -3181,7 +3258,7 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
@@ -3191,7 +3268,7 @@
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
       <c r="S18" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T18" s="46"/>
       <c r="U18" s="46"/>
@@ -3218,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="65"/>
@@ -3228,7 +3305,7 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
@@ -3238,7 +3315,7 @@
       <c r="Q19" s="46"/>
       <c r="R19" s="46"/>
       <c r="S19" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="46"/>
@@ -3265,7 +3342,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="65"/>
@@ -3275,7 +3352,7 @@
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
@@ -3285,7 +3362,7 @@
       <c r="Q20" s="46"/>
       <c r="R20" s="46"/>
       <c r="S20" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="46"/>
@@ -3312,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="65"/>
@@ -3322,7 +3399,7 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="46"/>
@@ -3332,7 +3409,7 @@
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
       <c r="S21" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T21" s="46"/>
       <c r="U21" s="46"/>
@@ -3359,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="65"/>
@@ -3369,7 +3446,7 @@
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
@@ -3379,7 +3456,7 @@
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
       <c r="S22" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="46"/>
@@ -3406,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="65"/>
@@ -3416,7 +3493,7 @@
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
@@ -3426,7 +3503,7 @@
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T23" s="46"/>
       <c r="U23" s="46"/>
@@ -3453,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="65"/>
@@ -3463,7 +3540,7 @@
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
@@ -3473,7 +3550,7 @@
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
       <c r="S24" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="46"/>
@@ -3500,7 +3577,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="65"/>
@@ -3510,7 +3587,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
@@ -3520,7 +3597,7 @@
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
       <c r="S25" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
@@ -3547,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="65"/>
@@ -3557,7 +3634,7 @@
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
@@ -3567,7 +3644,7 @@
       <c r="Q26" s="46"/>
       <c r="R26" s="46"/>
       <c r="S26" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T26" s="46"/>
       <c r="U26" s="46"/>
@@ -3594,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="65"/>
@@ -3604,7 +3681,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L27" s="46"/>
       <c r="M27" s="46"/>
@@ -3614,7 +3691,7 @@
       <c r="Q27" s="46"/>
       <c r="R27" s="46"/>
       <c r="S27" s="65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T27" s="46"/>
       <c r="U27" s="46"/>
@@ -3641,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="65"/>
@@ -3651,7 +3728,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
@@ -3661,7 +3738,7 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
       <c r="S28" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
@@ -3688,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="65"/>
@@ -3698,7 +3775,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
@@ -3708,7 +3785,7 @@
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="46"/>
@@ -3735,7 +3812,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="65"/>
@@ -3745,7 +3822,7 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
@@ -3755,7 +3832,7 @@
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="46"/>
@@ -3782,7 +3859,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="65"/>
@@ -3792,7 +3869,7 @@
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
@@ -3802,7 +3879,7 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="46"/>
@@ -3829,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="65"/>
@@ -3839,7 +3916,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="46"/>
@@ -3849,7 +3926,7 @@
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T32" s="46"/>
       <c r="U32" s="46"/>
@@ -3876,7 +3953,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="65"/>
@@ -3886,7 +3963,7 @@
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="46"/>
@@ -3896,7 +3973,7 @@
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
       <c r="S33" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T33" s="46"/>
       <c r="U33" s="46"/>
@@ -3923,7 +4000,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="65"/>
@@ -3933,7 +4010,7 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L34" s="46"/>
       <c r="M34" s="46"/>
@@ -3943,7 +4020,7 @@
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
       <c r="S34" s="65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="46"/>
@@ -3970,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="65"/>
@@ -3980,7 +4057,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
@@ -3990,7 +4067,7 @@
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
       <c r="S35" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="46"/>
@@ -4017,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="65"/>
@@ -4027,7 +4104,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L36" s="46"/>
       <c r="M36" s="46"/>
@@ -4037,7 +4114,7 @@
       <c r="Q36" s="46"/>
       <c r="R36" s="46"/>
       <c r="S36" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T36" s="46"/>
       <c r="U36" s="46"/>
@@ -4064,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="65"/>
@@ -4074,7 +4151,7 @@
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
@@ -4084,7 +4161,7 @@
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
       <c r="S37" s="65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
@@ -4154,10 +4231,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:DI65"/>
+  <dimension ref="A1:DI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AL65" sqref="AL65"/>
+      <selection activeCell="AL55" sqref="AL55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4203,15 +4280,15 @@
   <sheetData>
     <row r="1" spans="1:113" customHeight="1" ht="15.75">
       <c r="B1" s="126" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:113" customHeight="1" ht="15.75">
       <c r="B3" s="26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:113" customHeight="1" ht="15.75"/>
@@ -4223,83 +4300,83 @@
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
       <c r="L6" s="51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="70" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="71"/>
       <c r="T6" s="70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="72"/>
       <c r="W6" s="71"/>
       <c r="X6" s="71" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Y6" s="76" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="53" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="71"/>
       <c r="AB6" s="76" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AD6" s="78"/>
       <c r="AE6" s="78" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="71" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG6" s="53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AH6" s="72"/>
       <c r="AI6" s="82" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AJ6" s="83" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="84" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AL6" s="85" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:113" customHeight="1" ht="102" s="26" customFormat="1">
@@ -4307,10 +4384,10 @@
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
@@ -4318,7 +4395,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K7" s="57" t="s">
         <v>24</v>
@@ -4326,67 +4403,67 @@
       <c r="L7" s="58"/>
       <c r="M7" s="59"/>
       <c r="N7" s="60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="61" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S7" s="61" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T7" s="60" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="U7" s="60" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="V7" s="73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W7" s="61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X7" s="61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z7" s="79" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AA7" s="61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AB7" s="61" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC7" s="73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AD7" s="60" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AE7" s="61" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AF7" s="61" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AG7" s="86" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AH7" s="86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="87"/>
       <c r="AJ7" s="88"/>
@@ -4473,16 +4550,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G8" s="132"/>
       <c r="H8" s="129"/>
@@ -4491,7 +4568,7 @@
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
       <c r="M8" s="43" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N8" s="43">
         <v>0</v>
@@ -4568,16 +4645,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G9" s="105"/>
       <c r="H9" s="130"/>
@@ -4586,7 +4663,7 @@
       <c r="K9" s="65"/>
       <c r="L9" s="66"/>
       <c r="M9" s="46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N9" s="46">
         <v>0</v>
@@ -4595,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="46">
         <v>0</v>
       </c>
       <c r="R9" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="67">
         <v>0</v>
@@ -4652,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="94"/>
       <c r="AK9" s="95"/>
@@ -4663,13 +4740,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>132</v>
@@ -4681,22 +4758,22 @@
       <c r="K10" s="65"/>
       <c r="L10" s="66"/>
       <c r="M10" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" s="46">
         <v>0</v>
       </c>
       <c r="O10" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="46">
         <v>0</v>
       </c>
       <c r="R10" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="67">
         <v>0</v>
@@ -4747,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="94"/>
       <c r="AK10" s="95"/>
@@ -4758,16 +4835,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="130"/>
@@ -4776,7 +4853,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="66"/>
       <c r="M11" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N11" s="46">
         <v>0</v>
@@ -4785,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="46">
         <v>0</v>
@@ -4797,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="46">
         <v>0</v>
@@ -4842,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="94"/>
       <c r="AK11" s="95"/>
@@ -4853,16 +4930,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" s="105"/>
       <c r="H12" s="130"/>
@@ -4871,7 +4948,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="66"/>
       <c r="M12" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N12" s="46">
         <v>0</v>
@@ -4937,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="94"/>
       <c r="AK12" s="95"/>
@@ -4948,16 +5025,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="130"/>
@@ -4975,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="46">
         <v>0</v>
@@ -5032,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="94"/>
       <c r="AK13" s="95"/>
@@ -5043,16 +5120,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" s="105"/>
       <c r="H14" s="130"/>
@@ -5061,7 +5138,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="66"/>
       <c r="M14" s="46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N14" s="46">
         <v>0</v>
@@ -5070,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="46">
         <v>0</v>
@@ -5127,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="94"/>
       <c r="AK14" s="95"/>
@@ -5138,44 +5215,44 @@
         <v>8</v>
       </c>
       <c r="C15" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="46" t="s">
+      <c r="G15" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="I15" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="130" t="s">
+      <c r="J15" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="K15" s="65"/>
       <c r="L15" s="66">
         <v>40817</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N15" s="46">
         <v>0</v>
       </c>
       <c r="O15" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="46">
         <v>0</v>
@@ -5232,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="94"/>
       <c r="AK15" s="95"/>
@@ -5243,35 +5320,35 @@
         <v>9</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F16" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="130" t="s">
+      <c r="I16" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="K16" s="65"/>
       <c r="L16" s="66">
         <v>40817</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N16" s="46">
         <v>0</v>
@@ -5280,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="46">
         <v>0</v>
@@ -5292,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
@@ -5337,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="94"/>
       <c r="AK16" s="95"/>
@@ -5348,35 +5425,35 @@
         <v>10</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="K17" s="65"/>
       <c r="L17" s="66">
         <v>40817</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="N17" s="46">
         <v>0</v>
@@ -5385,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="46">
         <v>0</v>
@@ -5442,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="94"/>
       <c r="AK17" s="95"/>
@@ -5453,35 +5530,35 @@
         <v>11</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G18" s="133" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H18" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="66">
         <v>40817</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N18" s="46">
         <v>0</v>
@@ -5490,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="46">
         <v>0</v>
       </c>
       <c r="R18" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="67">
         <v>0</v>
@@ -5547,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="94"/>
       <c r="AK18" s="95"/>
@@ -5558,35 +5635,35 @@
         <v>12</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>135</v>
       </c>
       <c r="G19" s="133" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H19" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="I19" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="K19" s="65"/>
       <c r="L19" s="66">
         <v>40817</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N19" s="46">
         <v>0</v>
@@ -5595,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="46">
         <v>0</v>
@@ -5652,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="94"/>
       <c r="AK19" s="95"/>
@@ -5663,16 +5740,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="130"/>
@@ -5681,7 +5758,7 @@
       <c r="K20" s="65"/>
       <c r="L20" s="68"/>
       <c r="M20" s="46" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="N20" s="46">
         <v>0</v>
@@ -5690,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="46">
         <v>0</v>
@@ -5747,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="94"/>
       <c r="AK20" s="95"/>
@@ -5758,16 +5835,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G21" s="133"/>
       <c r="H21" s="130"/>
@@ -5776,7 +5853,7 @@
       <c r="K21" s="65"/>
       <c r="L21" s="68"/>
       <c r="M21" s="46" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="N21" s="46">
         <v>0</v>
@@ -5842,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="94"/>
       <c r="AK21" s="95"/>
@@ -5853,16 +5930,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G22" s="133"/>
       <c r="H22" s="130"/>
@@ -5871,7 +5948,7 @@
       <c r="K22" s="65"/>
       <c r="L22" s="68"/>
       <c r="M22" s="46" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="N22" s="46">
         <v>0</v>
@@ -5880,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="46">
         <v>0</v>
       </c>
       <c r="R22" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="67">
         <v>0</v>
@@ -5937,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="94"/>
       <c r="AK22" s="95"/>
@@ -5948,13 +6025,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>144</v>
@@ -5966,7 +6043,7 @@
       <c r="K23" s="65"/>
       <c r="L23" s="68"/>
       <c r="M23" s="46" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N23" s="46">
         <v>0</v>
@@ -5975,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="46">
         <v>0</v>
       </c>
       <c r="R23" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="67">
         <v>1</v>
@@ -6032,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="94"/>
       <c r="AK23" s="95"/>
@@ -6043,16 +6120,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
@@ -6061,7 +6138,7 @@
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
       <c r="M24" s="46" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N24" s="46">
         <v>0</v>
@@ -6070,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="46">
         <v>0</v>
       </c>
       <c r="R24" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="67">
         <v>0</v>
@@ -6127,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="94"/>
       <c r="AK24" s="95"/>
@@ -6138,16 +6215,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
@@ -6156,7 +6233,7 @@
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
       <c r="M25" s="46" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N25" s="46">
         <v>0</v>
@@ -6165,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="46">
         <v>0</v>
@@ -6222,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="94"/>
       <c r="AK25" s="95"/>
@@ -6233,16 +6310,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
@@ -6251,7 +6328,7 @@
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
       <c r="M26" s="46" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="N26" s="46">
         <v>0</v>
@@ -6260,13 +6337,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="46">
         <v>0</v>
       </c>
       <c r="R26" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="67">
         <v>0</v>
@@ -6317,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="94"/>
       <c r="AK26" s="95"/>
@@ -6328,16 +6405,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
@@ -6346,13 +6423,13 @@
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
       <c r="M27" s="46" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N27" s="46">
         <v>0</v>
       </c>
       <c r="O27" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="67">
         <v>0</v>
@@ -6361,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="46">
         <v>0</v>
@@ -6412,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="94"/>
       <c r="AK27" s="95"/>
@@ -6423,16 +6500,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
@@ -6441,22 +6518,22 @@
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
       <c r="M28" s="46" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N28" s="46">
         <v>0</v>
       </c>
       <c r="O28" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="46">
         <v>0</v>
       </c>
       <c r="R28" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="67">
         <v>0</v>
@@ -6507,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="94"/>
       <c r="AK28" s="95"/>
@@ -6518,16 +6595,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
@@ -6536,31 +6613,31 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
       <c r="M29" s="46" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="N29" s="46">
         <v>0</v>
       </c>
       <c r="O29" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="46">
         <v>0</v>
       </c>
       <c r="R29" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="75">
         <v>0</v>
@@ -6602,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="94"/>
       <c r="AK29" s="95"/>
@@ -6613,16 +6690,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
@@ -6631,16 +6708,16 @@
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
       <c r="M30" s="46" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="N30" s="46">
         <v>0</v>
       </c>
       <c r="O30" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="46">
         <v>0</v>
@@ -6697,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="94"/>
       <c r="AK30" s="95"/>
@@ -6708,16 +6785,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
@@ -6726,13 +6803,13 @@
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
       <c r="M31" s="46" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="N31" s="46">
         <v>0</v>
       </c>
       <c r="O31" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="67">
         <v>0</v>
@@ -6741,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="67">
         <v>0</v>
@@ -6792,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="94"/>
       <c r="AK31" s="95"/>
@@ -6803,16 +6880,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
@@ -6821,16 +6898,16 @@
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
       <c r="M32" s="46" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="N32" s="46">
         <v>0</v>
       </c>
       <c r="O32" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="46">
         <v>0</v>
@@ -6887,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="94"/>
       <c r="AK32" s="95"/>
@@ -6898,16 +6975,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G33" s="69"/>
       <c r="H33" s="69"/>
@@ -6916,13 +6993,13 @@
       <c r="K33" s="69"/>
       <c r="L33" s="69"/>
       <c r="M33" s="46" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="N33" s="46">
         <v>0</v>
       </c>
       <c r="O33" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="67">
         <v>0</v>
@@ -6931,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="R33" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="46">
         <v>0</v>
@@ -6982,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="94"/>
       <c r="AK33" s="95"/>
@@ -6993,16 +7070,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
@@ -7011,13 +7088,13 @@
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
       <c r="M34" s="46" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="N34" s="46">
         <v>0</v>
       </c>
       <c r="O34" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="67">
         <v>0</v>
@@ -7026,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="67">
         <v>0</v>
@@ -7077,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="94"/>
       <c r="AK34" s="95"/>
@@ -7088,16 +7165,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
@@ -7106,7 +7183,7 @@
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
       <c r="M35" s="46" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="N35" s="46">
         <v>0</v>
@@ -7115,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="46">
         <v>0</v>
@@ -7172,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="94"/>
       <c r="AK35" s="95"/>
@@ -7183,16 +7260,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -7201,16 +7278,16 @@
       <c r="K36" s="69"/>
       <c r="L36" s="69"/>
       <c r="M36" s="46" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="N36" s="46">
         <v>0</v>
       </c>
       <c r="O36" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="46">
         <v>0</v>
@@ -7249,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="46">
         <v>0</v>
@@ -7267,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="94"/>
       <c r="AK36" s="95"/>
@@ -7278,16 +7355,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
@@ -7296,7 +7373,7 @@
       <c r="K37" s="69"/>
       <c r="L37" s="69"/>
       <c r="M37" s="46" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="N37" s="46">
         <v>0</v>
@@ -7305,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="46">
         <v>0</v>
       </c>
       <c r="R37" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="67">
         <v>0</v>
@@ -7362,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="94"/>
       <c r="AK37" s="95"/>
@@ -7373,19 +7450,19 @@
         <v>31</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N38" s="26">
         <v>0</v>
@@ -7394,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="26">
         <v>0</v>
@@ -7436,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="26">
         <v>0</v>
@@ -7451,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="26"/>
     </row>
@@ -7460,19 +7537,19 @@
         <v>32</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="N39" s="26">
         <v>0</v>
@@ -7481,16 +7558,16 @@
         <v>0</v>
       </c>
       <c r="P39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="26">
         <v>0</v>
       </c>
       <c r="R39" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="26">
         <v>0</v>
@@ -7520,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="26">
         <v>0</v>
@@ -7538,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="26"/>
     </row>
@@ -7547,25 +7624,25 @@
         <v>33</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="N40" s="26">
         <v>0</v>
       </c>
       <c r="O40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="26">
         <v>0</v>
@@ -7574,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="26">
         <v>0</v>
@@ -7625,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="26"/>
     </row>
@@ -7634,34 +7711,34 @@
         <v>34</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="N41" s="26">
         <v>0</v>
       </c>
       <c r="O41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="26">
         <v>0</v>
       </c>
       <c r="R41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="26">
         <v>0</v>
@@ -7703,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="26">
         <v>0</v>
@@ -7712,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="26"/>
     </row>
@@ -7721,37 +7798,37 @@
         <v>35</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="N42" s="26">
         <v>0</v>
       </c>
       <c r="O42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="26">
         <v>0</v>
       </c>
       <c r="R42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="26">
         <v>0</v>
@@ -7799,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="26"/>
     </row>
@@ -7808,28 +7885,28 @@
         <v>36</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="N43" s="26">
         <v>0</v>
       </c>
       <c r="O43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="26">
         <v>0</v>
@@ -7886,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="26"/>
     </row>
@@ -7895,19 +7972,19 @@
         <v>37</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N44" s="26">
         <v>0</v>
@@ -7916,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="26">
         <v>0</v>
       </c>
       <c r="R44" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="26">
         <v>0</v>
@@ -7973,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="26"/>
     </row>
@@ -7982,19 +8059,19 @@
         <v>38</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="N45" s="26">
         <v>0</v>
@@ -8003,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="26">
         <v>0</v>
@@ -8012,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="26">
         <v>0</v>
@@ -8060,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="26"/>
     </row>
@@ -8069,19 +8146,19 @@
         <v>39</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="N46" s="26">
         <v>0</v>
@@ -8090,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="26">
         <v>0</v>
@@ -8147,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="26"/>
     </row>
@@ -8156,19 +8233,19 @@
         <v>40</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="N47" s="26">
         <v>0</v>
@@ -8177,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="26">
         <v>0</v>
@@ -8186,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="26">
         <v>0</v>
@@ -8234,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="26"/>
     </row>
@@ -8243,37 +8320,37 @@
         <v>41</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="N48" s="26">
         <v>0</v>
       </c>
       <c r="O48" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="26">
         <v>0</v>
       </c>
       <c r="R48" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="26">
         <v>0</v>
@@ -8321,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="26"/>
     </row>
@@ -8330,19 +8407,19 @@
         <v>42</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="N49" s="26">
         <v>0</v>
@@ -8351,16 +8428,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="26">
         <v>0</v>
       </c>
       <c r="R49" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="26">
         <v>0</v>
@@ -8408,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="26"/>
     </row>
@@ -8417,19 +8494,19 @@
         <v>43</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="N50" s="26">
         <v>0</v>
@@ -8438,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="26">
         <v>0</v>
@@ -8447,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="26">
         <v>0</v>
@@ -8495,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="26"/>
     </row>
@@ -8504,25 +8581,25 @@
         <v>44</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="N51" s="26">
         <v>0</v>
       </c>
       <c r="O51" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="26">
         <v>0</v>
@@ -8531,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="26">
         <v>0</v>
@@ -8582,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="26"/>
     </row>
@@ -8591,19 +8668,19 @@
         <v>45</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="N52" s="26">
         <v>0</v>
@@ -8612,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="26">
         <v>0</v>
@@ -8669,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="26"/>
     </row>
@@ -8678,19 +8755,19 @@
         <v>46</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="N53" s="26">
         <v>0</v>
@@ -8756,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="26"/>
     </row>
@@ -8765,19 +8842,19 @@
         <v>47</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="N54" s="26">
         <v>0</v>
@@ -8786,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="26">
         <v>0</v>
@@ -8843,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="26"/>
     </row>
@@ -8852,28 +8929,28 @@
         <v>48</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="N55" s="26">
         <v>0</v>
       </c>
       <c r="O55" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="26">
         <v>0</v>
@@ -8930,879 +9007,9 @@
         <v>0</v>
       </c>
       <c r="AI55" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL55" s="26"/>
-    </row>
-    <row r="56" spans="1:113">
-      <c r="B56" s="26">
-        <v>49</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="M56" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="N56" s="26">
-        <v>0</v>
-      </c>
-      <c r="O56" s="26">
-        <v>0</v>
-      </c>
-      <c r="P56" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="26">
-        <v>0</v>
-      </c>
-      <c r="R56" s="26">
-        <v>1</v>
-      </c>
-      <c r="S56" s="26">
-        <v>0</v>
-      </c>
-      <c r="T56" s="26">
-        <v>0</v>
-      </c>
-      <c r="U56" s="26">
-        <v>0</v>
-      </c>
-      <c r="V56" s="26">
-        <v>0</v>
-      </c>
-      <c r="W56" s="26">
-        <v>0</v>
-      </c>
-      <c r="X56" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL56" s="26"/>
-    </row>
-    <row r="57" spans="1:113">
-      <c r="B57" s="26">
-        <v>50</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M57" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="N57" s="26">
-        <v>0</v>
-      </c>
-      <c r="O57" s="26">
-        <v>1</v>
-      </c>
-      <c r="P57" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="26">
-        <v>0</v>
-      </c>
-      <c r="R57" s="26">
-        <v>0</v>
-      </c>
-      <c r="S57" s="26">
-        <v>0</v>
-      </c>
-      <c r="T57" s="26">
-        <v>0</v>
-      </c>
-      <c r="U57" s="26">
-        <v>0</v>
-      </c>
-      <c r="V57" s="26">
-        <v>0</v>
-      </c>
-      <c r="W57" s="26">
-        <v>0</v>
-      </c>
-      <c r="X57" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL57" s="26"/>
-    </row>
-    <row r="58" spans="1:113">
-      <c r="B58" s="26">
-        <v>51</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="M58" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N58" s="26">
-        <v>0</v>
-      </c>
-      <c r="O58" s="26">
-        <v>0</v>
-      </c>
-      <c r="P58" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="26">
-        <v>0</v>
-      </c>
-      <c r="R58" s="26">
-        <v>1</v>
-      </c>
-      <c r="S58" s="26">
-        <v>0</v>
-      </c>
-      <c r="T58" s="26">
-        <v>0</v>
-      </c>
-      <c r="U58" s="26">
-        <v>0</v>
-      </c>
-      <c r="V58" s="26">
-        <v>0</v>
-      </c>
-      <c r="W58" s="26">
-        <v>0</v>
-      </c>
-      <c r="X58" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL58" s="26"/>
-    </row>
-    <row r="59" spans="1:113">
-      <c r="B59" s="26">
-        <v>52</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="M59" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="N59" s="26">
-        <v>0</v>
-      </c>
-      <c r="O59" s="26">
-        <v>0</v>
-      </c>
-      <c r="P59" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="26">
-        <v>0</v>
-      </c>
-      <c r="R59" s="26">
-        <v>1</v>
-      </c>
-      <c r="S59" s="26">
-        <v>0</v>
-      </c>
-      <c r="T59" s="26">
-        <v>0</v>
-      </c>
-      <c r="U59" s="26">
-        <v>0</v>
-      </c>
-      <c r="V59" s="26">
-        <v>0</v>
-      </c>
-      <c r="W59" s="26">
-        <v>0</v>
-      </c>
-      <c r="X59" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL59" s="26"/>
-    </row>
-    <row r="60" spans="1:113">
-      <c r="B60" s="26">
-        <v>53</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M60" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N60" s="26">
-        <v>0</v>
-      </c>
-      <c r="O60" s="26">
-        <v>0</v>
-      </c>
-      <c r="P60" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="26">
-        <v>0</v>
-      </c>
-      <c r="R60" s="26">
-        <v>1</v>
-      </c>
-      <c r="S60" s="26">
-        <v>0</v>
-      </c>
-      <c r="T60" s="26">
-        <v>0</v>
-      </c>
-      <c r="U60" s="26">
-        <v>0</v>
-      </c>
-      <c r="V60" s="26">
-        <v>0</v>
-      </c>
-      <c r="W60" s="26">
-        <v>0</v>
-      </c>
-      <c r="X60" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL60" s="26"/>
-    </row>
-    <row r="61" spans="1:113">
-      <c r="B61" s="26">
-        <v>54</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M61" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="N61" s="26">
-        <v>0</v>
-      </c>
-      <c r="O61" s="26">
-        <v>0</v>
-      </c>
-      <c r="P61" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="26">
-        <v>0</v>
-      </c>
-      <c r="R61" s="26">
-        <v>0</v>
-      </c>
-      <c r="S61" s="26">
-        <v>0</v>
-      </c>
-      <c r="T61" s="26">
-        <v>0</v>
-      </c>
-      <c r="U61" s="26">
-        <v>0</v>
-      </c>
-      <c r="V61" s="26">
-        <v>0</v>
-      </c>
-      <c r="W61" s="26">
-        <v>0</v>
-      </c>
-      <c r="X61" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL61" s="26"/>
-    </row>
-    <row r="62" spans="1:113">
-      <c r="B62" s="26">
-        <v>55</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M62" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="N62" s="26">
-        <v>0</v>
-      </c>
-      <c r="O62" s="26">
-        <v>0</v>
-      </c>
-      <c r="P62" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="26">
-        <v>0</v>
-      </c>
-      <c r="R62" s="26">
-        <v>0</v>
-      </c>
-      <c r="S62" s="26">
-        <v>0</v>
-      </c>
-      <c r="T62" s="26">
-        <v>0</v>
-      </c>
-      <c r="U62" s="26">
-        <v>0</v>
-      </c>
-      <c r="V62" s="26">
-        <v>0</v>
-      </c>
-      <c r="W62" s="26">
-        <v>0</v>
-      </c>
-      <c r="X62" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL62" s="26"/>
-    </row>
-    <row r="63" spans="1:113">
-      <c r="B63" s="26">
-        <v>56</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="M63" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="N63" s="26">
-        <v>0</v>
-      </c>
-      <c r="O63" s="26">
-        <v>0</v>
-      </c>
-      <c r="P63" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="26">
-        <v>0</v>
-      </c>
-      <c r="R63" s="26">
-        <v>1</v>
-      </c>
-      <c r="S63" s="26">
-        <v>0</v>
-      </c>
-      <c r="T63" s="26">
-        <v>0</v>
-      </c>
-      <c r="U63" s="26">
-        <v>0</v>
-      </c>
-      <c r="V63" s="26">
-        <v>0</v>
-      </c>
-      <c r="W63" s="26">
-        <v>0</v>
-      </c>
-      <c r="X63" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL63" s="26"/>
-    </row>
-    <row r="64" spans="1:113">
-      <c r="B64" s="26">
-        <v>57</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="M64" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="N64" s="26">
-        <v>0</v>
-      </c>
-      <c r="O64" s="26">
-        <v>0</v>
-      </c>
-      <c r="P64" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="26">
-        <v>0</v>
-      </c>
-      <c r="R64" s="26">
-        <v>1</v>
-      </c>
-      <c r="S64" s="26">
-        <v>0</v>
-      </c>
-      <c r="T64" s="26">
-        <v>0</v>
-      </c>
-      <c r="U64" s="26">
-        <v>0</v>
-      </c>
-      <c r="V64" s="26">
-        <v>0</v>
-      </c>
-      <c r="W64" s="26">
-        <v>0</v>
-      </c>
-      <c r="X64" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="26">
-        <v>4</v>
-      </c>
-      <c r="AL64" s="26"/>
-    </row>
-    <row r="65" spans="1:113">
-      <c r="B65" s="26">
-        <v>58</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="M65" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="N65" s="26">
-        <v>0</v>
-      </c>
-      <c r="O65" s="26">
-        <v>0</v>
-      </c>
-      <c r="P65" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="26">
-        <v>0</v>
-      </c>
-      <c r="R65" s="26">
-        <v>1</v>
-      </c>
-      <c r="S65" s="26">
-        <v>0</v>
-      </c>
-      <c r="T65" s="26">
-        <v>0</v>
-      </c>
-      <c r="U65" s="26">
-        <v>0</v>
-      </c>
-      <c r="V65" s="26">
-        <v>0</v>
-      </c>
-      <c r="W65" s="26">
-        <v>0</v>
-      </c>
-      <c r="X65" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="26">
-        <v>3</v>
-      </c>
-      <c r="AL65" s="26"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9965,28 +9172,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="22" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="4" t="s">
@@ -9997,38 +9204,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="12" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="O10" s="25"/>
     </row>
@@ -10037,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -10047,7 +9254,9 @@
       <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
       <c r="H11" s="15">
         <v>0</v>
       </c>
@@ -10061,9 +9270,7 @@
       <c r="L11" s="15">
         <v>5.5</v>
       </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
+      <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
@@ -10072,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -10098,9 +9305,7 @@
       <c r="L12" s="18">
         <v>5.5</v>
       </c>
-      <c r="M12" s="18">
-        <v>1</v>
-      </c>
+      <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
@@ -10109,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -10135,9 +9340,7 @@
       <c r="L13" s="18">
         <v>5.5</v>
       </c>
-      <c r="M13" s="18">
-        <v>1</v>
-      </c>
+      <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
@@ -10146,15 +9349,15 @@
         <v>4</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18">
         <v>0</v>
@@ -10170,12 +9373,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="18">
-        <v>4.0</v>
+        <v>4.8</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="18">
-        <v>1</v>
-      </c>
+      <c r="N14" s="18"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10183,12 +9384,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -10206,12 +9407,10 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="18">
-        <v>1</v>
-      </c>
+      <c r="L15" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
@@ -10220,7 +9419,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -10246,9 +9445,7 @@
       <c r="L16" s="18">
         <v>5.5</v>
       </c>
-      <c r="M16" s="18">
-        <v>1</v>
-      </c>
+      <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
@@ -10257,15 +9454,15 @@
         <v>7</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="18">
         <v>0</v>
@@ -10283,9 +9480,7 @@
       <c r="L17" s="18">
         <v>5.5</v>
       </c>
-      <c r="M17" s="18">
-        <v>1</v>
-      </c>
+      <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
@@ -10294,7 +9489,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -10320,9 +9515,7 @@
       <c r="L18" s="18">
         <v>5.5</v>
       </c>
-      <c r="M18" s="18">
-        <v>1</v>
-      </c>
+      <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
@@ -10331,12 +9524,12 @@
         <v>9</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
@@ -10357,9 +9550,7 @@
       <c r="L19" s="18">
         <v>5.5</v>
       </c>
-      <c r="M19" s="18">
-        <v>1</v>
-      </c>
+      <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
@@ -10368,12 +9559,12 @@
         <v>10</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -10394,9 +9585,7 @@
       <c r="L20" s="18">
         <v>5.5</v>
       </c>
-      <c r="M20" s="18">
-        <v>1</v>
-      </c>
+      <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
     </row>
@@ -10405,7 +9594,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -10431,9 +9620,7 @@
       <c r="L21" s="18">
         <v>5.5</v>
       </c>
-      <c r="M21" s="18">
-        <v>1</v>
-      </c>
+      <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
@@ -10442,7 +9629,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -10468,9 +9655,7 @@
       <c r="L22" s="18">
         <v>5.5</v>
       </c>
-      <c r="M22" s="18">
-        <v>1</v>
-      </c>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
@@ -10479,15 +9664,15 @@
         <v>13</v>
       </c>
       <c r="B23" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="18">
         <v>0</v>
@@ -10505,9 +9690,7 @@
       <c r="L23" s="18">
         <v>5.5</v>
       </c>
-      <c r="M23" s="18">
-        <v>1</v>
-      </c>
+      <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
@@ -10516,7 +9699,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -10524,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="18">
         <v>0</v>
@@ -10553,7 +9736,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -10561,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
@@ -10577,11 +9760,9 @@
         <v>0</v>
       </c>
       <c r="L25" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>1</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
@@ -10590,15 +9771,15 @@
         <v>16</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="18">
         <v>0</v>
@@ -10614,12 +9795,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" s="18"/>
-      <c r="N26" s="18">
-        <v>1</v>
-      </c>
+      <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10627,7 +9806,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -10653,9 +9832,7 @@
       <c r="L27" s="18">
         <v>5.5</v>
       </c>
-      <c r="M27" s="18">
-        <v>1</v>
-      </c>
+      <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
@@ -10664,12 +9841,12 @@
         <v>18</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
@@ -10688,11 +9865,9 @@
         <v>0</v>
       </c>
       <c r="L28" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>1</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
@@ -10701,7 +9876,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -10709,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18">
         <v>0</v>
@@ -10727,9 +9902,7 @@
       <c r="L29" s="18">
         <v>5.5</v>
       </c>
-      <c r="M29" s="18">
-        <v>1</v>
-      </c>
+      <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
@@ -10738,7 +9911,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -10762,12 +9935,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M30" s="18"/>
-      <c r="N30" s="18">
-        <v>1</v>
-      </c>
+      <c r="N30" s="18"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10775,7 +9946,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -10801,9 +9972,7 @@
       <c r="L31" s="18">
         <v>5.5</v>
       </c>
-      <c r="M31" s="18">
-        <v>1</v>
-      </c>
+      <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
     </row>
@@ -10812,12 +9981,12 @@
         <v>22</v>
       </c>
       <c r="B32" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="18">
         <v>1</v>
@@ -10836,12 +10005,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M32" s="18"/>
-      <c r="N32" s="18">
-        <v>1</v>
-      </c>
+      <c r="N32" s="18"/>
       <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10849,7 +10016,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -10857,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="18">
         <v>0</v>
@@ -10875,9 +10042,7 @@
       <c r="L33" s="18">
         <v>5.5</v>
       </c>
-      <c r="M33" s="18">
-        <v>1</v>
-      </c>
+      <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
@@ -10886,12 +10051,12 @@
         <v>24</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
@@ -10912,9 +10077,7 @@
       <c r="L34" s="18">
         <v>5.5</v>
       </c>
-      <c r="M34" s="18">
-        <v>1</v>
-      </c>
+      <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
@@ -10923,12 +10086,12 @@
         <v>25</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
@@ -10947,11 +10110,9 @@
         <v>0</v>
       </c>
       <c r="L35" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>1</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
@@ -10960,7 +10121,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -10984,12 +10145,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="18">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36" s="18"/>
-      <c r="N36" s="18">
-        <v>1</v>
-      </c>
+      <c r="N36" s="18"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -10997,7 +10156,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -11005,10 +10164,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="18">
         <v>0</v>
@@ -11018,14 +10177,12 @@
         <v>0</v>
       </c>
       <c r="K37" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="18">
         <v>5.5</v>
       </c>
-      <c r="M37" s="18">
-        <v>1</v>
-      </c>
+      <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
@@ -11034,12 +10191,12 @@
         <v>28</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="18">
         <v>1</v>
@@ -11060,9 +10217,7 @@
       <c r="L38" s="18">
         <v>5.5</v>
       </c>
-      <c r="M38" s="18">
-        <v>1</v>
-      </c>
+      <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
@@ -11071,12 +10226,12 @@
         <v>29</v>
       </c>
       <c r="B39" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="18">
         <v>1</v>
@@ -11097,9 +10252,7 @@
       <c r="L39" s="18">
         <v>5.5</v>
       </c>
-      <c r="M39" s="18">
-        <v>1</v>
-      </c>
+      <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
@@ -11108,15 +10261,15 @@
         <v>30</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="18">
         <v>0</v>
@@ -11134,9 +10287,7 @@
       <c r="L40" s="18">
         <v>5.5</v>
       </c>
-      <c r="M40" s="18">
-        <v>1</v>
-      </c>
+      <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
@@ -11145,15 +10296,15 @@
         <v>31</v>
       </c>
       <c r="B41" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="18">
         <v>0</v>
@@ -11171,9 +10322,7 @@
       <c r="L41" s="18">
         <v>5.5</v>
       </c>
-      <c r="M41" s="18">
-        <v>1</v>
-      </c>
+      <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
     </row>
@@ -11182,15 +10331,15 @@
         <v>32</v>
       </c>
       <c r="B42" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="18">
         <v>0</v>
@@ -11205,12 +10354,10 @@
       <c r="K42" s="18">
         <v>0</v>
       </c>
-      <c r="L42" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M42" s="18">
-        <v>1</v>
-      </c>
+      <c r="L42" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
     </row>
@@ -11219,7 +10366,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -11245,9 +10392,7 @@
       <c r="L43" s="18">
         <v>5.5</v>
       </c>
-      <c r="M43" s="18">
-        <v>1</v>
-      </c>
+      <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
@@ -11256,7 +10401,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -11280,11 +10425,9 @@
         <v>0</v>
       </c>
       <c r="L44" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M44" s="18">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
@@ -11293,12 +10436,12 @@
         <v>35</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="18">
         <v>1</v>
@@ -11317,12 +10460,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M45" s="18"/>
-      <c r="N45" s="18">
-        <v>1</v>
-      </c>
+      <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11330,7 +10471,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -11354,12 +10495,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="18">
-        <v>5.0</v>
+        <v>5.5</v>
       </c>
       <c r="M46" s="18"/>
-      <c r="N46" s="18">
-        <v>1</v>
-      </c>
+      <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11367,7 +10506,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -11390,12 +10529,8 @@
       <c r="K47" s="18">
         <v>0</v>
       </c>
-      <c r="L47" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M47" s="18">
-        <v>1</v>
-      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
@@ -11404,12 +10539,12 @@
         <v>38</v>
       </c>
       <c r="B48" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="18">
         <v>1</v>
@@ -11427,13 +10562,11 @@
       <c r="K48" s="18">
         <v>0</v>
       </c>
-      <c r="L48" s="18">
-        <v>5.0</v>
+      <c r="L48" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="M48" s="18"/>
-      <c r="N48" s="18">
-        <v>1</v>
-      </c>
+      <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11441,7 +10574,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -11467,9 +10600,7 @@
       <c r="L49" s="18">
         <v>5.5</v>
       </c>
-      <c r="M49" s="18">
-        <v>1</v>
-      </c>
+      <c r="M49" s="18"/>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
@@ -11478,7 +10609,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -11502,12 +10633,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M50" s="18"/>
-      <c r="N50" s="18">
-        <v>1</v>
-      </c>
+      <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11515,7 +10644,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -11539,12 +10668,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="18">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M51" s="18"/>
-      <c r="N51" s="18">
-        <v>1</v>
-      </c>
+      <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11552,7 +10679,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -11560,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="18">
         <v>0</v>
@@ -11576,12 +10703,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="18">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M52" s="18"/>
-      <c r="N52" s="18">
-        <v>1</v>
-      </c>
+      <c r="N52" s="18"/>
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11589,7 +10714,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -11612,13 +10737,9 @@
       <c r="K53" s="18">
         <v>0</v>
       </c>
-      <c r="L53" s="18">
-        <v>5.0</v>
-      </c>
+      <c r="L53" s="18"/>
       <c r="M53" s="18"/>
-      <c r="N53" s="18">
-        <v>1</v>
-      </c>
+      <c r="N53" s="18"/>
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
@@ -11626,7 +10747,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -11652,9 +10773,7 @@
       <c r="L54" s="18">
         <v>5.5</v>
       </c>
-      <c r="M54" s="18">
-        <v>1</v>
-      </c>
+      <c r="M54" s="18"/>
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
@@ -11663,7 +10782,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -11689,9 +10808,7 @@
       <c r="L55" s="18">
         <v>5.5</v>
       </c>
-      <c r="M55" s="18">
-        <v>1</v>
-      </c>
+      <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
     </row>
@@ -11700,7 +10817,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -11726,9 +10843,7 @@
       <c r="L56" s="18">
         <v>5.5</v>
       </c>
-      <c r="M56" s="18">
-        <v>1</v>
-      </c>
+      <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
     </row>
@@ -11737,15 +10852,15 @@
         <v>47</v>
       </c>
       <c r="B57" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="18">
         <v>0</v>
@@ -11763,9 +10878,7 @@
       <c r="L57" s="18">
         <v>5.5</v>
       </c>
-      <c r="M57" s="18">
-        <v>1</v>
-      </c>
+      <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
     </row>
@@ -11774,12 +10887,12 @@
         <v>48</v>
       </c>
       <c r="B58" s="137" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="18">
         <v>1</v>
@@ -11798,11 +10911,9 @@
         <v>0</v>
       </c>
       <c r="L58" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M58" s="18">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
@@ -11810,36 +10921,18 @@
       <c r="A59" s="18">
         <v>49</v>
       </c>
-      <c r="B59" s="137" t="s">
-        <v>212</v>
-      </c>
+      <c r="B59" s="137"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="18">
-        <v>0</v>
-      </c>
-      <c r="F59" s="18">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18">
-        <v>0</v>
-      </c>
-      <c r="H59" s="18">
-        <v>0</v>
-      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="18"/>
-      <c r="J59" s="18">
-        <v>0</v>
-      </c>
-      <c r="K59" s="18">
-        <v>0</v>
-      </c>
-      <c r="L59" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M59" s="18">
-        <v>1</v>
-      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
@@ -11847,318 +10940,140 @@
       <c r="A60" s="18">
         <v>50</v>
       </c>
-      <c r="B60" s="137" t="s">
-        <v>212</v>
-      </c>
+      <c r="B60" s="137"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="18">
-        <v>0</v>
-      </c>
-      <c r="F60" s="18">
-        <v>1</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
-      <c r="H60" s="18">
-        <v>0</v>
-      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="18"/>
-      <c r="J60" s="18">
-        <v>0</v>
-      </c>
-      <c r="K60" s="18">
-        <v>0</v>
-      </c>
-      <c r="L60" s="18">
-        <v>5.5</v>
-      </c>
-      <c r="M60" s="18">
-        <v>1</v>
-      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A61" s="135">
-        <v>51</v>
-      </c>
-      <c r="B61" s="135" t="s">
-        <v>212</v>
-      </c>
+      <c r="A61" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="135"/>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
-      <c r="E61" s="135">
-        <v>1</v>
-      </c>
-      <c r="F61" s="135">
-        <v>1</v>
-      </c>
-      <c r="G61" s="135">
-        <v>0</v>
-      </c>
-      <c r="H61" s="135">
-        <v>0</v>
-      </c>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
       <c r="I61" s="135"/>
-      <c r="J61" s="135">
-        <v>0</v>
-      </c>
-      <c r="K61" s="135">
-        <v>0</v>
-      </c>
-      <c r="L61" s="135">
-        <v>5.5</v>
-      </c>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
       <c r="M61" s="18">
-        <v>1</v>
-      </c>
-      <c r="N61" s="18"/>
+        <f>COUNTIF(M11:M60,"/")</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="18">
+        <f>COUNTIF(N11:N60,"/")</f>
+        <v>0</v>
+      </c>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A62" s="1">
-        <v>52</v>
-      </c>
-      <c r="B62" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
+      <c r="B62" s="138"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A63" s="1">
-        <v>53</v>
-      </c>
-      <c r="B63" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="136">
-        <v>0</v>
-      </c>
-      <c r="H63" s="136">
-        <v>0</v>
-      </c>
+      <c r="B63" s="138"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
       <c r="I63" s="136"/>
-      <c r="J63" s="136">
-        <v>0</v>
-      </c>
-      <c r="K63" s="136">
-        <v>0</v>
-      </c>
-      <c r="L63" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M63" s="136">
-        <v>1</v>
-      </c>
+      <c r="J63" s="136"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="136"/>
       <c r="N63" s="136"/>
       <c r="O63" s="136"/>
     </row>
     <row r="64" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A64" s="1">
-        <v>54</v>
-      </c>
-      <c r="B64" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="136">
-        <v>0</v>
-      </c>
-      <c r="H64" s="136">
-        <v>0</v>
-      </c>
+      <c r="B64" s="138"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
       <c r="I64" s="136"/>
-      <c r="J64" s="136">
-        <v>0</v>
-      </c>
-      <c r="K64" s="136">
-        <v>0</v>
-      </c>
-      <c r="L64" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M64" s="136">
-        <v>1</v>
-      </c>
+      <c r="J64" s="136"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
       <c r="N64" s="136"/>
       <c r="O64" s="136"/>
     </row>
     <row r="65" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A65" s="1">
-        <v>55</v>
-      </c>
-      <c r="B65" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="136">
-        <v>0</v>
-      </c>
-      <c r="H65" s="136">
-        <v>0</v>
-      </c>
+      <c r="B65" s="138"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
       <c r="I65" s="136"/>
-      <c r="J65" s="136">
-        <v>0</v>
-      </c>
-      <c r="K65" s="136">
-        <v>0</v>
-      </c>
-      <c r="L65" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M65" s="136">
-        <v>1</v>
-      </c>
+      <c r="J65" s="136"/>
+      <c r="K65" s="136"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
       <c r="N65" s="136"/>
       <c r="O65" s="136"/>
     </row>
     <row r="66" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A66" s="1">
-        <v>56</v>
-      </c>
-      <c r="B66" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="136">
-        <v>0</v>
-      </c>
-      <c r="H66" s="136">
-        <v>0</v>
-      </c>
+      <c r="B66" s="138"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
       <c r="I66" s="136"/>
-      <c r="J66" s="136">
-        <v>0</v>
-      </c>
-      <c r="K66" s="136">
-        <v>0</v>
-      </c>
-      <c r="L66" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M66" s="136">
-        <v>1</v>
-      </c>
+      <c r="J66" s="136"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="136"/>
       <c r="N66" s="136"/>
       <c r="O66" s="136"/>
     </row>
     <row r="67" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A67" s="1">
-        <v>57</v>
-      </c>
-      <c r="B67" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="136">
-        <v>0</v>
-      </c>
-      <c r="H67" s="136">
-        <v>0</v>
-      </c>
+      <c r="B67" s="138"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="136"/>
       <c r="I67" s="136"/>
-      <c r="J67" s="136">
-        <v>0</v>
-      </c>
-      <c r="K67" s="136">
-        <v>0</v>
-      </c>
-      <c r="L67" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M67" s="136">
-        <v>1</v>
-      </c>
+      <c r="J67" s="136"/>
+      <c r="K67" s="136"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="136"/>
       <c r="N67" s="136"/>
       <c r="O67" s="136"/>
     </row>
     <row r="68" spans="1:15" customHeight="1" ht="15.75" s="1" customFormat="1">
-      <c r="A68" s="1">
-        <v>58</v>
-      </c>
-      <c r="B68" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="136">
-        <v>0</v>
-      </c>
-      <c r="H68" s="136">
-        <v>0</v>
-      </c>
+      <c r="B68" s="138"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
       <c r="I68" s="136"/>
-      <c r="J68" s="136">
-        <v>0</v>
-      </c>
-      <c r="K68" s="136">
-        <v>0</v>
-      </c>
-      <c r="L68" s="136">
-        <v>5.5</v>
-      </c>
-      <c r="M68" s="136">
-        <v>1</v>
-      </c>
+      <c r="J68" s="136"/>
+      <c r="K68" s="136"/>
+      <c r="L68" s="136"/>
+      <c r="M68" s="136"/>
       <c r="N68" s="136"/>
       <c r="O68" s="136"/>
     </row>
